--- a/HT-6/Optica Modelo Financiero.xlsx
+++ b/HT-6/Optica Modelo Financiero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35EF922B-5303-6841-9E22-ED3B0E359A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF67C59-882C-43D1-B9D7-101BD13F0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="177">
   <si>
     <t>Arquitectura Empresarial</t>
   </si>
@@ -430,9 +430,6 @@
     <t>Monturas compradas anualmente</t>
   </si>
   <si>
-    <t>Valor arriendo del local annual</t>
-  </si>
-  <si>
     <t>SALARIOS ANUALES</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
     <t>IVA</t>
   </si>
   <si>
-    <t>Aumento de ventas proyectado annual</t>
-  </si>
-  <si>
     <t>Inflación</t>
   </si>
   <si>
@@ -503,6 +497,93 @@
   </si>
   <si>
     <t>9. Los salarios son pagos inmediatos, luego en el balance no se cuentan en forma de pasivo</t>
+  </si>
+  <si>
+    <t>Salario asesor comercial</t>
+  </si>
+  <si>
+    <t>Salario director logístico</t>
+  </si>
+  <si>
+    <t>Salario empleado de recursos humanos</t>
+  </si>
+  <si>
+    <t>Salario asesor de imagen de la marca</t>
+  </si>
+  <si>
+    <t>Salario gerente general</t>
+  </si>
+  <si>
+    <t>Licencia software contable por equipo (microsoft 365 Business standard)</t>
+  </si>
+  <si>
+    <t>Valor arriendo de un local annual</t>
+  </si>
+  <si>
+    <t>Remodelaciones de local nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costos de distriución por local </t>
+  </si>
+  <si>
+    <t>Ganancia por kilogramo de material reciclado</t>
+  </si>
+  <si>
+    <t>Pagos por material reciclado</t>
+  </si>
+  <si>
+    <t>Material reciclado anualmente (kg)</t>
+  </si>
+  <si>
+    <t>Aumento anual en el material reciclado (multiplicador)</t>
+  </si>
+  <si>
+    <t>Sedes abiertas en el segundo año</t>
+  </si>
+  <si>
+    <t>Sedes nuevas abiertas con respecto al año anterior (multiplicador)</t>
+  </si>
+  <si>
+    <t>Inversión tecnológica para apertura de portal web (canal digital)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimiento del servidor </t>
+  </si>
+  <si>
+    <t>Licencia software contable</t>
+  </si>
+  <si>
+    <t>Inversión anual en publicidad (a partir del año 2)</t>
+  </si>
+  <si>
+    <t>Costos de distribucón</t>
+  </si>
+  <si>
+    <t>Inversión en nuevas sedes</t>
+  </si>
+  <si>
+    <t>Creación del canal digital</t>
+  </si>
+  <si>
+    <t>Salario de asesor de imagen de la marca</t>
+  </si>
+  <si>
+    <t>Número de lentes vendidos por el canal digital</t>
+  </si>
+  <si>
+    <t>Costo anual de envío de lentes</t>
+  </si>
+  <si>
+    <t>Aumento de ventas anual enpor el canal digital (multiplicador)</t>
+  </si>
+  <si>
+    <t>Aumento de ventas proyectado anual</t>
+  </si>
+  <si>
+    <t>Mantenimiento del canal digital</t>
+  </si>
+  <si>
+    <t>Bono por mejor empleado en ventas (por sede)</t>
   </si>
 </sst>
 </file>
@@ -510,15 +591,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -772,14 +853,14 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -787,17 +868,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,13 +898,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,7 +917,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -855,19 +936,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
@@ -882,7 +963,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,21 +971,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -917,7 +998,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -928,117 +1009,26 @@
     <xf numFmtId="9" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1052,49 +1042,134 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Millares" xfId="7" builtinId="3"/>
@@ -1416,16 +1491,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED2F777-88E5-4EE3-ABB1-5261070B52BB}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
@@ -1436,7 +1511,7 @@
     <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1519,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1527,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1461,14 +1536,14 @@
       <c r="F3" s="2"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="60"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -1477,9 +1552,9 @@
         <v>500000000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="70"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D5" s="92"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -1487,9 +1562,9 @@
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="70"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D6" s="92"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1497,19 +1572,19 @@
         <v>500000000</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="70"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D7" s="92"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="61"/>
       <c r="C8" s="2"/>
       <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="57"/>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>109</v>
       </c>
@@ -1517,7 +1592,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="57"/>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1602,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="57"/>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>124</v>
       </c>
@@ -1538,7 +1613,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="57"/>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>112</v>
       </c>
@@ -1549,7 +1624,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="57"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>118</v>
       </c>
@@ -1559,9 +1634,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="66">
         <v>150000</v>
@@ -1569,27 +1644,27 @@
       <c r="C15" s="2"/>
       <c r="D15" s="57"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="97"/>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="2"/>
       <c r="D16" s="57"/>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="59"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="69"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D17" s="91"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="69"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D18" s="91"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>120</v>
       </c>
@@ -1597,288 +1672,469 @@
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="69"/>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D19" s="91"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="68">
         <v>7500000</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="69"/>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D20" s="91"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="104">
+        <v>140</v>
+      </c>
+      <c r="B21" s="73">
         <v>1000000</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="69"/>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D21" s="91"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="108">
+        <v>131</v>
+      </c>
+      <c r="B22" s="77">
         <v>0.15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="69"/>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D22" s="91"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="23">
         <v>0.19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="69"/>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D23" s="91"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="109">
+        <v>132</v>
+      </c>
+      <c r="B24" s="78">
         <v>0.04</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="57"/>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="65"/>
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="68">
+        <v>600000</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="D25" s="57"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="68">
+        <v>150000000</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="57"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="68">
+        <v>5000000</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="57"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="126">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="57"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="126">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="57"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="68">
+        <v>250000000</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="57"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="68">
+        <v>10000000</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="57"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="68">
+        <v>50000000</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B34" s="19">
         <f>1800000*12</f>
         <v>21600000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B36" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B37" s="19">
         <f>3000000*12</f>
         <v>36000000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B38" s="19">
         <f>1400000*12</f>
         <v>16800000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="19">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="19">
+        <f>5000000*12</f>
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="19">
+        <f>7000000*12</f>
+        <v>84000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="19">
+        <f>10000000*12</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="19">
+        <f>9000000*12</f>
+        <v>108000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="19">
+        <f>16000000*12</f>
+        <v>192000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="19">
         <v>3000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="65"/>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="19">
+      <c r="B45" s="65"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="19">
         <f>120000*365</f>
         <v>43800000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B47" s="19">
         <v>60000000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B48" s="19">
         <f>3000000*12</f>
         <v>36000000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B49" s="19">
         <f>180000*12</f>
         <v>2160000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="60" t="s">
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="19">
+        <v>75000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="60"/>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="B53" s="60"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B54" s="19">
         <v>300000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B55" s="19">
         <v>750000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B56" s="19">
         <v>23000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B57" s="19">
         <v>14000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="125">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="126">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="B61" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="99">
+      <c r="B62" s="70">
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="99">
+      <c r="B63" s="70">
         <f>2*365</f>
         <v>730</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B64" s="21">
         <f>1*365</f>
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B65" s="21">
         <v>3650</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="22">
+    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="F78" s="4"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1892,13 +2148,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4764C-DEDE-C149-BFDF-F902BA43F941}">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="59" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="24" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="24" customWidth="1"/>
@@ -1932,7 +2188,7 @@
     <col min="30" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="str">
         <f>Variables!A1</f>
         <v>Arquitectura Empresarial</v>
@@ -1952,7 +2208,7 @@
       <c r="Z1" s="47"/>
       <c r="AA1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
@@ -1971,7 +2227,7 @@
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2002,520 +2258,523 @@
       <c r="AB3" s="45"/>
       <c r="AC3" s="45"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F4" s="24"/>
       <c r="L4" s="24"/>
       <c r="R4" s="24"/>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="107"/>
       <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="85" t="s">
+      <c r="M5" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="85" t="s">
+      <c r="O5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="85"/>
+      <c r="P5" s="107"/>
       <c r="Q5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="R5" s="24"/>
-      <c r="S5" s="85" t="s">
+      <c r="S5" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="88" t="s">
+      <c r="T5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="85" t="s">
+      <c r="U5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="85"/>
+      <c r="V5" s="107"/>
       <c r="W5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="X5" s="24"/>
-      <c r="Y5" s="85" t="s">
+      <c r="Y5" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="88" t="s">
+      <c r="Z5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="85" t="s">
+      <c r="AA5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="85"/>
+      <c r="AB5" s="107"/>
       <c r="AC5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="85"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="86" t="s">
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="86"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="34">
-        <f>Variables!$B$41*Variables!$B$46</f>
+        <f>Variables!$B$56*Variables!$B$64</f>
         <v>8395000</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="86" t="s">
+      <c r="G6" s="107"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="86"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="34">
-        <f>E6*(1+Variables!B22)</f>
-        <v>9654250</v>
+        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28</f>
+        <v>38617000</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="86" t="s">
+      <c r="M6" s="107"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="86"/>
+      <c r="P6" s="108"/>
       <c r="Q6" s="34">
-        <f>K6*(1+Variables!B22)</f>
-        <v>11102387.5</v>
+        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29</f>
+        <v>77234000</v>
       </c>
       <c r="R6" s="24"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="86" t="s">
+      <c r="S6" s="107"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="86"/>
+      <c r="V6" s="108"/>
       <c r="W6" s="34">
-        <f>Q6*(1+Variables!B22)</f>
-        <v>12767745.624999998</v>
+        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
+        <v>154468000</v>
       </c>
       <c r="X6" s="24"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="86" t="s">
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="111"/>
+      <c r="AA6" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="86"/>
+      <c r="AB6" s="108"/>
       <c r="AC6" s="34">
-        <f>W6*(1+Variables!B22)</f>
-        <v>14682907.468749996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="86" t="s">
+        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
+        <v>308936000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="86"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="34">
-        <f>Variables!$B$47*Variables!$B$42</f>
+        <f>Variables!$B$65*Variables!$B$57</f>
         <v>51100000</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="86" t="s">
+      <c r="G7" s="107"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="86"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="34">
-        <f>E7*(1+Variables!B22)</f>
-        <v>58764999.999999993</v>
+        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28</f>
+        <v>235059999.99999997</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="86" t="s">
+      <c r="M7" s="107"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="86"/>
+      <c r="P7" s="108"/>
       <c r="Q7" s="34">
-        <f>K7*(1+Variables!B22)</f>
-        <v>67579749.999999985</v>
+        <f>Variables!B65*Variables!B57*(1+Variables!B22)*Variables!B28*Variables!B29</f>
+        <v>470119999.99999994</v>
       </c>
       <c r="R7" s="24"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="86" t="s">
+      <c r="S7" s="107"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="86"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="34">
-        <f>Q7*(1+Variables!B22)</f>
-        <v>77716712.49999997</v>
+        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
+        <v>940239999.99999988</v>
       </c>
       <c r="X7" s="24"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="86" t="s">
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="86"/>
+      <c r="AB7" s="108"/>
       <c r="AC7" s="34">
-        <f>W7*(1+Variables!B22)</f>
-        <v>89374219.374999955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="86" t="s">
+        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
+        <v>1880479999.9999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="86"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="34">
-        <f>(Variables!B45)*Variables!B40</f>
+        <f>(Variables!B63)*Variables!B55</f>
         <v>547500000</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="86" t="s">
+      <c r="G8" s="107"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="86"/>
+      <c r="J8" s="108"/>
       <c r="K8" s="34">
-        <f>(Variables!B45+Variables!B48)*Variables!B40</f>
-        <v>585000000</v>
+        <f>(Variables!B63+Variables!B68)*Variables!B55*Variables!B28</f>
+        <v>2340000000</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="86" t="s">
+      <c r="M8" s="107"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="86"/>
+      <c r="P8" s="108"/>
       <c r="Q8" s="34">
-        <f>(Variables!B45+(2*Variables!B48))*Variables!B40</f>
-        <v>622500000</v>
+        <f>(Variables!B63+(2*Variables!B68))*Variables!B55*Variables!B28*Variables!B29</f>
+        <v>4980000000</v>
       </c>
       <c r="R8" s="24"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="86" t="s">
+      <c r="S8" s="107"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="86"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="34">
-        <f>(Variables!B45+(3*Variables!B48))*Variables!B40</f>
-        <v>660000000</v>
+        <f>(Variables!B63+(3*Variables!B68))*Variables!B55*Variables!B28*Variables!B29^2</f>
+        <v>10560000000</v>
       </c>
       <c r="X8" s="24"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="86" t="s">
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="86"/>
+      <c r="AB8" s="108"/>
       <c r="AC8" s="34">
-        <f>(Variables!B45+(4*Variables!B48))*Variables!B40</f>
-        <v>697500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="86" t="s">
+        <f>(Variables!B63+(3*Variables!B68))*Variables!B55*Variables!B28*Variables!B29^3</f>
+        <v>21120000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="34">
-        <f>(Variables!B44)*Variables!B39</f>
+        <f>(Variables!B62)*Variables!B54</f>
         <v>180000000</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86" t="s">
+      <c r="G9" s="107"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="86"/>
+      <c r="J9" s="108"/>
       <c r="K9" s="34">
-        <f>(Variables!B44+Variables!B48)*Variables!B39</f>
-        <v>195000000</v>
+        <f>(Variables!B62+Variables!B68+Variables!B66)*Variables!B54*Variables!B28</f>
+        <v>1080000000</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="86" t="s">
+      <c r="M9" s="107"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="86"/>
+      <c r="P9" s="108"/>
       <c r="Q9" s="34">
-        <f>(Variables!B44+(2*Variables!B48))*Variables!B39</f>
-        <v>210000000</v>
+        <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29+Variables!B66*Variables!B67)*Variables!B54</f>
+        <v>1830000000</v>
       </c>
       <c r="R9" s="24"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="86" t="s">
+      <c r="S9" s="107"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="86"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="34">
-        <f>(Variables!B44+(3*Variables!B48))*Variables!B39</f>
-        <v>225000000</v>
+        <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29^2+Variables!B66*Variables!B67^3)*Variables!B54</f>
+        <v>3960000000</v>
       </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="86" t="s">
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="86"/>
+      <c r="AB9" s="108"/>
       <c r="AC9" s="34">
-        <f>(Variables!B44+(4*Variables!B48))*Variables!B39</f>
-        <v>240000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="77" t="s">
+        <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29^3+Variables!B66*Variables!B67^3)*Variables!B54</f>
+        <v>7320000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
+      <c r="B10" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="37">
         <f>SUM(E6:E9)</f>
         <v>786995000</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="77" t="s">
+      <c r="G10" s="107"/>
+      <c r="H10" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
       <c r="K10" s="37">
         <f>SUM(K6:K9)</f>
-        <v>848419250</v>
+        <v>3693677000</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="77" t="s">
+      <c r="M10" s="107"/>
+      <c r="N10" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
       <c r="Q10" s="37">
         <f>SUM(Q6:Q9)</f>
-        <v>911182137.5</v>
+        <v>7357354000</v>
       </c>
       <c r="R10" s="24"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="77" t="s">
+      <c r="S10" s="107"/>
+      <c r="T10" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="79"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="101"/>
       <c r="W10" s="37">
         <f>SUM(W6:W9)</f>
-        <v>975484458.125</v>
+        <v>15614708000</v>
       </c>
       <c r="X10" s="24"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="77" t="s">
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="101"/>
       <c r="AC10" s="37">
         <f>SUM(AC6:AC9)</f>
-        <v>1041557126.84375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="85"/>
+        <v>30629416000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="107"/>
       <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="86"/>
+      <c r="C11" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="108"/>
       <c r="E11" s="34">
-        <v>0</v>
+        <f>Variables!B59*Variables!B58</f>
+        <v>1500000</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="85"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
+      <c r="I11" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="108"/>
       <c r="K11" s="34">
-        <f>Balance!G10*Variables!$B$43</f>
-        <v>0</v>
+        <f>Variables!B58*Variables!B59*Variables!B60</f>
+        <v>3000000</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="85"/>
+      <c r="M11" s="107"/>
       <c r="N11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="85"/>
+      <c r="S11" s="107"/>
       <c r="T11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="34"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="85"/>
+      <c r="Y11" s="107"/>
       <c r="Z11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="85"/>
-      <c r="B12" s="77" t="s">
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="107"/>
+      <c r="B12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="37">
         <f>SUM(E11:E11)</f>
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="77" t="s">
+      <c r="G12" s="107"/>
+      <c r="H12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
       <c r="K12" s="37">
         <f>SUM(K11:K11)</f>
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="77" t="s">
+      <c r="M12" s="107"/>
+      <c r="N12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="78"/>
-      <c r="P12" s="79"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
       <c r="Q12" s="37">
         <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="77" t="s">
+      <c r="S12" s="107"/>
+      <c r="T12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="78"/>
-      <c r="V12" s="79"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="101"/>
       <c r="W12" s="37">
         <f>SUM(W11:W11)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="77" t="s">
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="79"/>
+      <c r="AA12" s="100"/>
+      <c r="AB12" s="101"/>
       <c r="AC12" s="37">
         <f>SUM(AC11:AC11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84" t="s">
+    <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="37">
         <f>E10+E12</f>
-        <v>786995000</v>
-      </c>
-      <c r="G13" s="84" t="s">
+        <v>788495000</v>
+      </c>
+      <c r="G13" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
       <c r="K13" s="37">
         <f>K10+K12</f>
-        <v>848419250</v>
-      </c>
-      <c r="M13" s="84" t="s">
+        <v>3696677000</v>
+      </c>
+      <c r="M13" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
       <c r="Q13" s="37">
         <f>Q10+Q12</f>
-        <v>911182137.5</v>
-      </c>
-      <c r="S13" s="84" t="s">
+        <v>7357354000</v>
+      </c>
+      <c r="S13" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
       <c r="W13" s="37">
         <f>W10+W12</f>
-        <v>975484458.125</v>
-      </c>
-      <c r="Y13" s="84" t="s">
+        <v>15614708000</v>
+      </c>
+      <c r="Y13" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
       <c r="AC13" s="37">
         <f>AC10+AC12</f>
-        <v>1041557126.84375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30629416000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2542,77 +2801,77 @@
       <c r="AB14" s="36"/>
       <c r="AC14" s="35"/>
     </row>
-    <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="88" t="s">
+    <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="85"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="85" t="s">
+      <c r="I15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="85"/>
+      <c r="J15" s="107"/>
       <c r="K15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="88" t="s">
+      <c r="M15" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="88" t="s">
+      <c r="N15" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="85" t="s">
+      <c r="O15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="85"/>
+      <c r="P15" s="107"/>
       <c r="Q15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="88" t="s">
+      <c r="S15" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="88" t="s">
+      <c r="T15" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="85" t="s">
+      <c r="U15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="85"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="88" t="s">
+      <c r="Y15" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="88" t="s">
+      <c r="Z15" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="85" t="s">
+      <c r="AA15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="85"/>
+      <c r="AB15" s="107"/>
       <c r="AC15" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="88" t="s">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="110" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2622,2083 +2881,2422 @@
         <f>(Variables!$B$12)*Variables!B15</f>
         <v>99000000</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88" t="s">
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="110" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="53">
-        <f>(Variables!$B$12+Variables!B48)*Variables!B15</f>
-        <v>106500000</v>
-      </c>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="88" t="s">
+        <f>((Variables!$B$12+Variables!B68)*Variables!B28+Variables!B66)*Variables!B15</f>
+        <v>463500000</v>
+      </c>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="110" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>88</v>
       </c>
       <c r="Q16" s="53">
-        <f>(Variables!$B$12+(2*Variables!B48))*Variables!B15</f>
-        <v>114000000</v>
-      </c>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="88" t="s">
+        <f>(((Variables!$B$12+(2*Variables!B68))*Variables!B28*Variables!B29+Variables!B66*Variables!B67^2))*Variables!B15</f>
+        <v>1062000000</v>
+      </c>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="V16" s="105" t="s">
+      <c r="V16" s="74" t="s">
         <v>88</v>
       </c>
       <c r="W16" s="53">
-        <f>(Variables!$B$12+(3*Variables!B48))*Variables!B15</f>
-        <v>121500000</v>
-      </c>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="88" t="s">
+        <f>(((Variables!$B$12+(3*Variables!B68))*Variables!B28*Variables!B29^2+Variables!B66*Variables!B67^3))*Variables!B15</f>
+        <v>2244000000</v>
+      </c>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="105" t="s">
+      <c r="AB16" s="74" t="s">
         <v>88</v>
       </c>
       <c r="AC16" s="53">
-        <f>(Variables!$B$12+(4*Variables!B48))*Variables!B15</f>
-        <v>129000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
+        <f>(((Variables!$B$12+(3*Variables!B68))*Variables!B28*Variables!B29^3+Variables!B66*Variables!B67^4))*Variables!B15</f>
+        <v>4488000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="51">
+        <f>Variables!B13*Variables!B63</f>
+        <v>328500000</v>
+      </c>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" s="53">
+        <f>(Variables!B63+Variables!B68)*Variables!B13*Variables!B28</f>
+        <v>1404000000</v>
+      </c>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q17" s="54">
+        <f>(Variables!B63+(2*Variables!B68))*Variables!B13*Variables!B28*Variables!B29</f>
+        <v>2988000000</v>
+      </c>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="W17" s="54">
+        <f>(Variables!B63+(3*Variables!B68))*Variables!B13*Variables!B28*Variables!B29^2</f>
+        <v>6336000000</v>
+      </c>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC17" s="54">
+        <f>(Variables!B63+(3*Variables!B68))*Variables!B13*Variables!B28*Variables!B29^3</f>
+        <v>12672000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="51">
-        <f>Variables!B13*Variables!B45</f>
-        <v>328500000</v>
-      </c>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="43" t="s">
+      <c r="E18" s="48">
+        <f>Variables!B64*Variables!B14</f>
+        <v>5475000</v>
+      </c>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="53">
-        <f>(Variables!B45+Variables!B48)*Variables!B13</f>
-        <v>351000000</v>
-      </c>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="43" t="s">
+      <c r="K18" s="53">
+        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28</f>
+        <v>25184999.999999996</v>
+      </c>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="54">
-        <f>(Variables!B45+(2*Variables!B48))*Variables!B13</f>
-        <v>373500000</v>
-      </c>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="106" t="s">
+      <c r="Q18" s="55">
+        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29</f>
+        <v>50369999.999999993</v>
+      </c>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="W17" s="54">
-        <f>(Variables!B45+(3*Variables!B48))*Variables!B13</f>
-        <v>396000000</v>
-      </c>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="106" t="s">
+      <c r="W18" s="55">
+        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
+        <v>100739999.99999999</v>
+      </c>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+      <c r="AA18" s="111"/>
+      <c r="AB18" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="AC17" s="54">
-        <f>(Variables!B45+(4*Variables!B48))*Variables!B13</f>
-        <v>418500000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="48">
-        <f>Variables!B46*Variables!B14</f>
-        <v>5475000</v>
-      </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="53">
-        <f>E18*(1+Variables!B22)</f>
-        <v>6296249.9999999991</v>
-      </c>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="55">
-        <f>K18*(1+Variables!B22)</f>
-        <v>7240687.4999999981</v>
-      </c>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="55">
-        <f>Q18*(1+Variables!B22)</f>
-        <v>8326790.6249999972</v>
-      </c>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="107" t="s">
-        <v>129</v>
-      </c>
       <c r="AC18" s="55">
-        <f>W18*(1+Variables!B22)</f>
-        <v>9575809.2187499963</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
+        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
+        <v>201479999.99999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="39"/>
       <c r="E19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
       <c r="J19" s="39"/>
       <c r="K19" s="48">
         <v>0</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
       <c r="V19" s="39"/>
       <c r="W19" s="48">
         <v>0</v>
       </c>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+      <c r="AA19" s="111"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
+    <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="39"/>
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
       <c r="J20" s="39"/>
       <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="34">
         <v>0</v>
       </c>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34">
         <v>0</v>
       </c>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
+    <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="39"/>
       <c r="E21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="39"/>
       <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34">
         <v>0</v>
       </c>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
+    <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="39"/>
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="39"/>
       <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="112"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="34">
         <v>0</v>
       </c>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="90"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="112"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+      <c r="AA22" s="112"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="77" t="s">
+    <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="37">
         <f>SUM(E16:E22)</f>
         <v>432975000</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="77" t="s">
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="79"/>
+      <c r="J23" s="101"/>
       <c r="K23" s="37">
         <f>SUM(K16:K22)</f>
-        <v>463796250</v>
-      </c>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="77" t="s">
+        <v>1892685000</v>
+      </c>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="79"/>
+      <c r="P23" s="101"/>
       <c r="Q23" s="37">
         <f>SUM(Q16:Q22)</f>
-        <v>494740687.5</v>
-      </c>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="77" t="s">
+        <v>4100370000</v>
+      </c>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="79"/>
+      <c r="V23" s="101"/>
       <c r="W23" s="37">
         <f>SUM(W16:W22)</f>
-        <v>525826790.625</v>
-      </c>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="77" t="s">
+        <v>8680740000</v>
+      </c>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="79"/>
+      <c r="AB23" s="101"/>
       <c r="AC23" s="37">
         <f>SUM(AC16:AC22)</f>
-        <v>557075809.21875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="88" t="s">
+        <v>17361480000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="42">
-        <f>Variables!B29</f>
+        <f>Variables!B38</f>
         <v>16800000</v>
       </c>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="88" t="s">
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="114" t="s">
+      <c r="J24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="K24" s="42">
-        <f t="shared" ref="K24:K25" si="0">E24</f>
-        <v>16800000</v>
-      </c>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="88" t="s">
+        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^0</f>
+        <v>67200000</v>
+      </c>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="43" t="s">
+      <c r="P24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="Q24" s="42">
-        <f>K24+Variables!B30</f>
-        <v>19800000</v>
-      </c>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="88" t="s">
+        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^1</f>
+        <v>134400000</v>
+      </c>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="V24" s="114" t="s">
+      <c r="V24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="W24" s="42">
-        <f t="shared" ref="W24:W30" si="1">Q24</f>
-        <v>19800000</v>
-      </c>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="88" t="s">
+        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^2</f>
+        <v>268800000</v>
+      </c>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="AB24" s="114" t="s">
+      <c r="AB24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="AC24" s="42">
-        <f>W24+Variables!$B$30</f>
-        <v>22800000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="115" t="s">
+        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^3</f>
+        <v>537600000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="34">
-        <f>Variables!$B$27*Variables!$B$26</f>
-        <v>64800000</v>
-      </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="115" t="s">
+        <f>Variables!$B$36*Variables!$B$34+Variables!B35</f>
+        <v>65800000</v>
+      </c>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="K25" s="34">
-        <f t="shared" si="0"/>
-        <v>64800000</v>
-      </c>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="39" t="s">
+        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^0+Variables!$B$35*Variables!$B$28*Variables!$B$29^0</f>
+        <v>263200000</v>
+      </c>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="Q25" s="56">
-        <f>K25+Variables!B30</f>
-        <v>67800000</v>
-      </c>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="115" t="s">
+      <c r="Q25" s="34">
+        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^1+Variables!$B$35*Variables!$B$28*Variables!$B$29^1</f>
+        <v>526400000</v>
+      </c>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="W25" s="56">
-        <f t="shared" si="1"/>
-        <v>67800000</v>
-      </c>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="115" t="s">
+      <c r="W25" s="34">
+        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^2+Variables!$B$35*Variables!$B$28*Variables!$B$29^2</f>
+        <v>1052800000</v>
+      </c>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="AC25" s="42">
-        <f>W25+Variables!$B$30</f>
-        <v>70800000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="114" t="s">
+      <c r="AC25" s="34">
+        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^3+Variables!$B$35*Variables!$B$28*Variables!$B$29^3</f>
+        <v>2105600000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="42">
-        <f>Variables!B28</f>
+        <f>Variables!B37</f>
         <v>36000000</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="114" t="s">
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="K26" s="34">
-        <f>E26</f>
+        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^0</f>
+        <v>144000000</v>
+      </c>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="34">
+        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^1</f>
+        <v>288000000</v>
+      </c>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="W26" s="34">
+        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^2</f>
+        <v>576000000</v>
+      </c>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111"/>
+      <c r="AB26" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC26" s="34">
+        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^3</f>
+        <v>1152000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="34">
+        <f>Variables!B49</f>
+        <v>2160000</v>
+      </c>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="34">
+        <f>Variables!$B$39</f>
+        <v>60000000</v>
+      </c>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" s="34">
+        <f>Variables!$B$39+Variables!$B$44</f>
+        <v>63000000</v>
+      </c>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="W27" s="34">
+        <f>Variables!$B$39+Variables!$B$44</f>
+        <v>63000000</v>
+      </c>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC27" s="34">
+        <f>Variables!$B$39+Variables!$B$44*2</f>
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="71">
+        <f>Variables!$B$46</f>
+        <v>43800000</v>
+      </c>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="34">
+        <f>Variables!$B$40</f>
+        <v>84000000</v>
+      </c>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="34">
+        <f>Variables!$B$40+Variables!$B$44</f>
+        <v>87000000</v>
+      </c>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="W28" s="34">
+        <f>Variables!$B$40+Variables!$B$44</f>
+        <v>87000000</v>
+      </c>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC28" s="34">
+        <f>Variables!$B$40+Variables!$B$44*2</f>
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="71">
+        <f>Variables!$B$47</f>
+        <v>60000000</v>
+      </c>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="34">
+        <f>Variables!$B$41</f>
+        <v>120000000</v>
+      </c>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q29" s="34">
+        <f>Variables!$B$41+Variables!$B$44</f>
+        <v>123000000</v>
+      </c>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="W29" s="34">
+        <f>Variables!$B$41+Variables!$B$44</f>
+        <v>123000000</v>
+      </c>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+      <c r="AA29" s="111"/>
+      <c r="AB29" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC29" s="34">
+        <f>Variables!$B$41+Variables!$B$44*2</f>
+        <v>126000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="80">
+        <f>Variables!$B$48</f>
         <v>36000000</v>
       </c>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="42">
-        <f>K26+Variables!B30</f>
-        <v>39000000</v>
-      </c>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="W26" s="56">
-        <f>Q26</f>
-        <v>39000000</v>
-      </c>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC26" s="42">
-        <f>W26+Variables!$B$30</f>
-        <v>42000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="115" t="s">
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="34">
+        <f>Variables!$B$42</f>
+        <v>108000000</v>
+      </c>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q30" s="34">
+        <f>Variables!$B$42+Variables!$B$44</f>
+        <v>111000000</v>
+      </c>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="W30" s="34">
+        <f>Variables!$B$42+Variables!$B$44</f>
+        <v>111000000</v>
+      </c>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC30" s="34">
+        <f>Variables!$B$42+Variables!$B$44*2</f>
+        <v>114000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="80">
+        <f>Variables!B25</f>
+        <v>600000</v>
+      </c>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="K31" s="34">
+        <f>Variables!$B$43</f>
+        <v>192000000</v>
+      </c>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" s="34">
+        <f>Variables!$B$43+Variables!$B$44</f>
+        <v>195000000</v>
+      </c>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="W31" s="34">
+        <f>Variables!$B$43+Variables!$B$44</f>
+        <v>195000000</v>
+      </c>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC31" s="34">
+        <f>Variables!$B$43+Variables!$B$44*2</f>
+        <v>198000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="80">
+        <f>Variables!B27</f>
+        <v>5000000</v>
+      </c>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="34">
-        <f>Variables!B35</f>
-        <v>2160000</v>
-      </c>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="115" t="s">
+      <c r="K32" s="42">
+        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^0</f>
+        <v>8640000</v>
+      </c>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="42">
-        <f>E27</f>
-        <v>2160000</v>
-      </c>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="100" t="s">
+      <c r="Q32" s="42">
+        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^1</f>
+        <v>17280000</v>
+      </c>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="112">
-        <f>K27</f>
-        <v>2160000</v>
-      </c>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="117" t="s">
+      <c r="W32" s="42">
+        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^2</f>
+        <v>34560000</v>
+      </c>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="W27" s="42">
-        <f>Q27</f>
-        <v>2160000</v>
-      </c>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC27" s="42">
-        <f>W27</f>
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="101">
-        <f>Variables!$B$32</f>
-        <v>43800000</v>
-      </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="34">
-        <f>E28</f>
-        <v>43800000</v>
-      </c>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q28" s="51">
-        <f>K28</f>
-        <v>43800000</v>
-      </c>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="W28" s="56">
-        <f>Q28</f>
-        <v>43800000</v>
-      </c>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC28" s="56">
-        <f>W28</f>
-        <v>43800000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="118" t="s">
+      <c r="AC32" s="42">
+        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^3</f>
+        <v>69120000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="101">
-        <f>Variables!$B$33</f>
-        <v>60000000</v>
-      </c>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" s="101">
-        <f>Variables!$B$33</f>
-        <v>60000000</v>
-      </c>
-      <c r="M29" s="89"/>
-      <c r="N29" s="89"/>
-      <c r="O29" s="89"/>
-      <c r="P29" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q29" s="101">
-        <f>Variables!$B$33</f>
-        <v>60000000</v>
-      </c>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="W29" s="56">
-        <f>Q29</f>
-        <v>60000000</v>
-      </c>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC29" s="56">
-        <f>W29</f>
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="113">
-        <f>Variables!$B$34</f>
-        <v>36000000</v>
-      </c>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="K30" s="113">
-        <f>Variables!$B$34</f>
-        <v>36000000</v>
-      </c>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q30" s="113">
-        <f>Variables!$B$34</f>
-        <v>36000000</v>
-      </c>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="W30" s="56">
-        <f>Q30</f>
-        <v>36000000</v>
-      </c>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC30" s="56">
-        <f>W30</f>
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="113">
+      <c r="E33" s="80">
         <f>Variables!B20</f>
         <v>7500000</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="113"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="56"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="56"/>
-    </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="113">
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="34">
+        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^0</f>
+        <v>175200000</v>
+      </c>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q33" s="34">
+        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^1</f>
+        <v>350400000</v>
+      </c>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="W33" s="34">
+        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^2</f>
+        <v>700800000</v>
+      </c>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC33" s="34">
+        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^3</f>
+        <v>1401600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="80">
         <f>Variables!B21*Variables!B19</f>
         <v>3000000</v>
       </c>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="113"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="115"/>
-      <c r="W32" s="56"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="115"/>
-      <c r="AC32" s="56"/>
-    </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="89"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="77" t="s">
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" s="71">
+        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^0</f>
+        <v>240000000</v>
+      </c>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q34" s="71">
+        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^1</f>
+        <v>480000000</v>
+      </c>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="W34" s="71">
+        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^2</f>
+        <v>960000000</v>
+      </c>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+      <c r="AA34" s="111"/>
+      <c r="AB34" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC34" s="71">
+        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^3</f>
+        <v>1920000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="80"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="80">
+        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^0</f>
+        <v>144000000</v>
+      </c>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q35" s="80">
+        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^1</f>
+        <v>288000000</v>
+      </c>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="W35" s="80">
+        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^2</f>
+        <v>576000000</v>
+      </c>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="111"/>
+      <c r="AA35" s="111"/>
+      <c r="AB35" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC35" s="80">
+        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^3</f>
+        <v>1152000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="80"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" s="80">
+        <f>Variables!$B$28*Variables!$B$50</f>
+        <v>300000000</v>
+      </c>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q36" s="80">
+        <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^0</f>
+        <v>300000000</v>
+      </c>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="W36" s="80">
+        <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^1</f>
+        <v>600000000</v>
+      </c>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC36" s="80">
+        <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^2</f>
+        <v>1200000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="80"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="K37" s="80">
+        <f>Variables!$B$30+Variables!$B$31</f>
+        <v>260000000</v>
+      </c>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q37" s="80">
+        <f>Variables!$B$31</f>
+        <v>10000000</v>
+      </c>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="W37" s="80">
+        <f>Variables!$B$31</f>
+        <v>10000000</v>
+      </c>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="111"/>
+      <c r="AA37" s="111"/>
+      <c r="AB37" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC37" s="80">
+        <f>Variables!$B$31</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="80"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="80"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="56"/>
+      <c r="Y38" s="111"/>
+      <c r="Z38" s="111"/>
+      <c r="AA38" s="111"/>
+      <c r="AB38" s="82"/>
+      <c r="AC38" s="56"/>
+    </row>
+    <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="80"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="80"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="56"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="112"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="56"/>
+    </row>
+    <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="111"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103">
-        <f>SUM(E24:E32)</f>
-        <v>270060000</v>
-      </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="77" t="s">
+      <c r="D40" s="114"/>
+      <c r="E40" s="72">
+        <f>SUM(E24:E34)</f>
+        <v>276660000</v>
+      </c>
+      <c r="G40" s="111"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="79"/>
-      <c r="K33" s="37">
-        <f>SUM(K24:K32)</f>
-        <v>259560000</v>
-      </c>
-      <c r="M33" s="89"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="77" t="s">
+      <c r="J40" s="101"/>
+      <c r="K40" s="37">
+        <f>SUM(K24:K39)</f>
+        <v>2166240000</v>
+      </c>
+      <c r="M40" s="111"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="37">
-        <f>SUM(Q24:Q32)</f>
-        <v>268560000</v>
-      </c>
-      <c r="S33" s="89"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="77" t="s">
+      <c r="P40" s="113"/>
+      <c r="Q40" s="37">
+        <f>SUM(Q24:Q39)</f>
+        <v>2973480000</v>
+      </c>
+      <c r="S40" s="111"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="V33" s="79"/>
-      <c r="W33" s="37">
-        <f>SUM(W24:W32)</f>
-        <v>268560000</v>
-      </c>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="77" t="s">
+      <c r="V40" s="101"/>
+      <c r="W40" s="37">
+        <f>SUM(W24:W39)</f>
+        <v>5357960000</v>
+      </c>
+      <c r="Y40" s="111"/>
+      <c r="Z40" s="112"/>
+      <c r="AA40" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="37">
-        <f>SUM(AC24:AC32)</f>
-        <v>277560000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="89"/>
-      <c r="B34" s="77" t="s">
+      <c r="AB40" s="101"/>
+      <c r="AC40" s="37">
+        <f>SUM(AC24:AC39)</f>
+        <v>10141920000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="111"/>
+      <c r="B41" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="37">
-        <f>E23+E33</f>
-        <v>703035000</v>
-      </c>
-      <c r="G34" s="89"/>
-      <c r="H34" s="77" t="s">
+      <c r="C41" s="100"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="37">
+        <f>E23+E40</f>
+        <v>709635000</v>
+      </c>
+      <c r="G41" s="111"/>
+      <c r="H41" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="78"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="37">
-        <f>K23+K33</f>
-        <v>723356250</v>
-      </c>
-      <c r="M34" s="89"/>
-      <c r="N34" s="77" t="s">
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="37">
+        <f>K23+K40</f>
+        <v>4058925000</v>
+      </c>
+      <c r="M41" s="111"/>
+      <c r="N41" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="37">
-        <f>Q23+Q33</f>
-        <v>763300687.5</v>
-      </c>
-      <c r="S34" s="89"/>
-      <c r="T34" s="77" t="s">
+      <c r="O41" s="100"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="37">
+        <f>Q23+Q40</f>
+        <v>7073850000</v>
+      </c>
+      <c r="S41" s="111"/>
+      <c r="T41" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="U34" s="78"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="37">
-        <f>W23+W33</f>
-        <v>794386790.625</v>
-      </c>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="77" t="s">
+      <c r="U41" s="100"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="37">
+        <f>W23+W40</f>
+        <v>14038700000</v>
+      </c>
+      <c r="Y41" s="111"/>
+      <c r="Z41" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="37">
-        <f>AC23+AC33</f>
-        <v>834635809.21875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="89"/>
-      <c r="B35" s="80" t="s">
+      <c r="AA41" s="100"/>
+      <c r="AB41" s="101"/>
+      <c r="AC41" s="37">
+        <f>AC23+AC40</f>
+        <v>27503400000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="111"/>
+      <c r="B42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="39" t="s">
+      <c r="C42" s="103"/>
+      <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="34">
-        <v>0</v>
-      </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="80" t="s">
+      <c r="E42" s="34">
+        <v>0</v>
+      </c>
+      <c r="G42" s="111"/>
+      <c r="H42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="81"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="34">
-        <v>0</v>
-      </c>
-      <c r="M35" s="89"/>
-      <c r="N35" s="80" t="s">
+      <c r="I42" s="103"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="34">
+        <v>0</v>
+      </c>
+      <c r="M42" s="111"/>
+      <c r="N42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="81"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="34">
-        <v>0</v>
-      </c>
-      <c r="S35" s="89"/>
-      <c r="T35" s="80" t="s">
+      <c r="O42" s="103"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="34">
+        <v>0</v>
+      </c>
+      <c r="S42" s="111"/>
+      <c r="T42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="U35" s="81"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="80" t="s">
+      <c r="U42" s="103"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="111"/>
+      <c r="Z42" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="39"/>
-      <c r="AC35" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="89"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="39" t="s">
+      <c r="AA42" s="103"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="111"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="34">
-        <v>0</v>
-      </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="34">
-        <v>0</v>
-      </c>
-      <c r="M36" s="89"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="34">
-        <v>0</v>
-      </c>
-      <c r="S36" s="89"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="83"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="89"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="83"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="90"/>
-      <c r="B37" s="77" t="s">
+      <c r="E43" s="34">
+        <v>0</v>
+      </c>
+      <c r="G43" s="111"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="34">
+        <v>0</v>
+      </c>
+      <c r="M43" s="111"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="34">
+        <v>0</v>
+      </c>
+      <c r="S43" s="111"/>
+      <c r="T43" s="104"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="105"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="112"/>
+      <c r="B44" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="37">
-        <f>SUM(E35:E36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="90"/>
-      <c r="H37" s="77" t="s">
+      <c r="C44" s="100"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="37">
+        <f>SUM(E42:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="112"/>
+      <c r="H44" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="78"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="37">
-        <f>SUM(K35:K36)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="90"/>
-      <c r="N37" s="77" t="s">
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="37">
+        <f>SUM(K42:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="112"/>
+      <c r="N44" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="78"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="37">
-        <f>SUM(Q35:Q36)</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="90"/>
-      <c r="T37" s="77" t="s">
+      <c r="O44" s="100"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="37">
+        <f>SUM(Q42:Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="112"/>
+      <c r="T44" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="U37" s="78"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="37">
-        <f>SUM(W35:W36)</f>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="77" t="s">
+      <c r="U44" s="100"/>
+      <c r="V44" s="101"/>
+      <c r="W44" s="37">
+        <f>SUM(W42:W43)</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="112"/>
+      <c r="Z44" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="37">
-        <f>SUM(AC35:AC36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="84" t="s">
+      <c r="AA44" s="100"/>
+      <c r="AB44" s="101"/>
+      <c r="AC44" s="37">
+        <f>SUM(AC42:AC43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="37">
-        <f>E34+E37</f>
-        <v>703035000</v>
-      </c>
-      <c r="G38" s="84" t="s">
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="37">
+        <f>E41+E44</f>
+        <v>709635000</v>
+      </c>
+      <c r="G45" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="37">
-        <f>K34+K37</f>
-        <v>723356250</v>
-      </c>
-      <c r="M38" s="84" t="s">
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="37">
+        <f>K41+K44</f>
+        <v>4058925000</v>
+      </c>
+      <c r="M45" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="37">
-        <f>Q34+Q37</f>
-        <v>763300687.5</v>
-      </c>
-      <c r="S38" s="84" t="s">
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="37">
+        <f>Q41+Q44</f>
+        <v>7073850000</v>
+      </c>
+      <c r="S45" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="T38" s="84"/>
-      <c r="U38" s="84"/>
-      <c r="V38" s="84"/>
-      <c r="W38" s="37">
-        <f>W34+W37</f>
-        <v>794386790.625</v>
-      </c>
-      <c r="Y38" s="84" t="s">
+      <c r="T45" s="106"/>
+      <c r="U45" s="106"/>
+      <c r="V45" s="106"/>
+      <c r="W45" s="37">
+        <f>W41+W44</f>
+        <v>14038700000</v>
+      </c>
+      <c r="Y45" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="37">
-        <f>AC34+AC37</f>
-        <v>834635809.21875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="35"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="35"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="35"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="35"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="41"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="35"/>
-    </row>
-    <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="87" t="s">
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="106"/>
+      <c r="AB45" s="106"/>
+      <c r="AC45" s="37">
+        <f>AC41+AC44</f>
+        <v>27503400000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="35"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="35"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="35"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="35"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="35"/>
+    </row>
+    <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="110">
-        <f>E13-E38</f>
-        <v>83960000</v>
-      </c>
-      <c r="G40" s="87" t="s">
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="79">
+        <f>E13-E45</f>
+        <v>78860000</v>
+      </c>
+      <c r="G47" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="110">
-        <f>K13-K38</f>
-        <v>125063000</v>
-      </c>
-      <c r="M40" s="87" t="s">
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="79">
+        <f>K13-K45</f>
+        <v>-362248000</v>
+      </c>
+      <c r="M47" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="110">
-        <f>Q13-Q38</f>
-        <v>147881450</v>
-      </c>
-      <c r="S40" s="87" t="s">
+      <c r="N47" s="109"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="109"/>
+      <c r="Q47" s="79">
+        <f>Q13-Q45</f>
+        <v>283504000</v>
+      </c>
+      <c r="S47" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="T40" s="87"/>
-      <c r="U40" s="87"/>
-      <c r="V40" s="87"/>
-      <c r="W40" s="110">
-        <f>W13-W38</f>
-        <v>181097667.5</v>
-      </c>
-      <c r="Y40" s="87" t="s">
+      <c r="T47" s="109"/>
+      <c r="U47" s="109"/>
+      <c r="V47" s="109"/>
+      <c r="W47" s="79">
+        <f>W13-W45</f>
+        <v>1576008000</v>
+      </c>
+      <c r="Y47" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="87"/>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="110">
-        <f>AC13-AC38</f>
-        <v>206921317.625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="35"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="35"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="35"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="35"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="35"/>
-    </row>
-    <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="85" t="s">
+      <c r="Z47" s="109"/>
+      <c r="AA47" s="109"/>
+      <c r="AB47" s="109"/>
+      <c r="AC47" s="79">
+        <f>AC13-AC45</f>
+        <v>3126016000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="35"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="35"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="35"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="35"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="35"/>
+    </row>
+    <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B49" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="37">
-        <v>0</v>
-      </c>
-      <c r="G42" s="85" t="s">
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="37">
+        <v>0</v>
+      </c>
+      <c r="G49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="86" t="s">
+      <c r="H49" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="37">
-        <v>0</v>
-      </c>
-      <c r="M42" s="85" t="s">
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="37">
+        <v>0</v>
+      </c>
+      <c r="M49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="N42" s="86" t="s">
+      <c r="N49" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="37">
-        <v>0</v>
-      </c>
-      <c r="S42" s="85" t="s">
+      <c r="O49" s="108"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="37">
+        <v>0</v>
+      </c>
+      <c r="S49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="T42" s="86" t="s">
+      <c r="T49" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="U42" s="86"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="85" t="s">
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="Z42" s="86" t="s">
+      <c r="Z49" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="86"/>
-      <c r="AC42" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="85"/>
-      <c r="B43" s="86" t="s">
+      <c r="AA49" s="108"/>
+      <c r="AB49" s="108"/>
+      <c r="AC49" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="107"/>
+      <c r="B50" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="37">
-        <v>0</v>
-      </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="86" t="s">
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="37">
+        <v>0</v>
+      </c>
+      <c r="G50" s="107"/>
+      <c r="H50" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="37">
-        <v>0</v>
-      </c>
-      <c r="M43" s="85"/>
-      <c r="N43" s="86" t="s">
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="37">
+        <v>0</v>
+      </c>
+      <c r="M50" s="107"/>
+      <c r="N50" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="37">
-        <v>0</v>
-      </c>
-      <c r="S43" s="85"/>
-      <c r="T43" s="86" t="s">
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="37">
+        <v>0</v>
+      </c>
+      <c r="S50" s="107"/>
+      <c r="T50" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="86" t="s">
+      <c r="U50" s="108"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="107"/>
+      <c r="Z50" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AA43" s="86"/>
-      <c r="AB43" s="86"/>
-      <c r="AC43" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="85"/>
-      <c r="B44" s="86" t="s">
+      <c r="AA50" s="108"/>
+      <c r="AB50" s="108"/>
+      <c r="AC50" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="107"/>
+      <c r="B51" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="37">
-        <f>E40*Variables!$B$24</f>
-        <v>3358400</v>
-      </c>
-      <c r="G44" s="85"/>
-      <c r="H44" s="86" t="s">
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="37">
+        <f>E47*Variables!$B$24</f>
+        <v>3154400</v>
+      </c>
+      <c r="G51" s="107"/>
+      <c r="H51" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="37">
-        <f>K40*Variables!$B$24</f>
-        <v>5002520</v>
-      </c>
-      <c r="M44" s="85"/>
-      <c r="N44" s="86" t="s">
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="37">
+        <f>K47*Variables!$B$24</f>
+        <v>-14489920</v>
+      </c>
+      <c r="M51" s="107"/>
+      <c r="N51" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="37">
-        <f>Q40*Variables!$B$24</f>
-        <v>5915258</v>
-      </c>
-      <c r="S44" s="85"/>
-      <c r="T44" s="86" t="s">
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="37">
+        <f>Q47*Variables!$B$24</f>
+        <v>11340160</v>
+      </c>
+      <c r="S51" s="107"/>
+      <c r="T51" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="U44" s="86"/>
-      <c r="V44" s="86"/>
-      <c r="W44" s="37">
-        <f>W40*Variables!$B$24</f>
-        <v>7243906.7000000002</v>
-      </c>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="86" t="s">
+      <c r="U51" s="108"/>
+      <c r="V51" s="108"/>
+      <c r="W51" s="37">
+        <f>W47*Variables!$B$24</f>
+        <v>63040320</v>
+      </c>
+      <c r="Y51" s="107"/>
+      <c r="Z51" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="AA44" s="86"/>
-      <c r="AB44" s="86"/>
-      <c r="AC44" s="37">
-        <f>AC40*Variables!$B$24</f>
-        <v>8276852.7050000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="85"/>
-      <c r="B45" s="86" t="s">
+      <c r="AA51" s="108"/>
+      <c r="AB51" s="108"/>
+      <c r="AC51" s="37">
+        <f>AC47*Variables!$B$24</f>
+        <v>125040640</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="107"/>
+      <c r="B52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="37">
-        <f>E40*Variables!$B$23</f>
-        <v>15952400</v>
-      </c>
-      <c r="G45" s="85"/>
-      <c r="H45" s="86" t="s">
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="37">
+        <f>E47*Variables!$B$23</f>
+        <v>14983400</v>
+      </c>
+      <c r="G52" s="107"/>
+      <c r="H52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="37">
-        <f>K40*Variables!$B$23</f>
-        <v>23761970</v>
-      </c>
-      <c r="M45" s="85"/>
-      <c r="N45" s="86" t="s">
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="37">
+        <f>K47*Variables!$B$23</f>
+        <v>-68827120</v>
+      </c>
+      <c r="M52" s="107"/>
+      <c r="N52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="37">
-        <f>Q40*Variables!$B$23</f>
-        <v>28097475.5</v>
-      </c>
-      <c r="S45" s="85"/>
-      <c r="T45" s="86" t="s">
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="37">
+        <f>Q47*Variables!$B$23</f>
+        <v>53865760</v>
+      </c>
+      <c r="S52" s="107"/>
+      <c r="T52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="U45" s="86"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="37">
-        <f>W40*Variables!$B$23</f>
-        <v>34408556.825000003</v>
-      </c>
-      <c r="Y45" s="85"/>
-      <c r="Z45" s="86" t="s">
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="37">
+        <f>W47*Variables!$B$23</f>
+        <v>299441520</v>
+      </c>
+      <c r="Y52" s="107"/>
+      <c r="Z52" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="86"/>
-      <c r="AC45" s="37">
-        <f>AC40*Variables!$B$23</f>
-        <v>39315050.348750003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="32"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="37">
-        <f>E42+E43+E44+(MAX(E45,0))</f>
-        <v>19310800</v>
-      </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="37">
-        <f>K42+K43+K44+(MAX(K45,0))</f>
-        <v>28764490</v>
-      </c>
-      <c r="M46" s="32"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="37">
-        <f>Q42+Q43+Q44+(MAX(Q45,0))</f>
-        <v>34012733.5</v>
-      </c>
-      <c r="S46" s="32"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="37">
-        <f>W42+W43+W44+(MAX(W45,0))</f>
-        <v>41652463.525000006</v>
-      </c>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="37">
-        <f>AC42+AC43+AC44+(MAX(AC45,0))</f>
-        <v>47591903.053750001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="35"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="35"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="35"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="35"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="35"/>
-    </row>
-    <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="74" t="s">
+      <c r="AA52" s="108"/>
+      <c r="AB52" s="108"/>
+      <c r="AC52" s="37">
+        <f>AC47*Variables!$B$23</f>
+        <v>593943040</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="32"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="37">
+        <f>E49+E50+E51+(MAX(E52,0))</f>
+        <v>18137800</v>
+      </c>
+      <c r="G53" s="32"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="37">
+        <f>K49+K50+K51+(MAX(K52,0))</f>
+        <v>-14489920</v>
+      </c>
+      <c r="M53" s="32"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="37">
+        <f>Q49+Q50+Q51+(MAX(Q52,0))</f>
+        <v>65205920</v>
+      </c>
+      <c r="S53" s="32"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="37">
+        <f>W49+W50+W51+(MAX(W52,0))</f>
+        <v>362481840</v>
+      </c>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="37">
+        <f>AC49+AC50+AC51+(MAX(AC52,0))</f>
+        <v>718983680</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="35"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="35"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="35"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="35"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="36"/>
+      <c r="AC54" s="35"/>
+    </row>
+    <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="74" t="s">
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="74" t="s">
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="97"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="74" t="s">
+      <c r="N55" s="97"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="T48" s="75"/>
-      <c r="U48" s="75"/>
-      <c r="V48" s="75"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="74" t="s">
+      <c r="T55" s="97"/>
+      <c r="U55" s="97"/>
+      <c r="V55" s="97"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="Z48" s="75"/>
-      <c r="AA48" s="75"/>
-      <c r="AB48" s="75"/>
-      <c r="AC48" s="76"/>
-    </row>
-    <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="31" t="s">
+      <c r="Z55" s="97"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="97"/>
+      <c r="AC55" s="98"/>
+    </row>
+    <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B56" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="34">
+      <c r="C56" s="94"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="34">
         <f>E13-E23</f>
-        <v>354020000</v>
-      </c>
-      <c r="F49" s="32"/>
-      <c r="G49" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="72"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="34">
-        <f>K13-K23</f>
-        <v>384623000</v>
-      </c>
-      <c r="L49" s="32"/>
-      <c r="M49" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="N49" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="O49" s="72"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="34">
-        <f>Q13-Q23</f>
-        <v>416441450</v>
-      </c>
-      <c r="R49" s="32"/>
-      <c r="S49" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="T49" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="U49" s="72"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="34">
-        <f>W13-W23</f>
-        <v>449657667.5</v>
-      </c>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z49" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="34">
-        <f>AC13-AC23</f>
-        <v>484481317.625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="33">
-        <f>E49/E13</f>
-        <v>0.44983767368280614</v>
-      </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="I50" s="72"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="33">
-        <f>K49/K13</f>
-        <v>0.45334072747642157</v>
-      </c>
-      <c r="L50" s="32"/>
-      <c r="M50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="N50" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="O50" s="72"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="33">
-        <f>Q49/Q13</f>
-        <v>0.4570342556786568</v>
-      </c>
-      <c r="R50" s="32"/>
-      <c r="S50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="T50" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="U50" s="72"/>
-      <c r="V50" s="73"/>
-      <c r="W50" s="33">
-        <f>W49/W13</f>
-        <v>0.46095831025775319</v>
-      </c>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z50" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA50" s="72"/>
-      <c r="AB50" s="73"/>
-      <c r="AC50" s="33">
-        <f>AC49/AC13</f>
-        <v>0.46515097937367372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="34">
-        <f>E49-E33</f>
-        <v>83960000</v>
-      </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="I51" s="72"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="34">
-        <f>K49-K33</f>
-        <v>125063000</v>
-      </c>
-      <c r="L51" s="32"/>
-      <c r="M51" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="N51" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="O51" s="72"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="34">
-        <f>Q49-Q33</f>
-        <v>147881450</v>
-      </c>
-      <c r="R51" s="32"/>
-      <c r="S51" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="T51" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="U51" s="72"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="34">
-        <f>W49-W33</f>
-        <v>181097667.5</v>
-      </c>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z51" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA51" s="72"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="34">
-        <f>AC49-AC33</f>
-        <v>206921317.625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="33">
-        <f>E51/E13</f>
-        <v>0.10668428643129881</v>
-      </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H52" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52" s="72"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="33">
-        <f>K51/K13</f>
-        <v>0.14740707498091304</v>
-      </c>
-      <c r="L52" s="32"/>
-      <c r="M52" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N52" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="72"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="33">
-        <f>Q51/Q13</f>
-        <v>0.16229625660325239</v>
-      </c>
-      <c r="R52" s="32"/>
-      <c r="S52" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T52" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="U52" s="72"/>
-      <c r="V52" s="73"/>
-      <c r="W52" s="33">
-        <f>W51/W13</f>
-        <v>0.18564895216074664</v>
-      </c>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z52" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA52" s="72"/>
-      <c r="AB52" s="73"/>
-      <c r="AC52" s="33">
-        <f>AC51/AC13</f>
-        <v>0.19866535621722212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="34">
-        <f>E51-E46</f>
-        <v>64649200</v>
-      </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="72"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="34">
-        <f>K51-K46</f>
-        <v>96298510</v>
-      </c>
-      <c r="L53" s="32"/>
-      <c r="M53" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="N53" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="O53" s="72"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="34">
-        <f>Q51-Q46</f>
-        <v>113868716.5</v>
-      </c>
-      <c r="R53" s="32"/>
-      <c r="S53" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="T53" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="U53" s="72"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="34">
-        <f>W51-W46</f>
-        <v>139445203.97499999</v>
-      </c>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z53" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA53" s="72"/>
-      <c r="AB53" s="73"/>
-      <c r="AC53" s="34">
-        <f>AC51-AC46</f>
-        <v>159329414.57124999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="33">
-        <f>E53/E13</f>
-        <v>8.2146900552100083E-2</v>
-      </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="72"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="33">
-        <f>K53/K13</f>
-        <v>0.11350344773530303</v>
-      </c>
-      <c r="L54" s="32"/>
-      <c r="M54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="N54" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="O54" s="72"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="33">
-        <f>Q53/Q13</f>
-        <v>0.12496811758450434</v>
-      </c>
-      <c r="R54" s="32"/>
-      <c r="S54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="T54" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="U54" s="72"/>
-      <c r="V54" s="73"/>
-      <c r="W54" s="33">
-        <f>W53/W13</f>
-        <v>0.14294969316377493</v>
-      </c>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z54" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA54" s="72"/>
-      <c r="AB54" s="73"/>
-      <c r="AC54" s="33">
-        <f>AC53/AC13</f>
-        <v>0.15297232428726101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="33">
-        <f>E53/Variables!$B$7</f>
-        <v>0.12929840000000001</v>
-      </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="33">
-        <f>K53/Variables!$B$7</f>
-        <v>0.19259702000000001</v>
-      </c>
-      <c r="L55" s="32"/>
-      <c r="M55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="O55" s="29"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="33">
-        <f>Q53/Variables!$B$7</f>
-        <v>0.22773743299999999</v>
-      </c>
-      <c r="R55" s="32"/>
-      <c r="S55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="T55" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="U55" s="29"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="33">
-        <f>W53/Variables!$B$7</f>
-        <v>0.27889040794999997</v>
-      </c>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z55" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="33">
-        <f>AC53/Variables!$B$7</f>
-        <v>0.31865882914249999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="33">
-        <f>E53/Variables!$B$5</f>
-        <v>0.12929840000000001</v>
+        <v>355520000</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I56" s="72"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="33">
-        <f>K53/Variables!$B$5</f>
-        <v>0.19259702000000001</v>
+        <v>41</v>
+      </c>
+      <c r="H56" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="94"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="34">
+        <f>K13-K23</f>
+        <v>1803992000</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="N56" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="O56" s="72"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="33">
-        <f>Q53/Variables!$B$5</f>
-        <v>0.22773743299999999</v>
+        <v>41</v>
+      </c>
+      <c r="N56" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="O56" s="94"/>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="34">
+        <f>Q13-Q23</f>
+        <v>3256984000</v>
       </c>
       <c r="R56" s="32"/>
       <c r="S56" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="T56" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="U56" s="72"/>
-      <c r="V56" s="73"/>
-      <c r="W56" s="33">
-        <f>W53/Variables!$B$5</f>
-        <v>0.27889040794999997</v>
+        <v>41</v>
+      </c>
+      <c r="T56" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="U56" s="94"/>
+      <c r="V56" s="95"/>
+      <c r="W56" s="34">
+        <f>W13-W23</f>
+        <v>6933968000</v>
       </c>
       <c r="X56" s="32"/>
       <c r="Y56" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z56" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA56" s="94"/>
+      <c r="AB56" s="95"/>
+      <c r="AC56" s="34">
+        <f>AC13-AC23</f>
+        <v>13267936000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="94"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="33">
+        <f>E56/E13</f>
+        <v>0.45088427954520954</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="94"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="33">
+        <f>K56/K13</f>
+        <v>0.48800368547211453</v>
+      </c>
+      <c r="L57" s="32"/>
+      <c r="M57" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N57" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" s="94"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="33">
+        <f>Q56/Q13</f>
+        <v>0.44268414976362425</v>
+      </c>
+      <c r="R57" s="32"/>
+      <c r="S57" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T57" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="U57" s="94"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="33">
+        <f>W56/W13</f>
+        <v>0.44406645324395433</v>
+      </c>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z57" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA57" s="94"/>
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="33">
+        <f>AC56/AC13</f>
+        <v>0.43317626428136924</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="94"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="34">
+        <f>E56-E40</f>
+        <v>78860000</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="94"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="34">
+        <f>K56-K40</f>
+        <v>-362248000</v>
+      </c>
+      <c r="L58" s="32"/>
+      <c r="M58" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N58" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="O58" s="94"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="34">
+        <f>Q56-Q40</f>
+        <v>283504000</v>
+      </c>
+      <c r="R58" s="32"/>
+      <c r="S58" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="T58" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="U58" s="94"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="34">
+        <f>W56-W40</f>
+        <v>1576008000</v>
+      </c>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z58" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA58" s="94"/>
+      <c r="AB58" s="95"/>
+      <c r="AC58" s="34">
+        <f>AC56-AC40</f>
+        <v>3126016000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="94"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="33">
+        <f>E58/E13</f>
+        <v>0.10001331650803112</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="94"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="33">
+        <f>K58/K13</f>
+        <v>-9.7992873058695681E-2</v>
+      </c>
+      <c r="L59" s="32"/>
+      <c r="M59" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="N59" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59" s="94"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="33">
+        <f>Q58/Q13</f>
+        <v>3.8533418400147665E-2</v>
+      </c>
+      <c r="R59" s="32"/>
+      <c r="S59" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T59" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="U59" s="94"/>
+      <c r="V59" s="95"/>
+      <c r="W59" s="33">
+        <f>W58/W13</f>
+        <v>0.10093099403459867</v>
+      </c>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z59" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA59" s="94"/>
+      <c r="AB59" s="95"/>
+      <c r="AC59" s="33">
+        <f>AC58/AC13</f>
+        <v>0.10205927530580407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="94"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="34">
+        <f>E58-E53</f>
+        <v>60722200</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="I60" s="94"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="34">
+        <f>K58-K53</f>
+        <v>-347758080</v>
+      </c>
+      <c r="L60" s="32"/>
+      <c r="M60" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N60" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="O60" s="94"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="34">
+        <f>Q58-Q53</f>
+        <v>218298080</v>
+      </c>
+      <c r="R60" s="32"/>
+      <c r="S60" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="T60" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="U60" s="94"/>
+      <c r="V60" s="95"/>
+      <c r="W60" s="34">
+        <f>W58-W53</f>
+        <v>1213526160</v>
+      </c>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z60" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA60" s="94"/>
+      <c r="AB60" s="95"/>
+      <c r="AC60" s="34">
+        <f>AC58-AC53</f>
+        <v>2407032320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="94"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="33">
+        <f>E60/E13</f>
+        <v>7.701025371118396E-2</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" s="94"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="33">
+        <f>K60/K13</f>
+        <v>-9.4073158136347854E-2</v>
+      </c>
+      <c r="L61" s="32"/>
+      <c r="M61" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N61" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" s="94"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="33">
+        <f>Q60/Q13</f>
+        <v>2.9670732168113698E-2</v>
+      </c>
+      <c r="R61" s="32"/>
+      <c r="S61" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="T61" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" s="94"/>
+      <c r="V61" s="95"/>
+      <c r="W61" s="33">
+        <f>W60/W13</f>
+        <v>7.7716865406640967E-2</v>
+      </c>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z61" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA61" s="94"/>
+      <c r="AB61" s="95"/>
+      <c r="AC61" s="33">
+        <f>AC60/AC13</f>
+        <v>7.8585641985469135E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="33">
+        <f>E60/Variables!$B$7</f>
+        <v>0.12144439999999999</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I62" s="29"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="33">
+        <f>K60/Variables!$B$7</f>
+        <v>-0.69551616000000005</v>
+      </c>
+      <c r="L62" s="32"/>
+      <c r="M62" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N62" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O62" s="29"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="33">
+        <f>Q60/Variables!$B$7</f>
+        <v>0.43659616000000001</v>
+      </c>
+      <c r="R62" s="32"/>
+      <c r="S62" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="T62" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="U62" s="29"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="33">
+        <f>W60/Variables!$B$7</f>
+        <v>2.42705232</v>
+      </c>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z62" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="33">
+        <f>AC60/Variables!$B$7</f>
+        <v>4.8140646399999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Z56" s="71" t="s">
+      <c r="B63" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="AA56" s="72"/>
-      <c r="AB56" s="73"/>
-      <c r="AC56" s="33">
-        <f>AC53/Variables!$B$5</f>
-        <v>0.31865882914249999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="72"/>
-      <c r="AB57" s="73"/>
-      <c r="AC57" s="27"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="E59" s="26"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="D61" s="119"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="33">
+        <f>E60/Variables!$B$5</f>
+        <v>0.12144439999999999</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="94"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="33">
+        <f>K60/Variables!$B$5</f>
+        <v>-0.69551616000000005</v>
+      </c>
+      <c r="L63" s="32"/>
+      <c r="M63" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N63" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O63" s="94"/>
+      <c r="P63" s="95"/>
+      <c r="Q63" s="33">
+        <f>Q60/Variables!$B$5</f>
+        <v>0.43659616000000001</v>
+      </c>
+      <c r="R63" s="32"/>
+      <c r="S63" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="T63" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="U63" s="94"/>
+      <c r="V63" s="95"/>
+      <c r="W63" s="33">
+        <f>W60/Variables!$B$5</f>
+        <v>2.42705232</v>
+      </c>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z63" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA63" s="94"/>
+      <c r="AB63" s="95"/>
+      <c r="AC63" s="33">
+        <f>AC60/Variables!$B$5</f>
+        <v>4.8140646399999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="94"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="94"/>
+      <c r="P64" s="95"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="31"/>
+      <c r="T64" s="93"/>
+      <c r="U64" s="94"/>
+      <c r="V64" s="95"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="31"/>
+      <c r="Z64" s="93"/>
+      <c r="AA64" s="94"/>
+      <c r="AB64" s="95"/>
+      <c r="AC64" s="27"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="26"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D68" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="185">
@@ -4706,26 +5304,26 @@
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M5:M12"/>
     <mergeCell ref="N5:N9"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H15:H33"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H15:H40"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:I22"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="H5:H9"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I9:J9"/>
@@ -4733,9 +5331,9 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G15:G37"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="G15:G44"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
@@ -4751,90 +5349,90 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="G5:G12"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A15:A37"/>
-    <mergeCell ref="B15:B33"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A15:A44"/>
+    <mergeCell ref="B15:B40"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:A52"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="N15:N33"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="N15:N40"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:O22"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="O24:O32"/>
-    <mergeCell ref="I24:I32"/>
-    <mergeCell ref="C24:C32"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="O24:O39"/>
+    <mergeCell ref="I24:I39"/>
+    <mergeCell ref="C24:C39"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="H57:J57"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:O36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="M55:Q55"/>
     <mergeCell ref="N56:P56"/>
     <mergeCell ref="N57:P57"/>
-    <mergeCell ref="M48:Q48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M15:M37"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="S42:S45"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S15:S37"/>
-    <mergeCell ref="T15:T33"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="M15:M44"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S49:S52"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="S15:S44"/>
+    <mergeCell ref="T15:T40"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="U16:U22"/>
     <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="T35:U36"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="U24:U32"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="T56:V56"/>
     <mergeCell ref="T57:V57"/>
-    <mergeCell ref="S48:W48"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
     <mergeCell ref="T51:V51"/>
     <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="T54:V54"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T63:V63"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N10:P10"/>
@@ -4853,12 +5451,12 @@
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="T12:V12"/>
-    <mergeCell ref="Z15:Z33"/>
+    <mergeCell ref="Z15:Z40"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AA16:AA22"/>
     <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="Y5:Y12"/>
     <mergeCell ref="Z5:Z9"/>
     <mergeCell ref="AA5:AB5"/>
@@ -4867,26 +5465,26 @@
     <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="Z12:AB12"/>
     <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y15:Y37"/>
+    <mergeCell ref="Y15:Y44"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA24:AA32"/>
+    <mergeCell ref="AA24:AA39"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="Z56:AB56"/>
     <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Y48:AC48"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="Z42:AA43"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y49:Y52"/>
     <mergeCell ref="Z49:AB49"/>
     <mergeCell ref="Z50:AB50"/>
     <mergeCell ref="Z51:AB51"/>
     <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="Z35:AA36"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="Y42:Y45"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="Y40:AB40"/>
+    <mergeCell ref="Y47:AB47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4900,7 +5498,7 @@
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -4931,7 +5529,7 @@
     <col min="29" max="29" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>Variables!A1</f>
         <v>Arquitectura Empresarial</v>
@@ -4942,7 +5540,7 @@
       <c r="Q1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4952,7 +5550,7 @@
       <c r="Q2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -4979,7 +5577,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5004,111 +5602,111 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="91" t="s">
+      <c r="J5" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="91"/>
+      <c r="K5" s="115"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="N5" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="91"/>
+      <c r="O5" s="115"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="91" t="s">
+      <c r="R5" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="91"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="91" t="s">
+      <c r="V5" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="91"/>
-    </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="W5" s="115"/>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="116">
         <f>C13-C20</f>
         <v>500000000</v>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="116">
         <f>(B6*(1-Variables!B24))+G25</f>
-        <v>563960000</v>
-      </c>
-      <c r="G6" s="92"/>
+        <v>558860000</v>
+      </c>
+      <c r="G6" s="116"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="116">
         <f>(F6*(1-Variables!B24))+K25</f>
-        <v>666464600</v>
-      </c>
-      <c r="K6" s="92"/>
+        <v>174257600</v>
+      </c>
+      <c r="K6" s="116"/>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="92">
+      <c r="N6" s="116">
         <f>(J6*(1-Variables!B24))+O25</f>
-        <v>787687466</v>
-      </c>
-      <c r="O6" s="92"/>
+        <v>450791296</v>
+      </c>
+      <c r="O6" s="116"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="92">
+      <c r="R6" s="116">
         <f>(N6*(1-Variables!B24))+S25</f>
-        <v>937277634.86000001</v>
-      </c>
-      <c r="S6" s="92"/>
+        <v>2008767644.1599998</v>
+      </c>
+      <c r="S6" s="116"/>
       <c r="T6" s="3"/>
       <c r="U6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="92">
+      <c r="V6" s="116">
         <f>(R6*(1-Variables!B24))+W25</f>
-        <v>1106707847.0906</v>
-      </c>
-      <c r="W6" s="92"/>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>5054432938.3935995</v>
+      </c>
+      <c r="W6" s="116"/>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5133,8 +5731,8 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="117" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5144,7 +5742,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="117" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -5154,7 +5752,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="117" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -5164,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="93" t="s">
+      <c r="M8" s="117" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5174,7 +5772,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="93" t="s">
+      <c r="Q8" s="117" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5184,7 +5782,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="93" t="s">
+      <c r="U8" s="117" t="s">
         <v>72</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -5194,8 +5792,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="94"/>
+    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="118"/>
       <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
@@ -5204,179 +5802,179 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="94"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <f>'Ingresos &amp; egresos'!E40</f>
-        <v>83960000</v>
+        <f>'Ingresos &amp; egresos'!E47</f>
+        <v>78860000</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="94"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="5">
-        <f>'Ingresos &amp; egresos'!K40</f>
-        <v>125063000</v>
+        <f>'Ingresos &amp; egresos'!K47</f>
+        <v>-362248000</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="94"/>
+      <c r="M9" s="118"/>
       <c r="N9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="5">
-        <f>'Ingresos &amp; egresos'!Q40</f>
-        <v>147881450</v>
+        <f>'Ingresos &amp; egresos'!Q47</f>
+        <v>283504000</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="94"/>
+      <c r="Q9" s="118"/>
       <c r="R9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="5">
-        <f>'Ingresos &amp; egresos'!W40</f>
-        <v>181097667.5</v>
+        <f>'Ingresos &amp; egresos'!W47</f>
+        <v>1576008000</v>
       </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="94"/>
+      <c r="U9" s="118"/>
       <c r="V9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="5">
-        <f>'Ingresos &amp; egresos'!AC40</f>
-        <v>206921317.625</v>
-      </c>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
+        <f>'Ingresos &amp; egresos'!AC47</f>
+        <v>3126016000</v>
+      </c>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
       <c r="AB9" s="121"/>
       <c r="AC9" s="121"/>
     </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94"/>
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="118"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="94"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="94"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="12"/>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="94"/>
+      <c r="M10" s="118"/>
       <c r="N10" s="12"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="94"/>
+      <c r="Q10" s="118"/>
       <c r="R10" s="12"/>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="94"/>
+      <c r="U10" s="118"/>
       <c r="V10" s="12"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="122"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="123"/>
-    </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="118"/>
       <c r="B11" s="12"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="94"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="94"/>
+      <c r="I11" s="118"/>
       <c r="J11" s="12"/>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="94"/>
+      <c r="M11" s="118"/>
       <c r="N11" s="12"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="94"/>
+      <c r="Q11" s="118"/>
       <c r="R11" s="12"/>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="94"/>
+      <c r="U11" s="118"/>
       <c r="V11" s="12"/>
       <c r="W11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="125"/>
-    </row>
-    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="86"/>
+    </row>
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="119"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="95"/>
+      <c r="E12" s="119"/>
       <c r="F12" s="12"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="95"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="95"/>
+      <c r="M12" s="119"/>
       <c r="N12" s="12"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="95"/>
+      <c r="Q12" s="119"/>
       <c r="R12" s="12"/>
       <c r="S12" s="5">
         <v>0</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="95"/>
+      <c r="U12" s="119"/>
       <c r="V12" s="12"/>
       <c r="W12" s="5">
         <v>0</v>
       </c>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="123"/>
-    </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9">
@@ -5388,42 +5986,42 @@
       <c r="F13" s="7"/>
       <c r="G13" s="9">
         <f>SUM(G9:G12)</f>
-        <v>83960000</v>
+        <v>78860000</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
       <c r="K13" s="9">
         <f>SUM(K9:K12)</f>
-        <v>125063000</v>
+        <v>-362248000</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="3"/>
       <c r="N13" s="7"/>
       <c r="O13" s="9">
         <f>SUM(O9:O12)</f>
-        <v>147881450</v>
+        <v>283504000</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
       <c r="S13" s="9">
         <f>SUM(S9:S12)</f>
-        <v>181097667.5</v>
+        <v>1576008000</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="3"/>
       <c r="V13" s="7"/>
       <c r="W13" s="9">
         <f>SUM(W9:W12)</f>
-        <v>206921317.625</v>
-      </c>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="125"/>
-    </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3126016000</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="86"/>
+    </row>
+    <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -5447,13 +6045,12 @@
       <c r="U14" s="3"/>
       <c r="V14" s="7"/>
       <c r="W14" s="8"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="125"/>
-    </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93" t="s">
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="86"/>
+    </row>
+    <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="117" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -5463,7 +6060,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="117" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -5473,7 +6070,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="93" t="s">
+      <c r="I15" s="117" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -5483,7 +6080,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="93" t="s">
+      <c r="M15" s="117" t="s">
         <v>76</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -5493,7 +6090,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="93" t="s">
+      <c r="Q15" s="117" t="s">
         <v>77</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -5503,7 +6100,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="93" t="s">
+      <c r="U15" s="117" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -5512,176 +6109,173 @@
       <c r="W15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="125"/>
-    </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="94"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="86"/>
+    </row>
+    <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="118"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="94"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="94"/>
+      <c r="I16" s="118"/>
       <c r="J16" s="12"/>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="94"/>
+      <c r="M16" s="118"/>
       <c r="N16" s="12"/>
       <c r="O16" s="5">
         <v>0</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="94"/>
+      <c r="Q16" s="118"/>
       <c r="R16" s="12"/>
       <c r="S16" s="5">
         <v>0</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="94"/>
+      <c r="U16" s="118"/>
       <c r="V16" s="12"/>
       <c r="W16" s="5">
         <v>0</v>
       </c>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="125"/>
-    </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="94"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="86"/>
+    </row>
+    <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="118"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="94"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="94"/>
+      <c r="I17" s="118"/>
       <c r="J17" s="12"/>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="94"/>
+      <c r="M17" s="118"/>
       <c r="N17" s="12"/>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="94"/>
+      <c r="Q17" s="118"/>
       <c r="R17" s="12"/>
       <c r="S17" s="5">
         <v>0</v>
       </c>
       <c r="T17" s="8"/>
-      <c r="U17" s="94"/>
+      <c r="U17" s="118"/>
       <c r="V17" s="12"/>
       <c r="W17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="122"/>
-      <c r="AC17" s="122"/>
-    </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="94"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="123"/>
+      <c r="AC17" s="123"/>
+    </row>
+    <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="118"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="94"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="94"/>
+      <c r="I18" s="118"/>
       <c r="J18" s="12"/>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="94"/>
+      <c r="M18" s="118"/>
       <c r="N18" s="12"/>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="94"/>
+      <c r="Q18" s="118"/>
       <c r="R18" s="12"/>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="94"/>
+      <c r="U18" s="118"/>
       <c r="V18" s="12"/>
       <c r="W18" s="5">
         <v>0</v>
       </c>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="125"/>
-    </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="95"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="86"/>
+    </row>
+    <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="119"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="95"/>
+      <c r="E19" s="119"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="95"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="95"/>
+      <c r="M19" s="119"/>
       <c r="N19" s="12"/>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="95"/>
+      <c r="Q19" s="119"/>
       <c r="R19" s="12"/>
       <c r="S19" s="5">
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
-      <c r="U19" s="95"/>
+      <c r="U19" s="119"/>
       <c r="V19" s="12"/>
       <c r="W19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="123"/>
-      <c r="AC19" s="125"/>
-    </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="85"/>
+      <c r="AC19" s="86"/>
+    </row>
+    <row r="20" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9">
@@ -5723,12 +6317,12 @@
         <f>SUM(W16:W19)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="125"/>
-    </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="86"/>
+    </row>
+    <row r="21" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -5752,53 +6346,50 @@
       <c r="U21" s="3"/>
       <c r="V21" s="7"/>
       <c r="W21" s="8"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="123"/>
-      <c r="AC21" s="125"/>
-    </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="96" t="s">
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="85"/>
+      <c r="AC21" s="86"/>
+    </row>
+    <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="96" t="s">
+      <c r="I22" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="96" t="s">
+      <c r="M22" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="96" t="s">
+      <c r="Q22" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="96" t="s">
+      <c r="U22" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="Z22" s="123"/>
-      <c r="AA22" s="123"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
       <c r="AB22" s="121"/>
       <c r="AC22" s="121"/>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>80</v>
       </c>
@@ -5864,12 +6455,9 @@
         <f>W20/W13</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="123"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="123"/>
-      <c r="AC23" s="127"/>
-    </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC23" s="87"/>
+    </row>
+    <row r="24" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
@@ -5935,12 +6523,9 @@
         <f>W16/V6</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="123"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="123"/>
-      <c r="AC24" s="123"/>
-    </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="85"/>
+    </row>
+    <row r="25" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="13" t="s">
         <v>84</v>
@@ -5955,7 +6540,7 @@
       </c>
       <c r="G25" s="5">
         <f>G13-G20</f>
-        <v>83960000</v>
+        <v>78860000</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="11"/>
@@ -5964,7 +6549,7 @@
       </c>
       <c r="K25" s="5">
         <f>K13-K20</f>
-        <v>125063000</v>
+        <v>-362248000</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
@@ -5973,7 +6558,7 @@
       </c>
       <c r="O25" s="5">
         <f>O13-O20</f>
-        <v>147881450</v>
+        <v>283504000</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="11"/>
@@ -5982,7 +6567,7 @@
       </c>
       <c r="S25" s="5">
         <f>S13-S20</f>
-        <v>181097667.5</v>
+        <v>1576008000</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="11"/>
@@ -5991,14 +6576,14 @@
       </c>
       <c r="W25" s="5">
         <f>W13-W20</f>
-        <v>206921317.625</v>
-      </c>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="130"/>
-    </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+        <v>3126016000</v>
+      </c>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="90"/>
+    </row>
+    <row r="26" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="13" t="s">
         <v>85</v>
@@ -6013,7 +6598,7 @@
       </c>
       <c r="G26" s="5">
         <f>G25+C26</f>
-        <v>83960000</v>
+        <v>78860000</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="11"/>
@@ -6022,7 +6607,7 @@
       </c>
       <c r="K26" s="5">
         <f>G26+K25</f>
-        <v>209023000</v>
+        <v>-283388000</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="11"/>
@@ -6031,7 +6616,7 @@
       </c>
       <c r="O26" s="5">
         <f>K26+O25</f>
-        <v>356904450</v>
+        <v>116000</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="11"/>
@@ -6040,7 +6625,7 @@
       </c>
       <c r="S26" s="5">
         <f>O26+S25</f>
-        <v>538002117.5</v>
+        <v>1576124000</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="11"/>
@@ -6049,11 +6634,11 @@
       </c>
       <c r="W26" s="5">
         <f>S26+W25</f>
-        <v>744923435.125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="B29" s="119"/>
+        <v>4702140000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B29" s="84"/>
       <c r="J29" s="7"/>
     </row>
   </sheetData>

--- a/HT-6/Optica Modelo Financiero.xlsx
+++ b/HT-6/Optica Modelo Financiero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF67C59-882C-43D1-B9D7-101BD13F0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A39CE3-5109-40F0-98D3-9AEFED39B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="178">
   <si>
     <t>Arquitectura Empresarial</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>Bono por mejor empleado en ventas (por sede)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1062,12 +1065,33 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1077,6 +1101,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,60 +1140,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1148,27 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1552,7 +1555,7 @@
         <v>500000000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="92"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
@@ -1562,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="92"/>
+      <c r="D6" s="94"/>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
@@ -1572,7 +1575,7 @@
         <v>500000000</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="92"/>
+      <c r="D7" s="94"/>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -1654,7 +1657,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="59"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="91"/>
+      <c r="D17" s="93"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
@@ -1662,7 +1665,7 @@
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="91"/>
+      <c r="D18" s="93"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
@@ -1672,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="91"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
@@ -1682,7 +1685,7 @@
         <v>7500000</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="91"/>
+      <c r="D20" s="93"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
@@ -1692,7 +1695,7 @@
         <v>1000000</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="91"/>
+      <c r="D21" s="93"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="50" t="s">
@@ -1702,7 +1705,7 @@
         <v>0.15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="91"/>
+      <c r="D22" s="93"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
@@ -1712,7 +1715,7 @@
         <v>0.19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="91"/>
+      <c r="D23" s="93"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
@@ -1758,7 +1761,7 @@
       <c r="A28" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="126">
+      <c r="B28" s="92">
         <v>4</v>
       </c>
       <c r="C28" s="2"/>
@@ -1768,7 +1771,7 @@
       <c r="A29" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="126">
+      <c r="B29" s="92">
         <v>2</v>
       </c>
       <c r="C29" s="2"/>
@@ -1999,7 +2002,7 @@
       <c r="A58" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="125">
+      <c r="B58" s="91">
         <v>30000</v>
       </c>
     </row>
@@ -2007,7 +2010,7 @@
       <c r="A59" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="126">
+      <c r="B59" s="92">
         <v>50</v>
       </c>
     </row>
@@ -2015,7 +2018,7 @@
       <c r="A60" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="126">
+      <c r="B60" s="92">
         <v>2</v>
       </c>
     </row>
@@ -2150,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4764C-DEDE-C149-BFDF-F902BA43F941}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2265,510 +2268,510 @@
       <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="107"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="110" t="s">
+      <c r="N5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="107" t="s">
+      <c r="O5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="107"/>
+      <c r="P5" s="96"/>
       <c r="Q5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="R5" s="24"/>
-      <c r="S5" s="107" t="s">
+      <c r="S5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="T5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="107" t="s">
+      <c r="U5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="107"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="X5" s="24"/>
-      <c r="Y5" s="107" t="s">
+      <c r="Y5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="110" t="s">
+      <c r="Z5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="107" t="s">
+      <c r="AA5" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="107"/>
+      <c r="AB5" s="96"/>
       <c r="AC5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="108" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="34">
         <f>Variables!$B$56*Variables!$B$64</f>
         <v>8395000</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="108" t="s">
+      <c r="G6" s="96"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="108"/>
+      <c r="J6" s="103"/>
       <c r="K6" s="34">
         <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28</f>
         <v>38617000</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="108" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="108"/>
+      <c r="P6" s="103"/>
       <c r="Q6" s="34">
         <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29</f>
         <v>77234000</v>
       </c>
       <c r="R6" s="24"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="108" t="s">
+      <c r="S6" s="96"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="108"/>
+      <c r="V6" s="103"/>
       <c r="W6" s="34">
         <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
         <v>154468000</v>
       </c>
       <c r="X6" s="24"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="108" t="s">
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="108"/>
+      <c r="AB6" s="103"/>
       <c r="AC6" s="34">
         <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
         <v>308936000</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="108" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="34">
         <f>Variables!$B$65*Variables!$B$57</f>
         <v>51100000</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="108" t="s">
+      <c r="G7" s="96"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="108"/>
+      <c r="J7" s="103"/>
       <c r="K7" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28</f>
         <v>235059999.99999997</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="108" t="s">
+      <c r="M7" s="96"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="108"/>
+      <c r="P7" s="103"/>
       <c r="Q7" s="34">
         <f>Variables!B65*Variables!B57*(1+Variables!B22)*Variables!B28*Variables!B29</f>
         <v>470119999.99999994</v>
       </c>
       <c r="R7" s="24"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="108" t="s">
+      <c r="S7" s="96"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="108"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
         <v>940239999.99999988</v>
       </c>
       <c r="X7" s="24"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="108" t="s">
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="108"/>
+      <c r="AB7" s="103"/>
       <c r="AC7" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
         <v>1880479999.9999998</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="108" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="108"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="34">
         <f>(Variables!B63)*Variables!B55</f>
         <v>547500000</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="108" t="s">
+      <c r="G8" s="96"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="108"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="34">
         <f>(Variables!B63+Variables!B68)*Variables!B55*Variables!B28</f>
         <v>2340000000</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="108" t="s">
+      <c r="M8" s="96"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="108"/>
+      <c r="P8" s="103"/>
       <c r="Q8" s="34">
         <f>(Variables!B63+(2*Variables!B68))*Variables!B55*Variables!B28*Variables!B29</f>
         <v>4980000000</v>
       </c>
       <c r="R8" s="24"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="108" t="s">
+      <c r="S8" s="96"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="108"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="34">
         <f>(Variables!B63+(3*Variables!B68))*Variables!B55*Variables!B28*Variables!B29^2</f>
         <v>10560000000</v>
       </c>
       <c r="X8" s="24"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="108" t="s">
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="108"/>
+      <c r="AB8" s="103"/>
       <c r="AC8" s="34">
         <f>(Variables!B63+(3*Variables!B68))*Variables!B55*Variables!B28*Variables!B29^3</f>
         <v>21120000000</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="108" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="34">
         <f>(Variables!B62)*Variables!B54</f>
         <v>180000000</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="108" t="s">
+      <c r="G9" s="96"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="108"/>
+      <c r="J9" s="103"/>
       <c r="K9" s="34">
         <f>(Variables!B62+Variables!B68+Variables!B66)*Variables!B54*Variables!B28</f>
         <v>1080000000</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="108" t="s">
+      <c r="M9" s="96"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="108"/>
+      <c r="P9" s="103"/>
       <c r="Q9" s="34">
         <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29+Variables!B66*Variables!B67)*Variables!B54</f>
         <v>1830000000</v>
       </c>
       <c r="R9" s="24"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="108" t="s">
+      <c r="S9" s="96"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="108"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="34">
         <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29^2+Variables!B66*Variables!B67^3)*Variables!B54</f>
         <v>3960000000</v>
       </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="108" t="s">
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="108"/>
+      <c r="AB9" s="103"/>
       <c r="AC9" s="34">
         <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29^3+Variables!B66*Variables!B67^3)*Variables!B54</f>
         <v>7320000000</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
-      <c r="B10" s="99" t="s">
+      <c r="A10" s="96"/>
+      <c r="B10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="37">
         <f>SUM(E6:E9)</f>
         <v>786995000</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="99" t="s">
+      <c r="G10" s="96"/>
+      <c r="H10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="105"/>
       <c r="K10" s="37">
         <f>SUM(K6:K9)</f>
         <v>3693677000</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="99" t="s">
+      <c r="M10" s="96"/>
+      <c r="N10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="105"/>
       <c r="Q10" s="37">
         <f>SUM(Q6:Q9)</f>
         <v>7357354000</v>
       </c>
       <c r="R10" s="24"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="99" t="s">
+      <c r="S10" s="96"/>
+      <c r="T10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="100"/>
-      <c r="V10" s="101"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="37">
         <f>SUM(W6:W9)</f>
         <v>15614708000</v>
       </c>
       <c r="X10" s="24"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="99" t="s">
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="101"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="105"/>
       <c r="AC10" s="37">
         <f>SUM(AC6:AC9)</f>
         <v>30629416000</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="34">
         <f>Variables!B59*Variables!B58</f>
         <v>1500000</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="107"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="108"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="34">
         <f>Variables!B58*Variables!B59*Variables!B60</f>
         <v>3000000</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="107"/>
+      <c r="M11" s="96"/>
       <c r="N11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="107"/>
+      <c r="S11" s="96"/>
       <c r="T11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="34"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="107"/>
+      <c r="Y11" s="96"/>
       <c r="Z11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="99" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="37">
         <f>SUM(E11:E11)</f>
         <v>1500000</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="99" t="s">
+      <c r="G12" s="96"/>
+      <c r="H12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="101"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="105"/>
       <c r="K12" s="37">
         <f>SUM(K11:K11)</f>
         <v>3000000</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="99" t="s">
+      <c r="M12" s="96"/>
+      <c r="N12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="105"/>
       <c r="Q12" s="37">
         <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="99" t="s">
+      <c r="S12" s="96"/>
+      <c r="T12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="100"/>
-      <c r="V12" s="101"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="105"/>
       <c r="W12" s="37">
         <f>SUM(W11:W11)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="99" t="s">
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="101"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="105"/>
       <c r="AC12" s="37">
         <f>SUM(AC11:AC11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="37">
         <f>E10+E12</f>
         <v>788495000</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G13" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
       <c r="K13" s="37">
         <f>K10+K12</f>
         <v>3696677000</v>
       </c>
-      <c r="M13" s="106" t="s">
+      <c r="M13" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
       <c r="Q13" s="37">
         <f>Q10+Q12</f>
         <v>7357354000</v>
       </c>
-      <c r="S13" s="106" t="s">
+      <c r="S13" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="37">
         <f>W10+W12</f>
         <v>15614708000</v>
       </c>
-      <c r="Y13" s="106" t="s">
+      <c r="Y13" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
       <c r="AC13" s="37">
         <f>AC10+AC12</f>
         <v>30629416000</v>
@@ -2802,76 +2805,76 @@
       <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="107"/>
+      <c r="J15" s="96"/>
       <c r="K15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="110" t="s">
+      <c r="N15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="107"/>
+      <c r="P15" s="96"/>
       <c r="Q15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="110" t="s">
+      <c r="S15" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="110" t="s">
+      <c r="T15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="107" t="s">
+      <c r="U15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="107"/>
+      <c r="V15" s="96"/>
       <c r="W15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="110" t="s">
+      <c r="Y15" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="110" t="s">
+      <c r="Z15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="107" t="s">
+      <c r="AA15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="107"/>
+      <c r="AB15" s="96"/>
       <c r="AC15" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="110" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="97" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2881,9 +2884,9 @@
         <f>(Variables!$B$12)*Variables!B15</f>
         <v>99000000</v>
       </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="110" t="s">
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="97" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="43" t="s">
@@ -2893,9 +2896,9 @@
         <f>((Variables!$B$12+Variables!B68)*Variables!B28+Variables!B66)*Variables!B15</f>
         <v>463500000</v>
       </c>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="110" t="s">
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="97" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="43" t="s">
@@ -2905,9 +2908,9 @@
         <f>(((Variables!$B$12+(2*Variables!B68))*Variables!B28*Variables!B29+Variables!B66*Variables!B67^2))*Variables!B15</f>
         <v>1062000000</v>
       </c>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="110" t="s">
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="97" t="s">
         <v>26</v>
       </c>
       <c r="V16" s="74" t="s">
@@ -2917,9 +2920,9 @@
         <f>(((Variables!$B$12+(3*Variables!B68))*Variables!B28*Variables!B29^2+Variables!B66*Variables!B67^3))*Variables!B15</f>
         <v>2244000000</v>
       </c>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="110" t="s">
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="97" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="74" t="s">
@@ -2931,9 +2934,9 @@
       </c>
     </row>
     <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2941,9 +2944,9 @@
         <f>Variables!B13*Variables!B63</f>
         <v>328500000</v>
       </c>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
       <c r="J17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2951,9 +2954,9 @@
         <f>(Variables!B63+Variables!B68)*Variables!B13*Variables!B28</f>
         <v>1404000000</v>
       </c>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="111"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
       <c r="P17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2961,9 +2964,9 @@
         <f>(Variables!B63+(2*Variables!B68))*Variables!B13*Variables!B28*Variables!B29</f>
         <v>2988000000</v>
       </c>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
       <c r="V17" s="75" t="s">
         <v>127</v>
       </c>
@@ -2971,9 +2974,9 @@
         <f>(Variables!B63+(3*Variables!B68))*Variables!B13*Variables!B28*Variables!B29^2</f>
         <v>6336000000</v>
       </c>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
       <c r="AB17" s="75" t="s">
         <v>127</v>
       </c>
@@ -2983,9 +2986,9 @@
       </c>
     </row>
     <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="39" t="s">
         <v>128</v>
       </c>
@@ -2993,9 +2996,9 @@
         <f>Variables!B64*Variables!B14</f>
         <v>5475000</v>
       </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
       <c r="J18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3003,9 +3006,9 @@
         <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28</f>
         <v>25184999.999999996</v>
       </c>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
       <c r="P18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3013,9 +3016,9 @@
         <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29</f>
         <v>50369999.999999993</v>
       </c>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
       <c r="V18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3023,9 +3026,9 @@
         <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
         <v>100739999.99999999</v>
       </c>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
       <c r="AB18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3035,209 +3038,209 @@
       </c>
     </row>
     <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="39"/>
       <c r="E19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
       <c r="J19" s="39"/>
       <c r="K19" s="48">
         <v>0</v>
       </c>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
       <c r="V19" s="39"/>
       <c r="W19" s="48">
         <v>0</v>
       </c>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="39"/>
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
       <c r="J20" s="39"/>
       <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="34">
         <v>0</v>
       </c>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34">
         <v>0</v>
       </c>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="39"/>
       <c r="E21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
       <c r="J21" s="39"/>
       <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34">
         <v>0</v>
       </c>
-      <c r="Y21" s="111"/>
-      <c r="Z21" s="111"/>
-      <c r="AA21" s="111"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="39"/>
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
       <c r="J22" s="39"/>
       <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="99"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="34">
         <v>0</v>
       </c>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="112"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="99"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="Y22" s="111"/>
-      <c r="Z22" s="111"/>
-      <c r="AA22" s="112"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="99"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="99" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="101"/>
+      <c r="D23" s="105"/>
       <c r="E23" s="37">
         <f>SUM(E16:E22)</f>
         <v>432975000</v>
       </c>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="99" t="s">
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="101"/>
+      <c r="J23" s="105"/>
       <c r="K23" s="37">
         <f>SUM(K16:K22)</f>
         <v>1892685000</v>
       </c>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="99" t="s">
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="101"/>
+      <c r="P23" s="105"/>
       <c r="Q23" s="37">
         <f>SUM(Q16:Q22)</f>
         <v>4100370000</v>
       </c>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="99" t="s">
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="101"/>
+      <c r="V23" s="105"/>
       <c r="W23" s="37">
         <f>SUM(W16:W22)</f>
         <v>8680740000</v>
       </c>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="111"/>
-      <c r="AA23" s="99" t="s">
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="101"/>
+      <c r="AB23" s="105"/>
       <c r="AC23" s="37">
         <f>SUM(AC16:AC22)</f>
         <v>17361480000</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="110" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="97" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="81" t="s">
@@ -3247,9 +3250,9 @@
         <f>Variables!B38</f>
         <v>16800000</v>
       </c>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="110" t="s">
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="97" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="81" t="s">
@@ -3259,9 +3262,9 @@
         <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^0</f>
         <v>67200000</v>
       </c>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="110" t="s">
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="97" t="s">
         <v>29</v>
       </c>
       <c r="P24" s="81" t="s">
@@ -3271,9 +3274,9 @@
         <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^1</f>
         <v>134400000</v>
       </c>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="110" t="s">
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="97" t="s">
         <v>29</v>
       </c>
       <c r="V24" s="81" t="s">
@@ -3283,9 +3286,9 @@
         <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^2</f>
         <v>268800000</v>
       </c>
-      <c r="Y24" s="111"/>
-      <c r="Z24" s="111"/>
-      <c r="AA24" s="110" t="s">
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="97" t="s">
         <v>29</v>
       </c>
       <c r="AB24" s="81" t="s">
@@ -3297,9 +3300,9 @@
       </c>
     </row>
     <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3307,9 +3310,9 @@
         <f>Variables!$B$36*Variables!$B$34+Variables!B35</f>
         <v>65800000</v>
       </c>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
       <c r="J25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3317,9 +3320,9 @@
         <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^0+Variables!$B$35*Variables!$B$28*Variables!$B$29^0</f>
         <v>263200000</v>
       </c>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
       <c r="P25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3327,9 +3330,9 @@
         <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^1+Variables!$B$35*Variables!$B$28*Variables!$B$29^1</f>
         <v>526400000</v>
       </c>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
       <c r="V25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3337,9 +3340,9 @@
         <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^2+Variables!$B$35*Variables!$B$28*Variables!$B$29^2</f>
         <v>1052800000</v>
       </c>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="111"/>
-      <c r="AA25" s="111"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
       <c r="AB25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3349,9 +3352,9 @@
       </c>
     </row>
     <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3359,9 +3362,9 @@
         <f>Variables!B37</f>
         <v>36000000</v>
       </c>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
       <c r="J26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3369,9 +3372,9 @@
         <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^0</f>
         <v>144000000</v>
       </c>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
       <c r="P26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3379,9 +3382,9 @@
         <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^1</f>
         <v>288000000</v>
       </c>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
       <c r="V26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3389,9 +3392,9 @@
         <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^2</f>
         <v>576000000</v>
       </c>
-      <c r="Y26" s="111"/>
-      <c r="Z26" s="111"/>
-      <c r="AA26" s="111"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
       <c r="AB26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3401,9 +3404,9 @@
       </c>
     </row>
     <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="82" t="s">
         <v>27</v>
       </c>
@@ -3411,9 +3414,9 @@
         <f>Variables!B49</f>
         <v>2160000</v>
       </c>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
       <c r="J27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3421,9 +3424,9 @@
         <f>Variables!$B$39</f>
         <v>60000000</v>
       </c>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
       <c r="P27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3431,9 +3434,9 @@
         <f>Variables!$B$39+Variables!$B$44</f>
         <v>63000000</v>
       </c>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
       <c r="V27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3441,9 +3444,9 @@
         <f>Variables!$B$39+Variables!$B$44</f>
         <v>63000000</v>
       </c>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="111"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
       <c r="AB27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3453,9 +3456,9 @@
       </c>
     </row>
     <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="83" t="s">
         <v>102</v>
       </c>
@@ -3463,9 +3466,9 @@
         <f>Variables!$B$46</f>
         <v>43800000</v>
       </c>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
       <c r="J28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3473,9 +3476,9 @@
         <f>Variables!$B$40</f>
         <v>84000000</v>
       </c>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
       <c r="P28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3483,9 +3486,9 @@
         <f>Variables!$B$40+Variables!$B$44</f>
         <v>87000000</v>
       </c>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
       <c r="V28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3493,9 +3496,9 @@
         <f>Variables!$B$40+Variables!$B$44</f>
         <v>87000000</v>
       </c>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="111"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
       <c r="AB28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3505,9 +3508,9 @@
       </c>
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
       <c r="D29" s="83" t="s">
         <v>136</v>
       </c>
@@ -3515,9 +3518,9 @@
         <f>Variables!$B$47</f>
         <v>60000000</v>
       </c>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
       <c r="J29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3525,9 +3528,9 @@
         <f>Variables!$B$41</f>
         <v>120000000</v>
       </c>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
       <c r="P29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3535,9 +3538,9 @@
         <f>Variables!$B$41+Variables!$B$44</f>
         <v>123000000</v>
       </c>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
       <c r="V29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3545,9 +3548,9 @@
         <f>Variables!$B$41+Variables!$B$44</f>
         <v>123000000</v>
       </c>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="111"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
       <c r="AB29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3557,9 +3560,9 @@
       </c>
     </row>
     <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="81" t="s">
         <v>137</v>
       </c>
@@ -3567,9 +3570,9 @@
         <f>Variables!$B$48</f>
         <v>36000000</v>
       </c>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
       <c r="J30" s="81" t="s">
         <v>170</v>
       </c>
@@ -3577,9 +3580,9 @@
         <f>Variables!$B$42</f>
         <v>108000000</v>
       </c>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
       <c r="P30" s="81" t="s">
         <v>170</v>
       </c>
@@ -3587,9 +3590,9 @@
         <f>Variables!$B$42+Variables!$B$44</f>
         <v>111000000</v>
       </c>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
       <c r="V30" s="81" t="s">
         <v>170</v>
       </c>
@@ -3597,9 +3600,9 @@
         <f>Variables!$B$42+Variables!$B$44</f>
         <v>111000000</v>
       </c>
-      <c r="Y30" s="111"/>
-      <c r="Z30" s="111"/>
-      <c r="AA30" s="111"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
       <c r="AB30" s="81" t="s">
         <v>170</v>
       </c>
@@ -3609,9 +3612,9 @@
       </c>
     </row>
     <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
       <c r="D31" s="81" t="s">
         <v>165</v>
       </c>
@@ -3619,9 +3622,9 @@
         <f>Variables!B25</f>
         <v>600000</v>
       </c>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
       <c r="J31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3629,9 +3632,9 @@
         <f>Variables!$B$43</f>
         <v>192000000</v>
       </c>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
       <c r="P31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3639,9 +3642,9 @@
         <f>Variables!$B$43+Variables!$B$44</f>
         <v>195000000</v>
       </c>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
       <c r="V31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3649,9 +3652,9 @@
         <f>Variables!$B$43+Variables!$B$44</f>
         <v>195000000</v>
       </c>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
       <c r="AB31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3661,9 +3664,9 @@
       </c>
     </row>
     <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
       <c r="D32" s="81" t="s">
         <v>167</v>
       </c>
@@ -3671,9 +3674,9 @@
         <f>Variables!B27</f>
         <v>5000000</v>
       </c>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
       <c r="J32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3681,9 +3684,9 @@
         <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^0</f>
         <v>8640000</v>
       </c>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="111"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
       <c r="P32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3691,9 +3694,9 @@
         <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^1</f>
         <v>17280000</v>
       </c>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
       <c r="V32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3701,21 +3704,20 @@
         <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^2</f>
         <v>34560000</v>
       </c>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
       <c r="AB32" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="AC32" s="42">
-        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^3</f>
-        <v>69120000</v>
+      <c r="AC32" s="42" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="43" t="s">
         <v>138</v>
       </c>
@@ -3723,9 +3725,9 @@
         <f>Variables!B20</f>
         <v>7500000</v>
       </c>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
       <c r="J33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3733,9 +3735,9 @@
         <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^0</f>
         <v>175200000</v>
       </c>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
       <c r="P33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3743,9 +3745,9 @@
         <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^1</f>
         <v>350400000</v>
       </c>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
       <c r="V33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3753,9 +3755,9 @@
         <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^2</f>
         <v>700800000</v>
       </c>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
       <c r="AB33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3765,9 +3767,9 @@
       </c>
     </row>
     <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
       <c r="D34" s="43" t="s">
         <v>139</v>
       </c>
@@ -3775,9 +3777,9 @@
         <f>Variables!B21*Variables!B19</f>
         <v>3000000</v>
       </c>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
       <c r="J34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3785,9 +3787,9 @@
         <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^0</f>
         <v>240000000</v>
       </c>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
       <c r="P34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3795,9 +3797,9 @@
         <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^1</f>
         <v>480000000</v>
       </c>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="98"/>
       <c r="V34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3805,9 +3807,9 @@
         <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^2</f>
         <v>960000000</v>
       </c>
-      <c r="Y34" s="111"/>
-      <c r="Z34" s="111"/>
-      <c r="AA34" s="111"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
       <c r="AB34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3817,14 +3819,14 @@
       </c>
     </row>
     <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="43"/>
       <c r="E35" s="80"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
       <c r="J35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3832,9 +3834,9 @@
         <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^0</f>
         <v>144000000</v>
       </c>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
       <c r="P35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3842,9 +3844,9 @@
         <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^1</f>
         <v>288000000</v>
       </c>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
       <c r="V35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3852,9 +3854,9 @@
         <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^2</f>
         <v>576000000</v>
       </c>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
       <c r="AB35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3864,14 +3866,14 @@
       </c>
     </row>
     <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="43"/>
       <c r="E36" s="80"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="81" t="s">
         <v>168</v>
       </c>
@@ -3879,9 +3881,9 @@
         <f>Variables!$B$28*Variables!$B$50</f>
         <v>300000000</v>
       </c>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
       <c r="P36" s="81" t="s">
         <v>168</v>
       </c>
@@ -3889,9 +3891,9 @@
         <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^0</f>
         <v>300000000</v>
       </c>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="98"/>
       <c r="V36" s="81" t="s">
         <v>168</v>
       </c>
@@ -3899,9 +3901,9 @@
         <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^1</f>
         <v>600000000</v>
       </c>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="111"/>
+      <c r="Y36" s="98"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="98"/>
       <c r="AB36" s="81" t="s">
         <v>168</v>
       </c>
@@ -3911,14 +3913,14 @@
       </c>
     </row>
     <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
       <c r="D37" s="43"/>
       <c r="E37" s="80"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
       <c r="J37" s="81" t="s">
         <v>169</v>
       </c>
@@ -3926,9 +3928,9 @@
         <f>Variables!$B$30+Variables!$B$31</f>
         <v>260000000</v>
       </c>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
       <c r="P37" s="81" t="s">
         <v>175</v>
       </c>
@@ -3936,9 +3938,9 @@
         <f>Variables!$B$31</f>
         <v>10000000</v>
       </c>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="98"/>
+      <c r="U37" s="98"/>
       <c r="V37" s="81" t="s">
         <v>175</v>
       </c>
@@ -3946,9 +3948,9 @@
         <f>Variables!$B$31</f>
         <v>10000000</v>
       </c>
-      <c r="Y37" s="111"/>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="111"/>
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="98"/>
+      <c r="AA37" s="98"/>
       <c r="AB37" s="81" t="s">
         <v>175</v>
       </c>
@@ -3958,353 +3960,353 @@
       </c>
     </row>
     <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
       <c r="D38" s="43"/>
       <c r="E38" s="80"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
       <c r="J38" s="81"/>
       <c r="K38" s="80"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="98"/>
       <c r="V38" s="82"/>
       <c r="W38" s="56"/>
-      <c r="Y38" s="111"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="111"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="98"/>
+      <c r="AA38" s="98"/>
       <c r="AB38" s="82"/>
       <c r="AC38" s="56"/>
     </row>
     <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="43"/>
       <c r="E39" s="80"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="112"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="99"/>
       <c r="J39" s="81"/>
       <c r="K39" s="80"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="112"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="99"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="112"/>
+      <c r="S39" s="98"/>
+      <c r="T39" s="98"/>
+      <c r="U39" s="99"/>
       <c r="V39" s="82"/>
       <c r="W39" s="56"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="112"/>
+      <c r="Y39" s="98"/>
+      <c r="Z39" s="98"/>
+      <c r="AA39" s="99"/>
       <c r="AB39" s="82"/>
       <c r="AC39" s="56"/>
     </row>
     <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="111"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="99" t="s">
+      <c r="A40" s="98"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="114"/>
+      <c r="D40" s="107"/>
       <c r="E40" s="72">
         <f>SUM(E24:E34)</f>
         <v>276660000</v>
       </c>
-      <c r="G40" s="111"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="99" t="s">
+      <c r="G40" s="98"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="101"/>
+      <c r="J40" s="105"/>
       <c r="K40" s="37">
         <f>SUM(K24:K39)</f>
         <v>2166240000</v>
       </c>
-      <c r="M40" s="111"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="99" t="s">
+      <c r="M40" s="98"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="113"/>
+      <c r="P40" s="116"/>
       <c r="Q40" s="37">
         <f>SUM(Q24:Q39)</f>
         <v>2973480000</v>
       </c>
-      <c r="S40" s="111"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="99" t="s">
+      <c r="S40" s="98"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="101"/>
+      <c r="V40" s="105"/>
       <c r="W40" s="37">
         <f>SUM(W24:W39)</f>
         <v>5357960000</v>
       </c>
-      <c r="Y40" s="111"/>
-      <c r="Z40" s="112"/>
-      <c r="AA40" s="99" t="s">
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="AB40" s="101"/>
+      <c r="AB40" s="105"/>
       <c r="AC40" s="37">
         <f>SUM(AC24:AC39)</f>
-        <v>10141920000</v>
+        <v>10072800000</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="111"/>
-      <c r="B41" s="99" t="s">
+      <c r="A41" s="98"/>
+      <c r="B41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="101"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="105"/>
       <c r="E41" s="37">
         <f>E23+E40</f>
         <v>709635000</v>
       </c>
-      <c r="G41" s="111"/>
-      <c r="H41" s="99" t="s">
+      <c r="G41" s="98"/>
+      <c r="H41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="100"/>
-      <c r="J41" s="101"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="105"/>
       <c r="K41" s="37">
         <f>K23+K40</f>
         <v>4058925000</v>
       </c>
-      <c r="M41" s="111"/>
-      <c r="N41" s="99" t="s">
+      <c r="M41" s="98"/>
+      <c r="N41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="O41" s="100"/>
-      <c r="P41" s="101"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="105"/>
       <c r="Q41" s="37">
         <f>Q23+Q40</f>
         <v>7073850000</v>
       </c>
-      <c r="S41" s="111"/>
-      <c r="T41" s="99" t="s">
+      <c r="S41" s="98"/>
+      <c r="T41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="100"/>
-      <c r="V41" s="101"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="105"/>
       <c r="W41" s="37">
         <f>W23+W40</f>
         <v>14038700000</v>
       </c>
-      <c r="Y41" s="111"/>
-      <c r="Z41" s="99" t="s">
+      <c r="Y41" s="98"/>
+      <c r="Z41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AA41" s="100"/>
-      <c r="AB41" s="101"/>
+      <c r="AA41" s="106"/>
+      <c r="AB41" s="105"/>
       <c r="AC41" s="37">
         <f>AC23+AC40</f>
-        <v>27503400000</v>
+        <v>27434280000</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="102" t="s">
+      <c r="A42" s="98"/>
+      <c r="B42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="G42" s="111"/>
-      <c r="H42" s="102" t="s">
+      <c r="G42" s="98"/>
+      <c r="H42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="103"/>
+      <c r="I42" s="109"/>
       <c r="J42" s="39"/>
       <c r="K42" s="34">
         <v>0</v>
       </c>
-      <c r="M42" s="111"/>
-      <c r="N42" s="102" t="s">
+      <c r="M42" s="98"/>
+      <c r="N42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="103"/>
+      <c r="O42" s="109"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="34">
         <v>0</v>
       </c>
-      <c r="S42" s="111"/>
-      <c r="T42" s="102" t="s">
+      <c r="S42" s="98"/>
+      <c r="T42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="103"/>
+      <c r="U42" s="109"/>
       <c r="V42" s="39"/>
       <c r="W42" s="34">
         <v>0</v>
       </c>
-      <c r="Y42" s="111"/>
-      <c r="Z42" s="102" t="s">
+      <c r="Y42" s="98"/>
+      <c r="Z42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="AA42" s="103"/>
+      <c r="AA42" s="109"/>
       <c r="AB42" s="39"/>
       <c r="AC42" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="111"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="105"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="34">
         <v>0</v>
       </c>
-      <c r="G43" s="111"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="105"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
       <c r="J43" s="39"/>
       <c r="K43" s="34">
         <v>0</v>
       </c>
-      <c r="M43" s="111"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="105"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="111"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="34">
         <v>0</v>
       </c>
-      <c r="S43" s="111"/>
-      <c r="T43" s="104"/>
-      <c r="U43" s="105"/>
+      <c r="S43" s="98"/>
+      <c r="T43" s="110"/>
+      <c r="U43" s="111"/>
       <c r="V43" s="39"/>
       <c r="W43" s="34">
         <v>0</v>
       </c>
-      <c r="Y43" s="111"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="105"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="110"/>
+      <c r="AA43" s="111"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="112"/>
-      <c r="B44" s="99" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="105"/>
       <c r="E44" s="37">
         <f>SUM(E42:E43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="112"/>
-      <c r="H44" s="99" t="s">
+      <c r="G44" s="99"/>
+      <c r="H44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="100"/>
-      <c r="J44" s="101"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="105"/>
       <c r="K44" s="37">
         <f>SUM(K42:K43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="112"/>
-      <c r="N44" s="99" t="s">
+      <c r="M44" s="99"/>
+      <c r="N44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="100"/>
-      <c r="P44" s="101"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="105"/>
       <c r="Q44" s="37">
         <f>SUM(Q42:Q43)</f>
         <v>0</v>
       </c>
-      <c r="S44" s="112"/>
-      <c r="T44" s="99" t="s">
+      <c r="S44" s="99"/>
+      <c r="T44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="100"/>
-      <c r="V44" s="101"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="105"/>
       <c r="W44" s="37">
         <f>SUM(W42:W43)</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="112"/>
-      <c r="Z44" s="99" t="s">
+      <c r="Y44" s="99"/>
+      <c r="Z44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="101"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="105"/>
       <c r="AC44" s="37">
         <f>SUM(AC42:AC43)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
       <c r="E45" s="37">
         <f>E41+E44</f>
         <v>709635000</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
       <c r="K45" s="37">
         <f>K41+K44</f>
         <v>4058925000</v>
       </c>
-      <c r="M45" s="106" t="s">
+      <c r="M45" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
       <c r="Q45" s="37">
         <f>Q41+Q44</f>
         <v>7073850000</v>
       </c>
-      <c r="S45" s="106" t="s">
+      <c r="S45" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="106"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
       <c r="W45" s="37">
         <f>W41+W44</f>
         <v>14038700000</v>
       </c>
-      <c r="Y45" s="106" t="s">
+      <c r="Y45" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="106"/>
-      <c r="AA45" s="106"/>
-      <c r="AB45" s="106"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
       <c r="AC45" s="37">
         <f>AC41+AC44</f>
-        <v>27503400000</v>
+        <v>27434280000</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4335,55 +4337,55 @@
       <c r="AC46" s="35"/>
     </row>
     <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
       <c r="E47" s="79">
         <f>E13-E45</f>
         <v>78860000</v>
       </c>
-      <c r="G47" s="109" t="s">
+      <c r="G47" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
       <c r="K47" s="79">
         <f>K13-K45</f>
         <v>-362248000</v>
       </c>
-      <c r="M47" s="109" t="s">
+      <c r="M47" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
       <c r="Q47" s="79">
         <f>Q13-Q45</f>
         <v>283504000</v>
       </c>
-      <c r="S47" s="109" t="s">
+      <c r="S47" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="T47" s="109"/>
-      <c r="U47" s="109"/>
-      <c r="V47" s="109"/>
+      <c r="T47" s="112"/>
+      <c r="U47" s="112"/>
+      <c r="V47" s="112"/>
       <c r="W47" s="79">
         <f>W13-W45</f>
         <v>1576008000</v>
       </c>
-      <c r="Y47" s="109" t="s">
+      <c r="Y47" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="Z47" s="109"/>
-      <c r="AA47" s="109"/>
-      <c r="AB47" s="109"/>
+      <c r="Z47" s="112"/>
+      <c r="AA47" s="112"/>
+      <c r="AB47" s="112"/>
       <c r="AC47" s="79">
         <f>AC13-AC45</f>
-        <v>3126016000</v>
+        <v>3195136000</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4414,211 +4416,211 @@
       <c r="AC48" s="35"/>
     </row>
     <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="107" t="s">
+      <c r="G49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="108" t="s">
+      <c r="H49" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
       <c r="K49" s="37">
         <v>0</v>
       </c>
-      <c r="M49" s="107" t="s">
+      <c r="M49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="N49" s="108" t="s">
+      <c r="N49" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
+      <c r="O49" s="103"/>
+      <c r="P49" s="103"/>
       <c r="Q49" s="37">
         <v>0</v>
       </c>
-      <c r="S49" s="107" t="s">
+      <c r="S49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="T49" s="108" t="s">
+      <c r="T49" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="108"/>
-      <c r="V49" s="108"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="103"/>
       <c r="W49" s="37">
         <v>0</v>
       </c>
-      <c r="Y49" s="107" t="s">
+      <c r="Y49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="108" t="s">
+      <c r="Z49" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="108"/>
-      <c r="AB49" s="108"/>
+      <c r="AA49" s="103"/>
+      <c r="AB49" s="103"/>
       <c r="AC49" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="107"/>
-      <c r="B50" s="108" t="s">
+      <c r="A50" s="96"/>
+      <c r="B50" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="37">
         <v>0</v>
       </c>
-      <c r="G50" s="107"/>
-      <c r="H50" s="108" t="s">
+      <c r="G50" s="96"/>
+      <c r="H50" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="108"/>
-      <c r="J50" s="108"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
       <c r="K50" s="37">
         <v>0</v>
       </c>
-      <c r="M50" s="107"/>
-      <c r="N50" s="108" t="s">
+      <c r="M50" s="96"/>
+      <c r="N50" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="108"/>
-      <c r="P50" s="108"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
       <c r="Q50" s="37">
         <v>0</v>
       </c>
-      <c r="S50" s="107"/>
-      <c r="T50" s="108" t="s">
+      <c r="S50" s="96"/>
+      <c r="T50" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="108"/>
-      <c r="V50" s="108"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
       <c r="W50" s="37">
         <v>0</v>
       </c>
-      <c r="Y50" s="107"/>
-      <c r="Z50" s="108" t="s">
+      <c r="Y50" s="96"/>
+      <c r="Z50" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="108"/>
-      <c r="AB50" s="108"/>
+      <c r="AA50" s="103"/>
+      <c r="AB50" s="103"/>
       <c r="AC50" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="107"/>
-      <c r="B51" s="108" t="s">
+      <c r="A51" s="96"/>
+      <c r="B51" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
       <c r="E51" s="37">
         <f>E47*Variables!$B$24</f>
         <v>3154400</v>
       </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="108" t="s">
+      <c r="G51" s="96"/>
+      <c r="H51" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
       <c r="K51" s="37">
         <f>K47*Variables!$B$24</f>
         <v>-14489920</v>
       </c>
-      <c r="M51" s="107"/>
-      <c r="N51" s="108" t="s">
+      <c r="M51" s="96"/>
+      <c r="N51" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="108"/>
-      <c r="P51" s="108"/>
+      <c r="O51" s="103"/>
+      <c r="P51" s="103"/>
       <c r="Q51" s="37">
         <f>Q47*Variables!$B$24</f>
         <v>11340160</v>
       </c>
-      <c r="S51" s="107"/>
-      <c r="T51" s="108" t="s">
+      <c r="S51" s="96"/>
+      <c r="T51" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="U51" s="108"/>
-      <c r="V51" s="108"/>
+      <c r="U51" s="103"/>
+      <c r="V51" s="103"/>
       <c r="W51" s="37">
         <f>W47*Variables!$B$24</f>
         <v>63040320</v>
       </c>
-      <c r="Y51" s="107"/>
-      <c r="Z51" s="108" t="s">
+      <c r="Y51" s="96"/>
+      <c r="Z51" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="AA51" s="108"/>
-      <c r="AB51" s="108"/>
+      <c r="AA51" s="103"/>
+      <c r="AB51" s="103"/>
       <c r="AC51" s="37">
         <f>AC47*Variables!$B$24</f>
-        <v>125040640</v>
+        <v>127805440</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="107"/>
-      <c r="B52" s="108" t="s">
+      <c r="A52" s="96"/>
+      <c r="B52" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
       <c r="E52" s="37">
         <f>E47*Variables!$B$23</f>
         <v>14983400</v>
       </c>
-      <c r="G52" s="107"/>
-      <c r="H52" s="108" t="s">
+      <c r="G52" s="96"/>
+      <c r="H52" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
       <c r="K52" s="37">
         <f>K47*Variables!$B$23</f>
         <v>-68827120</v>
       </c>
-      <c r="M52" s="107"/>
-      <c r="N52" s="108" t="s">
+      <c r="M52" s="96"/>
+      <c r="N52" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
+      <c r="O52" s="103"/>
+      <c r="P52" s="103"/>
       <c r="Q52" s="37">
         <f>Q47*Variables!$B$23</f>
         <v>53865760</v>
       </c>
-      <c r="S52" s="107"/>
-      <c r="T52" s="108" t="s">
+      <c r="S52" s="96"/>
+      <c r="T52" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="U52" s="108"/>
-      <c r="V52" s="108"/>
+      <c r="U52" s="103"/>
+      <c r="V52" s="103"/>
       <c r="W52" s="37">
         <f>W47*Variables!$B$23</f>
         <v>299441520</v>
       </c>
-      <c r="Y52" s="107"/>
-      <c r="Z52" s="108" t="s">
+      <c r="Y52" s="96"/>
+      <c r="Z52" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="108"/>
-      <c r="AB52" s="108"/>
+      <c r="AA52" s="103"/>
+      <c r="AB52" s="103"/>
       <c r="AC52" s="37">
         <f>AC47*Variables!$B$23</f>
-        <v>593943040</v>
+        <v>607075840</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4662,7 +4664,7 @@
       <c r="AB53" s="38"/>
       <c r="AC53" s="37">
         <f>AC49+AC50+AC51+(MAX(AC52,0))</f>
-        <v>718983680</v>
+        <v>734881280</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4693,55 +4695,55 @@
       <c r="AC54" s="35"/>
     </row>
     <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="98"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="115"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="96" t="s">
+      <c r="G55" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="98"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="115"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="96" t="s">
+      <c r="M55" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="98"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="114"/>
+      <c r="P55" s="114"/>
+      <c r="Q55" s="115"/>
       <c r="R55" s="32"/>
-      <c r="S55" s="96" t="s">
+      <c r="S55" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="97"/>
-      <c r="U55" s="97"/>
-      <c r="V55" s="97"/>
-      <c r="W55" s="98"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="114"/>
+      <c r="V55" s="114"/>
+      <c r="W55" s="115"/>
       <c r="X55" s="32"/>
-      <c r="Y55" s="96" t="s">
+      <c r="Y55" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="98"/>
+      <c r="Z55" s="114"/>
+      <c r="AA55" s="114"/>
+      <c r="AB55" s="114"/>
+      <c r="AC55" s="115"/>
     </row>
     <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="95"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
       <c r="E56" s="34">
         <f>E13-E23</f>
         <v>355520000</v>
@@ -4750,11 +4752,11 @@
       <c r="G56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="93" t="s">
+      <c r="H56" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="94"/>
-      <c r="J56" s="95"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="102"/>
       <c r="K56" s="34">
         <f>K13-K23</f>
         <v>1803992000</v>
@@ -4763,11 +4765,11 @@
       <c r="M56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="93" t="s">
+      <c r="N56" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="94"/>
-      <c r="P56" s="95"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="102"/>
       <c r="Q56" s="34">
         <f>Q13-Q23</f>
         <v>3256984000</v>
@@ -4776,11 +4778,11 @@
       <c r="S56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="93" t="s">
+      <c r="T56" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="U56" s="94"/>
-      <c r="V56" s="95"/>
+      <c r="U56" s="101"/>
+      <c r="V56" s="102"/>
       <c r="W56" s="34">
         <f>W13-W23</f>
         <v>6933968000</v>
@@ -4789,11 +4791,11 @@
       <c r="Y56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Z56" s="93" t="s">
+      <c r="Z56" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="AA56" s="94"/>
-      <c r="AB56" s="95"/>
+      <c r="AA56" s="101"/>
+      <c r="AB56" s="102"/>
       <c r="AC56" s="34">
         <f>AC13-AC23</f>
         <v>13267936000</v>
@@ -4803,11 +4805,11 @@
       <c r="A57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="93" t="s">
+      <c r="B57" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="94"/>
-      <c r="D57" s="95"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
       <c r="E57" s="33">
         <f>E56/E13</f>
         <v>0.45088427954520954</v>
@@ -4816,11 +4818,11 @@
       <c r="G57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="93" t="s">
+      <c r="H57" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="94"/>
-      <c r="J57" s="95"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="102"/>
       <c r="K57" s="33">
         <f>K56/K13</f>
         <v>0.48800368547211453</v>
@@ -4829,11 +4831,11 @@
       <c r="M57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="93" t="s">
+      <c r="N57" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="94"/>
-      <c r="P57" s="95"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="102"/>
       <c r="Q57" s="33">
         <f>Q56/Q13</f>
         <v>0.44268414976362425</v>
@@ -4842,11 +4844,11 @@
       <c r="S57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="93" t="s">
+      <c r="T57" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U57" s="94"/>
-      <c r="V57" s="95"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="102"/>
       <c r="W57" s="33">
         <f>W56/W13</f>
         <v>0.44406645324395433</v>
@@ -4855,11 +4857,11 @@
       <c r="Y57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Z57" s="93" t="s">
+      <c r="Z57" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="AA57" s="94"/>
-      <c r="AB57" s="95"/>
+      <c r="AA57" s="101"/>
+      <c r="AB57" s="102"/>
       <c r="AC57" s="33">
         <f>AC56/AC13</f>
         <v>0.43317626428136924</v>
@@ -4869,11 +4871,11 @@
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
       <c r="E58" s="34">
         <f>E56-E40</f>
         <v>78860000</v>
@@ -4882,11 +4884,11 @@
       <c r="G58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="93" t="s">
+      <c r="H58" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="94"/>
-      <c r="J58" s="95"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="102"/>
       <c r="K58" s="34">
         <f>K56-K40</f>
         <v>-362248000</v>
@@ -4895,11 +4897,11 @@
       <c r="M58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N58" s="93" t="s">
+      <c r="N58" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="94"/>
-      <c r="P58" s="95"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="102"/>
       <c r="Q58" s="34">
         <f>Q56-Q40</f>
         <v>283504000</v>
@@ -4908,11 +4910,11 @@
       <c r="S58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T58" s="93" t="s">
+      <c r="T58" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="U58" s="94"/>
-      <c r="V58" s="95"/>
+      <c r="U58" s="101"/>
+      <c r="V58" s="102"/>
       <c r="W58" s="34">
         <f>W56-W40</f>
         <v>1576008000</v>
@@ -4921,25 +4923,25 @@
       <c r="Y58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z58" s="93" t="s">
+      <c r="Z58" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="AA58" s="94"/>
-      <c r="AB58" s="95"/>
+      <c r="AA58" s="101"/>
+      <c r="AB58" s="102"/>
       <c r="AC58" s="34">
         <f>AC56-AC40</f>
-        <v>3126016000</v>
+        <v>3195136000</v>
       </c>
     </row>
     <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="94"/>
-      <c r="D59" s="95"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="33">
         <f>E58/E13</f>
         <v>0.10001331650803112</v>
@@ -4948,11 +4950,11 @@
       <c r="G59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="93" t="s">
+      <c r="H59" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="94"/>
-      <c r="J59" s="95"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="102"/>
       <c r="K59" s="33">
         <f>K58/K13</f>
         <v>-9.7992873058695681E-2</v>
@@ -4961,11 +4963,11 @@
       <c r="M59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="93" t="s">
+      <c r="N59" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="O59" s="94"/>
-      <c r="P59" s="95"/>
+      <c r="O59" s="101"/>
+      <c r="P59" s="102"/>
       <c r="Q59" s="33">
         <f>Q58/Q13</f>
         <v>3.8533418400147665E-2</v>
@@ -4974,11 +4976,11 @@
       <c r="S59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="T59" s="93" t="s">
+      <c r="T59" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="94"/>
-      <c r="V59" s="95"/>
+      <c r="U59" s="101"/>
+      <c r="V59" s="102"/>
       <c r="W59" s="33">
         <f>W58/W13</f>
         <v>0.10093099403459867</v>
@@ -4987,25 +4989,25 @@
       <c r="Y59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z59" s="93" t="s">
+      <c r="Z59" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" s="94"/>
-      <c r="AB59" s="95"/>
+      <c r="AA59" s="101"/>
+      <c r="AB59" s="102"/>
       <c r="AC59" s="33">
         <f>AC58/AC13</f>
-        <v>0.10205927530580407</v>
+        <v>0.10431592949731722</v>
       </c>
     </row>
     <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="95"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
       <c r="E60" s="34">
         <f>E58-E53</f>
         <v>60722200</v>
@@ -5014,11 +5016,11 @@
       <c r="G60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="93" t="s">
+      <c r="H60" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="94"/>
-      <c r="J60" s="95"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="102"/>
       <c r="K60" s="34">
         <f>K58-K53</f>
         <v>-347758080</v>
@@ -5027,11 +5029,11 @@
       <c r="M60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="93" t="s">
+      <c r="N60" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="94"/>
-      <c r="P60" s="95"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="102"/>
       <c r="Q60" s="34">
         <f>Q58-Q53</f>
         <v>218298080</v>
@@ -5040,11 +5042,11 @@
       <c r="S60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="T60" s="93" t="s">
+      <c r="T60" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="U60" s="94"/>
-      <c r="V60" s="95"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="102"/>
       <c r="W60" s="34">
         <f>W58-W53</f>
         <v>1213526160</v>
@@ -5053,25 +5055,25 @@
       <c r="Y60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z60" s="93" t="s">
+      <c r="Z60" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="AA60" s="94"/>
-      <c r="AB60" s="95"/>
+      <c r="AA60" s="101"/>
+      <c r="AB60" s="102"/>
       <c r="AC60" s="34">
         <f>AC58-AC53</f>
-        <v>2407032320</v>
+        <v>2460254720</v>
       </c>
     </row>
     <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="94"/>
-      <c r="D61" s="95"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
       <c r="E61" s="33">
         <f>E60/E13</f>
         <v>7.701025371118396E-2</v>
@@ -5080,11 +5082,11 @@
       <c r="G61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="93" t="s">
+      <c r="H61" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="94"/>
-      <c r="J61" s="95"/>
+      <c r="I61" s="101"/>
+      <c r="J61" s="102"/>
       <c r="K61" s="33">
         <f>K60/K13</f>
         <v>-9.4073158136347854E-2</v>
@@ -5093,11 +5095,11 @@
       <c r="M61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="93" t="s">
+      <c r="N61" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="O61" s="94"/>
-      <c r="P61" s="95"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="102"/>
       <c r="Q61" s="33">
         <f>Q60/Q13</f>
         <v>2.9670732168113698E-2</v>
@@ -5106,11 +5108,11 @@
       <c r="S61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="93" t="s">
+      <c r="T61" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="U61" s="94"/>
-      <c r="V61" s="95"/>
+      <c r="U61" s="101"/>
+      <c r="V61" s="102"/>
       <c r="W61" s="33">
         <f>W60/W13</f>
         <v>7.7716865406640967E-2</v>
@@ -5119,14 +5121,14 @@
       <c r="Y61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Z61" s="93" t="s">
+      <c r="Z61" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="AA61" s="94"/>
-      <c r="AB61" s="95"/>
+      <c r="AA61" s="101"/>
+      <c r="AB61" s="102"/>
       <c r="AC61" s="33">
         <f>AC60/AC13</f>
-        <v>7.8585641985469135E-2</v>
+        <v>8.0323265712934258E-2</v>
       </c>
     </row>
     <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5192,18 +5194,18 @@
       <c r="AB62" s="28"/>
       <c r="AC62" s="33">
         <f>AC60/Variables!$B$7</f>
-        <v>4.8140646399999998</v>
+        <v>4.92050944</v>
       </c>
     </row>
     <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="95"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
       <c r="E63" s="33">
         <f>E60/Variables!$B$5</f>
         <v>0.12144439999999999</v>
@@ -5212,11 +5214,11 @@
       <c r="G63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="93" t="s">
+      <c r="H63" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="94"/>
-      <c r="J63" s="95"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="102"/>
       <c r="K63" s="33">
         <f>K60/Variables!$B$5</f>
         <v>-0.69551616000000005</v>
@@ -5225,11 +5227,11 @@
       <c r="M63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="93" t="s">
+      <c r="N63" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="O63" s="94"/>
-      <c r="P63" s="95"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="102"/>
       <c r="Q63" s="33">
         <f>Q60/Variables!$B$5</f>
         <v>0.43659616000000001</v>
@@ -5238,11 +5240,11 @@
       <c r="S63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="93" t="s">
+      <c r="T63" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="94"/>
-      <c r="V63" s="95"/>
+      <c r="U63" s="101"/>
+      <c r="V63" s="102"/>
       <c r="W63" s="33">
         <f>W60/Variables!$B$5</f>
         <v>2.42705232</v>
@@ -5251,45 +5253,45 @@
       <c r="Y63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Z63" s="93" t="s">
+      <c r="Z63" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="AA63" s="94"/>
-      <c r="AB63" s="95"/>
+      <c r="AA63" s="101"/>
+      <c r="AB63" s="102"/>
       <c r="AC63" s="33">
         <f>AC60/Variables!$B$5</f>
-        <v>4.8140646399999998</v>
+        <v>4.92050944</v>
       </c>
     </row>
     <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="95"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="102"/>
       <c r="E64" s="27"/>
       <c r="F64" s="32"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="94"/>
-      <c r="J64" s="95"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="102"/>
       <c r="K64" s="27"/>
       <c r="L64" s="32"/>
       <c r="M64" s="31"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="94"/>
-      <c r="P64" s="95"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="102"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="32"/>
       <c r="S64" s="31"/>
-      <c r="T64" s="93"/>
-      <c r="U64" s="94"/>
-      <c r="V64" s="95"/>
+      <c r="T64" s="100"/>
+      <c r="U64" s="101"/>
+      <c r="V64" s="102"/>
       <c r="W64" s="27"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="31"/>
-      <c r="Z64" s="93"/>
-      <c r="AA64" s="94"/>
-      <c r="AB64" s="95"/>
+      <c r="Z64" s="100"/>
+      <c r="AA64" s="101"/>
+      <c r="AB64" s="102"/>
       <c r="AC64" s="27"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -5300,6 +5302,167 @@
     </row>
   </sheetData>
   <mergeCells count="185">
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="Z42:AA43"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="Z15:Z40"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AA22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="Z5:Z9"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y15:Y44"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA24:AA39"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S49:S52"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="S15:S44"/>
+    <mergeCell ref="T15:T40"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:U22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="M15:M44"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="N15:N40"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:O22"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="O24:O39"/>
+    <mergeCell ref="I24:I39"/>
+    <mergeCell ref="C24:C39"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A15:A44"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G15:G44"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:B9"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M5:M12"/>
@@ -5324,167 +5487,6 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G15:G44"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A15:A44"/>
-    <mergeCell ref="B15:B40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="N15:N40"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:O22"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="O24:O39"/>
-    <mergeCell ref="I24:I39"/>
-    <mergeCell ref="C24:C39"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:O43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="M15:M44"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="S49:S52"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="S15:S44"/>
-    <mergeCell ref="T15:T40"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:U22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:U43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="U24:U39"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="S55:W55"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="Z15:Z40"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AA22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="Y5:Y12"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y15:Y44"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA24:AA39"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="Z42:AA43"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Y47:AB47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5606,105 +5608,105 @@
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="115"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="115" t="s">
+      <c r="F5" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="115"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="123"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="115" t="s">
+      <c r="N5" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="115"/>
+      <c r="O5" s="123"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="115" t="s">
+      <c r="R5" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="115"/>
+      <c r="S5" s="123"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="115" t="s">
+      <c r="V5" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="115"/>
+      <c r="W5" s="123"/>
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="122">
         <f>C13-C20</f>
         <v>500000000</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="116">
+      <c r="F6" s="122">
         <f>(B6*(1-Variables!B24))+G25</f>
         <v>558860000</v>
       </c>
-      <c r="G6" s="116"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="116">
+      <c r="J6" s="122">
         <f>(F6*(1-Variables!B24))+K25</f>
         <v>174257600</v>
       </c>
-      <c r="K6" s="116"/>
+      <c r="K6" s="122"/>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="116">
+      <c r="N6" s="122">
         <f>(J6*(1-Variables!B24))+O25</f>
         <v>450791296</v>
       </c>
-      <c r="O6" s="116"/>
+      <c r="O6" s="122"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="116">
+      <c r="R6" s="122">
         <f>(N6*(1-Variables!B24))+S25</f>
         <v>2008767644.1599998</v>
       </c>
-      <c r="S6" s="116"/>
+      <c r="S6" s="122"/>
       <c r="T6" s="3"/>
       <c r="U6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="116">
+      <c r="V6" s="122">
         <f>(R6*(1-Variables!B24))+W25</f>
-        <v>5054432938.3935995</v>
-      </c>
-      <c r="W6" s="116"/>
+        <v>5123552938.3935995</v>
+      </c>
+      <c r="W6" s="122"/>
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -5732,7 +5734,7 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="124" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5742,7 +5744,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="124" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -5752,7 +5754,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="117" t="s">
+      <c r="I8" s="124" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -5762,7 +5764,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="117" t="s">
+      <c r="M8" s="124" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5772,7 +5774,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="117" t="s">
+      <c r="Q8" s="124" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5782,7 +5784,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="117" t="s">
+      <c r="U8" s="124" t="s">
         <v>72</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -5793,7 +5795,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="118"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="118"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>78860000</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="118"/>
+      <c r="I9" s="125"/>
       <c r="J9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>-362248000</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="118"/>
+      <c r="M9" s="125"/>
       <c r="N9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>283504000</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="118"/>
+      <c r="Q9" s="125"/>
       <c r="R9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5838,92 +5840,92 @@
         <v>1576008000</v>
       </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="118"/>
+      <c r="U9" s="125"/>
       <c r="V9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="5">
         <f>'Ingresos &amp; egresos'!AC47</f>
-        <v>3126016000</v>
-      </c>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
+        <v>3195136000</v>
+      </c>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="118"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="118"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="118"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="118"/>
+      <c r="I10" s="125"/>
       <c r="J10" s="12"/>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="118"/>
+      <c r="M10" s="125"/>
       <c r="N10" s="12"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="118"/>
+      <c r="Q10" s="125"/>
       <c r="R10" s="12"/>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="118"/>
+      <c r="U10" s="125"/>
       <c r="V10" s="12"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="118"/>
+      <c r="A11" s="125"/>
       <c r="B11" s="12"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="118"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="118"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="12"/>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="118"/>
+      <c r="M11" s="125"/>
       <c r="N11" s="12"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="118"/>
+      <c r="Q11" s="125"/>
       <c r="R11" s="12"/>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="118"/>
+      <c r="U11" s="125"/>
       <c r="V11" s="12"/>
       <c r="W11" s="5">
         <v>0</v>
@@ -5934,37 +5936,37 @@
       <c r="AC11" s="86"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="119"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="119"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="12"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="119"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="119"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="12"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="119"/>
+      <c r="Q12" s="126"/>
       <c r="R12" s="12"/>
       <c r="S12" s="5">
         <v>0</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="119"/>
+      <c r="U12" s="126"/>
       <c r="V12" s="12"/>
       <c r="W12" s="5">
         <v>0</v>
@@ -6014,7 +6016,7 @@
       <c r="V13" s="7"/>
       <c r="W13" s="9">
         <f>SUM(W9:W12)</f>
-        <v>3126016000</v>
+        <v>3195136000</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="85"/>
@@ -6050,7 +6052,7 @@
       <c r="AC14" s="86"/>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="124" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -6060,7 +6062,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="124" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6070,7 +6072,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="117" t="s">
+      <c r="I15" s="124" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -6080,7 +6082,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="117" t="s">
+      <c r="M15" s="124" t="s">
         <v>76</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -6090,7 +6092,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="117" t="s">
+      <c r="Q15" s="124" t="s">
         <v>77</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -6100,7 +6102,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="117" t="s">
+      <c r="U15" s="124" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -6114,37 +6116,37 @@
       <c r="AC15" s="86"/>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="118"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="118"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="118"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="12"/>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="118"/>
+      <c r="M16" s="125"/>
       <c r="N16" s="12"/>
       <c r="O16" s="5">
         <v>0</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="118"/>
+      <c r="Q16" s="125"/>
       <c r="R16" s="12"/>
       <c r="S16" s="5">
         <v>0</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="118"/>
+      <c r="U16" s="125"/>
       <c r="V16" s="12"/>
       <c r="W16" s="5">
         <v>0</v>
@@ -6154,78 +6156,78 @@
       <c r="AC16" s="86"/>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="118"/>
+      <c r="A17" s="125"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="118"/>
+      <c r="E17" s="125"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="118"/>
+      <c r="I17" s="125"/>
       <c r="J17" s="12"/>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="118"/>
+      <c r="M17" s="125"/>
       <c r="N17" s="12"/>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="118"/>
+      <c r="Q17" s="125"/>
       <c r="R17" s="12"/>
       <c r="S17" s="5">
         <v>0</v>
       </c>
       <c r="T17" s="8"/>
-      <c r="U17" s="118"/>
+      <c r="U17" s="125"/>
       <c r="V17" s="12"/>
       <c r="W17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="123"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="119"/>
+      <c r="AC17" s="119"/>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="118"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="118"/>
+      <c r="E18" s="125"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="118"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="12"/>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="118"/>
+      <c r="M18" s="125"/>
       <c r="N18" s="12"/>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="118"/>
+      <c r="Q18" s="125"/>
       <c r="R18" s="12"/>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="118"/>
+      <c r="U18" s="125"/>
       <c r="V18" s="12"/>
       <c r="W18" s="5">
         <v>0</v>
@@ -6236,37 +6238,37 @@
       <c r="AC18" s="86"/>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="119"/>
+      <c r="A19" s="126"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="126"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="119"/>
+      <c r="I19" s="126"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="119"/>
+      <c r="M19" s="126"/>
       <c r="N19" s="12"/>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="119"/>
+      <c r="Q19" s="126"/>
       <c r="R19" s="12"/>
       <c r="S19" s="5">
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
-      <c r="U19" s="119"/>
+      <c r="U19" s="126"/>
       <c r="V19" s="12"/>
       <c r="W19" s="5">
         <v>0</v>
@@ -6351,43 +6353,43 @@
       <c r="AC21" s="86"/>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="120" t="s">
+      <c r="E22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="120" t="s">
+      <c r="I22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="120" t="s">
+      <c r="M22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="120" t="s">
+      <c r="Q22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="120" t="s">
+      <c r="U22" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="AB22" s="121"/>
-      <c r="AC22" s="121"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -6576,7 +6578,7 @@
       </c>
       <c r="W25" s="5">
         <f>W13-W20</f>
-        <v>3126016000</v>
+        <v>3195136000</v>
       </c>
       <c r="Z25" s="88"/>
       <c r="AA25" s="89"/>
@@ -6634,7 +6636,7 @@
       </c>
       <c r="W26" s="5">
         <f>S26+W25</f>
-        <v>4702140000</v>
+        <v>4771260000</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -6643,11 +6645,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="Q15:Q19"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B6:C6"/>
@@ -6664,21 +6676,11 @@
     <mergeCell ref="M8:M12"/>
     <mergeCell ref="M15:M19"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="Q15:Q19"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HT-6/Optica Modelo Financiero.xlsx
+++ b/HT-6/Optica Modelo Financiero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A39CE3-5109-40F0-98D3-9AEFED39B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A3F54-F13C-4166-A99C-EA10955F1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="181">
   <si>
     <t>Arquitectura Empresarial</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Préstamo</t>
+  </si>
+  <si>
+    <t>Amortización de la deuda</t>
+  </si>
+  <si>
+    <t>Intereses por deuda</t>
   </si>
 </sst>
 </file>
@@ -1077,12 +1086,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,86 +1146,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1494,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED2F777-88E5-4EE3-ABB1-5261070B52BB}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1729,414 +1738,436 @@
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="68">
-        <v>600000</v>
+        <v>179</v>
+      </c>
+      <c r="B25" s="78">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="68">
-        <v>150000000</v>
+        <v>180</v>
+      </c>
+      <c r="B26" s="78">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="50" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B27" s="68">
-        <v>5000000</v>
+        <v>600000</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="57"/>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="92">
-        <v>4</v>
+        <v>166</v>
+      </c>
+      <c r="B28" s="68">
+        <v>150000000</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="57"/>
     </row>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="92">
-        <v>2</v>
+        <v>156</v>
+      </c>
+      <c r="B29" s="68">
+        <v>5000000</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="57"/>
     </row>
     <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="68">
-        <v>250000000</v>
+        <v>161</v>
+      </c>
+      <c r="B30" s="92">
+        <v>4</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="68">
-        <v>10000000</v>
+        <v>162</v>
+      </c>
+      <c r="B31" s="92">
+        <v>2</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="50" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B32" s="68">
-        <v>50000000</v>
+        <v>250000000</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="57"/>
     </row>
     <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="68">
+        <v>10000000</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="57"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="68">
+        <v>50000000</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B36" s="19">
         <f>1800000*12</f>
         <v>21600000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="19">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="20">
-        <v>3</v>
-      </c>
-    </row>
     <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B39" s="19">
         <f>3000000*12</f>
         <v>36000000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="14" t="s">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B40" s="19">
         <f>1400000*12</f>
         <v>16800000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B41" s="19">
         <f>5000000*12</f>
         <v>60000000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B42" s="19">
         <f>7000000*12</f>
         <v>84000000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B43" s="19">
         <f>10000000*12</f>
         <v>120000000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B44" s="19">
         <f>9000000*12</f>
         <v>108000000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B45" s="19">
         <f>16000000*12</f>
         <v>192000000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="19">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="65"/>
-    </row>
     <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="19">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="65"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B48" s="19">
         <f>120000*365</f>
         <v>43800000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="14" t="s">
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B49" s="19">
         <v>60000000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B50" s="19">
         <f>3000000*12</f>
         <v>36000000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="14" t="s">
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B51" s="19">
         <f>180000*12</f>
         <v>2160000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="19">
-        <v>75000000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="60" t="s">
+      <c r="B52" s="19">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="60"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="19">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="19">
-        <v>750000</v>
-      </c>
+      <c r="B55" s="60"/>
     </row>
     <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B56" s="19">
-        <v>23000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="19">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="19">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B59" s="19">
         <v>14000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="91">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="92">
-        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="91">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="92">
+      <c r="B62" s="92">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="62" t="s">
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="14" t="s">
+      <c r="B63" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="70">
+      <c r="B64" s="70">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
+    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="70">
+      <c r="B65" s="70">
         <f>2*365</f>
         <v>730</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B66" s="21">
         <f>1*365</f>
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="21">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="21">
-        <v>250</v>
-      </c>
-    </row>
     <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="B67" s="21">
-        <v>2</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B70" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2153,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4764C-DEDE-C149-BFDF-F902BA43F941}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2268,510 +2299,510 @@
       <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="109"/>
       <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="96" t="s">
+      <c r="M5" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="96" t="s">
+      <c r="O5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="96"/>
+      <c r="P5" s="109"/>
       <c r="Q5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="R5" s="24"/>
-      <c r="S5" s="96" t="s">
+      <c r="S5" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="97" t="s">
+      <c r="T5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="96" t="s">
+      <c r="U5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="96"/>
+      <c r="V5" s="109"/>
       <c r="W5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="X5" s="24"/>
-      <c r="Y5" s="96" t="s">
+      <c r="Y5" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="97" t="s">
+      <c r="Z5" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="96" t="s">
+      <c r="AA5" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="96"/>
+      <c r="AB5" s="109"/>
       <c r="AC5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="103" t="s">
+      <c r="A6" s="109"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="103"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="34">
-        <f>Variables!$B$56*Variables!$B$64</f>
+        <f>Variables!$B$58*Variables!$B$66</f>
         <v>8395000</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="103" t="s">
+      <c r="G6" s="109"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="103"/>
+      <c r="J6" s="110"/>
       <c r="K6" s="34">
-        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28</f>
+        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30</f>
         <v>38617000</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="103" t="s">
+      <c r="M6" s="109"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="103"/>
+      <c r="P6" s="110"/>
       <c r="Q6" s="34">
-        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29</f>
+        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31</f>
         <v>77234000</v>
       </c>
       <c r="R6" s="24"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="103" t="s">
+      <c r="S6" s="109"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="103"/>
+      <c r="V6" s="110"/>
       <c r="W6" s="34">
-        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
+        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
         <v>154468000</v>
       </c>
       <c r="X6" s="24"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="103" t="s">
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="103"/>
+      <c r="AB6" s="110"/>
       <c r="AC6" s="34">
-        <f>Variables!B56*Variables!B64*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
+        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
         <v>308936000</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="103" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="103"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="34">
-        <f>Variables!$B$65*Variables!$B$57</f>
+        <f>Variables!$B$67*Variables!$B$59</f>
         <v>51100000</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="103" t="s">
+      <c r="G7" s="109"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="103"/>
+      <c r="J7" s="110"/>
       <c r="K7" s="34">
-        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28</f>
+        <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30</f>
         <v>235059999.99999997</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="103" t="s">
+      <c r="M7" s="109"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="103"/>
+      <c r="P7" s="110"/>
       <c r="Q7" s="34">
-        <f>Variables!B65*Variables!B57*(1+Variables!B22)*Variables!B28*Variables!B29</f>
+        <f>Variables!B67*Variables!B59*(1+Variables!B22)*Variables!B30*Variables!B31</f>
         <v>470119999.99999994</v>
       </c>
       <c r="R7" s="24"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="103" t="s">
+      <c r="S7" s="109"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="103"/>
+      <c r="V7" s="110"/>
       <c r="W7" s="34">
-        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
+        <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
         <v>940239999.99999988</v>
       </c>
       <c r="X7" s="24"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="103" t="s">
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="103"/>
+      <c r="AB7" s="110"/>
       <c r="AC7" s="34">
-        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
+        <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
         <v>1880479999.9999998</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="103" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="103"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="34">
-        <f>(Variables!B63)*Variables!B55</f>
+        <f>(Variables!B65)*Variables!B57</f>
         <v>547500000</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="103" t="s">
+      <c r="G8" s="109"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="103"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="34">
-        <f>(Variables!B63+Variables!B68)*Variables!B55*Variables!B28</f>
+        <f>(Variables!B65+Variables!B70)*Variables!B57*Variables!B30</f>
         <v>2340000000</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="103" t="s">
+      <c r="M8" s="109"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="103"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="34">
-        <f>(Variables!B63+(2*Variables!B68))*Variables!B55*Variables!B28*Variables!B29</f>
+        <f>(Variables!B65+(2*Variables!B70))*Variables!B57*Variables!B30*Variables!B31</f>
         <v>4980000000</v>
       </c>
       <c r="R8" s="24"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="103" t="s">
+      <c r="S8" s="109"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="103"/>
+      <c r="V8" s="110"/>
       <c r="W8" s="34">
-        <f>(Variables!B63+(3*Variables!B68))*Variables!B55*Variables!B28*Variables!B29^2</f>
+        <f>(Variables!B65+(3*Variables!B70))*Variables!B57*Variables!B30*Variables!B31^2</f>
         <v>10560000000</v>
       </c>
       <c r="X8" s="24"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="103" t="s">
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="103"/>
+      <c r="AB8" s="110"/>
       <c r="AC8" s="34">
-        <f>(Variables!B63+(3*Variables!B68))*Variables!B55*Variables!B28*Variables!B29^3</f>
+        <f>(Variables!B65+(3*Variables!B70))*Variables!B57*Variables!B30*Variables!B31^3</f>
         <v>21120000000</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="103" t="s">
+      <c r="A9" s="109"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="103"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="34">
-        <f>(Variables!B62)*Variables!B54</f>
+        <f>(Variables!B64)*Variables!B56</f>
         <v>180000000</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="103" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="103"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="34">
-        <f>(Variables!B62+Variables!B68+Variables!B66)*Variables!B54*Variables!B28</f>
+        <f>(Variables!B64+Variables!B70+Variables!B68)*Variables!B56*Variables!B30</f>
         <v>1080000000</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="103" t="s">
+      <c r="M9" s="109"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="103"/>
+      <c r="P9" s="110"/>
       <c r="Q9" s="34">
-        <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29+Variables!B66*Variables!B67)*Variables!B54</f>
+        <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31+Variables!B68*Variables!B69)*Variables!B56</f>
         <v>1830000000</v>
       </c>
       <c r="R9" s="24"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="103" t="s">
+      <c r="S9" s="109"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="103"/>
+      <c r="V9" s="110"/>
       <c r="W9" s="34">
-        <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29^2+Variables!B66*Variables!B67^3)*Variables!B54</f>
+        <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31^2+Variables!B68*Variables!B69^3)*Variables!B56</f>
         <v>3960000000</v>
       </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="103" t="s">
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="114"/>
+      <c r="AA9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="103"/>
+      <c r="AB9" s="110"/>
       <c r="AC9" s="34">
-        <f>((Variables!B62+(2*Variables!B68))*Variables!B28*Variables!B29^3+Variables!B66*Variables!B67^3)*Variables!B54</f>
+        <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31^3+Variables!B68*Variables!B69^3)*Variables!B56</f>
         <v>7320000000</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
-      <c r="B10" s="104" t="s">
+      <c r="A10" s="109"/>
+      <c r="B10" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="37">
         <f>SUM(E6:E9)</f>
         <v>786995000</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="104" t="s">
+      <c r="G10" s="109"/>
+      <c r="H10" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="105"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="37">
         <f>SUM(K6:K9)</f>
         <v>3693677000</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="104" t="s">
+      <c r="M10" s="109"/>
+      <c r="N10" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="106"/>
-      <c r="P10" s="105"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
       <c r="Q10" s="37">
         <f>SUM(Q6:Q9)</f>
         <v>7357354000</v>
       </c>
       <c r="R10" s="24"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="104" t="s">
+      <c r="S10" s="109"/>
+      <c r="T10" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="106"/>
-      <c r="V10" s="105"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="37">
         <f>SUM(W6:W9)</f>
         <v>15614708000</v>
       </c>
       <c r="X10" s="24"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="104" t="s">
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="105"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="103"/>
       <c r="AC10" s="37">
         <f>SUM(AC6:AC9)</f>
         <v>30629416000</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="103"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="34">
-        <f>Variables!B59*Variables!B58</f>
+        <f>Variables!B61*Variables!B60</f>
         <v>1500000</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="96"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="103" t="s">
+      <c r="I11" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="103"/>
+      <c r="J11" s="110"/>
       <c r="K11" s="34">
-        <f>Variables!B58*Variables!B59*Variables!B60</f>
+        <f>Variables!B60*Variables!B61*Variables!B62</f>
         <v>3000000</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="96"/>
+      <c r="M11" s="109"/>
       <c r="N11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="96"/>
+      <c r="S11" s="109"/>
       <c r="T11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
       <c r="W11" s="34"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="96"/>
+      <c r="Y11" s="109"/>
       <c r="Z11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="104" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="37">
         <f>SUM(E11:E11)</f>
         <v>1500000</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="104" t="s">
+      <c r="G12" s="109"/>
+      <c r="H12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="106"/>
-      <c r="J12" s="105"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="37">
         <f>SUM(K11:K11)</f>
         <v>3000000</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="104" t="s">
+      <c r="M12" s="109"/>
+      <c r="N12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="106"/>
-      <c r="P12" s="105"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="103"/>
       <c r="Q12" s="37">
         <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="104" t="s">
+      <c r="S12" s="109"/>
+      <c r="T12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="106"/>
-      <c r="V12" s="105"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="103"/>
       <c r="W12" s="37">
         <f>SUM(W11:W11)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="104" t="s">
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="105"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="103"/>
       <c r="AC12" s="37">
         <f>SUM(AC11:AC11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="37">
         <f>E10+E12</f>
         <v>788495000</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
       <c r="K13" s="37">
         <f>K10+K12</f>
         <v>3696677000</v>
       </c>
-      <c r="M13" s="95" t="s">
+      <c r="M13" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="95"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
       <c r="Q13" s="37">
         <f>Q10+Q12</f>
         <v>7357354000</v>
       </c>
-      <c r="S13" s="95" t="s">
+      <c r="S13" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="37">
         <f>W10+W12</f>
         <v>15614708000</v>
       </c>
-      <c r="Y13" s="95" t="s">
+      <c r="Y13" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
       <c r="AC13" s="37">
         <f>AC10+AC12</f>
         <v>30629416000</v>
@@ -2805,76 +2836,76 @@
       <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="96"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="96"/>
+      <c r="J15" s="109"/>
       <c r="K15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="97" t="s">
+      <c r="M15" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="97" t="s">
+      <c r="N15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="96" t="s">
+      <c r="O15" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="96"/>
+      <c r="P15" s="109"/>
       <c r="Q15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="97" t="s">
+      <c r="S15" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="97" t="s">
+      <c r="T15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="96" t="s">
+      <c r="U15" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="96"/>
+      <c r="V15" s="109"/>
       <c r="W15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="97" t="s">
+      <c r="Y15" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="97" t="s">
+      <c r="Z15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="96" t="s">
+      <c r="AA15" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="96"/>
+      <c r="AB15" s="109"/>
       <c r="AC15" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="97" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="112" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2884,829 +2915,832 @@
         <f>(Variables!$B$12)*Variables!B15</f>
         <v>99000000</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="97" t="s">
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="112" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="53">
-        <f>((Variables!$B$12+Variables!B68)*Variables!B28+Variables!B66)*Variables!B15</f>
+        <f>((Variables!$B$12+Variables!B70)*Variables!B30+Variables!B68)*Variables!B15</f>
         <v>463500000</v>
       </c>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="97" t="s">
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="112" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>88</v>
       </c>
       <c r="Q16" s="53">
-        <f>(((Variables!$B$12+(2*Variables!B68))*Variables!B28*Variables!B29+Variables!B66*Variables!B67^2))*Variables!B15</f>
+        <f>(((Variables!$B$12+(2*Variables!B70))*Variables!B30*Variables!B31+Variables!B68*Variables!B69^2))*Variables!B15</f>
         <v>1062000000</v>
       </c>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="97" t="s">
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="112" t="s">
         <v>26</v>
       </c>
       <c r="V16" s="74" t="s">
         <v>88</v>
       </c>
       <c r="W16" s="53">
-        <f>(((Variables!$B$12+(3*Variables!B68))*Variables!B28*Variables!B29^2+Variables!B66*Variables!B67^3))*Variables!B15</f>
+        <f>(((Variables!$B$12+(3*Variables!B70))*Variables!B30*Variables!B31^2+Variables!B68*Variables!B69^3))*Variables!B15</f>
         <v>2244000000</v>
       </c>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="97" t="s">
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="112" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="74" t="s">
         <v>88</v>
       </c>
       <c r="AC16" s="53">
-        <f>(((Variables!$B$12+(3*Variables!B68))*Variables!B28*Variables!B29^3+Variables!B66*Variables!B67^4))*Variables!B15</f>
+        <f>(((Variables!$B$12+(3*Variables!B70))*Variables!B30*Variables!B31^3+Variables!B68*Variables!B69^4))*Variables!B15</f>
         <v>4488000000</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="43" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="51">
-        <f>Variables!B13*Variables!B63</f>
+        <f>Variables!B13*Variables!B65</f>
         <v>328500000</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="43" t="s">
         <v>127</v>
       </c>
       <c r="K17" s="53">
-        <f>(Variables!B63+Variables!B68)*Variables!B13*Variables!B28</f>
+        <f>(Variables!B65+Variables!B70)*Variables!B13*Variables!B30</f>
         <v>1404000000</v>
       </c>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
       <c r="P17" s="43" t="s">
         <v>127</v>
       </c>
       <c r="Q17" s="54">
-        <f>(Variables!B63+(2*Variables!B68))*Variables!B13*Variables!B28*Variables!B29</f>
+        <f>(Variables!B65+(2*Variables!B70))*Variables!B13*Variables!B30*Variables!B31</f>
         <v>2988000000</v>
       </c>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
       <c r="V17" s="75" t="s">
         <v>127</v>
       </c>
       <c r="W17" s="54">
-        <f>(Variables!B63+(3*Variables!B68))*Variables!B13*Variables!B28*Variables!B29^2</f>
+        <f>(Variables!B65+(3*Variables!B70))*Variables!B13*Variables!B30*Variables!B31^2</f>
         <v>6336000000</v>
       </c>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
       <c r="AB17" s="75" t="s">
         <v>127</v>
       </c>
       <c r="AC17" s="54">
-        <f>(Variables!B63+(3*Variables!B68))*Variables!B13*Variables!B28*Variables!B29^3</f>
+        <f>(Variables!B65+(3*Variables!B70))*Variables!B13*Variables!B30*Variables!B31^3</f>
         <v>12672000000</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="39" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="48">
-        <f>Variables!B64*Variables!B14</f>
+        <f>Variables!B66*Variables!B14</f>
         <v>5475000</v>
       </c>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="39" t="s">
         <v>128</v>
       </c>
       <c r="K18" s="53">
-        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28</f>
+        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30</f>
         <v>25184999.999999996</v>
       </c>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
       <c r="P18" s="39" t="s">
         <v>128</v>
       </c>
       <c r="Q18" s="55">
-        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29</f>
+        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31</f>
         <v>50369999.999999993</v>
       </c>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
       <c r="V18" s="76" t="s">
         <v>128</v>
       </c>
       <c r="W18" s="55">
-        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29^2</f>
+        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
         <v>100739999.99999999</v>
       </c>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
       <c r="AB18" s="76" t="s">
         <v>128</v>
       </c>
       <c r="AC18" s="55">
-        <f>Variables!B64*Variables!B14*(1+Variables!B22)*Variables!B28*Variables!B29^3</f>
+        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
         <v>201479999.99999997</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="39"/>
       <c r="E19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="39"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="39" t="s">
+        <v>178</v>
+      </c>
       <c r="K19" s="48">
-        <v>0</v>
-      </c>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
+        <f>Variables!$B$30*Variables!$B$52</f>
+        <v>600000000</v>
+      </c>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
       <c r="V19" s="39"/>
       <c r="W19" s="48">
         <v>0</v>
       </c>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="39"/>
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
       <c r="J20" s="39"/>
       <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="34">
         <v>0</v>
       </c>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34">
         <v>0</v>
       </c>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="39"/>
       <c r="E21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="39"/>
       <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34">
         <v>0</v>
       </c>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
       <c r="D22" s="39"/>
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="39"/>
       <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="99"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="114"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="34">
         <v>0</v>
       </c>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="99"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="114"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="114"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="104" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="105"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="37">
         <f>SUM(E16:E22)</f>
         <v>432975000</v>
       </c>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="104" t="s">
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="105"/>
+      <c r="J23" s="103"/>
       <c r="K23" s="37">
         <f>SUM(K16:K22)</f>
-        <v>1892685000</v>
-      </c>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="104" t="s">
+        <v>2492685000</v>
+      </c>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="105"/>
+      <c r="P23" s="103"/>
       <c r="Q23" s="37">
         <f>SUM(Q16:Q22)</f>
         <v>4100370000</v>
       </c>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="104" t="s">
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="105"/>
+      <c r="V23" s="103"/>
       <c r="W23" s="37">
         <f>SUM(W16:W22)</f>
         <v>8680740000</v>
       </c>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="104" t="s">
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="105"/>
+      <c r="AB23" s="103"/>
       <c r="AC23" s="37">
         <f>SUM(AC16:AC22)</f>
         <v>17361480000</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="97" t="s">
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="42">
-        <f>Variables!B38</f>
+        <f>Variables!B40</f>
         <v>16800000</v>
       </c>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="97" t="s">
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="K24" s="42">
-        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^0</f>
+        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^0</f>
         <v>67200000</v>
       </c>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="97" t="s">
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="P24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="Q24" s="42">
-        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^1</f>
+        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^1</f>
         <v>134400000</v>
       </c>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="97" t="s">
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="V24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="W24" s="42">
-        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^2</f>
+        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^2</f>
         <v>268800000</v>
       </c>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="97" t="s">
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="112" t="s">
         <v>29</v>
       </c>
       <c r="AB24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="AC24" s="42">
-        <f>Variables!$B$38*Variables!$B$28*Variables!$B$29^3</f>
+        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^3</f>
         <v>537600000</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="34">
-        <f>Variables!$B$36*Variables!$B$34+Variables!B35</f>
+        <f>Variables!$B$38*Variables!$B$36+Variables!B37</f>
         <v>65800000</v>
       </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
       <c r="J25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="K25" s="34">
-        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^0+Variables!$B$35*Variables!$B$28*Variables!$B$29^0</f>
+        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^0+Variables!$B$37*Variables!$B$30*Variables!$B$31^0</f>
         <v>263200000</v>
       </c>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
       <c r="P25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="Q25" s="34">
-        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^1+Variables!$B$35*Variables!$B$28*Variables!$B$29^1</f>
+        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^1+Variables!$B$37*Variables!$B$30*Variables!$B$31^1</f>
         <v>526400000</v>
       </c>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
       <c r="V25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="W25" s="34">
-        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^2+Variables!$B$35*Variables!$B$28*Variables!$B$29^2</f>
+        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^2+Variables!$B$37*Variables!$B$30*Variables!$B$31^2</f>
         <v>1052800000</v>
       </c>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
       <c r="AB25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="AC25" s="34">
-        <f>Variables!$B$34*Variables!$B$36*Variables!$B$28*Variables!$B$29^3+Variables!$B$35*Variables!$B$28*Variables!$B$29^3</f>
+        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^3+Variables!$B$37*Variables!$B$30*Variables!$B$31^3</f>
         <v>2105600000</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="42">
-        <f>Variables!B37</f>
+        <f>Variables!B39</f>
         <v>36000000</v>
       </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
       <c r="J26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="K26" s="34">
-        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^0</f>
+        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^0</f>
         <v>144000000</v>
       </c>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
       <c r="P26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="Q26" s="34">
-        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^1</f>
+        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^1</f>
         <v>288000000</v>
       </c>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
       <c r="V26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="W26" s="34">
-        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^2</f>
+        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^2</f>
         <v>576000000</v>
       </c>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
       <c r="AB26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="AC26" s="34">
-        <f>Variables!$B$37*Variables!$B$28*Variables!$B$29^3</f>
+        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^3</f>
         <v>1152000000</v>
       </c>
     </row>
     <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="82" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="34">
-        <f>Variables!B49</f>
+        <f>Variables!B51</f>
         <v>2160000</v>
       </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
       <c r="J27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="K27" s="34">
-        <f>Variables!$B$39</f>
+        <f>Variables!$B$41</f>
         <v>60000000</v>
       </c>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
+      <c r="O27" s="113"/>
       <c r="P27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="Q27" s="34">
-        <f>Variables!$B$39+Variables!$B$44</f>
+        <f>Variables!$B$41+Variables!$B$46</f>
         <v>63000000</v>
       </c>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
       <c r="V27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="W27" s="34">
-        <f>Variables!$B$39+Variables!$B$44</f>
+        <f>Variables!$B$41+Variables!$B$46</f>
         <v>63000000</v>
       </c>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
       <c r="AB27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="AC27" s="34">
-        <f>Variables!$B$39+Variables!$B$44*2</f>
+        <f>Variables!$B$41+Variables!$B$46*2</f>
         <v>66000000</v>
       </c>
     </row>
     <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="83" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="71">
-        <f>Variables!$B$46</f>
+        <f>Variables!$B$48</f>
         <v>43800000</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="K28" s="34">
-        <f>Variables!$B$40</f>
+        <f>Variables!$B$42</f>
         <v>84000000</v>
       </c>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
       <c r="P28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="Q28" s="34">
-        <f>Variables!$B$40+Variables!$B$44</f>
+        <f>Variables!$B$42+Variables!$B$46</f>
         <v>87000000</v>
       </c>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
       <c r="V28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="W28" s="34">
-        <f>Variables!$B$40+Variables!$B$44</f>
+        <f>Variables!$B$42+Variables!$B$46</f>
         <v>87000000</v>
       </c>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
       <c r="AB28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="AC28" s="34">
-        <f>Variables!$B$40+Variables!$B$44*2</f>
+        <f>Variables!$B$42+Variables!$B$46*2</f>
         <v>90000000</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="83" t="s">
         <v>136</v>
       </c>
       <c r="E29" s="71">
-        <f>Variables!$B$47</f>
+        <f>Variables!$B$49</f>
         <v>60000000</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
       <c r="J29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="K29" s="34">
-        <f>Variables!$B$41</f>
+        <f>Variables!$B$43</f>
         <v>120000000</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
       <c r="P29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="Q29" s="34">
-        <f>Variables!$B$41+Variables!$B$44</f>
+        <f>Variables!$B$43+Variables!$B$46</f>
         <v>123000000</v>
       </c>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
       <c r="V29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="W29" s="34">
-        <f>Variables!$B$41+Variables!$B$44</f>
+        <f>Variables!$B$43+Variables!$B$46</f>
         <v>123000000</v>
       </c>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
       <c r="AB29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="AC29" s="34">
-        <f>Variables!$B$41+Variables!$B$44*2</f>
+        <f>Variables!$B$43+Variables!$B$46*2</f>
         <v>126000000</v>
       </c>
     </row>
     <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="81" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="80">
-        <f>Variables!$B$48</f>
+        <f>Variables!$B$50</f>
         <v>36000000</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
       <c r="J30" s="81" t="s">
         <v>170</v>
       </c>
       <c r="K30" s="34">
-        <f>Variables!$B$42</f>
+        <f>Variables!$B$44</f>
         <v>108000000</v>
       </c>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
       <c r="P30" s="81" t="s">
         <v>170</v>
       </c>
       <c r="Q30" s="34">
-        <f>Variables!$B$42+Variables!$B$44</f>
+        <f>Variables!$B$44+Variables!$B$46</f>
         <v>111000000</v>
       </c>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
       <c r="V30" s="81" t="s">
         <v>170</v>
       </c>
       <c r="W30" s="34">
-        <f>Variables!$B$42+Variables!$B$44</f>
+        <f>Variables!$B$44+Variables!$B$46</f>
         <v>111000000</v>
       </c>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
       <c r="AB30" s="81" t="s">
         <v>170</v>
       </c>
       <c r="AC30" s="34">
-        <f>Variables!$B$42+Variables!$B$44*2</f>
+        <f>Variables!$B$44+Variables!$B$46*2</f>
         <v>114000000</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="81" t="s">
         <v>165</v>
       </c>
       <c r="E31" s="80">
-        <f>Variables!B25</f>
+        <f>Variables!B27</f>
         <v>600000</v>
       </c>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
       <c r="J31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="K31" s="34">
-        <f>Variables!$B$43</f>
+        <f>Variables!$B$45</f>
         <v>192000000</v>
       </c>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
       <c r="P31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="Q31" s="34">
-        <f>Variables!$B$43+Variables!$B$44</f>
+        <f>Variables!$B$45+Variables!$B$46</f>
         <v>195000000</v>
       </c>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
       <c r="V31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="W31" s="34">
-        <f>Variables!$B$43+Variables!$B$44</f>
+        <f>Variables!$B$45+Variables!$B$46</f>
         <v>195000000</v>
       </c>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
       <c r="AB31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="AC31" s="34">
-        <f>Variables!$B$43+Variables!$B$44*2</f>
+        <f>Variables!$B$45+Variables!$B$46*2</f>
         <v>198000000</v>
       </c>
     </row>
     <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="81" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="80">
-        <f>Variables!B27</f>
+        <f>Variables!B29</f>
         <v>5000000</v>
       </c>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
       <c r="J32" s="82" t="s">
         <v>27</v>
       </c>
       <c r="K32" s="42">
-        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^0</f>
+        <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^0</f>
         <v>8640000</v>
       </c>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="113"/>
       <c r="P32" s="82" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="42">
-        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^1</f>
+        <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^1</f>
         <v>17280000</v>
       </c>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
       <c r="V32" s="82" t="s">
         <v>27</v>
       </c>
       <c r="W32" s="42">
-        <f>Variables!$B$49*Variables!$B$28*Variables!$B$29^2</f>
+        <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^2</f>
         <v>34560000</v>
       </c>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
       <c r="AB32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3715,9 +3749,9 @@
       </c>
     </row>
     <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="43" t="s">
         <v>138</v>
       </c>
@@ -3725,51 +3759,51 @@
         <f>Variables!B20</f>
         <v>7500000</v>
       </c>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
       <c r="J33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="K33" s="34">
-        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^0</f>
+        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^0</f>
         <v>175200000</v>
       </c>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="113"/>
       <c r="P33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="Q33" s="34">
-        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^1</f>
+        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^1</f>
         <v>350400000</v>
       </c>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
       <c r="V33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="W33" s="34">
-        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^2</f>
+        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^2</f>
         <v>700800000</v>
       </c>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
       <c r="AB33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="AC33" s="34">
-        <f>Variables!$B$46*Variables!$B$28*Variables!$B$29^3</f>
+        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^3</f>
         <v>1401600000</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="43" t="s">
         <v>139</v>
       </c>
@@ -3777,536 +3811,536 @@
         <f>Variables!B21*Variables!B19</f>
         <v>3000000</v>
       </c>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
       <c r="J34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="K34" s="71">
-        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^0</f>
+        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^0</f>
         <v>240000000</v>
       </c>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
       <c r="P34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="Q34" s="71">
-        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^1</f>
+        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^1</f>
         <v>480000000</v>
       </c>
-      <c r="S34" s="98"/>
-      <c r="T34" s="98"/>
-      <c r="U34" s="98"/>
+      <c r="S34" s="113"/>
+      <c r="T34" s="113"/>
+      <c r="U34" s="113"/>
       <c r="V34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="W34" s="71">
-        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^2</f>
+        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^2</f>
         <v>960000000</v>
       </c>
-      <c r="Y34" s="98"/>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="98"/>
+      <c r="Y34" s="113"/>
+      <c r="Z34" s="113"/>
+      <c r="AA34" s="113"/>
       <c r="AB34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="AC34" s="71">
-        <f>Variables!$B$47*Variables!$B$28*Variables!$B$29^3</f>
+        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^3</f>
         <v>1920000000</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="43"/>
       <c r="E35" s="80"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
       <c r="J35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="K35" s="80">
-        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^0</f>
+        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^0</f>
         <v>144000000</v>
       </c>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
       <c r="P35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="Q35" s="80">
-        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^1</f>
+        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^1</f>
         <v>288000000</v>
       </c>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
-      <c r="U35" s="98"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
       <c r="V35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="W35" s="80">
-        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^2</f>
+        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^2</f>
         <v>576000000</v>
       </c>
-      <c r="Y35" s="98"/>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="98"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
       <c r="AB35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="AC35" s="80">
-        <f>Variables!$B$48*Variables!$B$28*Variables!$B$29^3</f>
+        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^3</f>
         <v>1152000000</v>
       </c>
     </row>
     <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="43"/>
       <c r="E36" s="80"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
       <c r="J36" s="81" t="s">
         <v>168</v>
       </c>
       <c r="K36" s="80">
-        <f>Variables!$B$28*Variables!$B$50</f>
-        <v>300000000</v>
-      </c>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
+        <f>Variables!$B$30*Variables!$B$52</f>
+        <v>600000000</v>
+      </c>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
       <c r="P36" s="81" t="s">
         <v>168</v>
       </c>
       <c r="Q36" s="80">
-        <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^0</f>
-        <v>300000000</v>
-      </c>
-      <c r="S36" s="98"/>
-      <c r="T36" s="98"/>
-      <c r="U36" s="98"/>
+        <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^0</f>
+        <v>600000000</v>
+      </c>
+      <c r="S36" s="113"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
       <c r="V36" s="81" t="s">
         <v>168</v>
       </c>
       <c r="W36" s="80">
-        <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^1</f>
-        <v>600000000</v>
-      </c>
-      <c r="Y36" s="98"/>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="98"/>
+        <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^1</f>
+        <v>1200000000</v>
+      </c>
+      <c r="Y36" s="113"/>
+      <c r="Z36" s="113"/>
+      <c r="AA36" s="113"/>
       <c r="AB36" s="81" t="s">
         <v>168</v>
       </c>
       <c r="AC36" s="80">
-        <f>Variables!$B$28*Variables!$B$50*Variables!$B$29^2</f>
-        <v>1200000000</v>
+        <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^2</f>
+        <v>2400000000</v>
       </c>
     </row>
     <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="43"/>
       <c r="E37" s="80"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
       <c r="J37" s="81" t="s">
         <v>169</v>
       </c>
       <c r="K37" s="80">
-        <f>Variables!$B$30+Variables!$B$31</f>
+        <f>Variables!$B$32+Variables!$B$33</f>
         <v>260000000</v>
       </c>
-      <c r="M37" s="98"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="98"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
       <c r="P37" s="81" t="s">
         <v>175</v>
       </c>
       <c r="Q37" s="80">
-        <f>Variables!$B$31</f>
+        <f>Variables!$B$33</f>
         <v>10000000</v>
       </c>
-      <c r="S37" s="98"/>
-      <c r="T37" s="98"/>
-      <c r="U37" s="98"/>
+      <c r="S37" s="113"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
       <c r="V37" s="81" t="s">
         <v>175</v>
       </c>
       <c r="W37" s="80">
-        <f>Variables!$B$31</f>
+        <f>Variables!$B$33</f>
         <v>10000000</v>
       </c>
-      <c r="Y37" s="98"/>
-      <c r="Z37" s="98"/>
-      <c r="AA37" s="98"/>
+      <c r="Y37" s="113"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
       <c r="AB37" s="81" t="s">
         <v>175</v>
       </c>
       <c r="AC37" s="80">
-        <f>Variables!$B$31</f>
+        <f>Variables!$B$33</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="98"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="43"/>
       <c r="E38" s="80"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
       <c r="J38" s="81"/>
       <c r="K38" s="80"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="98"/>
-      <c r="U38" s="98"/>
+      <c r="S38" s="113"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
       <c r="V38" s="82"/>
       <c r="W38" s="56"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="98"/>
-      <c r="AA38" s="98"/>
+      <c r="Y38" s="113"/>
+      <c r="Z38" s="113"/>
+      <c r="AA38" s="113"/>
       <c r="AB38" s="82"/>
       <c r="AC38" s="56"/>
     </row>
     <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="98"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="43"/>
       <c r="E39" s="80"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="99"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="114"/>
       <c r="J39" s="81"/>
       <c r="K39" s="80"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="99"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="114"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
-      <c r="S39" s="98"/>
-      <c r="T39" s="98"/>
-      <c r="U39" s="99"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="114"/>
       <c r="V39" s="82"/>
       <c r="W39" s="56"/>
-      <c r="Y39" s="98"/>
-      <c r="Z39" s="98"/>
-      <c r="AA39" s="99"/>
+      <c r="Y39" s="113"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="114"/>
       <c r="AB39" s="82"/>
       <c r="AC39" s="56"/>
     </row>
     <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="104" t="s">
+      <c r="A40" s="113"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="107"/>
+      <c r="D40" s="116"/>
       <c r="E40" s="72">
         <f>SUM(E24:E34)</f>
         <v>276660000</v>
       </c>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="104" t="s">
+      <c r="G40" s="113"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="105"/>
+      <c r="J40" s="103"/>
       <c r="K40" s="37">
         <f>SUM(K24:K39)</f>
-        <v>2166240000</v>
-      </c>
-      <c r="M40" s="98"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="104" t="s">
+        <v>2466240000</v>
+      </c>
+      <c r="M40" s="113"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="116"/>
+      <c r="P40" s="115"/>
       <c r="Q40" s="37">
         <f>SUM(Q24:Q39)</f>
-        <v>2973480000</v>
-      </c>
-      <c r="S40" s="98"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="104" t="s">
+        <v>3273480000</v>
+      </c>
+      <c r="S40" s="113"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="105"/>
+      <c r="V40" s="103"/>
       <c r="W40" s="37">
         <f>SUM(W24:W39)</f>
-        <v>5357960000</v>
-      </c>
-      <c r="Y40" s="98"/>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="104" t="s">
+        <v>5957960000</v>
+      </c>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="114"/>
+      <c r="AA40" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AB40" s="105"/>
+      <c r="AB40" s="103"/>
       <c r="AC40" s="37">
         <f>SUM(AC24:AC39)</f>
-        <v>10072800000</v>
+        <v>11272800000</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98"/>
-      <c r="B41" s="104" t="s">
+      <c r="A41" s="113"/>
+      <c r="B41" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="105"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="37">
         <f>E23+E40</f>
         <v>709635000</v>
       </c>
-      <c r="G41" s="98"/>
-      <c r="H41" s="104" t="s">
+      <c r="G41" s="113"/>
+      <c r="H41" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="106"/>
-      <c r="J41" s="105"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
       <c r="K41" s="37">
         <f>K23+K40</f>
-        <v>4058925000</v>
-      </c>
-      <c r="M41" s="98"/>
-      <c r="N41" s="104" t="s">
+        <v>4958925000</v>
+      </c>
+      <c r="M41" s="113"/>
+      <c r="N41" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="O41" s="106"/>
-      <c r="P41" s="105"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="103"/>
       <c r="Q41" s="37">
         <f>Q23+Q40</f>
-        <v>7073850000</v>
-      </c>
-      <c r="S41" s="98"/>
-      <c r="T41" s="104" t="s">
+        <v>7373850000</v>
+      </c>
+      <c r="S41" s="113"/>
+      <c r="T41" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="106"/>
-      <c r="V41" s="105"/>
+      <c r="U41" s="102"/>
+      <c r="V41" s="103"/>
       <c r="W41" s="37">
         <f>W23+W40</f>
-        <v>14038700000</v>
-      </c>
-      <c r="Y41" s="98"/>
-      <c r="Z41" s="104" t="s">
+        <v>14638700000</v>
+      </c>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="AA41" s="106"/>
-      <c r="AB41" s="105"/>
+      <c r="AA41" s="102"/>
+      <c r="AB41" s="103"/>
       <c r="AC41" s="37">
         <f>AC23+AC40</f>
-        <v>27434280000</v>
+        <v>28634280000</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98"/>
-      <c r="B42" s="108" t="s">
+      <c r="A42" s="113"/>
+      <c r="B42" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="109"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="G42" s="98"/>
-      <c r="H42" s="108" t="s">
+      <c r="G42" s="113"/>
+      <c r="H42" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="109"/>
+      <c r="I42" s="105"/>
       <c r="J42" s="39"/>
       <c r="K42" s="34">
         <v>0</v>
       </c>
-      <c r="M42" s="98"/>
-      <c r="N42" s="108" t="s">
+      <c r="M42" s="113"/>
+      <c r="N42" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="109"/>
+      <c r="O42" s="105"/>
       <c r="P42" s="39"/>
       <c r="Q42" s="34">
         <v>0</v>
       </c>
-      <c r="S42" s="98"/>
-      <c r="T42" s="108" t="s">
+      <c r="S42" s="113"/>
+      <c r="T42" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="109"/>
+      <c r="U42" s="105"/>
       <c r="V42" s="39"/>
       <c r="W42" s="34">
         <v>0</v>
       </c>
-      <c r="Y42" s="98"/>
-      <c r="Z42" s="108" t="s">
+      <c r="Y42" s="113"/>
+      <c r="Z42" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="AA42" s="109"/>
+      <c r="AA42" s="105"/>
       <c r="AB42" s="39"/>
       <c r="AC42" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="98"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="111"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
       <c r="D43" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="34">
         <v>0</v>
       </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="111"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
       <c r="J43" s="39"/>
       <c r="K43" s="34">
         <v>0</v>
       </c>
-      <c r="M43" s="98"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="111"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="107"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="34">
         <v>0</v>
       </c>
-      <c r="S43" s="98"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="111"/>
+      <c r="S43" s="113"/>
+      <c r="T43" s="106"/>
+      <c r="U43" s="107"/>
       <c r="V43" s="39"/>
       <c r="W43" s="34">
         <v>0</v>
       </c>
-      <c r="Y43" s="98"/>
-      <c r="Z43" s="110"/>
-      <c r="AA43" s="111"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="107"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="104" t="s">
+      <c r="A44" s="114"/>
+      <c r="B44" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="105"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="37">
         <f>SUM(E42:E43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="99"/>
-      <c r="H44" s="104" t="s">
+      <c r="G44" s="114"/>
+      <c r="H44" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="106"/>
-      <c r="J44" s="105"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="103"/>
       <c r="K44" s="37">
         <f>SUM(K42:K43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="99"/>
-      <c r="N44" s="104" t="s">
+      <c r="M44" s="114"/>
+      <c r="N44" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="106"/>
-      <c r="P44" s="105"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="103"/>
       <c r="Q44" s="37">
         <f>SUM(Q42:Q43)</f>
         <v>0</v>
       </c>
-      <c r="S44" s="99"/>
-      <c r="T44" s="104" t="s">
+      <c r="S44" s="114"/>
+      <c r="T44" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="106"/>
-      <c r="V44" s="105"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="103"/>
       <c r="W44" s="37">
         <f>SUM(W42:W43)</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="99"/>
-      <c r="Z44" s="104" t="s">
+      <c r="Y44" s="114"/>
+      <c r="Z44" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="105"/>
+      <c r="AA44" s="102"/>
+      <c r="AB44" s="103"/>
       <c r="AC44" s="37">
         <f>SUM(AC42:AC43)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
       <c r="E45" s="37">
         <f>E41+E44</f>
         <v>709635000</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="G45" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
       <c r="K45" s="37">
         <f>K41+K44</f>
-        <v>4058925000</v>
-      </c>
-      <c r="M45" s="95" t="s">
+        <v>4958925000</v>
+      </c>
+      <c r="M45" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
       <c r="Q45" s="37">
         <f>Q41+Q44</f>
-        <v>7073850000</v>
-      </c>
-      <c r="S45" s="95" t="s">
+        <v>7373850000</v>
+      </c>
+      <c r="S45" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="95"/>
-      <c r="U45" s="95"/>
-      <c r="V45" s="95"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
       <c r="W45" s="37">
         <f>W41+W44</f>
-        <v>14038700000</v>
-      </c>
-      <c r="Y45" s="95" t="s">
+        <v>14638700000</v>
+      </c>
+      <c r="Y45" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="95"/>
-      <c r="AA45" s="95"/>
-      <c r="AB45" s="95"/>
+      <c r="Z45" s="108"/>
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
       <c r="AC45" s="37">
         <f>AC41+AC44</f>
-        <v>27434280000</v>
+        <v>28634280000</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4337,55 +4371,55 @@
       <c r="AC46" s="35"/>
     </row>
     <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="112" t="s">
+      <c r="A47" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="112"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
       <c r="E47" s="79">
         <f>E13-E45</f>
         <v>78860000</v>
       </c>
-      <c r="G47" s="112" t="s">
+      <c r="G47" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
       <c r="K47" s="79">
         <f>K13-K45</f>
-        <v>-362248000</v>
-      </c>
-      <c r="M47" s="112" t="s">
+        <v>-1262248000</v>
+      </c>
+      <c r="M47" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="N47" s="112"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
       <c r="Q47" s="79">
         <f>Q13-Q45</f>
-        <v>283504000</v>
-      </c>
-      <c r="S47" s="112" t="s">
+        <v>-16496000</v>
+      </c>
+      <c r="S47" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="T47" s="112"/>
-      <c r="U47" s="112"/>
-      <c r="V47" s="112"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
       <c r="W47" s="79">
         <f>W13-W45</f>
-        <v>1576008000</v>
-      </c>
-      <c r="Y47" s="112" t="s">
+        <v>976008000</v>
+      </c>
+      <c r="Y47" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="Z47" s="112"/>
-      <c r="AA47" s="112"/>
-      <c r="AB47" s="112"/>
+      <c r="Z47" s="111"/>
+      <c r="AA47" s="111"/>
+      <c r="AB47" s="111"/>
       <c r="AC47" s="79">
         <f>AC13-AC45</f>
-        <v>3195136000</v>
+        <v>1995136000</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4416,211 +4450,213 @@
       <c r="AC48" s="35"/>
     </row>
     <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
       <c r="E49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="96" t="s">
+      <c r="G49" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="103" t="s">
+      <c r="H49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
       <c r="K49" s="37">
-        <v>0</v>
-      </c>
-      <c r="M49" s="96" t="s">
+        <f>K19*Variables!B25</f>
+        <v>100000000</v>
+      </c>
+      <c r="M49" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="N49" s="103" t="s">
+      <c r="N49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
       <c r="Q49" s="37">
         <v>0</v>
       </c>
-      <c r="S49" s="96" t="s">
+      <c r="S49" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="T49" s="103" t="s">
+      <c r="T49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="103"/>
-      <c r="V49" s="103"/>
+      <c r="U49" s="110"/>
+      <c r="V49" s="110"/>
       <c r="W49" s="37">
         <v>0</v>
       </c>
-      <c r="Y49" s="96" t="s">
+      <c r="Y49" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="103" t="s">
+      <c r="Z49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="103"/>
-      <c r="AB49" s="103"/>
+      <c r="AA49" s="110"/>
+      <c r="AB49" s="110"/>
       <c r="AC49" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="96"/>
-      <c r="B50" s="103" t="s">
+      <c r="A50" s="109"/>
+      <c r="B50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="37">
         <v>0</v>
       </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="103" t="s">
+      <c r="G50" s="109"/>
+      <c r="H50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
       <c r="K50" s="37">
-        <v>0</v>
-      </c>
-      <c r="M50" s="96"/>
-      <c r="N50" s="103" t="s">
+        <f>'Ingresos &amp; egresos'!K19*Variables!B26</f>
+        <v>100000000</v>
+      </c>
+      <c r="M50" s="109"/>
+      <c r="N50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
       <c r="Q50" s="37">
         <v>0</v>
       </c>
-      <c r="S50" s="96"/>
-      <c r="T50" s="103" t="s">
+      <c r="S50" s="109"/>
+      <c r="T50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="103"/>
-      <c r="V50" s="103"/>
+      <c r="U50" s="110"/>
+      <c r="V50" s="110"/>
       <c r="W50" s="37">
         <v>0</v>
       </c>
-      <c r="Y50" s="96"/>
-      <c r="Z50" s="103" t="s">
+      <c r="Y50" s="109"/>
+      <c r="Z50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="103"/>
-      <c r="AB50" s="103"/>
+      <c r="AA50" s="110"/>
+      <c r="AB50" s="110"/>
       <c r="AC50" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="96"/>
-      <c r="B51" s="103" t="s">
+      <c r="A51" s="109"/>
+      <c r="B51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
       <c r="E51" s="37">
         <f>E47*Variables!$B$24</f>
         <v>3154400</v>
       </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="103" t="s">
+      <c r="G51" s="109"/>
+      <c r="H51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
       <c r="K51" s="37">
         <f>K47*Variables!$B$24</f>
-        <v>-14489920</v>
-      </c>
-      <c r="M51" s="96"/>
-      <c r="N51" s="103" t="s">
+        <v>-50489920</v>
+      </c>
+      <c r="M51" s="109"/>
+      <c r="N51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
+      <c r="O51" s="110"/>
+      <c r="P51" s="110"/>
       <c r="Q51" s="37">
         <f>Q47*Variables!$B$24</f>
-        <v>11340160</v>
-      </c>
-      <c r="S51" s="96"/>
-      <c r="T51" s="103" t="s">
+        <v>-659840</v>
+      </c>
+      <c r="S51" s="109"/>
+      <c r="T51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="U51" s="103"/>
-      <c r="V51" s="103"/>
+      <c r="U51" s="110"/>
+      <c r="V51" s="110"/>
       <c r="W51" s="37">
         <f>W47*Variables!$B$24</f>
-        <v>63040320</v>
-      </c>
-      <c r="Y51" s="96"/>
-      <c r="Z51" s="103" t="s">
+        <v>39040320</v>
+      </c>
+      <c r="Y51" s="109"/>
+      <c r="Z51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="AA51" s="103"/>
-      <c r="AB51" s="103"/>
+      <c r="AA51" s="110"/>
+      <c r="AB51" s="110"/>
       <c r="AC51" s="37">
         <f>AC47*Variables!$B$24</f>
-        <v>127805440</v>
+        <v>79805440</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="96"/>
-      <c r="B52" s="103" t="s">
+      <c r="A52" s="109"/>
+      <c r="B52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
       <c r="E52" s="37">
         <f>E47*Variables!$B$23</f>
         <v>14983400</v>
       </c>
-      <c r="G52" s="96"/>
-      <c r="H52" s="103" t="s">
+      <c r="G52" s="109"/>
+      <c r="H52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
       <c r="K52" s="37">
         <f>K47*Variables!$B$23</f>
-        <v>-68827120</v>
-      </c>
-      <c r="M52" s="96"/>
-      <c r="N52" s="103" t="s">
+        <v>-239827120</v>
+      </c>
+      <c r="M52" s="109"/>
+      <c r="N52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="103"/>
-      <c r="P52" s="103"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
       <c r="Q52" s="37">
         <f>Q47*Variables!$B$23</f>
-        <v>53865760</v>
-      </c>
-      <c r="S52" s="96"/>
-      <c r="T52" s="103" t="s">
+        <v>-3134240</v>
+      </c>
+      <c r="S52" s="109"/>
+      <c r="T52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="U52" s="103"/>
-      <c r="V52" s="103"/>
+      <c r="U52" s="110"/>
+      <c r="V52" s="110"/>
       <c r="W52" s="37">
         <f>W47*Variables!$B$23</f>
-        <v>299441520</v>
-      </c>
-      <c r="Y52" s="96"/>
-      <c r="Z52" s="103" t="s">
+        <v>185441520</v>
+      </c>
+      <c r="Y52" s="109"/>
+      <c r="Z52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="103"/>
-      <c r="AB52" s="103"/>
+      <c r="AA52" s="110"/>
+      <c r="AB52" s="110"/>
       <c r="AC52" s="37">
         <f>AC47*Variables!$B$23</f>
-        <v>607075840</v>
+        <v>379075840</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4640,7 +4676,7 @@
       <c r="J53" s="38"/>
       <c r="K53" s="37">
         <f>K49+K50+K51+(MAX(K52,0))</f>
-        <v>-14489920</v>
+        <v>149510080</v>
       </c>
       <c r="M53" s="32"/>
       <c r="N53" s="38"/>
@@ -4648,7 +4684,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="37">
         <f>Q49+Q50+Q51+(MAX(Q52,0))</f>
-        <v>65205920</v>
+        <v>-659840</v>
       </c>
       <c r="S53" s="32"/>
       <c r="T53" s="38"/>
@@ -4656,7 +4692,7 @@
       <c r="V53" s="38"/>
       <c r="W53" s="37">
         <f>W49+W50+W51+(MAX(W52,0))</f>
-        <v>362481840</v>
+        <v>224481840</v>
       </c>
       <c r="Y53" s="32"/>
       <c r="Z53" s="38"/>
@@ -4664,7 +4700,7 @@
       <c r="AB53" s="38"/>
       <c r="AC53" s="37">
         <f>AC49+AC50+AC51+(MAX(AC52,0))</f>
-        <v>734881280</v>
+        <v>458881280</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4695,55 +4731,55 @@
       <c r="AC54" s="35"/>
     </row>
     <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="113" t="s">
+      <c r="A55" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="115"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="100"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="113" t="s">
+      <c r="G55" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="115"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="100"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="113" t="s">
+      <c r="M55" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
-      <c r="Q55" s="115"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="99"/>
+      <c r="Q55" s="100"/>
       <c r="R55" s="32"/>
-      <c r="S55" s="113" t="s">
+      <c r="S55" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="114"/>
-      <c r="U55" s="114"/>
-      <c r="V55" s="114"/>
-      <c r="W55" s="115"/>
+      <c r="T55" s="99"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="99"/>
+      <c r="W55" s="100"/>
       <c r="X55" s="32"/>
-      <c r="Y55" s="113" t="s">
+      <c r="Y55" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="Z55" s="114"/>
-      <c r="AA55" s="114"/>
-      <c r="AB55" s="114"/>
-      <c r="AC55" s="115"/>
+      <c r="Z55" s="99"/>
+      <c r="AA55" s="99"/>
+      <c r="AB55" s="99"/>
+      <c r="AC55" s="100"/>
     </row>
     <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="100" t="s">
+      <c r="B56" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="102"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="34">
         <f>E13-E23</f>
         <v>355520000</v>
@@ -4752,24 +4788,24 @@
       <c r="G56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="100" t="s">
+      <c r="H56" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="101"/>
-      <c r="J56" s="102"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
       <c r="K56" s="34">
         <f>K13-K23</f>
-        <v>1803992000</v>
+        <v>1203992000</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="100" t="s">
+      <c r="N56" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="101"/>
-      <c r="P56" s="102"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="97"/>
       <c r="Q56" s="34">
         <f>Q13-Q23</f>
         <v>3256984000</v>
@@ -4778,11 +4814,11 @@
       <c r="S56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="100" t="s">
+      <c r="T56" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="U56" s="101"/>
-      <c r="V56" s="102"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="97"/>
       <c r="W56" s="34">
         <f>W13-W23</f>
         <v>6933968000</v>
@@ -4791,11 +4827,11 @@
       <c r="Y56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Z56" s="100" t="s">
+      <c r="Z56" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="AA56" s="101"/>
-      <c r="AB56" s="102"/>
+      <c r="AA56" s="96"/>
+      <c r="AB56" s="97"/>
       <c r="AC56" s="34">
         <f>AC13-AC23</f>
         <v>13267936000</v>
@@ -4805,11 +4841,11 @@
       <c r="A57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="100" t="s">
+      <c r="B57" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="102"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="33">
         <f>E56/E13</f>
         <v>0.45088427954520954</v>
@@ -4818,24 +4854,24 @@
       <c r="G57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="100" t="s">
+      <c r="H57" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="101"/>
-      <c r="J57" s="102"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="97"/>
       <c r="K57" s="33">
         <f>K56/K13</f>
-        <v>0.48800368547211453</v>
+        <v>0.32569575324000449</v>
       </c>
       <c r="L57" s="32"/>
       <c r="M57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="100" t="s">
+      <c r="N57" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="101"/>
-      <c r="P57" s="102"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="97"/>
       <c r="Q57" s="33">
         <f>Q56/Q13</f>
         <v>0.44268414976362425</v>
@@ -4844,11 +4880,11 @@
       <c r="S57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="100" t="s">
+      <c r="T57" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="U57" s="101"/>
-      <c r="V57" s="102"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="97"/>
       <c r="W57" s="33">
         <f>W56/W13</f>
         <v>0.44406645324395433</v>
@@ -4857,11 +4893,11 @@
       <c r="Y57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Z57" s="100" t="s">
+      <c r="Z57" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="AA57" s="101"/>
-      <c r="AB57" s="102"/>
+      <c r="AA57" s="96"/>
+      <c r="AB57" s="97"/>
       <c r="AC57" s="33">
         <f>AC56/AC13</f>
         <v>0.43317626428136924</v>
@@ -4871,11 +4907,11 @@
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="101"/>
-      <c r="D58" s="102"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="34">
         <f>E56-E40</f>
         <v>78860000</v>
@@ -4884,64 +4920,64 @@
       <c r="G58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="100" t="s">
+      <c r="H58" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="101"/>
-      <c r="J58" s="102"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="97"/>
       <c r="K58" s="34">
         <f>K56-K40</f>
-        <v>-362248000</v>
+        <v>-1262248000</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N58" s="100" t="s">
+      <c r="N58" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="101"/>
-      <c r="P58" s="102"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="97"/>
       <c r="Q58" s="34">
         <f>Q56-Q40</f>
-        <v>283504000</v>
+        <v>-16496000</v>
       </c>
       <c r="R58" s="32"/>
       <c r="S58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T58" s="100" t="s">
+      <c r="T58" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="U58" s="101"/>
-      <c r="V58" s="102"/>
+      <c r="U58" s="96"/>
+      <c r="V58" s="97"/>
       <c r="W58" s="34">
         <f>W56-W40</f>
-        <v>1576008000</v>
+        <v>976008000</v>
       </c>
       <c r="X58" s="32"/>
       <c r="Y58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z58" s="100" t="s">
+      <c r="Z58" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="AA58" s="101"/>
-      <c r="AB58" s="102"/>
+      <c r="AA58" s="96"/>
+      <c r="AB58" s="97"/>
       <c r="AC58" s="34">
         <f>AC56-AC40</f>
-        <v>3195136000</v>
+        <v>1995136000</v>
       </c>
     </row>
     <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="33">
         <f>E58/E13</f>
         <v>0.10001331650803112</v>
@@ -4950,64 +4986,64 @@
       <c r="G59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="100" t="s">
+      <c r="H59" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="101"/>
-      <c r="J59" s="102"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="97"/>
       <c r="K59" s="33">
         <f>K58/K13</f>
-        <v>-9.7992873058695681E-2</v>
+        <v>-0.34145477140686081</v>
       </c>
       <c r="L59" s="32"/>
       <c r="M59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="100" t="s">
+      <c r="N59" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="O59" s="101"/>
-      <c r="P59" s="102"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="97"/>
       <c r="Q59" s="33">
         <f>Q58/Q13</f>
-        <v>3.8533418400147665E-2</v>
+        <v>-2.242110410889567E-3</v>
       </c>
       <c r="R59" s="32"/>
       <c r="S59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="T59" s="100" t="s">
+      <c r="T59" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="101"/>
-      <c r="V59" s="102"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="97"/>
       <c r="W59" s="33">
         <f>W58/W13</f>
-        <v>0.10093099403459867</v>
+        <v>6.250568374381385E-2</v>
       </c>
       <c r="X59" s="32"/>
       <c r="Y59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z59" s="100" t="s">
+      <c r="Z59" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" s="101"/>
-      <c r="AB59" s="102"/>
+      <c r="AA59" s="96"/>
+      <c r="AB59" s="97"/>
       <c r="AC59" s="33">
         <f>AC58/AC13</f>
-        <v>0.10431592949731722</v>
+        <v>6.513790533910277E-2</v>
       </c>
     </row>
     <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="100" t="s">
+      <c r="B60" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="101"/>
-      <c r="D60" s="102"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="34">
         <f>E58-E53</f>
         <v>60722200</v>
@@ -5016,64 +5052,64 @@
       <c r="G60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="100" t="s">
+      <c r="H60" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="101"/>
-      <c r="J60" s="102"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="97"/>
       <c r="K60" s="34">
         <f>K58-K53</f>
-        <v>-347758080</v>
+        <v>-1411758080</v>
       </c>
       <c r="L60" s="32"/>
       <c r="M60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="100" t="s">
+      <c r="N60" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="101"/>
-      <c r="P60" s="102"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="97"/>
       <c r="Q60" s="34">
         <f>Q58-Q53</f>
-        <v>218298080</v>
+        <v>-15836160</v>
       </c>
       <c r="R60" s="32"/>
       <c r="S60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="T60" s="100" t="s">
+      <c r="T60" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="U60" s="101"/>
-      <c r="V60" s="102"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="97"/>
       <c r="W60" s="34">
         <f>W58-W53</f>
-        <v>1213526160</v>
+        <v>751526160</v>
       </c>
       <c r="X60" s="32"/>
       <c r="Y60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z60" s="100" t="s">
+      <c r="Z60" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AA60" s="101"/>
-      <c r="AB60" s="102"/>
+      <c r="AA60" s="96"/>
+      <c r="AB60" s="97"/>
       <c r="AC60" s="34">
         <f>AC58-AC53</f>
-        <v>2460254720</v>
+        <v>1536254720</v>
       </c>
     </row>
     <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="97"/>
       <c r="E61" s="33">
         <f>E60/E13</f>
         <v>7.701025371118396E-2</v>
@@ -5082,53 +5118,53 @@
       <c r="G61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="100" t="s">
+      <c r="H61" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="101"/>
-      <c r="J61" s="102"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="97"/>
       <c r="K61" s="33">
         <f>K60/K13</f>
-        <v>-9.4073158136347854E-2</v>
+        <v>-0.38189922462795639</v>
       </c>
       <c r="L61" s="32"/>
       <c r="M61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="100" t="s">
+      <c r="N61" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="O61" s="101"/>
-      <c r="P61" s="102"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="97"/>
       <c r="Q61" s="33">
         <f>Q60/Q13</f>
-        <v>2.9670732168113698E-2</v>
+        <v>-2.1524259944539843E-3</v>
       </c>
       <c r="R61" s="32"/>
       <c r="S61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="100" t="s">
+      <c r="T61" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="U61" s="101"/>
-      <c r="V61" s="102"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="97"/>
       <c r="W61" s="33">
         <f>W60/W13</f>
-        <v>7.7716865406640967E-2</v>
+        <v>4.8129376482736658E-2</v>
       </c>
       <c r="X61" s="32"/>
       <c r="Y61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Z61" s="100" t="s">
+      <c r="Z61" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="AA61" s="101"/>
-      <c r="AB61" s="102"/>
+      <c r="AA61" s="96"/>
+      <c r="AB61" s="97"/>
       <c r="AC61" s="33">
         <f>AC60/AC13</f>
-        <v>8.0323265712934258E-2</v>
+        <v>5.0156187111109141E-2</v>
       </c>
     </row>
     <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5155,7 +5191,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="33">
         <f>K60/Variables!$B$7</f>
-        <v>-0.69551616000000005</v>
+        <v>-2.8235161600000001</v>
       </c>
       <c r="L62" s="32"/>
       <c r="M62" s="31" t="s">
@@ -5168,7 +5204,7 @@
       <c r="P62" s="28"/>
       <c r="Q62" s="33">
         <f>Q60/Variables!$B$7</f>
-        <v>0.43659616000000001</v>
+        <v>-3.1672319999999997E-2</v>
       </c>
       <c r="R62" s="32"/>
       <c r="S62" s="31" t="s">
@@ -5181,7 +5217,7 @@
       <c r="V62" s="28"/>
       <c r="W62" s="33">
         <f>W60/Variables!$B$7</f>
-        <v>2.42705232</v>
+        <v>1.5030523200000001</v>
       </c>
       <c r="X62" s="32"/>
       <c r="Y62" s="31" t="s">
@@ -5194,18 +5230,18 @@
       <c r="AB62" s="28"/>
       <c r="AC62" s="33">
         <f>AC60/Variables!$B$7</f>
-        <v>4.92050944</v>
+        <v>3.0725094400000001</v>
       </c>
     </row>
     <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="100" t="s">
+      <c r="B63" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="97"/>
       <c r="E63" s="33">
         <f>E60/Variables!$B$5</f>
         <v>0.12144439999999999</v>
@@ -5214,84 +5250,84 @@
       <c r="G63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="100" t="s">
+      <c r="H63" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="101"/>
-      <c r="J63" s="102"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="97"/>
       <c r="K63" s="33">
         <f>K60/Variables!$B$5</f>
-        <v>-0.69551616000000005</v>
+        <v>-2.8235161600000001</v>
       </c>
       <c r="L63" s="32"/>
       <c r="M63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="100" t="s">
+      <c r="N63" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="O63" s="101"/>
-      <c r="P63" s="102"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="97"/>
       <c r="Q63" s="33">
         <f>Q60/Variables!$B$5</f>
-        <v>0.43659616000000001</v>
+        <v>-3.1672319999999997E-2</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="100" t="s">
+      <c r="T63" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="101"/>
-      <c r="V63" s="102"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="97"/>
       <c r="W63" s="33">
         <f>W60/Variables!$B$5</f>
-        <v>2.42705232</v>
+        <v>1.5030523200000001</v>
       </c>
       <c r="X63" s="32"/>
       <c r="Y63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Z63" s="100" t="s">
+      <c r="Z63" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="AA63" s="101"/>
-      <c r="AB63" s="102"/>
+      <c r="AA63" s="96"/>
+      <c r="AB63" s="97"/>
       <c r="AC63" s="33">
         <f>AC60/Variables!$B$5</f>
-        <v>4.92050944</v>
+        <v>3.0725094400000001</v>
       </c>
     </row>
     <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="102"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="97"/>
       <c r="E64" s="27"/>
       <c r="F64" s="32"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="101"/>
-      <c r="J64" s="102"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="97"/>
       <c r="K64" s="27"/>
       <c r="L64" s="32"/>
       <c r="M64" s="31"/>
-      <c r="N64" s="100"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="102"/>
+      <c r="N64" s="95"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="97"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="32"/>
       <c r="S64" s="31"/>
-      <c r="T64" s="100"/>
-      <c r="U64" s="101"/>
-      <c r="V64" s="102"/>
+      <c r="T64" s="95"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="97"/>
       <c r="W64" s="27"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="31"/>
-      <c r="Z64" s="100"/>
-      <c r="AA64" s="101"/>
-      <c r="AB64" s="102"/>
+      <c r="Z64" s="95"/>
+      <c r="AA64" s="96"/>
+      <c r="AB64" s="97"/>
       <c r="AC64" s="27"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -5302,84 +5338,89 @@
     </row>
   </sheetData>
   <mergeCells count="185">
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="Z42:AA43"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Y47:AB47"/>
-    <mergeCell ref="Z15:Z40"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AA22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="Y5:Y12"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y15:Y44"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA24:AA39"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="S55:W55"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="S49:S52"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="S15:S44"/>
-    <mergeCell ref="T15:T40"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:U22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:U43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H15:H40"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G15:G44"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A15:A44"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="N15:N40"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:O22"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="O24:O39"/>
+    <mergeCell ref="I24:I39"/>
+    <mergeCell ref="C24:C39"/>
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="G55:K55"/>
     <mergeCell ref="H56:J56"/>
@@ -5404,89 +5445,84 @@
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M49:M52"/>
     <mergeCell ref="M15:M44"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="N15:N40"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:O22"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="O24:O39"/>
-    <mergeCell ref="I24:I39"/>
-    <mergeCell ref="C24:C39"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A15:A44"/>
-    <mergeCell ref="B15:B40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G15:G44"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H15:H40"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S49:S52"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="S15:S44"/>
+    <mergeCell ref="T15:T40"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:U22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="Z15:Z40"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AA22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="Z5:Z9"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y15:Y44"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA24:AA39"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="Z42:AA43"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="Y47:AB47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5608,105 +5644,105 @@
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="123"/>
+      <c r="C5" s="117"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="123" t="s">
+      <c r="F5" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="123"/>
+      <c r="G5" s="117"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="123"/>
+      <c r="K5" s="117"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="123" t="s">
+      <c r="N5" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="123"/>
+      <c r="O5" s="117"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="123" t="s">
+      <c r="R5" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="123"/>
+      <c r="S5" s="117"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="123" t="s">
+      <c r="V5" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="123"/>
+      <c r="W5" s="117"/>
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="122">
+      <c r="B6" s="118">
         <f>C13-C20</f>
         <v>500000000</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="118">
         <f>(B6*(1-Variables!B24))+G25</f>
         <v>558860000</v>
       </c>
-      <c r="G6" s="122"/>
+      <c r="G6" s="118"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="118">
         <f>(F6*(1-Variables!B24))+K25</f>
-        <v>174257600</v>
-      </c>
-      <c r="K6" s="122"/>
+        <v>-725742400</v>
+      </c>
+      <c r="K6" s="118"/>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="122">
+      <c r="N6" s="118">
         <f>(J6*(1-Variables!B24))+O25</f>
-        <v>450791296</v>
-      </c>
-      <c r="O6" s="122"/>
+        <v>-713208704</v>
+      </c>
+      <c r="O6" s="118"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="122">
+      <c r="R6" s="118">
         <f>(N6*(1-Variables!B24))+S25</f>
-        <v>2008767644.1599998</v>
-      </c>
-      <c r="S6" s="122"/>
+        <v>291327644.15999997</v>
+      </c>
+      <c r="S6" s="118"/>
       <c r="T6" s="3"/>
       <c r="U6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="122">
+      <c r="V6" s="118">
         <f>(R6*(1-Variables!B24))+W25</f>
-        <v>5123552938.3935995</v>
-      </c>
-      <c r="W6" s="122"/>
+        <v>2274810538.3936</v>
+      </c>
+      <c r="W6" s="118"/>
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -5734,7 +5770,7 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="119" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5744,7 +5780,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="119" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -5754,7 +5790,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="124" t="s">
+      <c r="I8" s="119" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -5764,7 +5800,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="124" t="s">
+      <c r="M8" s="119" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5774,7 +5810,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="124" t="s">
+      <c r="Q8" s="119" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5784,7 +5820,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="124" t="s">
+      <c r="U8" s="119" t="s">
         <v>72</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -5795,7 +5831,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="125"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
@@ -5804,7 +5840,7 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="125"/>
+      <c r="E9" s="120"/>
       <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5813,119 +5849,119 @@
         <v>78860000</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="125"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="5">
         <f>'Ingresos &amp; egresos'!K47</f>
-        <v>-362248000</v>
+        <v>-1262248000</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="125"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="5">
         <f>'Ingresos &amp; egresos'!Q47</f>
-        <v>283504000</v>
+        <v>-16496000</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="125"/>
+      <c r="Q9" s="120"/>
       <c r="R9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="5">
         <f>'Ingresos &amp; egresos'!W47</f>
-        <v>1576008000</v>
+        <v>976008000</v>
       </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="125"/>
+      <c r="U9" s="120"/>
       <c r="V9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="5">
         <f>'Ingresos &amp; egresos'!AC47</f>
-        <v>3195136000</v>
-      </c>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="117"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="118"/>
+        <v>1995136000</v>
+      </c>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="125"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="125"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="125"/>
+      <c r="I10" s="120"/>
       <c r="J10" s="12"/>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="125"/>
+      <c r="M10" s="120"/>
       <c r="N10" s="12"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="125"/>
+      <c r="Q10" s="120"/>
       <c r="R10" s="12"/>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="125"/>
+      <c r="U10" s="120"/>
       <c r="V10" s="12"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="125"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="12"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="125"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="125"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="12"/>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="125"/>
+      <c r="M11" s="120"/>
       <c r="N11" s="12"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="125"/>
+      <c r="Q11" s="120"/>
       <c r="R11" s="12"/>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="125"/>
+      <c r="U11" s="120"/>
       <c r="V11" s="12"/>
       <c r="W11" s="5">
         <v>0</v>
@@ -5936,37 +5972,37 @@
       <c r="AC11" s="86"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="126"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="126"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="12"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="126"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="126"/>
+      <c r="M12" s="121"/>
       <c r="N12" s="12"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="126"/>
+      <c r="Q12" s="121"/>
       <c r="R12" s="12"/>
       <c r="S12" s="5">
         <v>0</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="126"/>
+      <c r="U12" s="121"/>
       <c r="V12" s="12"/>
       <c r="W12" s="5">
         <v>0</v>
@@ -5995,28 +6031,28 @@
       <c r="J13" s="7"/>
       <c r="K13" s="9">
         <f>SUM(K9:K12)</f>
-        <v>-362248000</v>
+        <v>-1262248000</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="3"/>
       <c r="N13" s="7"/>
       <c r="O13" s="9">
         <f>SUM(O9:O12)</f>
-        <v>283504000</v>
+        <v>-16496000</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
       <c r="S13" s="9">
         <f>SUM(S9:S12)</f>
-        <v>1576008000</v>
+        <v>976008000</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="3"/>
       <c r="V13" s="7"/>
       <c r="W13" s="9">
         <f>SUM(W9:W12)</f>
-        <v>3195136000</v>
+        <v>1995136000</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="85"/>
@@ -6052,7 +6088,7 @@
       <c r="AC14" s="86"/>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="119" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -6062,7 +6098,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="119" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6072,7 +6108,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="124" t="s">
+      <c r="I15" s="119" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -6082,7 +6118,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="124" t="s">
+      <c r="M15" s="119" t="s">
         <v>76</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -6092,7 +6128,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="124" t="s">
+      <c r="Q15" s="119" t="s">
         <v>77</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -6102,7 +6138,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="124" t="s">
+      <c r="U15" s="119" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -6116,37 +6152,37 @@
       <c r="AC15" s="86"/>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="125"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="125"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="125"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="12"/>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="125"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="12"/>
       <c r="O16" s="5">
         <v>0</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="125"/>
+      <c r="Q16" s="120"/>
       <c r="R16" s="12"/>
       <c r="S16" s="5">
         <v>0</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="125"/>
+      <c r="U16" s="120"/>
       <c r="V16" s="12"/>
       <c r="W16" s="5">
         <v>0</v>
@@ -6156,78 +6192,78 @@
       <c r="AC16" s="86"/>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="125"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="125"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="125"/>
+      <c r="I17" s="120"/>
       <c r="J17" s="12"/>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="125"/>
+      <c r="M17" s="120"/>
       <c r="N17" s="12"/>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="125"/>
+      <c r="Q17" s="120"/>
       <c r="R17" s="12"/>
       <c r="S17" s="5">
         <v>0</v>
       </c>
       <c r="T17" s="8"/>
-      <c r="U17" s="125"/>
+      <c r="U17" s="120"/>
       <c r="V17" s="12"/>
       <c r="W17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="119"/>
-      <c r="AC17" s="119"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="125"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="125"/>
+      <c r="E18" s="120"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="125"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="12"/>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="125"/>
+      <c r="M18" s="120"/>
       <c r="N18" s="12"/>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="125"/>
+      <c r="Q18" s="120"/>
       <c r="R18" s="12"/>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="125"/>
+      <c r="U18" s="120"/>
       <c r="V18" s="12"/>
       <c r="W18" s="5">
         <v>0</v>
@@ -6238,37 +6274,37 @@
       <c r="AC18" s="86"/>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="126"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="126"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="126"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="126"/>
+      <c r="M19" s="121"/>
       <c r="N19" s="12"/>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="126"/>
+      <c r="Q19" s="121"/>
       <c r="R19" s="12"/>
       <c r="S19" s="5">
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
-      <c r="U19" s="126"/>
+      <c r="U19" s="121"/>
       <c r="V19" s="12"/>
       <c r="W19" s="5">
         <v>0</v>
@@ -6353,43 +6389,43 @@
       <c r="AC21" s="86"/>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="121" t="s">
+      <c r="I22" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="121" t="s">
+      <c r="M22" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="121"/>
-      <c r="O22" s="121"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="121" t="s">
+      <c r="Q22" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="121"/>
-      <c r="S22" s="121"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="121" t="s">
+      <c r="U22" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="121"/>
-      <c r="W22" s="121"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="122"/>
+      <c r="AB22" s="123"/>
+      <c r="AC22" s="123"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -6551,7 +6587,7 @@
       </c>
       <c r="K25" s="5">
         <f>K13-K20</f>
-        <v>-362248000</v>
+        <v>-1262248000</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
@@ -6560,7 +6596,7 @@
       </c>
       <c r="O25" s="5">
         <f>O13-O20</f>
-        <v>283504000</v>
+        <v>-16496000</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="11"/>
@@ -6569,7 +6605,7 @@
       </c>
       <c r="S25" s="5">
         <f>S13-S20</f>
-        <v>1576008000</v>
+        <v>976008000</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="11"/>
@@ -6578,7 +6614,7 @@
       </c>
       <c r="W25" s="5">
         <f>W13-W20</f>
-        <v>3195136000</v>
+        <v>1995136000</v>
       </c>
       <c r="Z25" s="88"/>
       <c r="AA25" s="89"/>
@@ -6609,7 +6645,7 @@
       </c>
       <c r="K26" s="5">
         <f>G26+K25</f>
-        <v>-283388000</v>
+        <v>-1183388000</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="11"/>
@@ -6618,7 +6654,7 @@
       </c>
       <c r="O26" s="5">
         <f>K26+O25</f>
-        <v>116000</v>
+        <v>-1199884000</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="11"/>
@@ -6627,7 +6663,7 @@
       </c>
       <c r="S26" s="5">
         <f>O26+S25</f>
-        <v>1576124000</v>
+        <v>-223876000</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="11"/>
@@ -6636,7 +6672,7 @@
       </c>
       <c r="W26" s="5">
         <f>S26+W25</f>
-        <v>4771260000</v>
+        <v>1771260000</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -6645,21 +6681,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="Q15:Q19"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B6:C6"/>
@@ -6676,11 +6702,21 @@
     <mergeCell ref="M8:M12"/>
     <mergeCell ref="M15:M19"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="Q15:Q19"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HT-6/Optica Modelo Financiero.xlsx
+++ b/HT-6/Optica Modelo Financiero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A3F54-F13C-4166-A99C-EA10955F1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B04D9-872D-B046-BD3F-739DFFAB2AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="181">
   <si>
     <t>Arquitectura Empresarial</t>
   </si>
@@ -523,9 +523,6 @@
     <t>Remodelaciones de local nuevo</t>
   </si>
   <si>
-    <t xml:space="preserve">Costos de distriución por local </t>
-  </si>
-  <si>
     <t>Ganancia por kilogramo de material reciclado</t>
   </si>
   <si>
@@ -547,9 +544,6 @@
     <t>Inversión tecnológica para apertura de portal web (canal digital)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenimiento del servidor </t>
-  </si>
-  <si>
     <t>Licencia software contable</t>
   </si>
   <si>
@@ -596,6 +590,12 @@
   </si>
   <si>
     <t>Intereses por deuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo ____ del mantenimiento del servidor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costos _____ de distriución por local </t>
   </si>
 </sst>
 </file>
@@ -603,15 +603,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -670,7 +670,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +717,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -865,14 +871,14 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -880,17 +886,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,13 +916,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -929,7 +935,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -948,19 +954,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
@@ -975,7 +981,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -983,21 +989,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,7 +1016,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1021,26 +1027,26 @@
     <xf numFmtId="9" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1054,10 +1060,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1068,17 +1074,29 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1155,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1505,14 +1523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED2F777-88E5-4EE3-ABB1-5261070B52BB}">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="67.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="2.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
@@ -1523,7 +1541,7 @@
     <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1549,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1557,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1548,14 +1566,14 @@
       <c r="F3" s="2"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="60" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="60"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -1564,9 +1582,9 @@
         <v>500000000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="94"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="98"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -1574,9 +1592,9 @@
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="94"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="98"/>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1584,19 +1602,19 @@
         <v>500000000</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="94"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D7" s="98"/>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="61"/>
       <c r="C8" s="2"/>
       <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="57"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="s">
         <v>109</v>
       </c>
@@ -1604,7 +1622,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="57"/>
     </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
@@ -1614,7 +1632,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="57"/>
     </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>124</v>
       </c>
@@ -1625,7 +1643,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="57"/>
     </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>112</v>
       </c>
@@ -1636,7 +1654,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="57"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>118</v>
       </c>
@@ -1646,7 +1664,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>129</v>
       </c>
@@ -1656,27 +1674,27 @@
       <c r="C15" s="2"/>
       <c r="D15" s="57"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="69"/>
       <c r="C16" s="2"/>
       <c r="D16" s="57"/>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="59"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="93"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D17" s="97"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="60" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="93"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D18" s="97"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="50" t="s">
         <v>120</v>
       </c>
@@ -1684,9 +1702,9 @@
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="93"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D19" s="97"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="50" t="s">
         <v>135</v>
       </c>
@@ -1694,9 +1712,9 @@
         <v>7500000</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="93"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D20" s="97"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
         <v>140</v>
       </c>
@@ -1704,9 +1722,9 @@
         <v>1000000</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="93"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D21" s="97"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
         <v>131</v>
       </c>
@@ -1714,9 +1732,9 @@
         <v>0.15</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="93"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D22" s="97"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="50" t="s">
         <v>130</v>
       </c>
@@ -1724,9 +1742,9 @@
         <v>0.19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="93"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D23" s="97"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="50" t="s">
         <v>132</v>
       </c>
@@ -1736,9 +1754,9 @@
       <c r="C24" s="2"/>
       <c r="D24" s="57"/>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B25" s="78">
         <f>1/6</f>
@@ -1747,9 +1765,9 @@
       <c r="C25" s="2"/>
       <c r="D25" s="57"/>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" s="78">
         <f>1/6</f>
@@ -1758,7 +1776,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="57"/>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="50" t="s">
         <v>153</v>
       </c>
@@ -1768,9 +1786,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="57"/>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B28" s="68">
         <v>150000000</v>
@@ -1778,19 +1796,19 @@
       <c r="C28" s="2"/>
       <c r="D28" s="57"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="68">
+        <v>180</v>
+      </c>
+      <c r="B29" s="93">
         <v>5000000</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="57"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30" s="92">
         <v>4</v>
@@ -1798,9 +1816,9 @@
       <c r="C30" s="2"/>
       <c r="D30" s="57"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="92">
         <v>2</v>
@@ -1808,9 +1826,9 @@
       <c r="C31" s="2"/>
       <c r="D31" s="57"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" s="68">
         <v>250000000</v>
@@ -1818,19 +1836,19 @@
       <c r="C32" s="2"/>
       <c r="D32" s="57"/>
     </row>
-    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="68">
+        <v>179</v>
+      </c>
+      <c r="B33" s="93">
         <v>10000000</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="57"/>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B34" s="68">
         <v>50000000</v>
@@ -1838,7 +1856,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="57"/>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
         <v>125</v>
       </c>
@@ -1846,7 +1864,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>106</v>
       </c>
@@ -1855,15 +1873,15 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B37" s="19">
         <v>1000000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>103</v>
       </c>
@@ -1871,7 +1889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>91</v>
       </c>
@@ -1889,16 +1907,15 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B41" s="19">
-        <f>5000000*12</f>
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>108000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>150</v>
       </c>
@@ -1907,7 +1924,7 @@
         <v>84000000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>149</v>
       </c>
@@ -1916,16 +1933,15 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="19">
-        <f>9000000*12</f>
-        <v>108000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>152</v>
       </c>
@@ -1934,7 +1950,7 @@
         <v>192000000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>134</v>
       </c>
@@ -1942,13 +1958,13 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="64" t="s">
         <v>107</v>
       </c>
       <c r="B47" s="65"/>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>154</v>
       </c>
@@ -1957,7 +1973,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>121</v>
       </c>
@@ -1965,7 +1981,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>122</v>
       </c>
@@ -1974,7 +1990,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>123</v>
       </c>
@@ -1983,7 +1999,7 @@
         <v>2160000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>155</v>
       </c>
@@ -1991,13 +2007,13 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="60" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="60"/>
     </row>
-    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>104</v>
       </c>
@@ -2005,7 +2021,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>105</v>
       </c>
@@ -2013,7 +2029,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>113</v>
       </c>
@@ -2021,7 +2037,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>114</v>
       </c>
@@ -2029,31 +2045,31 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="91">
         <v>30000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="92">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B62" s="92">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="62" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>115</v>
       </c>
@@ -2069,7 +2085,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>116</v>
       </c>
@@ -2078,7 +2094,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>117</v>
       </c>
@@ -2087,7 +2103,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>119</v>
       </c>
@@ -2095,78 +2111,78 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B68" s="21">
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B69" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B70" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>147</v>
       </c>
@@ -2184,11 +2200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4764C-DEDE-C149-BFDF-F902BA43F941}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="24" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="24" customWidth="1"/>
@@ -2222,7 +2238,7 @@
     <col min="30" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="str">
         <f>Variables!A1</f>
         <v>Arquitectura Empresarial</v>
@@ -2242,7 +2258,7 @@
       <c r="Z1" s="47"/>
       <c r="AA1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
@@ -2261,7 +2277,7 @@
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2292,523 +2308,523 @@
       <c r="AB3" s="45"/>
       <c r="AC3" s="45"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="F4" s="24"/>
       <c r="L4" s="24"/>
       <c r="R4" s="24"/>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="109"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="109"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="109" t="s">
+      <c r="M5" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="112" t="s">
+      <c r="N5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="109" t="s">
+      <c r="O5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="109"/>
+      <c r="P5" s="113"/>
       <c r="Q5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="R5" s="24"/>
-      <c r="S5" s="109" t="s">
+      <c r="S5" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="112" t="s">
+      <c r="T5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="109" t="s">
+      <c r="U5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="109"/>
+      <c r="V5" s="113"/>
       <c r="W5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="X5" s="24"/>
-      <c r="Y5" s="109" t="s">
+      <c r="Y5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="112" t="s">
+      <c r="Z5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="109" t="s">
+      <c r="AA5" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="109"/>
+      <c r="AB5" s="113"/>
       <c r="AC5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="110" t="s">
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="113"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="110"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="34">
         <f>Variables!$B$58*Variables!$B$66</f>
         <v>8395000</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="110" t="s">
+      <c r="G6" s="113"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="110"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30</f>
         <v>38617000</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="110" t="s">
+      <c r="M6" s="113"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="110"/>
+      <c r="P6" s="114"/>
       <c r="Q6" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31</f>
         <v>77234000</v>
       </c>
       <c r="R6" s="24"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="110" t="s">
+      <c r="S6" s="113"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="110"/>
+      <c r="V6" s="114"/>
       <c r="W6" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
         <v>154468000</v>
       </c>
       <c r="X6" s="24"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="110" t="s">
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="110"/>
+      <c r="AB6" s="114"/>
       <c r="AC6" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
         <v>308936000</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="110" t="s">
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="113"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="110"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="34">
         <f>Variables!$B$67*Variables!$B$59</f>
         <v>51100000</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="110" t="s">
+      <c r="G7" s="113"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="110"/>
+      <c r="J7" s="114"/>
       <c r="K7" s="34">
         <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30</f>
         <v>235059999.99999997</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="110" t="s">
+      <c r="M7" s="113"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="110"/>
+      <c r="P7" s="114"/>
       <c r="Q7" s="34">
         <f>Variables!B67*Variables!B59*(1+Variables!B22)*Variables!B30*Variables!B31</f>
         <v>470119999.99999994</v>
       </c>
       <c r="R7" s="24"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="110" t="s">
+      <c r="S7" s="113"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="110"/>
+      <c r="V7" s="114"/>
       <c r="W7" s="34">
         <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
         <v>940239999.99999988</v>
       </c>
       <c r="X7" s="24"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="110" t="s">
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="110"/>
+      <c r="AB7" s="114"/>
       <c r="AC7" s="34">
         <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
         <v>1880479999.9999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="110" t="s">
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="113"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="110"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="34">
         <f>(Variables!B65)*Variables!B57</f>
         <v>547500000</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="110" t="s">
+      <c r="G8" s="113"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="110"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="34">
         <f>(Variables!B65+Variables!B70)*Variables!B57*Variables!B30</f>
         <v>2340000000</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="110" t="s">
+      <c r="M8" s="113"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="110"/>
+      <c r="P8" s="114"/>
       <c r="Q8" s="34">
         <f>(Variables!B65+(2*Variables!B70))*Variables!B57*Variables!B30*Variables!B31</f>
         <v>4980000000</v>
       </c>
       <c r="R8" s="24"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="110" t="s">
+      <c r="S8" s="113"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="110"/>
+      <c r="V8" s="114"/>
       <c r="W8" s="34">
         <f>(Variables!B65+(3*Variables!B70))*Variables!B57*Variables!B30*Variables!B31^2</f>
         <v>10560000000</v>
       </c>
       <c r="X8" s="24"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="110" t="s">
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="110"/>
+      <c r="AB8" s="114"/>
       <c r="AC8" s="34">
         <f>(Variables!B65+(3*Variables!B70))*Variables!B57*Variables!B30*Variables!B31^3</f>
         <v>21120000000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="110" t="s">
+    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="113"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="110"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="34">
         <f>(Variables!B64)*Variables!B56</f>
         <v>180000000</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="110" t="s">
+      <c r="G9" s="113"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="110"/>
+      <c r="J9" s="114"/>
       <c r="K9" s="34">
         <f>(Variables!B64+Variables!B70+Variables!B68)*Variables!B56*Variables!B30</f>
         <v>1080000000</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="110" t="s">
+      <c r="M9" s="113"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="110"/>
+      <c r="P9" s="114"/>
       <c r="Q9" s="34">
         <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31+Variables!B68*Variables!B69)*Variables!B56</f>
         <v>1830000000</v>
       </c>
       <c r="R9" s="24"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="110" t="s">
+      <c r="S9" s="113"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="110"/>
+      <c r="V9" s="114"/>
       <c r="W9" s="34">
         <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31^2+Variables!B68*Variables!B69^3)*Variables!B56</f>
         <v>3960000000</v>
       </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="110" t="s">
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="118"/>
+      <c r="AA9" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="110"/>
+      <c r="AB9" s="114"/>
       <c r="AC9" s="34">
         <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31^3+Variables!B68*Variables!B69^3)*Variables!B56</f>
         <v>7320000000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="101" t="s">
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="113"/>
+      <c r="B10" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="37">
         <f>SUM(E6:E9)</f>
         <v>786995000</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="101" t="s">
+      <c r="G10" s="113"/>
+      <c r="H10" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
       <c r="K10" s="37">
         <f>SUM(K6:K9)</f>
         <v>3693677000</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="101" t="s">
+      <c r="M10" s="113"/>
+      <c r="N10" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="102"/>
-      <c r="P10" s="103"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="107"/>
       <c r="Q10" s="37">
         <f>SUM(Q6:Q9)</f>
         <v>7357354000</v>
       </c>
       <c r="R10" s="24"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="101" t="s">
+      <c r="S10" s="113"/>
+      <c r="T10" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="102"/>
-      <c r="V10" s="103"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="107"/>
       <c r="W10" s="37">
         <f>SUM(W6:W9)</f>
         <v>15614708000</v>
       </c>
       <c r="X10" s="24"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="101" t="s">
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="103"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="107"/>
       <c r="AC10" s="37">
         <f>SUM(AC6:AC9)</f>
         <v>30629416000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="113"/>
       <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="110"/>
+      <c r="C11" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="114"/>
       <c r="E11" s="34">
         <f>Variables!B61*Variables!B60</f>
         <v>1500000</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="109"/>
+      <c r="G11" s="113"/>
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="110"/>
+      <c r="I11" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="114"/>
       <c r="K11" s="34">
         <f>Variables!B60*Variables!B61*Variables!B62</f>
         <v>3000000</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="109"/>
+      <c r="M11" s="113"/>
       <c r="N11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="109"/>
+      <c r="S11" s="113"/>
       <c r="T11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
       <c r="W11" s="34"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="109"/>
+      <c r="Y11" s="113"/>
       <c r="Z11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
-      <c r="B12" s="101" t="s">
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="113"/>
+      <c r="B12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="37">
         <f>SUM(E11:E11)</f>
         <v>1500000</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="101" t="s">
+      <c r="G12" s="113"/>
+      <c r="H12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
       <c r="K12" s="37">
         <f>SUM(K11:K11)</f>
         <v>3000000</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="101" t="s">
+      <c r="M12" s="113"/>
+      <c r="N12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="102"/>
-      <c r="P12" s="103"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="107"/>
       <c r="Q12" s="37">
         <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="101" t="s">
+      <c r="S12" s="113"/>
+      <c r="T12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="102"/>
-      <c r="V12" s="103"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="107"/>
       <c r="W12" s="37">
         <f>SUM(W11:W11)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="101" t="s">
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="103"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="107"/>
       <c r="AC12" s="37">
         <f>SUM(AC11:AC11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108" t="s">
+    <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="37">
         <f>E10+E12</f>
         <v>788495000</v>
       </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
       <c r="K13" s="37">
         <f>K10+K12</f>
         <v>3696677000</v>
       </c>
-      <c r="M13" s="108" t="s">
+      <c r="M13" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
       <c r="Q13" s="37">
         <f>Q10+Q12</f>
         <v>7357354000</v>
       </c>
-      <c r="S13" s="108" t="s">
+      <c r="S13" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
       <c r="W13" s="37">
         <f>W10+W12</f>
         <v>15614708000</v>
       </c>
-      <c r="Y13" s="108" t="s">
+      <c r="Y13" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
       <c r="AC13" s="37">
         <f>AC10+AC12</f>
         <v>30629416000</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2835,77 +2851,77 @@
       <c r="AB14" s="36"/>
       <c r="AC14" s="35"/>
     </row>
-    <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112" t="s">
+    <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="109"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="112" t="s">
+      <c r="H15" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="109"/>
+      <c r="J15" s="113"/>
       <c r="K15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="112" t="s">
+      <c r="M15" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="112" t="s">
+      <c r="N15" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="109" t="s">
+      <c r="O15" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="109"/>
+      <c r="P15" s="113"/>
       <c r="Q15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="112" t="s">
+      <c r="S15" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="112" t="s">
+      <c r="T15" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="109" t="s">
+      <c r="U15" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="109"/>
+      <c r="V15" s="113"/>
       <c r="W15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="112" t="s">
+      <c r="Y15" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="112" t="s">
+      <c r="Z15" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="109" t="s">
+      <c r="AA15" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="109"/>
+      <c r="AB15" s="113"/>
       <c r="AC15" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="112" t="s">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="116" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2915,9 +2931,9 @@
         <f>(Variables!$B$12)*Variables!B15</f>
         <v>99000000</v>
       </c>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="112" t="s">
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="116" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="43" t="s">
@@ -2927,9 +2943,9 @@
         <f>((Variables!$B$12+Variables!B70)*Variables!B30+Variables!B68)*Variables!B15</f>
         <v>463500000</v>
       </c>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="112" t="s">
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="116" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="43" t="s">
@@ -2939,9 +2955,9 @@
         <f>(((Variables!$B$12+(2*Variables!B70))*Variables!B30*Variables!B31+Variables!B68*Variables!B69^2))*Variables!B15</f>
         <v>1062000000</v>
       </c>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="112" t="s">
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="116" t="s">
         <v>26</v>
       </c>
       <c r="V16" s="74" t="s">
@@ -2951,9 +2967,9 @@
         <f>(((Variables!$B$12+(3*Variables!B70))*Variables!B30*Variables!B31^2+Variables!B68*Variables!B69^3))*Variables!B15</f>
         <v>2244000000</v>
       </c>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="112" t="s">
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="117"/>
+      <c r="AA16" s="116" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="74" t="s">
@@ -2964,10 +2980,10 @@
         <v>4488000000</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+    <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="117"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2975,9 +2991,9 @@
         <f>Variables!B13*Variables!B65</f>
         <v>328500000</v>
       </c>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
       <c r="J17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2985,9 +3001,9 @@
         <f>(Variables!B65+Variables!B70)*Variables!B13*Variables!B30</f>
         <v>1404000000</v>
       </c>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
       <c r="P17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2995,9 +3011,9 @@
         <f>(Variables!B65+(2*Variables!B70))*Variables!B13*Variables!B30*Variables!B31</f>
         <v>2988000000</v>
       </c>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="113"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
       <c r="V17" s="75" t="s">
         <v>127</v>
       </c>
@@ -3005,9 +3021,9 @@
         <f>(Variables!B65+(3*Variables!B70))*Variables!B13*Variables!B30*Variables!B31^2</f>
         <v>6336000000</v>
       </c>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
       <c r="AB17" s="75" t="s">
         <v>127</v>
       </c>
@@ -3016,10 +3032,10 @@
         <v>12672000000</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
+    <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="117"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3027,9 +3043,9 @@
         <f>Variables!B66*Variables!B14</f>
         <v>5475000</v>
       </c>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
       <c r="J18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3037,9 +3053,9 @@
         <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30</f>
         <v>25184999.999999996</v>
       </c>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="113"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
       <c r="P18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3047,9 +3063,9 @@
         <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31</f>
         <v>50369999.999999993</v>
       </c>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="113"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
       <c r="V18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3057,9 +3073,9 @@
         <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
         <v>100739999.99999999</v>
       </c>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
       <c r="AB18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3068,213 +3084,209 @@
         <v>201479999.99999997</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
+    <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="39"/>
       <c r="E19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="39" t="s">
-        <v>178</v>
-      </c>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
       <c r="K19" s="48">
-        <f>Variables!$B$30*Variables!$B$52</f>
-        <v>600000000</v>
-      </c>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="113"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
       <c r="V19" s="39"/>
       <c r="W19" s="48">
         <v>0</v>
       </c>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+    <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="117"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="39"/>
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
       <c r="J20" s="39"/>
       <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="113"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="34">
         <v>0</v>
       </c>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
-      <c r="U20" s="113"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34">
         <v>0</v>
       </c>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+    <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="117"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="39"/>
       <c r="E21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
       <c r="J21" s="39"/>
       <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34">
         <v>0</v>
       </c>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
+    <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="117"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="39"/>
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
       <c r="J22" s="39"/>
       <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="114"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="34">
         <v>0</v>
       </c>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="114"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="118"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="Y22" s="113"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="114"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="118"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="101" t="s">
+    <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="103"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="37">
         <f>SUM(E16:E22)</f>
         <v>432975000</v>
       </c>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="101" t="s">
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="103"/>
+      <c r="J23" s="107"/>
       <c r="K23" s="37">
         <f>SUM(K16:K22)</f>
-        <v>2492685000</v>
-      </c>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="101" t="s">
+        <v>1892685000</v>
+      </c>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="103"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="37">
         <f>SUM(Q16:Q22)</f>
         <v>4100370000</v>
       </c>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="101" t="s">
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="103"/>
+      <c r="V23" s="107"/>
       <c r="W23" s="37">
         <f>SUM(W16:W22)</f>
         <v>8680740000</v>
       </c>
-      <c r="Y23" s="113"/>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="101" t="s">
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="103"/>
+      <c r="AB23" s="107"/>
       <c r="AC23" s="37">
         <f>SUM(AC16:AC22)</f>
         <v>17361480000</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="112" t="s">
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="116" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="81" t="s">
@@ -3284,9 +3296,9 @@
         <f>Variables!B40</f>
         <v>16800000</v>
       </c>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="112" t="s">
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="116" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="81" t="s">
@@ -3296,9 +3308,9 @@
         <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^0</f>
         <v>67200000</v>
       </c>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="112" t="s">
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="116" t="s">
         <v>29</v>
       </c>
       <c r="P24" s="81" t="s">
@@ -3308,9 +3320,9 @@
         <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^1</f>
         <v>134400000</v>
       </c>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="112" t="s">
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="116" t="s">
         <v>29</v>
       </c>
       <c r="V24" s="81" t="s">
@@ -3320,9 +3332,9 @@
         <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^2</f>
         <v>268800000</v>
       </c>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="112" t="s">
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AB24" s="81" t="s">
@@ -3333,10 +3345,10 @@
         <v>537600000</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3344,9 +3356,9 @@
         <f>Variables!$B$38*Variables!$B$36+Variables!B37</f>
         <v>65800000</v>
       </c>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
       <c r="J25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3354,9 +3366,9 @@
         <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^0+Variables!$B$37*Variables!$B$30*Variables!$B$31^0</f>
         <v>263200000</v>
       </c>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
       <c r="P25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3364,9 +3376,9 @@
         <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^1+Variables!$B$37*Variables!$B$30*Variables!$B$31^1</f>
         <v>526400000</v>
       </c>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
       <c r="V25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3374,9 +3386,9 @@
         <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^2+Variables!$B$37*Variables!$B$30*Variables!$B$31^2</f>
         <v>1052800000</v>
       </c>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
       <c r="AB25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3385,10 +3397,10 @@
         <v>2105600000</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3396,9 +3408,9 @@
         <f>Variables!B39</f>
         <v>36000000</v>
       </c>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
       <c r="J26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3406,9 +3418,9 @@
         <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^0</f>
         <v>144000000</v>
       </c>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
       <c r="P26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3416,9 +3428,9 @@
         <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^1</f>
         <v>288000000</v>
       </c>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
+      <c r="S26" s="117"/>
+      <c r="T26" s="117"/>
+      <c r="U26" s="117"/>
       <c r="V26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3426,9 +3438,9 @@
         <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^2</f>
         <v>576000000</v>
       </c>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
+      <c r="Y26" s="117"/>
+      <c r="Z26" s="117"/>
+      <c r="AA26" s="117"/>
       <c r="AB26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3437,10 +3449,10 @@
         <v>1152000000</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="82" t="s">
         <v>27</v>
       </c>
@@ -3448,51 +3460,51 @@
         <f>Variables!B51</f>
         <v>2160000</v>
       </c>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
       <c r="J27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="K27" s="34">
         <f>Variables!$B$41</f>
-        <v>60000000</v>
-      </c>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
+        <v>108000000</v>
+      </c>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
       <c r="P27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="Q27" s="34">
         <f>Variables!$B$41+Variables!$B$46</f>
-        <v>63000000</v>
-      </c>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
-      <c r="U27" s="113"/>
+        <v>111000000</v>
+      </c>
+      <c r="S27" s="117"/>
+      <c r="T27" s="117"/>
+      <c r="U27" s="117"/>
       <c r="V27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="W27" s="34">
         <f>Variables!$B$41+Variables!$B$46</f>
-        <v>63000000</v>
-      </c>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
+        <v>111000000</v>
+      </c>
+      <c r="Y27" s="117"/>
+      <c r="Z27" s="117"/>
+      <c r="AA27" s="117"/>
       <c r="AB27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="AC27" s="34">
         <f>Variables!$B$41+Variables!$B$46*2</f>
-        <v>66000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
+        <v>114000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="83" t="s">
         <v>102</v>
       </c>
@@ -3500,9 +3512,9 @@
         <f>Variables!$B$48</f>
         <v>43800000</v>
       </c>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
       <c r="J28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3510,9 +3522,9 @@
         <f>Variables!$B$42</f>
         <v>84000000</v>
       </c>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="113"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
       <c r="P28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3520,9 +3532,9 @@
         <f>Variables!$B$42+Variables!$B$46</f>
         <v>87000000</v>
       </c>
-      <c r="S28" s="113"/>
-      <c r="T28" s="113"/>
-      <c r="U28" s="113"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
       <c r="V28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3530,9 +3542,9 @@
         <f>Variables!$B$42+Variables!$B$46</f>
         <v>87000000</v>
       </c>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="113"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="117"/>
+      <c r="AA28" s="117"/>
       <c r="AB28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3541,10 +3553,10 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="83" t="s">
         <v>136</v>
       </c>
@@ -3552,9 +3564,9 @@
         <f>Variables!$B$49</f>
         <v>60000000</v>
       </c>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
       <c r="J29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3562,9 +3574,9 @@
         <f>Variables!$B$43</f>
         <v>120000000</v>
       </c>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
       <c r="P29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3572,9 +3584,9 @@
         <f>Variables!$B$43+Variables!$B$46</f>
         <v>123000000</v>
       </c>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="117"/>
+      <c r="U29" s="117"/>
       <c r="V29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3582,9 +3594,9 @@
         <f>Variables!$B$43+Variables!$B$46</f>
         <v>123000000</v>
       </c>
-      <c r="Y29" s="113"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="113"/>
+      <c r="Y29" s="117"/>
+      <c r="Z29" s="117"/>
+      <c r="AA29" s="117"/>
       <c r="AB29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3593,10 +3605,10 @@
         <v>126000000</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
       <c r="D30" s="81" t="s">
         <v>137</v>
       </c>
@@ -3604,61 +3616,61 @@
         <f>Variables!$B$50</f>
         <v>36000000</v>
       </c>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
       <c r="J30" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K30" s="34">
         <f>Variables!$B$44</f>
-        <v>108000000</v>
-      </c>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
+        <v>60000000</v>
+      </c>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
       <c r="P30" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="34">
         <f>Variables!$B$44+Variables!$B$46</f>
-        <v>111000000</v>
-      </c>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
+        <v>63000000</v>
+      </c>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
       <c r="V30" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W30" s="34">
         <f>Variables!$B$44+Variables!$B$46</f>
-        <v>111000000</v>
-      </c>
-      <c r="Y30" s="113"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
+        <v>63000000</v>
+      </c>
+      <c r="Y30" s="117"/>
+      <c r="Z30" s="117"/>
+      <c r="AA30" s="117"/>
       <c r="AB30" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC30" s="34">
         <f>Variables!$B$44+Variables!$B$46*2</f>
-        <v>114000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+        <v>66000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="117"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E31" s="80">
         <f>Variables!B27</f>
         <v>600000</v>
       </c>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
       <c r="J31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3666,9 +3678,9 @@
         <f>Variables!$B$45</f>
         <v>192000000</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="113"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
       <c r="P31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3676,9 +3688,9 @@
         <f>Variables!$B$45+Variables!$B$46</f>
         <v>195000000</v>
       </c>
-      <c r="S31" s="113"/>
-      <c r="T31" s="113"/>
-      <c r="U31" s="113"/>
+      <c r="S31" s="117"/>
+      <c r="T31" s="117"/>
+      <c r="U31" s="117"/>
       <c r="V31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3686,9 +3698,9 @@
         <f>Variables!$B$45+Variables!$B$46</f>
         <v>195000000</v>
       </c>
-      <c r="Y31" s="113"/>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="113"/>
+      <c r="Y31" s="117"/>
+      <c r="Z31" s="117"/>
+      <c r="AA31" s="117"/>
       <c r="AB31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3697,20 +3709,20 @@
         <v>198000000</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="117"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E32" s="80">
         <f>Variables!B29</f>
         <v>5000000</v>
       </c>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
       <c r="J32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3718,9 +3730,9 @@
         <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^0</f>
         <v>8640000</v>
       </c>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="113"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
       <c r="P32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3728,9 +3740,9 @@
         <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^1</f>
         <v>17280000</v>
       </c>
-      <c r="S32" s="113"/>
-      <c r="T32" s="113"/>
-      <c r="U32" s="113"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
       <c r="V32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3738,20 +3750,20 @@
         <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^2</f>
         <v>34560000</v>
       </c>
-      <c r="Y32" s="113"/>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="113"/>
+      <c r="Y32" s="117"/>
+      <c r="Z32" s="117"/>
+      <c r="AA32" s="117"/>
       <c r="AB32" s="82" t="s">
         <v>27</v>
       </c>
       <c r="AC32" s="42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="117"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="43" t="s">
         <v>138</v>
       </c>
@@ -3759,9 +3771,9 @@
         <f>Variables!B20</f>
         <v>7500000</v>
       </c>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
       <c r="J33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3769,9 +3781,9 @@
         <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^0</f>
         <v>175200000</v>
       </c>
-      <c r="M33" s="113"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="113"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
       <c r="P33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3779,9 +3791,9 @@
         <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^1</f>
         <v>350400000</v>
       </c>
-      <c r="S33" s="113"/>
-      <c r="T33" s="113"/>
-      <c r="U33" s="113"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
       <c r="V33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3789,9 +3801,9 @@
         <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^2</f>
         <v>700800000</v>
       </c>
-      <c r="Y33" s="113"/>
-      <c r="Z33" s="113"/>
-      <c r="AA33" s="113"/>
+      <c r="Y33" s="117"/>
+      <c r="Z33" s="117"/>
+      <c r="AA33" s="117"/>
       <c r="AB33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3800,10 +3812,10 @@
         <v>1401600000</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="117"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="43" t="s">
         <v>139</v>
       </c>
@@ -3811,9 +3823,9 @@
         <f>Variables!B21*Variables!B19</f>
         <v>3000000</v>
       </c>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
       <c r="J34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3821,9 +3833,9 @@
         <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^0</f>
         <v>240000000</v>
       </c>
-      <c r="M34" s="113"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
       <c r="P34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3831,9 +3843,9 @@
         <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^1</f>
         <v>480000000</v>
       </c>
-      <c r="S34" s="113"/>
-      <c r="T34" s="113"/>
-      <c r="U34" s="113"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
       <c r="V34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3841,9 +3853,9 @@
         <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^2</f>
         <v>960000000</v>
       </c>
-      <c r="Y34" s="113"/>
-      <c r="Z34" s="113"/>
-      <c r="AA34" s="113"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
       <c r="AB34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3852,15 +3864,15 @@
         <v>1920000000</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="117"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="43"/>
       <c r="E35" s="80"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
       <c r="J35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3868,9 +3880,9 @@
         <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^0</f>
         <v>144000000</v>
       </c>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
       <c r="P35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3878,9 +3890,9 @@
         <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^1</f>
         <v>288000000</v>
       </c>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
+      <c r="U35" s="117"/>
       <c r="V35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3888,9 +3900,9 @@
         <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^2</f>
         <v>576000000</v>
       </c>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="113"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="117"/>
       <c r="AB35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3899,451 +3911,455 @@
         <v>1152000000</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
+    <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="117"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="43"/>
       <c r="E36" s="80"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
       <c r="J36" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K36" s="80">
         <f>Variables!$B$30*Variables!$B$52</f>
         <v>600000000</v>
       </c>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
       <c r="P36" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q36" s="80">
         <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^0</f>
         <v>600000000</v>
       </c>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="117"/>
+      <c r="U36" s="117"/>
       <c r="V36" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W36" s="80">
         <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^1</f>
         <v>1200000000</v>
       </c>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="117"/>
+      <c r="AA36" s="117"/>
       <c r="AB36" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC36" s="80">
         <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^2</f>
         <v>2400000000</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
+    <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="117"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
       <c r="D37" s="43"/>
       <c r="E37" s="80"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K37" s="80">
         <f>Variables!$B$32+Variables!$B$33</f>
         <v>260000000</v>
       </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
       <c r="P37" s="81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q37" s="80">
         <f>Variables!$B$33</f>
         <v>10000000</v>
       </c>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="117"/>
       <c r="V37" s="81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="W37" s="80">
         <f>Variables!$B$33</f>
         <v>10000000</v>
       </c>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="113"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="117"/>
       <c r="AB37" s="81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AC37" s="80">
         <f>Variables!$B$33</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="113"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+    <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="117"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="43"/>
       <c r="E38" s="80"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
       <c r="J38" s="81"/>
       <c r="K38" s="80"/>
-      <c r="M38" s="113"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
       <c r="V38" s="82"/>
       <c r="W38" s="56"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="113"/>
-      <c r="AA38" s="113"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
       <c r="AB38" s="82"/>
       <c r="AC38" s="56"/>
     </row>
-    <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
+    <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="43"/>
       <c r="E39" s="80"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="114"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="118"/>
       <c r="J39" s="81"/>
       <c r="K39" s="80"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="114"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="118"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="114"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="118"/>
       <c r="V39" s="82"/>
       <c r="W39" s="56"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="114"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
+      <c r="AA39" s="118"/>
       <c r="AB39" s="82"/>
       <c r="AC39" s="56"/>
     </row>
-    <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="113"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="101" t="s">
+    <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="117"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="116"/>
+      <c r="D40" s="120"/>
       <c r="E40" s="72">
         <f>SUM(E24:E34)</f>
         <v>276660000</v>
       </c>
-      <c r="G40" s="113"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="101" t="s">
+      <c r="G40" s="117"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="103"/>
+      <c r="J40" s="107"/>
       <c r="K40" s="37">
         <f>SUM(K24:K39)</f>
         <v>2466240000</v>
       </c>
-      <c r="M40" s="113"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="101" t="s">
+      <c r="M40" s="117"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="115"/>
+      <c r="P40" s="119"/>
       <c r="Q40" s="37">
         <f>SUM(Q24:Q39)</f>
         <v>3273480000</v>
       </c>
-      <c r="S40" s="113"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="101" t="s">
+      <c r="S40" s="117"/>
+      <c r="T40" s="118"/>
+      <c r="U40" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="103"/>
+      <c r="V40" s="107"/>
       <c r="W40" s="37">
         <f>SUM(W24:W39)</f>
         <v>5957960000</v>
       </c>
-      <c r="Y40" s="113"/>
-      <c r="Z40" s="114"/>
-      <c r="AA40" s="101" t="s">
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="118"/>
+      <c r="AA40" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="AB40" s="103"/>
+      <c r="AB40" s="107"/>
       <c r="AC40" s="37">
         <f>SUM(AC24:AC39)</f>
         <v>11272800000</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
-      <c r="B41" s="101" t="s">
+    <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="117"/>
+      <c r="B41" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="103"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="107"/>
       <c r="E41" s="37">
         <f>E23+E40</f>
         <v>709635000</v>
       </c>
-      <c r="G41" s="113"/>
-      <c r="H41" s="101" t="s">
+      <c r="G41" s="117"/>
+      <c r="H41" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
       <c r="K41" s="37">
         <f>K23+K40</f>
-        <v>4958925000</v>
-      </c>
-      <c r="M41" s="113"/>
-      <c r="N41" s="101" t="s">
+        <v>4358925000</v>
+      </c>
+      <c r="M41" s="117"/>
+      <c r="N41" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="O41" s="102"/>
-      <c r="P41" s="103"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="107"/>
       <c r="Q41" s="37">
         <f>Q23+Q40</f>
         <v>7373850000</v>
       </c>
-      <c r="S41" s="113"/>
-      <c r="T41" s="101" t="s">
+      <c r="S41" s="117"/>
+      <c r="T41" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="102"/>
-      <c r="V41" s="103"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="107"/>
       <c r="W41" s="37">
         <f>W23+W40</f>
         <v>14638700000</v>
       </c>
-      <c r="Y41" s="113"/>
-      <c r="Z41" s="101" t="s">
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="103"/>
+      <c r="AA41" s="106"/>
+      <c r="AB41" s="107"/>
       <c r="AC41" s="37">
         <f>AC23+AC40</f>
         <v>28634280000</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
-      <c r="B42" s="104" t="s">
+    <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="117"/>
+      <c r="B42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="105"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="G42" s="113"/>
-      <c r="H42" s="104" t="s">
+      <c r="G42" s="117"/>
+      <c r="H42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="105"/>
-      <c r="J42" s="39"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="39" t="s">
+        <v>176</v>
+      </c>
       <c r="K42" s="34">
-        <v>0</v>
-      </c>
-      <c r="M42" s="113"/>
-      <c r="N42" s="104" t="s">
+        <v>600000000</v>
+      </c>
+      <c r="M42" s="117"/>
+      <c r="N42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="105"/>
+      <c r="O42" s="109"/>
       <c r="P42" s="39"/>
-      <c r="Q42" s="34">
-        <v>0</v>
-      </c>
-      <c r="S42" s="113"/>
-      <c r="T42" s="104" t="s">
+      <c r="Q42" s="34"/>
+      <c r="S42" s="117"/>
+      <c r="T42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="105"/>
-      <c r="V42" s="39"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="39" t="s">
+        <v>176</v>
+      </c>
       <c r="W42" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="104" t="s">
+        <v>600000000</v>
+      </c>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="AA42" s="105"/>
-      <c r="AB42" s="39"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="39" t="s">
+        <v>176</v>
+      </c>
       <c r="AC42" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="113"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="117"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="34">
         <v>0</v>
       </c>
-      <c r="G43" s="113"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="107"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
       <c r="J43" s="39"/>
       <c r="K43" s="34">
         <v>0</v>
       </c>
-      <c r="M43" s="113"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="107"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="111"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="34">
         <v>0</v>
       </c>
-      <c r="S43" s="113"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="107"/>
+      <c r="S43" s="117"/>
+      <c r="T43" s="110"/>
+      <c r="U43" s="111"/>
       <c r="V43" s="39"/>
       <c r="W43" s="34">
         <v>0</v>
       </c>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="107"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="110"/>
+      <c r="AA43" s="111"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="114"/>
-      <c r="B44" s="101" t="s">
+    <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="118"/>
+      <c r="B44" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="107"/>
       <c r="E44" s="37">
         <f>SUM(E42:E43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="114"/>
-      <c r="H44" s="101" t="s">
+      <c r="G44" s="118"/>
+      <c r="H44" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="102"/>
-      <c r="J44" s="103"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="107"/>
       <c r="K44" s="37">
         <f>SUM(K42:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="114"/>
-      <c r="N44" s="101" t="s">
+        <v>600000000</v>
+      </c>
+      <c r="M44" s="118"/>
+      <c r="N44" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="102"/>
-      <c r="P44" s="103"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="107"/>
       <c r="Q44" s="37">
         <f>SUM(Q42:Q43)</f>
         <v>0</v>
       </c>
-      <c r="S44" s="114"/>
-      <c r="T44" s="101" t="s">
+      <c r="S44" s="118"/>
+      <c r="T44" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="102"/>
-      <c r="V44" s="103"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="107"/>
       <c r="W44" s="37">
         <f>SUM(W42:W43)</f>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="114"/>
-      <c r="Z44" s="101" t="s">
+        <v>600000000</v>
+      </c>
+      <c r="Y44" s="118"/>
+      <c r="Z44" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="AA44" s="102"/>
-      <c r="AB44" s="103"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="107"/>
       <c r="AC44" s="37">
         <f>SUM(AC42:AC43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="108" t="s">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="37">
         <f>E41+E44</f>
         <v>709635000</v>
       </c>
-      <c r="G45" s="108" t="s">
+      <c r="G45" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
       <c r="K45" s="37">
         <f>K41+K44</f>
         <v>4958925000</v>
       </c>
-      <c r="M45" s="108" t="s">
+      <c r="M45" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="108"/>
-      <c r="O45" s="108"/>
-      <c r="P45" s="108"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
       <c r="Q45" s="37">
         <f>Q41+Q44</f>
         <v>7373850000</v>
       </c>
-      <c r="S45" s="108" t="s">
+      <c r="S45" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="108"/>
-      <c r="U45" s="108"/>
-      <c r="V45" s="108"/>
+      <c r="T45" s="112"/>
+      <c r="U45" s="112"/>
+      <c r="V45" s="112"/>
       <c r="W45" s="37">
         <f>W41+W44</f>
-        <v>14638700000</v>
-      </c>
-      <c r="Y45" s="108" t="s">
+        <v>15238700000</v>
+      </c>
+      <c r="Y45" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="108"/>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
+      <c r="Z45" s="112"/>
+      <c r="AA45" s="112"/>
+      <c r="AB45" s="112"/>
       <c r="AC45" s="37">
         <f>AC41+AC44</f>
-        <v>28634280000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29234280000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -4370,59 +4386,59 @@
       <c r="AB46" s="41"/>
       <c r="AC46" s="35"/>
     </row>
-    <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="111" t="s">
+    <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
       <c r="E47" s="79">
         <f>E13-E45</f>
         <v>78860000</v>
       </c>
-      <c r="G47" s="111" t="s">
+      <c r="G47" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
       <c r="K47" s="79">
         <f>K13-K45</f>
         <v>-1262248000</v>
       </c>
-      <c r="M47" s="111" t="s">
+      <c r="M47" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="N47" s="111"/>
-      <c r="O47" s="111"/>
-      <c r="P47" s="111"/>
+      <c r="N47" s="115"/>
+      <c r="O47" s="115"/>
+      <c r="P47" s="115"/>
       <c r="Q47" s="79">
         <f>Q13-Q45</f>
         <v>-16496000</v>
       </c>
-      <c r="S47" s="111" t="s">
+      <c r="S47" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
+      <c r="T47" s="115"/>
+      <c r="U47" s="115"/>
+      <c r="V47" s="115"/>
       <c r="W47" s="79">
         <f>W13-W45</f>
-        <v>976008000</v>
-      </c>
-      <c r="Y47" s="111" t="s">
+        <v>376008000</v>
+      </c>
+      <c r="Y47" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="Z47" s="111"/>
-      <c r="AA47" s="111"/>
-      <c r="AB47" s="111"/>
+      <c r="Z47" s="115"/>
+      <c r="AA47" s="115"/>
+      <c r="AB47" s="115"/>
       <c r="AC47" s="79">
         <f>AC13-AC45</f>
-        <v>1995136000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1395136000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -4449,217 +4465,219 @@
       <c r="AB48" s="36"/>
       <c r="AC48" s="35"/>
     </row>
-    <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="109" t="s">
+    <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="109" t="s">
+      <c r="G49" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="110" t="s">
+      <c r="H49" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
       <c r="K49" s="37">
-        <f>K19*Variables!B25</f>
+        <f>K42*Variables!$B$25</f>
         <v>100000000</v>
       </c>
-      <c r="M49" s="109" t="s">
+      <c r="M49" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="N49" s="110" t="s">
+      <c r="N49" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
       <c r="Q49" s="37">
-        <v>0</v>
-      </c>
-      <c r="S49" s="109" t="s">
+        <f>Q42*Variables!$B$25</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="T49" s="110" t="s">
+      <c r="T49" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="110"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="109" t="s">
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="95">
+        <v>100000000</v>
+      </c>
+      <c r="Y49" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="110" t="s">
+      <c r="Z49" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="110"/>
-      <c r="AB49" s="110"/>
-      <c r="AC49" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
-      <c r="B50" s="110" t="s">
+      <c r="AA49" s="114"/>
+      <c r="AB49" s="114"/>
+      <c r="AC49" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="113"/>
+      <c r="B50" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="37">
         <v>0</v>
       </c>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110" t="s">
+      <c r="G50" s="113"/>
+      <c r="H50" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
       <c r="K50" s="37">
-        <f>'Ingresos &amp; egresos'!K19*Variables!B26</f>
+        <f>'Ingresos &amp; egresos'!K42*Variables!$B$26</f>
         <v>100000000</v>
       </c>
-      <c r="M50" s="109"/>
-      <c r="N50" s="110" t="s">
+      <c r="M50" s="113"/>
+      <c r="N50" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="110"/>
-      <c r="P50" s="110"/>
+      <c r="O50" s="114"/>
+      <c r="P50" s="114"/>
       <c r="Q50" s="37">
-        <v>0</v>
-      </c>
-      <c r="S50" s="109"/>
-      <c r="T50" s="110" t="s">
+        <f>'Ingresos &amp; egresos'!Q42*Variables!$B$26</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="113"/>
+      <c r="T50" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="110"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="109"/>
-      <c r="Z50" s="110" t="s">
+      <c r="U50" s="114"/>
+      <c r="V50" s="114"/>
+      <c r="W50" s="96">
+        <v>100000000</v>
+      </c>
+      <c r="Y50" s="113"/>
+      <c r="Z50" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="110"/>
-      <c r="AB50" s="110"/>
-      <c r="AC50" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="109"/>
-      <c r="B51" s="110" t="s">
+      <c r="AA50" s="114"/>
+      <c r="AB50" s="114"/>
+      <c r="AC50" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="113"/>
+      <c r="B51" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="37">
         <f>E47*Variables!$B$24</f>
         <v>3154400</v>
       </c>
-      <c r="G51" s="109"/>
-      <c r="H51" s="110" t="s">
+      <c r="G51" s="113"/>
+      <c r="H51" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
       <c r="K51" s="37">
         <f>K47*Variables!$B$24</f>
         <v>-50489920</v>
       </c>
-      <c r="M51" s="109"/>
-      <c r="N51" s="110" t="s">
+      <c r="M51" s="113"/>
+      <c r="N51" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="110"/>
-      <c r="P51" s="110"/>
+      <c r="O51" s="114"/>
+      <c r="P51" s="114"/>
       <c r="Q51" s="37">
         <f>Q47*Variables!$B$24</f>
         <v>-659840</v>
       </c>
-      <c r="S51" s="109"/>
-      <c r="T51" s="110" t="s">
+      <c r="S51" s="113"/>
+      <c r="T51" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="U51" s="110"/>
-      <c r="V51" s="110"/>
+      <c r="U51" s="114"/>
+      <c r="V51" s="114"/>
       <c r="W51" s="37">
         <f>W47*Variables!$B$24</f>
-        <v>39040320</v>
-      </c>
-      <c r="Y51" s="109"/>
-      <c r="Z51" s="110" t="s">
+        <v>15040320</v>
+      </c>
+      <c r="Y51" s="113"/>
+      <c r="Z51" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="AA51" s="110"/>
-      <c r="AB51" s="110"/>
+      <c r="AA51" s="114"/>
+      <c r="AB51" s="114"/>
       <c r="AC51" s="37">
         <f>AC47*Variables!$B$24</f>
-        <v>79805440</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
-      <c r="B52" s="110" t="s">
+        <v>55805440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="113"/>
+      <c r="B52" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="37">
         <f>E47*Variables!$B$23</f>
         <v>14983400</v>
       </c>
-      <c r="G52" s="109"/>
-      <c r="H52" s="110" t="s">
+      <c r="G52" s="113"/>
+      <c r="H52" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
       <c r="K52" s="37">
         <f>K47*Variables!$B$23</f>
         <v>-239827120</v>
       </c>
-      <c r="M52" s="109"/>
-      <c r="N52" s="110" t="s">
+      <c r="M52" s="113"/>
+      <c r="N52" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="110"/>
-      <c r="P52" s="110"/>
+      <c r="O52" s="114"/>
+      <c r="P52" s="114"/>
       <c r="Q52" s="37">
         <f>Q47*Variables!$B$23</f>
         <v>-3134240</v>
       </c>
-      <c r="S52" s="109"/>
-      <c r="T52" s="110" t="s">
+      <c r="S52" s="113"/>
+      <c r="T52" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="U52" s="110"/>
-      <c r="V52" s="110"/>
+      <c r="U52" s="114"/>
+      <c r="V52" s="114"/>
       <c r="W52" s="37">
         <f>W47*Variables!$B$23</f>
-        <v>185441520</v>
-      </c>
-      <c r="Y52" s="109"/>
-      <c r="Z52" s="110" t="s">
+        <v>71441520</v>
+      </c>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="110"/>
-      <c r="AB52" s="110"/>
+      <c r="AA52" s="114"/>
+      <c r="AB52" s="114"/>
       <c r="AC52" s="37">
         <f>AC47*Variables!$B$23</f>
-        <v>379075840</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>265075840</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="32"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -4692,7 +4710,7 @@
       <c r="V53" s="38"/>
       <c r="W53" s="37">
         <f>W49+W50+W51+(MAX(W52,0))</f>
-        <v>224481840</v>
+        <v>286481840</v>
       </c>
       <c r="Y53" s="32"/>
       <c r="Z53" s="38"/>
@@ -4700,10 +4718,10 @@
       <c r="AB53" s="38"/>
       <c r="AC53" s="37">
         <f>AC49+AC50+AC51+(MAX(AC52,0))</f>
-        <v>458881280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>320881280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -4730,56 +4748,56 @@
       <c r="AB54" s="36"/>
       <c r="AC54" s="35"/>
     </row>
-    <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="98" t="s">
+    <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="100"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="104"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="98" t="s">
+      <c r="G55" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="100"/>
+      <c r="H55" s="103"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="104"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="98" t="s">
+      <c r="M55" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="N55" s="99"/>
-      <c r="O55" s="99"/>
-      <c r="P55" s="99"/>
-      <c r="Q55" s="100"/>
+      <c r="N55" s="103"/>
+      <c r="O55" s="103"/>
+      <c r="P55" s="103"/>
+      <c r="Q55" s="104"/>
       <c r="R55" s="32"/>
-      <c r="S55" s="98" t="s">
+      <c r="S55" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="99"/>
-      <c r="U55" s="99"/>
-      <c r="V55" s="99"/>
-      <c r="W55" s="100"/>
+      <c r="T55" s="103"/>
+      <c r="U55" s="103"/>
+      <c r="V55" s="103"/>
+      <c r="W55" s="104"/>
       <c r="X55" s="32"/>
-      <c r="Y55" s="98" t="s">
+      <c r="Y55" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="Z55" s="99"/>
-      <c r="AA55" s="99"/>
-      <c r="AB55" s="99"/>
-      <c r="AC55" s="100"/>
-    </row>
-    <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z55" s="103"/>
+      <c r="AA55" s="103"/>
+      <c r="AB55" s="103"/>
+      <c r="AC55" s="104"/>
+    </row>
+    <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="101"/>
       <c r="E56" s="34">
         <f>E13-E23</f>
         <v>355520000</v>
@@ -4788,24 +4806,24 @@
       <c r="G56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="95" t="s">
+      <c r="H56" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="96"/>
-      <c r="J56" s="97"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="101"/>
       <c r="K56" s="34">
         <f>K13-K23</f>
-        <v>1203992000</v>
+        <v>1803992000</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="95" t="s">
+      <c r="N56" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="96"/>
-      <c r="P56" s="97"/>
+      <c r="O56" s="100"/>
+      <c r="P56" s="101"/>
       <c r="Q56" s="34">
         <f>Q13-Q23</f>
         <v>3256984000</v>
@@ -4814,11 +4832,11 @@
       <c r="S56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="95" t="s">
+      <c r="T56" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="U56" s="96"/>
-      <c r="V56" s="97"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="101"/>
       <c r="W56" s="34">
         <f>W13-W23</f>
         <v>6933968000</v>
@@ -4827,25 +4845,25 @@
       <c r="Y56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Z56" s="95" t="s">
+      <c r="Z56" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="AA56" s="96"/>
-      <c r="AB56" s="97"/>
+      <c r="AA56" s="100"/>
+      <c r="AB56" s="101"/>
       <c r="AC56" s="34">
         <f>AC13-AC23</f>
         <v>13267936000</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="95" t="s">
+      <c r="B57" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="97"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="101"/>
       <c r="E57" s="33">
         <f>E56/E13</f>
         <v>0.45088427954520954</v>
@@ -4854,24 +4872,24 @@
       <c r="G57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="95" t="s">
+      <c r="H57" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="96"/>
-      <c r="J57" s="97"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="101"/>
       <c r="K57" s="33">
         <f>K56/K13</f>
-        <v>0.32569575324000449</v>
+        <v>0.48800368547211453</v>
       </c>
       <c r="L57" s="32"/>
       <c r="M57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="95" t="s">
+      <c r="N57" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="96"/>
-      <c r="P57" s="97"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="101"/>
       <c r="Q57" s="33">
         <f>Q56/Q13</f>
         <v>0.44268414976362425</v>
@@ -4880,11 +4898,11 @@
       <c r="S57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="95" t="s">
+      <c r="T57" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="U57" s="96"/>
-      <c r="V57" s="97"/>
+      <c r="U57" s="100"/>
+      <c r="V57" s="101"/>
       <c r="W57" s="33">
         <f>W56/W13</f>
         <v>0.44406645324395433</v>
@@ -4893,25 +4911,25 @@
       <c r="Y57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Z57" s="95" t="s">
+      <c r="Z57" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AA57" s="96"/>
-      <c r="AB57" s="97"/>
+      <c r="AA57" s="100"/>
+      <c r="AB57" s="101"/>
       <c r="AC57" s="33">
         <f>AC56/AC13</f>
         <v>0.43317626428136924</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="34">
         <f>E56-E40</f>
         <v>78860000</v>
@@ -4920,24 +4938,24 @@
       <c r="G58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="95" t="s">
+      <c r="H58" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="96"/>
-      <c r="J58" s="97"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="101"/>
       <c r="K58" s="34">
         <f>K56-K40</f>
-        <v>-1262248000</v>
+        <v>-662248000</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N58" s="95" t="s">
+      <c r="N58" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="96"/>
-      <c r="P58" s="97"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="101"/>
       <c r="Q58" s="34">
         <f>Q56-Q40</f>
         <v>-16496000</v>
@@ -4946,11 +4964,11 @@
       <c r="S58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T58" s="95" t="s">
+      <c r="T58" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="U58" s="96"/>
-      <c r="V58" s="97"/>
+      <c r="U58" s="100"/>
+      <c r="V58" s="101"/>
       <c r="W58" s="34">
         <f>W56-W40</f>
         <v>976008000</v>
@@ -4959,25 +4977,25 @@
       <c r="Y58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z58" s="95" t="s">
+      <c r="Z58" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AA58" s="96"/>
-      <c r="AB58" s="97"/>
+      <c r="AA58" s="100"/>
+      <c r="AB58" s="101"/>
       <c r="AC58" s="34">
         <f>AC56-AC40</f>
         <v>1995136000</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="101"/>
       <c r="E59" s="33">
         <f>E58/E13</f>
         <v>0.10001331650803112</v>
@@ -4986,24 +5004,24 @@
       <c r="G59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="95" t="s">
+      <c r="H59" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="96"/>
-      <c r="J59" s="97"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="101"/>
       <c r="K59" s="33">
         <f>K58/K13</f>
-        <v>-0.34145477140686081</v>
+        <v>-0.17914683917475072</v>
       </c>
       <c r="L59" s="32"/>
       <c r="M59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="95" t="s">
+      <c r="N59" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="O59" s="96"/>
-      <c r="P59" s="97"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="101"/>
       <c r="Q59" s="33">
         <f>Q58/Q13</f>
         <v>-2.242110410889567E-3</v>
@@ -5012,11 +5030,11 @@
       <c r="S59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="T59" s="95" t="s">
+      <c r="T59" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="96"/>
-      <c r="V59" s="97"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="101"/>
       <c r="W59" s="33">
         <f>W58/W13</f>
         <v>6.250568374381385E-2</v>
@@ -5025,25 +5043,25 @@
       <c r="Y59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z59" s="95" t="s">
+      <c r="Z59" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" s="96"/>
-      <c r="AB59" s="97"/>
+      <c r="AA59" s="100"/>
+      <c r="AB59" s="101"/>
       <c r="AC59" s="33">
         <f>AC58/AC13</f>
         <v>6.513790533910277E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="95" t="s">
+      <c r="B60" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="96"/>
-      <c r="D60" s="97"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="101"/>
       <c r="E60" s="34">
         <f>E58-E53</f>
         <v>60722200</v>
@@ -5052,24 +5070,24 @@
       <c r="G60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="95" t="s">
+      <c r="H60" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="96"/>
-      <c r="J60" s="97"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="101"/>
       <c r="K60" s="34">
         <f>K58-K53</f>
-        <v>-1411758080</v>
+        <v>-811758080</v>
       </c>
       <c r="L60" s="32"/>
       <c r="M60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="95" t="s">
+      <c r="N60" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="96"/>
-      <c r="P60" s="97"/>
+      <c r="O60" s="100"/>
+      <c r="P60" s="101"/>
       <c r="Q60" s="34">
         <f>Q58-Q53</f>
         <v>-15836160</v>
@@ -5078,38 +5096,38 @@
       <c r="S60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="T60" s="95" t="s">
+      <c r="T60" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="U60" s="96"/>
-      <c r="V60" s="97"/>
+      <c r="U60" s="100"/>
+      <c r="V60" s="101"/>
       <c r="W60" s="34">
         <f>W58-W53</f>
-        <v>751526160</v>
+        <v>689526160</v>
       </c>
       <c r="X60" s="32"/>
       <c r="Y60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z60" s="95" t="s">
+      <c r="Z60" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="AA60" s="96"/>
-      <c r="AB60" s="97"/>
+      <c r="AA60" s="100"/>
+      <c r="AB60" s="101"/>
       <c r="AC60" s="34">
         <f>AC58-AC53</f>
-        <v>1536254720</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1674254720</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="95" t="s">
+      <c r="B61" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="97"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="101"/>
       <c r="E61" s="33">
         <f>E60/E13</f>
         <v>7.701025371118396E-2</v>
@@ -5118,24 +5136,24 @@
       <c r="G61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="95" t="s">
+      <c r="H61" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="96"/>
-      <c r="J61" s="97"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="101"/>
       <c r="K61" s="33">
         <f>K60/K13</f>
-        <v>-0.38189922462795639</v>
+        <v>-0.21959129239584632</v>
       </c>
       <c r="L61" s="32"/>
       <c r="M61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="95" t="s">
+      <c r="N61" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="O61" s="96"/>
-      <c r="P61" s="97"/>
+      <c r="O61" s="100"/>
+      <c r="P61" s="101"/>
       <c r="Q61" s="33">
         <f>Q60/Q13</f>
         <v>-2.1524259944539843E-3</v>
@@ -5144,30 +5162,30 @@
       <c r="S61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="95" t="s">
+      <c r="T61" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="U61" s="96"/>
-      <c r="V61" s="97"/>
+      <c r="U61" s="100"/>
+      <c r="V61" s="101"/>
       <c r="W61" s="33">
         <f>W60/W13</f>
-        <v>4.8129376482736658E-2</v>
+        <v>4.4158761086022229E-2</v>
       </c>
       <c r="X61" s="32"/>
       <c r="Y61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Z61" s="95" t="s">
+      <c r="Z61" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AA61" s="96"/>
-      <c r="AB61" s="97"/>
+      <c r="AA61" s="100"/>
+      <c r="AB61" s="101"/>
       <c r="AC61" s="33">
         <f>AC60/AC13</f>
-        <v>5.0156187111109141E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.4661659889303799E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="31" t="s">
         <v>53</v>
       </c>
@@ -5191,7 +5209,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="33">
         <f>K60/Variables!$B$7</f>
-        <v>-2.8235161600000001</v>
+        <v>-1.6235161600000001</v>
       </c>
       <c r="L62" s="32"/>
       <c r="M62" s="31" t="s">
@@ -5217,7 +5235,7 @@
       <c r="V62" s="28"/>
       <c r="W62" s="33">
         <f>W60/Variables!$B$7</f>
-        <v>1.5030523200000001</v>
+        <v>1.37905232</v>
       </c>
       <c r="X62" s="32"/>
       <c r="Y62" s="31" t="s">
@@ -5230,110 +5248,110 @@
       <c r="AB62" s="28"/>
       <c r="AC62" s="33">
         <f>AC60/Variables!$B$7</f>
-        <v>3.0725094400000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.3485094399999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="95" t="s">
+      <c r="B63" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="97"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="101"/>
       <c r="E63" s="33">
-        <f>E60/Variables!$B$5</f>
-        <v>0.12144439999999999</v>
+        <f>E60/(Variables!$B$5+E47)</f>
+        <v>0.10489963030784645</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="95" t="s">
+      <c r="H63" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="96"/>
-      <c r="J63" s="97"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="101"/>
       <c r="K63" s="33">
-        <f>K60/Variables!$B$5</f>
-        <v>-2.8235161600000001</v>
+        <f>-K60/(K47)</f>
+        <v>-0.64310506334729789</v>
       </c>
       <c r="L63" s="32"/>
       <c r="M63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="95" t="s">
+      <c r="N63" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="O63" s="96"/>
-      <c r="P63" s="97"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="101"/>
       <c r="Q63" s="33">
-        <f>Q60/Variables!$B$5</f>
-        <v>-3.1672319999999997E-2</v>
+        <f>-Q60/(Q47)</f>
+        <v>-0.96</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="95" t="s">
+      <c r="T63" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="96"/>
-      <c r="V63" s="97"/>
+      <c r="U63" s="100"/>
+      <c r="V63" s="101"/>
       <c r="W63" s="33">
-        <f>W60/Variables!$B$5</f>
-        <v>1.5030523200000001</v>
+        <f>-W60/(W47)</f>
+        <v>-1.833807153039297</v>
       </c>
       <c r="X63" s="32"/>
       <c r="Y63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Z63" s="95" t="s">
+      <c r="Z63" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="AA63" s="96"/>
-      <c r="AB63" s="97"/>
+      <c r="AA63" s="100"/>
+      <c r="AB63" s="101"/>
       <c r="AC63" s="33">
-        <f>AC60/Variables!$B$5</f>
-        <v>3.0725094400000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f>-AC60/(AC47)</f>
+        <v>-1.2000655993394191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="31"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="97"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="101"/>
       <c r="E64" s="27"/>
       <c r="F64" s="32"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="97"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="101"/>
       <c r="K64" s="27"/>
       <c r="L64" s="32"/>
       <c r="M64" s="31"/>
-      <c r="N64" s="95"/>
-      <c r="O64" s="96"/>
-      <c r="P64" s="97"/>
+      <c r="N64" s="99"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="101"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="32"/>
       <c r="S64" s="31"/>
-      <c r="T64" s="95"/>
-      <c r="U64" s="96"/>
-      <c r="V64" s="97"/>
+      <c r="T64" s="99"/>
+      <c r="U64" s="100"/>
+      <c r="V64" s="101"/>
       <c r="W64" s="27"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="31"/>
-      <c r="Z64" s="95"/>
-      <c r="AA64" s="96"/>
-      <c r="AB64" s="97"/>
+      <c r="Z64" s="99"/>
+      <c r="AA64" s="100"/>
+      <c r="AB64" s="101"/>
       <c r="AC64" s="27"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E66" s="26"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="84"/>
     </row>
   </sheetData>
@@ -5536,7 +5554,7 @@
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -5567,7 +5585,7 @@
     <col min="29" max="29" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f>Variables!A1</f>
         <v>Arquitectura Empresarial</v>
@@ -5578,7 +5596,7 @@
       <c r="Q1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5588,7 +5606,7 @@
       <c r="Q2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -5615,7 +5633,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5640,111 +5658,111 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="117"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="117"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="117"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="117" t="s">
+      <c r="N5" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="117"/>
+      <c r="O5" s="121"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="117" t="s">
+      <c r="R5" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="117"/>
+      <c r="S5" s="121"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="117" t="s">
+      <c r="V5" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="117"/>
-    </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="121"/>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="122">
         <f>C13-C20</f>
         <v>500000000</v>
       </c>
-      <c r="C6" s="118"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="118">
+      <c r="F6" s="122">
         <f>(B6*(1-Variables!B24))+G25</f>
         <v>558860000</v>
       </c>
-      <c r="G6" s="118"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="118">
+      <c r="J6" s="122">
         <f>(F6*(1-Variables!B24))+K25</f>
         <v>-725742400</v>
       </c>
-      <c r="K6" s="118"/>
+      <c r="K6" s="122"/>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="118">
+      <c r="N6" s="122">
         <f>(J6*(1-Variables!B24))+O25</f>
         <v>-713208704</v>
       </c>
-      <c r="O6" s="118"/>
+      <c r="O6" s="122"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="118">
+      <c r="R6" s="122">
         <f>(N6*(1-Variables!B24))+S25</f>
-        <v>291327644.15999997</v>
-      </c>
-      <c r="S6" s="118"/>
+        <v>-308672355.84000003</v>
+      </c>
+      <c r="S6" s="122"/>
       <c r="T6" s="3"/>
       <c r="U6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="118">
+      <c r="V6" s="122">
         <f>(R6*(1-Variables!B24))+W25</f>
-        <v>2274810538.3936</v>
-      </c>
-      <c r="W6" s="118"/>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1098810538.3936</v>
+      </c>
+      <c r="W6" s="122"/>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5769,8 +5787,8 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="119" t="s">
+    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="123" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5780,7 +5798,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="123" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -5790,7 +5808,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="119" t="s">
+      <c r="I8" s="123" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -5800,7 +5818,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="119" t="s">
+      <c r="M8" s="123" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5810,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="119" t="s">
+      <c r="Q8" s="123" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5820,7 +5838,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="119" t="s">
+      <c r="U8" s="123" t="s">
         <v>72</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -5830,8 +5848,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="120"/>
+    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="124"/>
       <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
@@ -5840,7 +5858,7 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="120"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5849,7 +5867,7 @@
         <v>78860000</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="120"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5858,7 +5876,7 @@
         <v>-1262248000</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="120"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5867,101 +5885,101 @@
         <v>-16496000</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="120"/>
+      <c r="Q9" s="124"/>
       <c r="R9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="5">
         <f>'Ingresos &amp; egresos'!W47</f>
-        <v>976008000</v>
+        <v>376008000</v>
       </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="120"/>
+      <c r="U9" s="124"/>
       <c r="V9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="5">
         <f>'Ingresos &amp; egresos'!AC47</f>
-        <v>1995136000</v>
-      </c>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="123"/>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="120"/>
+        <v>1395136000</v>
+      </c>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="124"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="120"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="120"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="12"/>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="120"/>
+      <c r="M10" s="124"/>
       <c r="N10" s="12"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="120"/>
+      <c r="Q10" s="124"/>
       <c r="R10" s="12"/>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="120"/>
+      <c r="U10" s="124"/>
       <c r="V10" s="12"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="120"/>
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="124"/>
       <c r="B11" s="12"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="120"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="120"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="12"/>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="120"/>
+      <c r="M11" s="124"/>
       <c r="N11" s="12"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="120"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="12"/>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="120"/>
+      <c r="U11" s="124"/>
       <c r="V11" s="12"/>
       <c r="W11" s="5">
         <v>0</v>
@@ -5971,38 +5989,38 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="86"/>
     </row>
-    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="121"/>
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="125"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="121"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="12"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="121"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="121"/>
+      <c r="M12" s="125"/>
       <c r="N12" s="12"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="121"/>
+      <c r="Q12" s="125"/>
       <c r="R12" s="12"/>
       <c r="S12" s="5">
         <v>0</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="121"/>
+      <c r="U12" s="125"/>
       <c r="V12" s="12"/>
       <c r="W12" s="5">
         <v>0</v>
@@ -6012,7 +6030,7 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9">
@@ -6045,21 +6063,21 @@
       <c r="R13" s="7"/>
       <c r="S13" s="9">
         <f>SUM(S9:S12)</f>
-        <v>976008000</v>
+        <v>376008000</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="3"/>
       <c r="V13" s="7"/>
       <c r="W13" s="9">
         <f>SUM(W9:W12)</f>
-        <v>1995136000</v>
+        <v>1395136000</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="85"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="86"/>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -6087,8 +6105,8 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="86"/>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="119" t="s">
+    <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="123" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -6098,7 +6116,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="123" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6108,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="123" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -6118,7 +6136,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="119" t="s">
+      <c r="M15" s="123" t="s">
         <v>76</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -6128,7 +6146,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="119" t="s">
+      <c r="Q15" s="123" t="s">
         <v>77</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -6138,7 +6156,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="119" t="s">
+      <c r="U15" s="123" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -6151,38 +6169,38 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="86"/>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="120"/>
+    <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="124"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="120"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="120"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="12"/>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="120"/>
+      <c r="M16" s="124"/>
       <c r="N16" s="12"/>
       <c r="O16" s="5">
         <v>0</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="120"/>
+      <c r="Q16" s="124"/>
       <c r="R16" s="12"/>
       <c r="S16" s="5">
         <v>0</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="120"/>
+      <c r="U16" s="124"/>
       <c r="V16" s="12"/>
       <c r="W16" s="5">
         <v>0</v>
@@ -6191,79 +6209,79 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="86"/>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="120"/>
+    <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="124"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="120"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="120"/>
+      <c r="I17" s="124"/>
       <c r="J17" s="12"/>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="120"/>
+      <c r="M17" s="124"/>
       <c r="N17" s="12"/>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="120"/>
+      <c r="Q17" s="124"/>
       <c r="R17" s="12"/>
       <c r="S17" s="5">
         <v>0</v>
       </c>
       <c r="T17" s="8"/>
-      <c r="U17" s="120"/>
+      <c r="U17" s="124"/>
       <c r="V17" s="12"/>
       <c r="W17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-    </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="120"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="129"/>
+    </row>
+    <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="124"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="120"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="120"/>
+      <c r="I18" s="124"/>
       <c r="J18" s="12"/>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="120"/>
+      <c r="M18" s="124"/>
       <c r="N18" s="12"/>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="120"/>
+      <c r="Q18" s="124"/>
       <c r="R18" s="12"/>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="120"/>
+      <c r="U18" s="124"/>
       <c r="V18" s="12"/>
       <c r="W18" s="5">
         <v>0</v>
@@ -6273,38 +6291,38 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="86"/>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="121"/>
+    <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="125"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="121"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="121"/>
+      <c r="I19" s="125"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="121"/>
+      <c r="M19" s="125"/>
       <c r="N19" s="12"/>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="121"/>
+      <c r="Q19" s="125"/>
       <c r="R19" s="12"/>
       <c r="S19" s="5">
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
-      <c r="U19" s="121"/>
+      <c r="U19" s="125"/>
       <c r="V19" s="12"/>
       <c r="W19" s="5">
         <v>0</v>
@@ -6313,7 +6331,7 @@
       <c r="AA19" s="85"/>
       <c r="AC19" s="86"/>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9">
@@ -6360,7 +6378,7 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="86"/>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -6388,46 +6406,46 @@
       <c r="AA21" s="85"/>
       <c r="AC21" s="86"/>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="122" t="s">
+      <c r="I22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="122" t="s">
+      <c r="M22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="122" t="s">
+      <c r="Q22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="122" t="s">
+      <c r="U22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="122"/>
-      <c r="W22" s="122"/>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="123"/>
-    </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+    </row>
+    <row r="23" spans="1:29" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
         <v>80</v>
       </c>
@@ -6495,7 +6513,7 @@
       </c>
       <c r="AC23" s="87"/>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
@@ -6563,7 +6581,7 @@
       </c>
       <c r="AA24" s="85"/>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="13" t="s">
         <v>84</v>
@@ -6605,7 +6623,7 @@
       </c>
       <c r="S25" s="5">
         <f>S13-S20</f>
-        <v>976008000</v>
+        <v>376008000</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="11"/>
@@ -6614,14 +6632,14 @@
       </c>
       <c r="W25" s="5">
         <f>W13-W20</f>
-        <v>1995136000</v>
+        <v>1395136000</v>
       </c>
       <c r="Z25" s="88"/>
       <c r="AA25" s="89"/>
       <c r="AB25" s="88"/>
       <c r="AC25" s="90"/>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="13" t="s">
         <v>85</v>
@@ -6663,7 +6681,7 @@
       </c>
       <c r="S26" s="5">
         <f>O26+S25</f>
-        <v>-223876000</v>
+        <v>-823876000</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="11"/>
@@ -6672,10 +6690,10 @@
       </c>
       <c r="W26" s="5">
         <f>S26+W25</f>
-        <v>1771260000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+        <v>571260000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B29" s="84"/>
       <c r="J29" s="7"/>
     </row>

--- a/HT-6/Optica Modelo Financiero.xlsx
+++ b/HT-6/Optica Modelo Financiero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B04D9-872D-B046-BD3F-739DFFAB2AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE97A7AE-AAC2-4F99-B80B-2D0269CED516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="181">
   <si>
     <t>Arquitectura Empresarial</t>
   </si>
@@ -535,12 +535,6 @@
     <t>Aumento anual en el material reciclado (multiplicador)</t>
   </si>
   <si>
-    <t>Sedes abiertas en el segundo año</t>
-  </si>
-  <si>
-    <t>Sedes nuevas abiertas con respecto al año anterior (multiplicador)</t>
-  </si>
-  <si>
     <t>Inversión tecnológica para apertura de portal web (canal digital)</t>
   </si>
   <si>
@@ -580,9 +574,6 @@
     <t>Bono por mejor empleado en ventas (por sede)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Préstamo</t>
   </si>
   <si>
@@ -592,10 +583,19 @@
     <t>Intereses por deuda</t>
   </si>
   <si>
-    <t xml:space="preserve">Costo ____ del mantenimiento del servidor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costos _____ de distriución por local </t>
+    <t xml:space="preserve">Costo anual del mantenimiento del servidor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costos anuales de distriución por local </t>
+  </si>
+  <si>
+    <t>Sedes abiertas cada año</t>
+  </si>
+  <si>
+    <t>Préstamo expansión</t>
+  </si>
+  <si>
+    <t>Nota: en estos patrimonios no se tiene en cuenta la depreciación</t>
   </si>
 </sst>
 </file>
@@ -603,15 +603,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0_-;\-[$$-240A]\ * #,##0_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -670,7 +670,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,12 +717,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -871,11 +865,11 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="131">
@@ -886,17 +880,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,13 +910,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,7 +929,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -954,19 +948,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
@@ -981,7 +975,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -989,21 +983,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1016,7 +1010,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1027,26 +1021,26 @@
     <xf numFmtId="9" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1060,10 +1054,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1074,28 +1068,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="9" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1104,6 +1092,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1113,6 +1116,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,60 +1155,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,20 +1188,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1521,13 +1515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED2F777-88E5-4EE3-ABB1-5261070B52BB}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
@@ -1541,7 +1535,7 @@
     <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1543,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1557,7 +1551,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1566,14 +1560,14 @@
       <c r="F3" s="2"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="60"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -1582,9 +1576,9 @@
         <v>500000000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="98"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D5" s="96"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -1592,9 +1586,9 @@
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="98"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D6" s="96"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -1602,19 +1596,19 @@
         <v>500000000</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="98"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="D7" s="96"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="61"/>
       <c r="C8" s="2"/>
       <c r="D8" s="58"/>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="57"/>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>109</v>
       </c>
@@ -1622,7 +1616,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="57"/>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1626,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="57"/>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>124</v>
       </c>
@@ -1643,7 +1637,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="57"/>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="50" t="s">
         <v>112</v>
       </c>
@@ -1654,7 +1648,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="57"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>118</v>
       </c>
@@ -1664,7 +1658,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>129</v>
       </c>
@@ -1674,27 +1668,27 @@
       <c r="C15" s="2"/>
       <c r="D15" s="57"/>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="69"/>
       <c r="C16" s="2"/>
       <c r="D16" s="57"/>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="59"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="97"/>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D17" s="95"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="97"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D18" s="95"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
         <v>120</v>
       </c>
@@ -1702,9 +1696,9 @@
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="97"/>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D19" s="95"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
         <v>135</v>
       </c>
@@ -1712,9 +1706,9 @@
         <v>7500000</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="97"/>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D20" s="95"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
         <v>140</v>
       </c>
@@ -1722,19 +1716,19 @@
         <v>1000000</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="97"/>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D21" s="95"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B22" s="77">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="97"/>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D22" s="95"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
         <v>130</v>
       </c>
@@ -1742,32 +1736,32 @@
         <v>0.19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="97"/>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D23" s="95"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="78">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="57"/>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B25" s="78">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="57"/>
     </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B26" s="78">
         <f>1/6</f>
@@ -1776,7 +1770,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="57"/>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="50" t="s">
         <v>153</v>
       </c>
@@ -1786,9 +1780,9 @@
       <c r="C27" s="2"/>
       <c r="D27" s="57"/>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="68">
         <v>150000000</v>
@@ -1796,394 +1790,385 @@
       <c r="C28" s="2"/>
       <c r="D28" s="57"/>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="93">
+        <v>177</v>
+      </c>
+      <c r="B29" s="129">
         <v>5000000</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="57"/>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B30" s="92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="57"/>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="92">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="B31" s="68">
+        <v>50000000</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="57"/>
     </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="68">
-        <v>250000000</v>
+        <v>176</v>
+      </c>
+      <c r="B32" s="129">
+        <v>10000000</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="57"/>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="93">
-        <v>10000000</v>
+        <v>168</v>
+      </c>
+      <c r="B33" s="68">
+        <v>15000000</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="57"/>
     </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="68">
-        <v>50000000</v>
-      </c>
+    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="65"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="57"/>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B35" s="19">
         <f>1800000*12</f>
         <v>21600000</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="19">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="B37" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B38" s="19">
         <f>3000000*12</f>
         <v>36000000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+    <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B39" s="19">
         <f>1400000*12</f>
         <v>16800000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="19">
+        <f>6000000*12</f>
+        <v>72000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B41" s="19">
-        <v>108000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="19">
         <f>7000000*12</f>
         <v>84000000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="19">
+        <f>6000000*12</f>
+        <v>72000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B43" s="19">
-        <f>10000000*12</f>
-        <v>120000000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" s="19">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <f>8000000*12</f>
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B45" s="19">
-        <f>16000000*12</f>
-        <v>192000000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="19">
         <v>3000000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="64" t="s">
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="65"/>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="B46" s="65"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B47" s="19">
         <f>120000*365</f>
         <v>43800000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="19">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B49" s="19">
-        <v>60000000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <f>1500000*12</f>
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" s="19">
-        <f>3000000*12</f>
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="19">
         <f>180000*12</f>
         <v>2160000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+    <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="19">
-        <v>150000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="60" t="s">
+      <c r="B51" s="19">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="60"/>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B54" s="60"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="19">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" s="19">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B57" s="19">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B58" s="19">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="19">
         <v>14000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="91">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="91">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="B60" s="92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B61" s="92">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B62" s="92">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="62" t="s">
+    <row r="62" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B62" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B64" s="70">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B65" s="70">
         <f>2*365</f>
         <v>730</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+    <row r="65" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B65" s="21">
         <f>1*365</f>
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="21">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B67" s="21">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>169</v>
       </c>
       <c r="B68" s="21">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="22">
+        <v>170</v>
+      </c>
+      <c r="B69" s="22">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+    <row r="72" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="4"/>
-      <c r="G80"/>
-    </row>
-    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2200,11 +2185,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4764C-DEDE-C149-BFDF-F902BA43F941}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:I43"/>
+    <sheetView showGridLines="0" topLeftCell="N8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="24" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="24" customWidth="1"/>
@@ -2238,7 +2223,7 @@
     <col min="30" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="str">
         <f>Variables!A1</f>
         <v>Arquitectura Empresarial</v>
@@ -2258,7 +2243,7 @@
       <c r="Z1" s="47"/>
       <c r="AA1" s="47"/>
     </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
@@ -2277,7 +2262,7 @@
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -2308,523 +2293,523 @@
       <c r="AB3" s="45"/>
       <c r="AC3" s="45"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F4" s="24"/>
       <c r="L4" s="24"/>
       <c r="R4" s="24"/>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="113" t="s">
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="113"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="113" t="s">
+      <c r="M5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="116" t="s">
+      <c r="N5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="113" t="s">
+      <c r="O5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="113"/>
+      <c r="P5" s="98"/>
       <c r="Q5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="R5" s="24"/>
-      <c r="S5" s="113" t="s">
+      <c r="S5" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="116" t="s">
+      <c r="T5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="113" t="s">
+      <c r="U5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="113"/>
+      <c r="V5" s="98"/>
       <c r="W5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="X5" s="24"/>
-      <c r="Y5" s="113" t="s">
+      <c r="Y5" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="116" t="s">
+      <c r="Z5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="113" t="s">
+      <c r="AA5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="113"/>
+      <c r="AB5" s="98"/>
       <c r="AC5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="113"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="114" t="s">
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="98"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="114"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="34">
-        <f>Variables!$B$58*Variables!$B$66</f>
+        <f>Variables!$B$57*Variables!$B$65</f>
         <v>8395000</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="114" t="s">
+      <c r="G6" s="98"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="114"/>
+      <c r="J6" s="105"/>
       <c r="K6" s="34">
+        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30</f>
+        <v>18469000</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="34">
+        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*2</f>
+        <v>36938000</v>
+      </c>
+      <c r="R6" s="24"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" s="105"/>
+      <c r="W6" s="34">
+        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*2</f>
+        <v>36938000</v>
+      </c>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="34">
+        <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*3</f>
+        <v>55407000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="98"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="34">
+        <f>Variables!$B$66*Variables!$B$58</f>
+        <v>51100000</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="105"/>
+      <c r="K7" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30</f>
-        <v>38617000</v>
-      </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="34">
-        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31</f>
-        <v>77234000</v>
-      </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" s="114"/>
-      <c r="W6" s="34">
-        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
-        <v>154468000</v>
-      </c>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="34">
-        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
-        <v>308936000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="113"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="114" t="s">
+        <v>112420000.00000001</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="34">
-        <f>Variables!$B$67*Variables!$B$59</f>
-        <v>51100000</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="114" t="s">
+      <c r="P7" s="105"/>
+      <c r="Q7" s="34">
+        <f>Variables!B66*Variables!B58*(1+Variables!B22)*Variables!B30*2</f>
+        <v>224840000.00000003</v>
+      </c>
+      <c r="R7" s="24"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="34">
-        <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30</f>
-        <v>235059999.99999997</v>
-      </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="114" t="s">
+      <c r="V7" s="105"/>
+      <c r="W7" s="34">
+        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*2</f>
+        <v>224840000.00000003</v>
+      </c>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="34">
-        <f>Variables!B67*Variables!B59*(1+Variables!B22)*Variables!B30*Variables!B31</f>
-        <v>470119999.99999994</v>
-      </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="V7" s="114"/>
-      <c r="W7" s="34">
-        <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
-        <v>940239999.99999988</v>
-      </c>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7" s="114"/>
+      <c r="AB7" s="105"/>
       <c r="AC7" s="34">
-        <f>Variables!B59*Variables!B67*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
-        <v>1880479999.9999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="113"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="114" t="s">
+        <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*3</f>
+        <v>337260000.00000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="34">
-        <f>(Variables!B65)*Variables!B57</f>
-        <v>547500000</v>
+        <f>(Variables!B64)*Variables!B56*6/5</f>
+        <v>657000000</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="114" t="s">
+      <c r="G8" s="98"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="105"/>
       <c r="K8" s="34">
-        <f>(Variables!B65+Variables!B70)*Variables!B57*Variables!B30</f>
-        <v>2340000000</v>
+        <f>(Variables!B64+Variables!B69)*Variables!B56*Variables!B30</f>
+        <v>1170000000</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="114" t="s">
+      <c r="M8" s="98"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="114"/>
+      <c r="P8" s="105"/>
       <c r="Q8" s="34">
-        <f>(Variables!B65+(2*Variables!B70))*Variables!B57*Variables!B30*Variables!B31</f>
-        <v>4980000000</v>
+        <f>(Variables!B64+(2*Variables!B69))*Variables!B56*Variables!B30*2</f>
+        <v>2490000000</v>
       </c>
       <c r="R8" s="24"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="114" t="s">
+      <c r="S8" s="98"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="114"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="34">
-        <f>(Variables!B65+(3*Variables!B70))*Variables!B57*Variables!B30*Variables!B31^2</f>
-        <v>10560000000</v>
+        <f>(Variables!B64+(3*Variables!B69))*Variables!B56*Variables!B30*2</f>
+        <v>2640000000</v>
       </c>
       <c r="X8" s="24"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="114" t="s">
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="114"/>
+      <c r="AB8" s="105"/>
       <c r="AC8" s="34">
-        <f>(Variables!B65+(3*Variables!B70))*Variables!B57*Variables!B30*Variables!B31^3</f>
-        <v>21120000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="113"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="114" t="s">
+        <f>(Variables!B64+(3*Variables!B69))*Variables!B56*Variables!B30*3</f>
+        <v>3960000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="98"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="114"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="34">
-        <f>(Variables!B64)*Variables!B56</f>
+        <f>(Variables!B63)*Variables!B55</f>
         <v>180000000</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="114" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="114"/>
+      <c r="J9" s="105"/>
       <c r="K9" s="34">
-        <f>(Variables!B64+Variables!B70+Variables!B68)*Variables!B56*Variables!B30</f>
-        <v>1080000000</v>
+        <f>(Variables!B63+Variables!B69+Variables!B67)*Variables!B55*Variables!B30</f>
+        <v>540000000</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="114" t="s">
+      <c r="M9" s="98"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="114"/>
+      <c r="P9" s="105"/>
       <c r="Q9" s="34">
-        <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31+Variables!B68*Variables!B69)*Variables!B56</f>
-        <v>1830000000</v>
+        <f>((Variables!B63+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68)*Variables!B55</f>
+        <v>990000000</v>
       </c>
       <c r="R9" s="24"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="114" t="s">
+      <c r="S9" s="98"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="114"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="34">
-        <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31^2+Variables!B68*Variables!B69^3)*Variables!B56</f>
-        <v>3960000000</v>
+        <f>((Variables!B63+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^3)*Variables!B55</f>
+        <v>1440000000</v>
       </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="114" t="s">
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="114"/>
+      <c r="AB9" s="105"/>
       <c r="AC9" s="34">
-        <f>((Variables!B64+(2*Variables!B70))*Variables!B30*Variables!B31^3+Variables!B68*Variables!B69^3)*Variables!B56</f>
-        <v>7320000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="113"/>
-      <c r="B10" s="105" t="s">
+        <f>((Variables!B63+(2*Variables!B69))*Variables!B30*3+Variables!B67*Variables!B68^3)*Variables!B55</f>
+        <v>1860000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="98"/>
+      <c r="B10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="107"/>
       <c r="E10" s="37">
         <f>SUM(E6:E9)</f>
-        <v>786995000</v>
+        <v>896495000</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="105" t="s">
+      <c r="G10" s="98"/>
+      <c r="H10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="106"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="107"/>
       <c r="K10" s="37">
         <f>SUM(K6:K9)</f>
-        <v>3693677000</v>
+        <v>1840889000</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="105" t="s">
+      <c r="M10" s="98"/>
+      <c r="N10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="106"/>
+      <c r="O10" s="108"/>
       <c r="P10" s="107"/>
       <c r="Q10" s="37">
         <f>SUM(Q6:Q9)</f>
-        <v>7357354000</v>
+        <v>3741778000</v>
       </c>
       <c r="R10" s="24"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="105" t="s">
+      <c r="S10" s="98"/>
+      <c r="T10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="106"/>
+      <c r="U10" s="108"/>
       <c r="V10" s="107"/>
       <c r="W10" s="37">
         <f>SUM(W6:W9)</f>
-        <v>15614708000</v>
+        <v>4341778000</v>
       </c>
       <c r="X10" s="24"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="105" t="s">
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="106"/>
+      <c r="AA10" s="108"/>
       <c r="AB10" s="107"/>
       <c r="AC10" s="37">
         <f>SUM(AC6:AC9)</f>
-        <v>30629416000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="113"/>
+        <v>6212667000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="98"/>
       <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="114"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="34">
-        <f>Variables!B61*Variables!B60</f>
+        <f>Variables!B60*Variables!B59</f>
         <v>1500000</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="113"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="114" t="s">
+      <c r="I11" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="J11" s="114"/>
+      <c r="J11" s="105"/>
       <c r="K11" s="34">
-        <f>Variables!B60*Variables!B61*Variables!B62</f>
+        <f>Variables!B59*Variables!B60*Variables!B61</f>
         <v>3000000</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="113"/>
+      <c r="M11" s="98"/>
       <c r="N11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="113"/>
+      <c r="S11" s="98"/>
       <c r="T11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="34"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="113"/>
+      <c r="Y11" s="98"/>
       <c r="Z11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="113"/>
-      <c r="B12" s="105" t="s">
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="98"/>
+      <c r="B12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="107"/>
       <c r="E12" s="37">
         <f>SUM(E11:E11)</f>
         <v>1500000</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="105" t="s">
+      <c r="G12" s="98"/>
+      <c r="H12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="106"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="107"/>
       <c r="K12" s="37">
         <f>SUM(K11:K11)</f>
         <v>3000000</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="105" t="s">
+      <c r="M12" s="98"/>
+      <c r="N12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="106"/>
+      <c r="O12" s="108"/>
       <c r="P12" s="107"/>
       <c r="Q12" s="37">
         <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="105" t="s">
+      <c r="S12" s="98"/>
+      <c r="T12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="106"/>
+      <c r="U12" s="108"/>
       <c r="V12" s="107"/>
       <c r="W12" s="37">
         <f>SUM(W11:W11)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="105" t="s">
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="106"/>
+      <c r="AA12" s="108"/>
       <c r="AB12" s="107"/>
       <c r="AC12" s="37">
         <f>SUM(AC11:AC11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="112" t="s">
+    <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="37">
         <f>E10+E12</f>
-        <v>788495000</v>
-      </c>
-      <c r="G13" s="112" t="s">
+        <v>897995000</v>
+      </c>
+      <c r="G13" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
       <c r="K13" s="37">
         <f>K10+K12</f>
-        <v>3696677000</v>
-      </c>
-      <c r="M13" s="112" t="s">
+        <v>1843889000</v>
+      </c>
+      <c r="M13" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
       <c r="Q13" s="37">
         <f>Q10+Q12</f>
-        <v>7357354000</v>
-      </c>
-      <c r="S13" s="112" t="s">
+        <v>3741778000</v>
+      </c>
+      <c r="S13" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="37">
         <f>W10+W12</f>
-        <v>15614708000</v>
-      </c>
-      <c r="Y13" s="112" t="s">
+        <v>4341778000</v>
+      </c>
+      <c r="Y13" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="112"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
       <c r="AC13" s="37">
         <f>AC10+AC12</f>
-        <v>30629416000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6212667000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2851,77 +2836,77 @@
       <c r="AB14" s="36"/>
       <c r="AC14" s="35"/>
     </row>
-    <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="116" t="s">
+    <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="113"/>
+      <c r="D15" s="98"/>
       <c r="E15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="G15" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="116" t="s">
+      <c r="H15" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="113"/>
+      <c r="J15" s="98"/>
       <c r="K15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="116" t="s">
+      <c r="M15" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="116" t="s">
+      <c r="N15" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="113" t="s">
+      <c r="O15" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="113"/>
+      <c r="P15" s="98"/>
       <c r="Q15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="116" t="s">
+      <c r="S15" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="116" t="s">
+      <c r="T15" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="113" t="s">
+      <c r="U15" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="113"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="116" t="s">
+      <c r="Y15" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="116" t="s">
+      <c r="Z15" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="113" t="s">
+      <c r="AA15" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="113"/>
+      <c r="AB15" s="98"/>
       <c r="AC15" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="116" t="s">
+    <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="99" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2931,310 +2916,310 @@
         <f>(Variables!$B$12)*Variables!B15</f>
         <v>99000000</v>
       </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="116" t="s">
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="99" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>88</v>
       </c>
       <c r="K16" s="53">
-        <f>((Variables!$B$12+Variables!B70)*Variables!B30+Variables!B68)*Variables!B15</f>
-        <v>463500000</v>
-      </c>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="116" t="s">
+        <f>((Variables!$B$12+Variables!B69)*Variables!B30+Variables!B67)*Variables!B15</f>
+        <v>250500000</v>
+      </c>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="99" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>88</v>
       </c>
       <c r="Q16" s="53">
-        <f>(((Variables!$B$12+(2*Variables!B70))*Variables!B30*Variables!B31+Variables!B68*Variables!B69^2))*Variables!B15</f>
-        <v>1062000000</v>
-      </c>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="116" t="s">
+        <f>(((Variables!$B$12+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^2))*Variables!B15</f>
+        <v>606000000</v>
+      </c>
+      <c r="S16" s="100"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="99" t="s">
         <v>26</v>
       </c>
       <c r="V16" s="74" t="s">
         <v>88</v>
       </c>
       <c r="W16" s="53">
-        <f>(((Variables!$B$12+(3*Variables!B70))*Variables!B30*Variables!B31^2+Variables!B68*Variables!B69^3))*Variables!B15</f>
-        <v>2244000000</v>
-      </c>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="116" t="s">
+        <f>(((Variables!$B$12+(3*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^3))*Variables!B15</f>
+        <v>786000000</v>
+      </c>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="99" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="74" t="s">
         <v>88</v>
       </c>
       <c r="AC16" s="53">
-        <f>(((Variables!$B$12+(3*Variables!B70))*Variables!B30*Variables!B31^3+Variables!B68*Variables!B69^4))*Variables!B15</f>
-        <v>4488000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="117"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
+        <f>(((Variables!$B$12+(3*Variables!B69))*Variables!B30*3+Variables!B67*Variables!B68^4))*Variables!B15</f>
+        <v>1329000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="43" t="s">
         <v>127</v>
       </c>
       <c r="E17" s="51">
-        <f>Variables!B13*Variables!B65</f>
+        <f>Variables!B13*Variables!B64</f>
         <v>328500000</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="43" t="s">
         <v>127</v>
       </c>
       <c r="K17" s="53">
-        <f>(Variables!B65+Variables!B70)*Variables!B13*Variables!B30</f>
-        <v>1404000000</v>
-      </c>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
+        <f>(Variables!B64+Variables!B69)*Variables!B13*Variables!B30</f>
+        <v>702000000</v>
+      </c>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
       <c r="P17" s="43" t="s">
         <v>127</v>
       </c>
       <c r="Q17" s="54">
-        <f>(Variables!B65+(2*Variables!B70))*Variables!B13*Variables!B30*Variables!B31</f>
-        <v>2988000000</v>
-      </c>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
+        <f>(Variables!B64+(2*Variables!B69))*Variables!B13*Variables!B30*2</f>
+        <v>1494000000</v>
+      </c>
+      <c r="S17" s="100"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="100"/>
       <c r="V17" s="75" t="s">
         <v>127</v>
       </c>
       <c r="W17" s="54">
-        <f>(Variables!B65+(3*Variables!B70))*Variables!B13*Variables!B30*Variables!B31^2</f>
-        <v>6336000000</v>
-      </c>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="117"/>
+        <f>(Variables!B64+(3*Variables!B69))*Variables!B13*Variables!B30*2</f>
+        <v>1584000000</v>
+      </c>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
       <c r="AB17" s="75" t="s">
         <v>127</v>
       </c>
       <c r="AC17" s="54">
-        <f>(Variables!B65+(3*Variables!B70))*Variables!B13*Variables!B30*Variables!B31^3</f>
-        <v>12672000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
+        <f>(Variables!B64+(3*Variables!B69))*Variables!B13*Variables!B30*3</f>
+        <v>2376000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
       <c r="D18" s="39" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="48">
-        <f>Variables!B66*Variables!B14</f>
+        <f>Variables!B65*Variables!B14</f>
         <v>5475000</v>
       </c>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
       <c r="J18" s="39" t="s">
         <v>128</v>
       </c>
       <c r="K18" s="53">
-        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30</f>
-        <v>25184999.999999996</v>
-      </c>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
+        <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30</f>
+        <v>12045000.000000002</v>
+      </c>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
       <c r="P18" s="39" t="s">
         <v>128</v>
       </c>
       <c r="Q18" s="55">
-        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31</f>
-        <v>50369999.999999993</v>
-      </c>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
+        <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30*2</f>
+        <v>24090000.000000004</v>
+      </c>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
       <c r="V18" s="76" t="s">
         <v>128</v>
       </c>
       <c r="W18" s="55">
-        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31^2</f>
-        <v>100739999.99999999</v>
-      </c>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
+        <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30*2</f>
+        <v>24090000.000000004</v>
+      </c>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
       <c r="AB18" s="76" t="s">
         <v>128</v>
       </c>
       <c r="AC18" s="55">
-        <f>Variables!B66*Variables!B14*(1+Variables!B22)*Variables!B30*Variables!B31^3</f>
-        <v>201479999.99999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
+        <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30*3</f>
+        <v>36135000.000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="39"/>
       <c r="E19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
       <c r="K19" s="48">
         <v>0</v>
       </c>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
       <c r="V19" s="39"/>
       <c r="W19" s="48">
         <v>0</v>
       </c>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
+    <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="39"/>
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="39"/>
       <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="34">
         <v>0</v>
       </c>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34">
         <v>0</v>
       </c>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="117"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
+    <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="39"/>
       <c r="E21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="39"/>
       <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="100"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34">
         <v>0</v>
       </c>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+    <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="39"/>
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="118"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="39"/>
       <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="34">
         <v>0</v>
       </c>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="118"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="101"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="118"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="101"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="105" t="s">
+    <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="106" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="107"/>
@@ -3242,528 +3227,529 @@
         <f>SUM(E16:E22)</f>
         <v>432975000</v>
       </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="105" t="s">
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="106" t="s">
         <v>28</v>
       </c>
       <c r="J23" s="107"/>
       <c r="K23" s="37">
         <f>SUM(K16:K22)</f>
-        <v>1892685000</v>
-      </c>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="105" t="s">
+        <v>964545000</v>
+      </c>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="106" t="s">
         <v>28</v>
       </c>
       <c r="P23" s="107"/>
       <c r="Q23" s="37">
         <f>SUM(Q16:Q22)</f>
-        <v>4100370000</v>
-      </c>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="105" t="s">
+        <v>2124090000</v>
+      </c>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="106" t="s">
         <v>28</v>
       </c>
       <c r="V23" s="107"/>
       <c r="W23" s="37">
         <f>SUM(W16:W22)</f>
-        <v>8680740000</v>
-      </c>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="105" t="s">
+        <v>2394090000</v>
+      </c>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="106" t="s">
         <v>28</v>
       </c>
       <c r="AB23" s="107"/>
       <c r="AC23" s="37">
         <f>SUM(AC16:AC22)</f>
-        <v>17361480000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="116" t="s">
+        <v>3741135000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="99" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="42">
-        <f>Variables!B40</f>
+        <f>Variables!B39</f>
         <v>16800000</v>
       </c>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="116" t="s">
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="99" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="K24" s="42">
-        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^0</f>
-        <v>67200000</v>
-      </c>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="116" t="s">
+        <f>Variables!$B$39*Variables!$B$30*1</f>
+        <v>33600000</v>
+      </c>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="99" t="s">
         <v>29</v>
       </c>
       <c r="P24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="Q24" s="42">
-        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^1</f>
-        <v>134400000</v>
-      </c>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="116" t="s">
+        <f>Variables!$B$39*Variables!$B$30*2</f>
+        <v>67200000</v>
+      </c>
+      <c r="S24" s="100"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="99" t="s">
         <v>29</v>
       </c>
       <c r="V24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="W24" s="42">
-        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^2</f>
-        <v>268800000</v>
-      </c>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="116" t="s">
+        <f>Variables!$B$39*Variables!$B$30*2</f>
+        <v>67200000</v>
+      </c>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
+      <c r="AA24" s="99" t="s">
         <v>29</v>
       </c>
       <c r="AB24" s="81" t="s">
         <v>91</v>
       </c>
       <c r="AC24" s="42">
-        <f>Variables!$B$40*Variables!$B$30*Variables!$B$31^3</f>
-        <v>537600000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
+        <f>Variables!$B$39*Variables!$B$30*3</f>
+        <v>100800000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="34">
-        <f>Variables!$B$38*Variables!$B$36+Variables!B37</f>
+        <f>Variables!$B$37*Variables!$B$35+Variables!B36</f>
         <v>65800000</v>
       </c>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="K25" s="34">
-        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^0+Variables!$B$37*Variables!$B$30*Variables!$B$31^0</f>
-        <v>263200000</v>
-      </c>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
+        <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*1+Variables!$B$36*Variables!$B$30*1</f>
+        <v>131600000</v>
+      </c>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
       <c r="P25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="Q25" s="34">
-        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^1+Variables!$B$37*Variables!$B$30*Variables!$B$31^1</f>
-        <v>526400000</v>
-      </c>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
+        <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*2+Variables!$B$36*Variables!$B$30*2</f>
+        <v>263200000</v>
+      </c>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
       <c r="V25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="W25" s="34">
-        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^2+Variables!$B$37*Variables!$B$30*Variables!$B$31^2</f>
-        <v>1052800000</v>
-      </c>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
+        <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*3+Variables!$B$36*Variables!$B$30*2</f>
+        <v>392800000</v>
+      </c>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
       <c r="AB25" s="82" t="s">
         <v>89</v>
       </c>
       <c r="AC25" s="34">
-        <f>Variables!$B$36*Variables!$B$38*Variables!$B$30*Variables!$B$31^3+Variables!$B$37*Variables!$B$30*Variables!$B$31^3</f>
-        <v>2105600000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
+        <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*4+Variables!$B$36*Variables!$B$30*3</f>
+        <v>524400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="42">
-        <f>Variables!B39</f>
+        <f>Variables!B38</f>
         <v>36000000</v>
       </c>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="K26" s="34">
-        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^0</f>
-        <v>144000000</v>
-      </c>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
+        <f>Variables!$B$38*Variables!$B$30*1</f>
+        <v>72000000</v>
+      </c>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="Q26" s="34">
-        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^1</f>
-        <v>288000000</v>
-      </c>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
+        <f>Variables!$B$38*Variables!$B$30*2</f>
+        <v>144000000</v>
+      </c>
+      <c r="S26" s="100"/>
+      <c r="T26" s="100"/>
+      <c r="U26" s="100"/>
       <c r="V26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="W26" s="34">
-        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^2</f>
-        <v>576000000</v>
-      </c>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
+        <f>Variables!$B$38*Variables!$B$30*2</f>
+        <v>144000000</v>
+      </c>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100"/>
       <c r="AB26" s="81" t="s">
         <v>90</v>
       </c>
       <c r="AC26" s="34">
-        <f>Variables!$B$39*Variables!$B$30*Variables!$B$31^3</f>
-        <v>1152000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="117"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
+        <f>Variables!$B$38*Variables!$B$30*3</f>
+        <v>216000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="82" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="34">
-        <f>Variables!B51</f>
+        <f>Variables!B50</f>
         <v>2160000</v>
       </c>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
       <c r="J27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="K27" s="34">
-        <f>Variables!$B$41</f>
-        <v>108000000</v>
-      </c>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="117"/>
+        <f>Variables!$B$40</f>
+        <v>72000000</v>
+      </c>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
       <c r="P27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="Q27" s="34">
-        <f>Variables!$B$41+Variables!$B$46</f>
-        <v>111000000</v>
-      </c>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
+        <f>Variables!$B$40+Variables!$B$45</f>
+        <v>75000000</v>
+      </c>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
       <c r="V27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="W27" s="34">
-        <f>Variables!$B$41+Variables!$B$46</f>
-        <v>111000000</v>
-      </c>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
+        <f>Variables!$B$40+Variables!$B$45</f>
+        <v>75000000</v>
+      </c>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100"/>
       <c r="AB27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="AC27" s="34">
-        <f>Variables!$B$41+Variables!$B$46*2</f>
-        <v>114000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="117"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
+        <f>Variables!$B$40+Variables!$B$45*3</f>
+        <v>81000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="83" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="71">
-        <f>Variables!$B$48</f>
+        <f>Variables!$B$47</f>
         <v>43800000</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
       <c r="J28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="K28" s="34">
-        <f>Variables!$B$42</f>
+        <f>Variables!$B$41</f>
         <v>84000000</v>
       </c>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
       <c r="P28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="Q28" s="34">
-        <f>Variables!$B$42+Variables!$B$46</f>
+        <f>Variables!$B$41+Variables!$B$45</f>
         <v>87000000</v>
       </c>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
       <c r="V28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="W28" s="34">
-        <f>Variables!$B$42+Variables!$B$46</f>
+        <f>Variables!$B$41+Variables!$B$45</f>
         <v>87000000</v>
       </c>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
       <c r="AB28" s="81" t="s">
         <v>150</v>
       </c>
       <c r="AC28" s="34">
-        <f>Variables!$B$42+Variables!$B$46*2</f>
-        <v>90000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="117"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="117"/>
+        <f>Variables!$B$41+Variables!$B$45*3</f>
+        <v>93000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="83" t="s">
         <v>136</v>
       </c>
       <c r="E29" s="71">
-        <f>Variables!$B$49</f>
-        <v>60000000</v>
-      </c>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
+        <f>Variables!$B$48</f>
+        <v>20000000</v>
+      </c>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="K29" s="34">
-        <f>Variables!$B$43</f>
-        <v>120000000</v>
-      </c>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="117"/>
+        <f>Variables!$B$42</f>
+        <v>72000000</v>
+      </c>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
       <c r="P29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="Q29" s="34">
-        <f>Variables!$B$43+Variables!$B$46</f>
-        <v>123000000</v>
-      </c>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
+        <f>Variables!$B$42+Variables!$B$45</f>
+        <v>75000000</v>
+      </c>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
       <c r="V29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="W29" s="34">
-        <f>Variables!$B$43+Variables!$B$46</f>
-        <v>123000000</v>
-      </c>
-      <c r="Y29" s="117"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
+        <f>Variables!$B$42+Variables!$B$45</f>
+        <v>75000000</v>
+      </c>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
       <c r="AB29" s="81" t="s">
         <v>149</v>
       </c>
       <c r="AC29" s="34">
-        <f>Variables!$B$43+Variables!$B$46*2</f>
-        <v>126000000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
+        <f>Variables!$B$42+Variables!$B$45*3</f>
+        <v>81000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="81" t="s">
         <v>137</v>
       </c>
       <c r="E30" s="80">
-        <f>Variables!$B$50</f>
-        <v>36000000</v>
-      </c>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
+        <f>Variables!$B$49</f>
+        <v>18000000</v>
+      </c>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" s="34">
-        <f>Variables!$B$44</f>
+        <f>Variables!$B$43</f>
         <v>60000000</v>
       </c>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
       <c r="P30" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="34">
-        <f>Variables!$B$44+Variables!$B$46</f>
+        <f>Variables!$B$43+Variables!$B$45</f>
         <v>63000000</v>
       </c>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
       <c r="V30" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W30" s="34">
-        <f>Variables!$B$44+Variables!$B$46</f>
+        <f>Variables!$B$43+Variables!$B$45</f>
         <v>63000000</v>
       </c>
-      <c r="Y30" s="117"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
       <c r="AB30" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AC30" s="34">
-        <f>Variables!$B$44+Variables!$B$46*2</f>
-        <v>66000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="117"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
+        <f>Variables!$B$43+Variables!$B$45*3</f>
+        <v>69000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E31" s="80">
         <f>Variables!B27</f>
         <v>600000</v>
       </c>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="K31" s="34">
-        <f>Variables!$B$45</f>
-        <v>192000000</v>
-      </c>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
+        <f>Variables!$B$44</f>
+        <v>96000000</v>
+      </c>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
       <c r="P31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="Q31" s="34">
-        <f>Variables!$B$45+Variables!$B$46</f>
-        <v>195000000</v>
-      </c>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
+        <f>Variables!$B$44+Variables!$B$45</f>
+        <v>99000000</v>
+      </c>
+      <c r="S31" s="100"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="100"/>
       <c r="V31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="W31" s="34">
-        <f>Variables!$B$45+Variables!$B$46</f>
-        <v>195000000</v>
-      </c>
-      <c r="Y31" s="117"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
+        <f>Variables!$B$44+Variables!$B$45</f>
+        <v>99000000</v>
+      </c>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
       <c r="AB31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="AC31" s="34">
-        <f>Variables!$B$45+Variables!$B$46*2</f>
-        <v>198000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="117"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="117"/>
+        <f>Variables!$B$44+Variables!$B$45*3</f>
+        <v>105000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="80">
         <f>Variables!B29</f>
         <v>5000000</v>
       </c>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="82" t="s">
         <v>27</v>
       </c>
       <c r="K32" s="42">
-        <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^0</f>
-        <v>8640000</v>
-      </c>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
+        <f>Variables!$B$50*Variables!$B$30*1</f>
+        <v>4320000</v>
+      </c>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="82" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="42">
-        <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^1</f>
-        <v>17280000</v>
-      </c>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
+        <f>Variables!$B$50*Variables!$B$30*2</f>
+        <v>8640000</v>
+      </c>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
       <c r="V32" s="82" t="s">
         <v>27</v>
       </c>
       <c r="W32" s="42">
-        <f>Variables!$B$51*Variables!$B$30*Variables!$B$31^2</f>
-        <v>34560000</v>
-      </c>
-      <c r="Y32" s="117"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
+        <f>Variables!$B$50*Variables!$B$30*2</f>
+        <v>8640000</v>
+      </c>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
       <c r="AB32" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="AC32" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="117"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
+      <c r="AC32" s="42">
+        <f>Variables!B50*Variables!B30*3</f>
+        <v>12960000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="43" t="s">
         <v>138</v>
       </c>
@@ -3771,51 +3757,51 @@
         <f>Variables!B20</f>
         <v>7500000</v>
       </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="K33" s="34">
-        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^0</f>
-        <v>175200000</v>
-      </c>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
+        <f>Variables!$B$47*Variables!$B$30*1</f>
+        <v>87600000</v>
+      </c>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
       <c r="P33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="Q33" s="34">
-        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^1</f>
-        <v>350400000</v>
-      </c>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
+        <f>Variables!$B$47*Variables!$B$30*2</f>
+        <v>175200000</v>
+      </c>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
       <c r="V33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="W33" s="34">
-        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^2</f>
-        <v>700800000</v>
-      </c>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
+        <f>Variables!$B$47*Variables!$B$30*2</f>
+        <v>175200000</v>
+      </c>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
       <c r="AB33" s="83" t="s">
         <v>102</v>
       </c>
       <c r="AC33" s="34">
-        <f>Variables!$B$48*Variables!$B$30*Variables!$B$31^3</f>
-        <v>1401600000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="117"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
+        <f>Variables!$B$47*Variables!$B$30*3</f>
+        <v>262800000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="43" t="s">
         <v>139</v>
       </c>
@@ -3823,543 +3809,551 @@
         <f>Variables!B21*Variables!B19</f>
         <v>3000000</v>
       </c>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
       <c r="J34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="K34" s="71">
-        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^0</f>
-        <v>240000000</v>
-      </c>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
+        <f>Variables!$B$48*Variables!$B$30*1</f>
+        <v>40000000</v>
+      </c>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="Q34" s="71">
-        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^1</f>
-        <v>480000000</v>
-      </c>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
+        <f>Variables!$B$48*Variables!$B$30*2</f>
+        <v>80000000</v>
+      </c>
+      <c r="S34" s="100"/>
+      <c r="T34" s="100"/>
+      <c r="U34" s="100"/>
       <c r="V34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="W34" s="71">
-        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^2</f>
-        <v>960000000</v>
-      </c>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
+        <f>Variables!$B$48*Variables!$B$30*2</f>
+        <v>80000000</v>
+      </c>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
       <c r="AB34" s="83" t="s">
         <v>136</v>
       </c>
       <c r="AC34" s="71">
-        <f>Variables!$B$49*Variables!$B$30*Variables!$B$31^3</f>
-        <v>1920000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="117"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
+        <f>Variables!$B$48*Variables!$B$30*3</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="43"/>
       <c r="E35" s="80"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
       <c r="J35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="K35" s="80">
-        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^0</f>
-        <v>144000000</v>
-      </c>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
+        <f>Variables!$B$49*Variables!$B$30*1</f>
+        <v>36000000</v>
+      </c>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
       <c r="P35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="Q35" s="80">
-        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^1</f>
-        <v>288000000</v>
-      </c>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
+        <f>Variables!$B$49*Variables!$B$30*2</f>
+        <v>72000000</v>
+      </c>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
       <c r="V35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="W35" s="80">
-        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^2</f>
-        <v>576000000</v>
-      </c>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="117"/>
+        <f>Variables!$B$49*Variables!$B$30*2</f>
+        <v>72000000</v>
+      </c>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
       <c r="AB35" s="81" t="s">
         <v>137</v>
       </c>
       <c r="AC35" s="80">
-        <f>Variables!$B$50*Variables!$B$30*Variables!$B$31^3</f>
-        <v>1152000000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="117"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
+        <f>Variables!$B$49*Variables!$B$30*3</f>
+        <v>108000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="43"/>
       <c r="E36" s="80"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
       <c r="J36" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K36" s="80">
-        <f>Variables!$B$30*Variables!$B$52</f>
-        <v>600000000</v>
-      </c>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
+        <f>Variables!$B$30*Variables!$B$51</f>
+        <v>180000000</v>
+      </c>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="80">
-        <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^0</f>
-        <v>600000000</v>
-      </c>
-      <c r="S36" s="117"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="117"/>
+        <f>Variables!$B$30*Variables!$B$51</f>
+        <v>180000000</v>
+      </c>
+      <c r="S36" s="100"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="100"/>
       <c r="V36" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W36" s="80">
-        <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^1</f>
-        <v>1200000000</v>
-      </c>
-      <c r="Y36" s="117"/>
-      <c r="Z36" s="117"/>
-      <c r="AA36" s="117"/>
+        <f>Variables!$B$30*Variables!$B$51</f>
+        <v>180000000</v>
+      </c>
+      <c r="Y36" s="100"/>
+      <c r="Z36" s="100"/>
+      <c r="AA36" s="100"/>
       <c r="AB36" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC36" s="80">
-        <f>Variables!$B$30*Variables!$B$52*Variables!$B$31^2</f>
-        <v>2400000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="117"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
+        <f>Variables!$B$30*Variables!$B$51</f>
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="100"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="43"/>
       <c r="E37" s="80"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
       <c r="J37" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K37" s="80">
-        <f>Variables!$B$32+Variables!$B$33</f>
-        <v>260000000</v>
-      </c>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="117"/>
+        <f>Variables!$B$31+Variables!$B$32</f>
+        <v>60000000</v>
+      </c>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q37" s="80">
-        <f>Variables!$B$33</f>
+        <f>Variables!$B$32</f>
         <v>10000000</v>
       </c>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="100"/>
       <c r="V37" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W37" s="80">
-        <f>Variables!$B$33</f>
+        <f>Variables!$B$32</f>
         <v>10000000</v>
       </c>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="117"/>
+      <c r="Y37" s="100"/>
+      <c r="Z37" s="100"/>
+      <c r="AA37" s="100"/>
       <c r="AB37" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC37" s="80">
-        <f>Variables!$B$33</f>
+        <f>Variables!$B$32</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="117"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
+    <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="100"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="43"/>
       <c r="E38" s="80"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
       <c r="J38" s="81"/>
       <c r="K38" s="80"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
       <c r="P38" s="43"/>
       <c r="Q38" s="43"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="100"/>
       <c r="V38" s="82"/>
       <c r="W38" s="56"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="117"/>
+      <c r="Y38" s="100"/>
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="100"/>
       <c r="AB38" s="82"/>
       <c r="AC38" s="56"/>
     </row>
-    <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="117"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
+    <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="43"/>
       <c r="E39" s="80"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
       <c r="J39" s="81"/>
       <c r="K39" s="80"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="118"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="101"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="118"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="100"/>
+      <c r="U39" s="101"/>
       <c r="V39" s="82"/>
       <c r="W39" s="56"/>
-      <c r="Y39" s="117"/>
-      <c r="Z39" s="117"/>
-      <c r="AA39" s="118"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="100"/>
+      <c r="AA39" s="101"/>
       <c r="AB39" s="82"/>
       <c r="AC39" s="56"/>
     </row>
-    <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="117"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="105" t="s">
+    <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="100"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="120"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="72">
         <f>SUM(E24:E34)</f>
-        <v>276660000</v>
-      </c>
-      <c r="G40" s="117"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="105" t="s">
+        <v>218660000</v>
+      </c>
+      <c r="G40" s="100"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="106" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="107"/>
       <c r="K40" s="37">
         <f>SUM(K24:K39)</f>
-        <v>2466240000</v>
-      </c>
-      <c r="M40" s="117"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="105" t="s">
+        <v>1029120000</v>
+      </c>
+      <c r="M40" s="100"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="119"/>
+      <c r="P40" s="118"/>
       <c r="Q40" s="37">
         <f>SUM(Q24:Q39)</f>
-        <v>3273480000</v>
-      </c>
-      <c r="S40" s="117"/>
-      <c r="T40" s="118"/>
-      <c r="U40" s="105" t="s">
+        <v>1399240000</v>
+      </c>
+      <c r="S40" s="100"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="106" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="107"/>
       <c r="W40" s="37">
         <f>SUM(W24:W39)</f>
-        <v>5957960000</v>
-      </c>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="105" t="s">
+        <v>1528840000</v>
+      </c>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="101"/>
+      <c r="AA40" s="106" t="s">
         <v>30</v>
       </c>
       <c r="AB40" s="107"/>
       <c r="AC40" s="37">
         <f>SUM(AC24:AC39)</f>
-        <v>11272800000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="117"/>
-      <c r="B41" s="105" t="s">
+        <v>1963960000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="100"/>
+      <c r="B41" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="106"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="107"/>
       <c r="E41" s="37">
         <f>E23+E40</f>
-        <v>709635000</v>
-      </c>
-      <c r="G41" s="117"/>
-      <c r="H41" s="105" t="s">
+        <v>651635000</v>
+      </c>
+      <c r="G41" s="100"/>
+      <c r="H41" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="106"/>
+      <c r="I41" s="108"/>
       <c r="J41" s="107"/>
       <c r="K41" s="37">
         <f>K23+K40</f>
-        <v>4358925000</v>
-      </c>
-      <c r="M41" s="117"/>
-      <c r="N41" s="105" t="s">
+        <v>1993665000</v>
+      </c>
+      <c r="M41" s="100"/>
+      <c r="N41" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="O41" s="106"/>
+      <c r="O41" s="108"/>
       <c r="P41" s="107"/>
       <c r="Q41" s="37">
         <f>Q23+Q40</f>
-        <v>7373850000</v>
-      </c>
-      <c r="S41" s="117"/>
-      <c r="T41" s="105" t="s">
+        <v>3523330000</v>
+      </c>
+      <c r="S41" s="100"/>
+      <c r="T41" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="106"/>
+      <c r="U41" s="108"/>
       <c r="V41" s="107"/>
       <c r="W41" s="37">
         <f>W23+W40</f>
-        <v>14638700000</v>
-      </c>
-      <c r="Y41" s="117"/>
-      <c r="Z41" s="105" t="s">
+        <v>3922930000</v>
+      </c>
+      <c r="Y41" s="100"/>
+      <c r="Z41" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AA41" s="106"/>
+      <c r="AA41" s="108"/>
       <c r="AB41" s="107"/>
       <c r="AC41" s="37">
         <f>AC23+AC40</f>
-        <v>28634280000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="117"/>
-      <c r="B42" s="108" t="s">
+        <v>5705095000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="100"/>
+      <c r="B42" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="109"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="G42" s="117"/>
-      <c r="H42" s="108" t="s">
+      <c r="G42" s="100"/>
+      <c r="H42" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="109"/>
+      <c r="I42" s="111"/>
       <c r="J42" s="39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K42" s="34">
-        <v>600000000</v>
-      </c>
-      <c r="M42" s="117"/>
-      <c r="N42" s="108" t="s">
+        <f>Variables!B51*Variables!B30</f>
+        <v>180000000</v>
+      </c>
+      <c r="M42" s="100"/>
+      <c r="N42" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="109"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="34"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="108" t="s">
+      <c r="O42" s="111"/>
+      <c r="P42" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q42" s="34">
+        <f>K42-K49</f>
+        <v>135000000</v>
+      </c>
+      <c r="S42" s="100"/>
+      <c r="T42" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="109"/>
+      <c r="U42" s="111"/>
       <c r="V42" s="39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="W42" s="34">
-        <v>600000000</v>
-      </c>
-      <c r="Y42" s="117"/>
-      <c r="Z42" s="108" t="s">
+        <f>Q42-Q49</f>
+        <v>90000000</v>
+      </c>
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="AA42" s="109"/>
+      <c r="AA42" s="111"/>
       <c r="AB42" s="39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AC42" s="34">
-        <v>600000000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="117"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="111"/>
+        <f>W42-W49</f>
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="100"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="34">
         <v>0</v>
       </c>
-      <c r="G43" s="117"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="111"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="113"/>
       <c r="J43" s="39"/>
       <c r="K43" s="34">
         <v>0</v>
       </c>
-      <c r="M43" s="117"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="111"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="112"/>
+      <c r="O43" s="113"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="34">
         <v>0</v>
       </c>
-      <c r="S43" s="117"/>
-      <c r="T43" s="110"/>
-      <c r="U43" s="111"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="112"/>
+      <c r="U43" s="113"/>
       <c r="V43" s="39"/>
       <c r="W43" s="34">
         <v>0</v>
       </c>
-      <c r="Y43" s="117"/>
-      <c r="Z43" s="110"/>
-      <c r="AA43" s="111"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="112"/>
+      <c r="AA43" s="113"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="118"/>
-      <c r="B44" s="105" t="s">
+    <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="101"/>
+      <c r="B44" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="106"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="107"/>
       <c r="E44" s="37">
         <f>SUM(E42:E43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="118"/>
-      <c r="H44" s="105" t="s">
+      <c r="G44" s="101"/>
+      <c r="H44" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="106"/>
+      <c r="I44" s="108"/>
       <c r="J44" s="107"/>
       <c r="K44" s="37">
         <f>SUM(K42:K43)</f>
-        <v>600000000</v>
-      </c>
-      <c r="M44" s="118"/>
-      <c r="N44" s="105" t="s">
+        <v>180000000</v>
+      </c>
+      <c r="M44" s="101"/>
+      <c r="N44" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="106"/>
+      <c r="O44" s="108"/>
       <c r="P44" s="107"/>
       <c r="Q44" s="37">
         <f>SUM(Q42:Q43)</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="118"/>
-      <c r="T44" s="105" t="s">
+        <v>135000000</v>
+      </c>
+      <c r="S44" s="101"/>
+      <c r="T44" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="106"/>
+      <c r="U44" s="108"/>
       <c r="V44" s="107"/>
       <c r="W44" s="37">
         <f>SUM(W42:W43)</f>
-        <v>600000000</v>
-      </c>
-      <c r="Y44" s="118"/>
-      <c r="Z44" s="105" t="s">
+        <v>90000000</v>
+      </c>
+      <c r="Y44" s="101"/>
+      <c r="Z44" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="AA44" s="106"/>
+      <c r="AA44" s="108"/>
       <c r="AB44" s="107"/>
       <c r="AC44" s="37">
         <f>SUM(AC42:AC43)</f>
-        <v>600000000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="112" t="s">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="37">
         <f>E41+E44</f>
-        <v>709635000</v>
-      </c>
-      <c r="G45" s="112" t="s">
+        <v>651635000</v>
+      </c>
+      <c r="G45" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
       <c r="K45" s="37">
         <f>K41+K44</f>
-        <v>4958925000</v>
-      </c>
-      <c r="M45" s="112" t="s">
+        <v>2173665000</v>
+      </c>
+      <c r="M45" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="112"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
       <c r="Q45" s="37">
         <f>Q41+Q44</f>
-        <v>7373850000</v>
-      </c>
-      <c r="S45" s="112" t="s">
+        <v>3658330000</v>
+      </c>
+      <c r="S45" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="112"/>
-      <c r="U45" s="112"/>
-      <c r="V45" s="112"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
       <c r="W45" s="37">
         <f>W41+W44</f>
-        <v>15238700000</v>
-      </c>
-      <c r="Y45" s="112" t="s">
+        <v>4012930000</v>
+      </c>
+      <c r="Y45" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="112"/>
-      <c r="AA45" s="112"/>
-      <c r="AB45" s="112"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
       <c r="AC45" s="37">
         <f>AC41+AC44</f>
-        <v>29234280000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5750095000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -4386,64 +4380,66 @@
       <c r="AB46" s="41"/>
       <c r="AC46" s="35"/>
     </row>
-    <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="115" t="s">
+    <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="79">
-        <f>E13-E45</f>
-        <v>78860000</v>
-      </c>
-      <c r="G47" s="115" t="s">
+        <f>E13-E45+Balance!C9</f>
+        <v>746360000</v>
+      </c>
+      <c r="G47" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
       <c r="K47" s="79">
-        <f>K13-K45</f>
-        <v>-1262248000</v>
-      </c>
-      <c r="M47" s="115" t="s">
+        <f>K13-K41+E47-K42</f>
+        <v>416584000</v>
+      </c>
+      <c r="M47" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="115"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
       <c r="Q47" s="79">
-        <f>Q13-Q45</f>
-        <v>-16496000</v>
-      </c>
-      <c r="S47" s="115" t="s">
+        <f>Q13-Q45+K47</f>
+        <v>500032000</v>
+      </c>
+      <c r="S47" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="T47" s="115"/>
-      <c r="U47" s="115"/>
-      <c r="V47" s="115"/>
+      <c r="T47" s="114"/>
+      <c r="U47" s="114"/>
+      <c r="V47" s="114"/>
       <c r="W47" s="79">
-        <f>W13-W45</f>
-        <v>376008000</v>
-      </c>
-      <c r="Y47" s="115" t="s">
+        <f>W13-W41-W42+Q47</f>
+        <v>828880000</v>
+      </c>
+      <c r="Y47" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="Z47" s="115"/>
-      <c r="AA47" s="115"/>
-      <c r="AB47" s="115"/>
+      <c r="Z47" s="114"/>
+      <c r="AA47" s="114"/>
+      <c r="AB47" s="114"/>
       <c r="AC47" s="79">
-        <f>AC13-AC45</f>
-        <v>1395136000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>AC13-AC45+W47</f>
+        <v>1291452000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="35"/>
+      <c r="D48" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="130"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -4465,219 +4461,223 @@
       <c r="AB48" s="36"/>
       <c r="AC48" s="35"/>
     </row>
-    <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="113" t="s">
+    <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="113" t="s">
+      <c r="G49" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="114" t="s">
+      <c r="H49" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="114"/>
-      <c r="J49" s="114"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
       <c r="K49" s="37">
         <f>K42*Variables!$B$25</f>
-        <v>100000000</v>
-      </c>
-      <c r="M49" s="113" t="s">
+        <v>45000000</v>
+      </c>
+      <c r="M49" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="N49" s="114" t="s">
+      <c r="N49" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
       <c r="Q49" s="37">
-        <f>Q42*Variables!$B$25</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="113" t="s">
+        <f>K42*Variables!$B$25</f>
+        <v>45000000</v>
+      </c>
+      <c r="S49" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="T49" s="114" t="s">
+      <c r="T49" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="114"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="95">
-        <v>100000000</v>
-      </c>
-      <c r="Y49" s="113" t="s">
+      <c r="U49" s="105"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="93">
+        <f>K42*Variables!B25</f>
+        <v>45000000</v>
+      </c>
+      <c r="Y49" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="114" t="s">
+      <c r="Z49" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="114"/>
-      <c r="AB49" s="114"/>
-      <c r="AC49" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="113"/>
-      <c r="B50" s="114" t="s">
+      <c r="AA49" s="105"/>
+      <c r="AB49" s="105"/>
+      <c r="AC49" s="34">
+        <f>K42*Variables!B25</f>
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="98"/>
+      <c r="B50" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="37">
         <v>0</v>
       </c>
-      <c r="G50" s="113"/>
-      <c r="H50" s="114" t="s">
+      <c r="G50" s="98"/>
+      <c r="H50" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="114"/>
-      <c r="J50" s="114"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
       <c r="K50" s="37">
         <f>'Ingresos &amp; egresos'!K42*Variables!$B$26</f>
-        <v>100000000</v>
-      </c>
-      <c r="M50" s="113"/>
-      <c r="N50" s="114" t="s">
+        <v>30000000</v>
+      </c>
+      <c r="M50" s="98"/>
+      <c r="N50" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
       <c r="Q50" s="37">
         <f>'Ingresos &amp; egresos'!Q42*Variables!$B$26</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="113"/>
-      <c r="T50" s="114" t="s">
+        <v>22500000</v>
+      </c>
+      <c r="S50" s="98"/>
+      <c r="T50" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="114"/>
-      <c r="V50" s="114"/>
-      <c r="W50" s="96">
-        <v>100000000</v>
-      </c>
-      <c r="Y50" s="113"/>
-      <c r="Z50" s="114" t="s">
+      <c r="U50" s="105"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="94">
+        <f>W42*Variables!B26</f>
+        <v>15000000</v>
+      </c>
+      <c r="Y50" s="98"/>
+      <c r="Z50" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="114"/>
-      <c r="AB50" s="114"/>
-      <c r="AC50" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="113"/>
-      <c r="B51" s="114" t="s">
+      <c r="AA50" s="105"/>
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="34">
+        <f>AC42*Variables!B26</f>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="98"/>
+      <c r="B51" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
       <c r="E51" s="37">
         <f>E47*Variables!$B$24</f>
-        <v>3154400</v>
-      </c>
-      <c r="G51" s="113"/>
-      <c r="H51" s="114" t="s">
+        <v>37318000</v>
+      </c>
+      <c r="G51" s="98"/>
+      <c r="H51" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="114"/>
-      <c r="J51" s="114"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
       <c r="K51" s="37">
         <f>K47*Variables!$B$24</f>
-        <v>-50489920</v>
-      </c>
-      <c r="M51" s="113"/>
-      <c r="N51" s="114" t="s">
+        <v>20829200</v>
+      </c>
+      <c r="M51" s="98"/>
+      <c r="N51" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
       <c r="Q51" s="37">
         <f>Q47*Variables!$B$24</f>
-        <v>-659840</v>
-      </c>
-      <c r="S51" s="113"/>
-      <c r="T51" s="114" t="s">
+        <v>25001600</v>
+      </c>
+      <c r="S51" s="98"/>
+      <c r="T51" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="U51" s="114"/>
-      <c r="V51" s="114"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
       <c r="W51" s="37">
         <f>W47*Variables!$B$24</f>
-        <v>15040320</v>
-      </c>
-      <c r="Y51" s="113"/>
-      <c r="Z51" s="114" t="s">
+        <v>41444000</v>
+      </c>
+      <c r="Y51" s="98"/>
+      <c r="Z51" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="AA51" s="114"/>
-      <c r="AB51" s="114"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
       <c r="AC51" s="37">
         <f>AC47*Variables!$B$24</f>
-        <v>55805440</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="113"/>
-      <c r="B52" s="114" t="s">
+        <v>64572600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="98"/>
+      <c r="B52" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
       <c r="E52" s="37">
         <f>E47*Variables!$B$23</f>
-        <v>14983400</v>
-      </c>
-      <c r="G52" s="113"/>
-      <c r="H52" s="114" t="s">
+        <v>141808400</v>
+      </c>
+      <c r="G52" s="98"/>
+      <c r="H52" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="114"/>
-      <c r="J52" s="114"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
       <c r="K52" s="37">
         <f>K47*Variables!$B$23</f>
-        <v>-239827120</v>
-      </c>
-      <c r="M52" s="113"/>
-      <c r="N52" s="114" t="s">
+        <v>79150960</v>
+      </c>
+      <c r="M52" s="98"/>
+      <c r="N52" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
       <c r="Q52" s="37">
         <f>Q47*Variables!$B$23</f>
-        <v>-3134240</v>
-      </c>
-      <c r="S52" s="113"/>
-      <c r="T52" s="114" t="s">
+        <v>95006080</v>
+      </c>
+      <c r="S52" s="98"/>
+      <c r="T52" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="U52" s="114"/>
-      <c r="V52" s="114"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="105"/>
       <c r="W52" s="37">
         <f>W47*Variables!$B$23</f>
-        <v>71441520</v>
-      </c>
-      <c r="Y52" s="113"/>
-      <c r="Z52" s="114" t="s">
+        <v>157487200</v>
+      </c>
+      <c r="Y52" s="98"/>
+      <c r="Z52" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="114"/>
-      <c r="AB52" s="114"/>
+      <c r="AA52" s="105"/>
+      <c r="AB52" s="105"/>
       <c r="AC52" s="37">
         <f>AC47*Variables!$B$23</f>
-        <v>265075840</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>245375880</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="E53" s="37">
         <f>E49+E50+E51+(MAX(E52,0))</f>
-        <v>18137800</v>
+        <v>179126400</v>
       </c>
       <c r="G53" s="32"/>
       <c r="H53" s="38"/>
@@ -4694,7 +4694,7 @@
       <c r="J53" s="38"/>
       <c r="K53" s="37">
         <f>K49+K50+K51+(MAX(K52,0))</f>
-        <v>149510080</v>
+        <v>174980160</v>
       </c>
       <c r="M53" s="32"/>
       <c r="N53" s="38"/>
@@ -4702,7 +4702,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="37">
         <f>Q49+Q50+Q51+(MAX(Q52,0))</f>
-        <v>-659840</v>
+        <v>187507680</v>
       </c>
       <c r="S53" s="32"/>
       <c r="T53" s="38"/>
@@ -4710,7 +4710,7 @@
       <c r="V53" s="38"/>
       <c r="W53" s="37">
         <f>W49+W50+W51+(MAX(W52,0))</f>
-        <v>286481840</v>
+        <v>258931200</v>
       </c>
       <c r="Y53" s="32"/>
       <c r="Z53" s="38"/>
@@ -4718,10 +4718,10 @@
       <c r="AB53" s="38"/>
       <c r="AC53" s="37">
         <f>AC49+AC50+AC51+(MAX(AC52,0))</f>
-        <v>320881280</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>362448480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -4748,444 +4748,444 @@
       <c r="AB54" s="36"/>
       <c r="AC54" s="35"/>
     </row>
-    <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="102" t="s">
+    <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="104"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="117"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="102" t="s">
+      <c r="G55" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="104"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="117"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="102" t="s">
+      <c r="M55" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="N55" s="103"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="104"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="117"/>
       <c r="R55" s="32"/>
-      <c r="S55" s="102" t="s">
+      <c r="S55" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="103"/>
-      <c r="U55" s="103"/>
-      <c r="V55" s="103"/>
-      <c r="W55" s="104"/>
+      <c r="T55" s="116"/>
+      <c r="U55" s="116"/>
+      <c r="V55" s="116"/>
+      <c r="W55" s="117"/>
       <c r="X55" s="32"/>
-      <c r="Y55" s="102" t="s">
+      <c r="Y55" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="Z55" s="103"/>
-      <c r="AA55" s="103"/>
-      <c r="AB55" s="103"/>
-      <c r="AC55" s="104"/>
-    </row>
-    <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z55" s="116"/>
+      <c r="AA55" s="116"/>
+      <c r="AB55" s="116"/>
+      <c r="AC55" s="117"/>
+    </row>
+    <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="99" t="s">
+      <c r="B56" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="100"/>
-      <c r="D56" s="101"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="104"/>
       <c r="E56" s="34">
         <f>E13-E23</f>
-        <v>355520000</v>
+        <v>465020000</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="99" t="s">
+      <c r="H56" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="100"/>
-      <c r="J56" s="101"/>
+      <c r="I56" s="103"/>
+      <c r="J56" s="104"/>
       <c r="K56" s="34">
         <f>K13-K23</f>
-        <v>1803992000</v>
+        <v>879344000</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="99" t="s">
+      <c r="N56" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="100"/>
-      <c r="P56" s="101"/>
+      <c r="O56" s="103"/>
+      <c r="P56" s="104"/>
       <c r="Q56" s="34">
         <f>Q13-Q23</f>
-        <v>3256984000</v>
+        <v>1617688000</v>
       </c>
       <c r="R56" s="32"/>
       <c r="S56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="99" t="s">
+      <c r="T56" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="U56" s="100"/>
-      <c r="V56" s="101"/>
+      <c r="U56" s="103"/>
+      <c r="V56" s="104"/>
       <c r="W56" s="34">
         <f>W13-W23</f>
-        <v>6933968000</v>
+        <v>1947688000</v>
       </c>
       <c r="X56" s="32"/>
       <c r="Y56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Z56" s="99" t="s">
+      <c r="Z56" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="AA56" s="100"/>
-      <c r="AB56" s="101"/>
+      <c r="AA56" s="103"/>
+      <c r="AB56" s="104"/>
       <c r="AC56" s="34">
         <f>AC13-AC23</f>
-        <v>13267936000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2471532000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="99" t="s">
+      <c r="B57" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="100"/>
-      <c r="D57" s="101"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="104"/>
       <c r="E57" s="33">
         <f>E56/E13</f>
-        <v>0.45088427954520954</v>
+        <v>0.51784252696284505</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="99" t="s">
+      <c r="H57" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="100"/>
-      <c r="J57" s="101"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="104"/>
       <c r="K57" s="33">
         <f>K56/K13</f>
-        <v>0.48800368547211453</v>
+        <v>0.47689638584535188</v>
       </c>
       <c r="L57" s="32"/>
       <c r="M57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="99" t="s">
+      <c r="N57" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="100"/>
-      <c r="P57" s="101"/>
+      <c r="O57" s="103"/>
+      <c r="P57" s="104"/>
       <c r="Q57" s="33">
         <f>Q56/Q13</f>
-        <v>0.44268414976362425</v>
+        <v>0.43233136760117785</v>
       </c>
       <c r="R57" s="32"/>
       <c r="S57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="99" t="s">
+      <c r="T57" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="U57" s="100"/>
-      <c r="V57" s="101"/>
+      <c r="U57" s="103"/>
+      <c r="V57" s="104"/>
       <c r="W57" s="33">
         <f>W56/W13</f>
-        <v>0.44406645324395433</v>
+        <v>0.44859225874745323</v>
       </c>
       <c r="X57" s="32"/>
       <c r="Y57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Z57" s="99" t="s">
+      <c r="Z57" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="AA57" s="100"/>
-      <c r="AB57" s="101"/>
+      <c r="AA57" s="103"/>
+      <c r="AB57" s="104"/>
       <c r="AC57" s="33">
         <f>AC56/AC13</f>
-        <v>0.43317626428136924</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.39782141872403592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="99" t="s">
+      <c r="B58" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="100"/>
-      <c r="D58" s="101"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="104"/>
       <c r="E58" s="34">
         <f>E56-E40</f>
-        <v>78860000</v>
+        <v>246360000</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="99" t="s">
+      <c r="H58" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="100"/>
-      <c r="J58" s="101"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="104"/>
       <c r="K58" s="34">
         <f>K56-K40</f>
-        <v>-662248000</v>
+        <v>-149776000</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N58" s="99" t="s">
+      <c r="N58" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="100"/>
-      <c r="P58" s="101"/>
+      <c r="O58" s="103"/>
+      <c r="P58" s="104"/>
       <c r="Q58" s="34">
         <f>Q56-Q40</f>
-        <v>-16496000</v>
+        <v>218448000</v>
       </c>
       <c r="R58" s="32"/>
       <c r="S58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T58" s="99" t="s">
+      <c r="T58" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="U58" s="100"/>
-      <c r="V58" s="101"/>
+      <c r="U58" s="103"/>
+      <c r="V58" s="104"/>
       <c r="W58" s="34">
         <f>W56-W40</f>
-        <v>976008000</v>
+        <v>418848000</v>
       </c>
       <c r="X58" s="32"/>
       <c r="Y58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z58" s="99" t="s">
+      <c r="Z58" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="AA58" s="100"/>
-      <c r="AB58" s="101"/>
+      <c r="AA58" s="103"/>
+      <c r="AB58" s="104"/>
       <c r="AC58" s="34">
         <f>AC56-AC40</f>
-        <v>1995136000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>507572000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="100"/>
-      <c r="D59" s="101"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="33">
         <f>E58/E13</f>
-        <v>0.10001331650803112</v>
+        <v>0.27434451194048964</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="99" t="s">
+      <c r="H59" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="100"/>
-      <c r="J59" s="101"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="104"/>
       <c r="K59" s="33">
         <f>K58/K13</f>
-        <v>-0.17914683917475072</v>
+        <v>-8.122831688892336E-2</v>
       </c>
       <c r="L59" s="32"/>
       <c r="M59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="99" t="s">
+      <c r="N59" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="O59" s="100"/>
-      <c r="P59" s="101"/>
+      <c r="O59" s="103"/>
+      <c r="P59" s="104"/>
       <c r="Q59" s="33">
         <f>Q58/Q13</f>
-        <v>-2.242110410889567E-3</v>
+        <v>5.8380801854091828E-2</v>
       </c>
       <c r="R59" s="32"/>
       <c r="S59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="T59" s="99" t="s">
+      <c r="T59" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="100"/>
-      <c r="V59" s="101"/>
+      <c r="U59" s="103"/>
+      <c r="V59" s="104"/>
       <c r="W59" s="33">
         <f>W58/W13</f>
-        <v>6.250568374381385E-2</v>
+        <v>9.6469234493334291E-2</v>
       </c>
       <c r="X59" s="32"/>
       <c r="Y59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z59" s="99" t="s">
+      <c r="Z59" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" s="100"/>
-      <c r="AB59" s="101"/>
+      <c r="AA59" s="103"/>
+      <c r="AB59" s="104"/>
       <c r="AC59" s="33">
         <f>AC58/AC13</f>
-        <v>6.513790533910277E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.1699534193607995E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="99" t="s">
+      <c r="B60" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="100"/>
-      <c r="D60" s="101"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="104"/>
       <c r="E60" s="34">
         <f>E58-E53</f>
-        <v>60722200</v>
+        <v>67233600</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="99" t="s">
+      <c r="H60" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="J60" s="101"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="104"/>
       <c r="K60" s="34">
         <f>K58-K53</f>
-        <v>-811758080</v>
+        <v>-324756160</v>
       </c>
       <c r="L60" s="32"/>
       <c r="M60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="99" t="s">
+      <c r="N60" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="100"/>
-      <c r="P60" s="101"/>
+      <c r="O60" s="103"/>
+      <c r="P60" s="104"/>
       <c r="Q60" s="34">
         <f>Q58-Q53</f>
-        <v>-15836160</v>
+        <v>30940320</v>
       </c>
       <c r="R60" s="32"/>
       <c r="S60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="T60" s="99" t="s">
+      <c r="T60" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="U60" s="100"/>
-      <c r="V60" s="101"/>
+      <c r="U60" s="103"/>
+      <c r="V60" s="104"/>
       <c r="W60" s="34">
         <f>W58-W53</f>
-        <v>689526160</v>
+        <v>159916800</v>
       </c>
       <c r="X60" s="32"/>
       <c r="Y60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z60" s="99" t="s">
+      <c r="Z60" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="AA60" s="100"/>
-      <c r="AB60" s="101"/>
+      <c r="AA60" s="103"/>
+      <c r="AB60" s="104"/>
       <c r="AC60" s="34">
         <f>AC58-AC53</f>
-        <v>1674254720</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145123520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="99" t="s">
+      <c r="B61" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="100"/>
-      <c r="D61" s="101"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="104"/>
       <c r="E61" s="33">
         <f>E60/E13</f>
-        <v>7.701025371118396E-2</v>
+        <v>7.4870795494406978E-2</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="99" t="s">
+      <c r="H61" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="100"/>
-      <c r="J61" s="101"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="104"/>
       <c r="K61" s="33">
         <f>K60/K13</f>
-        <v>-0.21959129239584632</v>
+        <v>-0.17612565615392251</v>
       </c>
       <c r="L61" s="32"/>
       <c r="M61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="99" t="s">
+      <c r="N61" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="O61" s="100"/>
-      <c r="P61" s="101"/>
+      <c r="O61" s="103"/>
+      <c r="P61" s="104"/>
       <c r="Q61" s="33">
         <f>Q60/Q13</f>
-        <v>-2.1524259944539843E-3</v>
+        <v>8.2688817989736429E-3</v>
       </c>
       <c r="R61" s="32"/>
       <c r="S61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="99" t="s">
+      <c r="T61" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="U61" s="100"/>
-      <c r="V61" s="101"/>
+      <c r="U61" s="103"/>
+      <c r="V61" s="104"/>
       <c r="W61" s="33">
         <f>W60/W13</f>
-        <v>4.4158761086022229E-2</v>
+        <v>3.6832099660553813E-2</v>
       </c>
       <c r="X61" s="32"/>
       <c r="Y61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Z61" s="99" t="s">
+      <c r="Z61" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="AA61" s="100"/>
-      <c r="AB61" s="101"/>
+      <c r="AA61" s="103"/>
+      <c r="AB61" s="104"/>
       <c r="AC61" s="33">
         <f>AC60/AC13</f>
-        <v>5.4661659889303799E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.3359294808493677E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>53</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="D62" s="28"/>
       <c r="E62" s="33">
         <f>E60/Variables!$B$7</f>
-        <v>0.12144439999999999</v>
+        <v>0.13446720000000001</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="31" t="s">
@@ -5208,8 +5208,8 @@
       <c r="I62" s="29"/>
       <c r="J62" s="28"/>
       <c r="K62" s="33">
-        <f>K60/Variables!$B$7</f>
-        <v>-1.6235161600000001</v>
+        <f>K60/(K13)</f>
+        <v>-0.17612565615392251</v>
       </c>
       <c r="L62" s="32"/>
       <c r="M62" s="31" t="s">
@@ -5221,8 +5221,8 @@
       <c r="O62" s="29"/>
       <c r="P62" s="28"/>
       <c r="Q62" s="33">
-        <f>Q60/Variables!$B$7</f>
-        <v>-3.1672319999999997E-2</v>
+        <f>Q60/(Q13)</f>
+        <v>8.2688817989736429E-3</v>
       </c>
       <c r="R62" s="32"/>
       <c r="S62" s="31" t="s">
@@ -5234,8 +5234,8 @@
       <c r="U62" s="29"/>
       <c r="V62" s="28"/>
       <c r="W62" s="33">
-        <f>W60/Variables!$B$7</f>
-        <v>1.37905232</v>
+        <f>W60/(W13)</f>
+        <v>3.6832099660553813E-2</v>
       </c>
       <c r="X62" s="32"/>
       <c r="Y62" s="31" t="s">
@@ -5247,115 +5247,277 @@
       <c r="AA62" s="29"/>
       <c r="AB62" s="28"/>
       <c r="AC62" s="33">
-        <f>AC60/Variables!$B$7</f>
-        <v>3.3485094399999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>AC60/AC13</f>
+        <v>2.3359294808493677E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="99" t="s">
+      <c r="B63" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="100"/>
-      <c r="D63" s="101"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="104"/>
       <c r="E63" s="33">
         <f>E60/(Variables!$B$5+E47)</f>
-        <v>0.10489963030784645</v>
+        <v>5.3943964825572066E-2</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="99" t="s">
+      <c r="H63" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="100"/>
-      <c r="J63" s="101"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="104"/>
       <c r="K63" s="33">
-        <f>-K60/(K47)</f>
-        <v>-0.64310506334729789</v>
+        <f>K60/(K47)</f>
+        <v>-0.77956945057899485</v>
       </c>
       <c r="L63" s="32"/>
       <c r="M63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="99" t="s">
+      <c r="N63" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="O63" s="100"/>
-      <c r="P63" s="101"/>
+      <c r="O63" s="103"/>
+      <c r="P63" s="104"/>
       <c r="Q63" s="33">
-        <f>-Q60/(Q47)</f>
-        <v>-0.96</v>
+        <f>Q60/(Q47)</f>
+        <v>6.187667989248688E-2</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="99" t="s">
+      <c r="T63" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="100"/>
-      <c r="V63" s="101"/>
+      <c r="U63" s="103"/>
+      <c r="V63" s="104"/>
       <c r="W63" s="33">
-        <f>-W60/(W47)</f>
-        <v>-1.833807153039297</v>
+        <f>W60/(W47)</f>
+        <v>0.19293118424862465</v>
       </c>
       <c r="X63" s="32"/>
       <c r="Y63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Z63" s="99" t="s">
+      <c r="Z63" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="AA63" s="100"/>
-      <c r="AB63" s="101"/>
+      <c r="AA63" s="103"/>
+      <c r="AB63" s="104"/>
       <c r="AC63" s="33">
-        <f>-AC60/(AC47)</f>
-        <v>-1.2000655993394191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f>AC60/(AC47)</f>
+        <v>0.11237236846588182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="101"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="104"/>
       <c r="E64" s="27"/>
       <c r="F64" s="32"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="101"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="104"/>
       <c r="K64" s="27"/>
       <c r="L64" s="32"/>
       <c r="M64" s="31"/>
-      <c r="N64" s="99"/>
-      <c r="O64" s="100"/>
-      <c r="P64" s="101"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="104"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="32"/>
       <c r="S64" s="31"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="100"/>
-      <c r="V64" s="101"/>
+      <c r="T64" s="102"/>
+      <c r="U64" s="103"/>
+      <c r="V64" s="104"/>
       <c r="W64" s="27"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="31"/>
-      <c r="Z64" s="99"/>
-      <c r="AA64" s="100"/>
-      <c r="AB64" s="101"/>
+      <c r="Z64" s="102"/>
+      <c r="AA64" s="103"/>
+      <c r="AB64" s="104"/>
       <c r="AC64" s="27"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E66" s="26"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D68" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="186">
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="Z42:AA43"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="Z15:Z40"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AA22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="Z5:Z9"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y15:Y44"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA24:AA39"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S49:S52"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="S15:S44"/>
+    <mergeCell ref="T15:T40"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:U22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="M15:M44"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="N15:N40"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:O22"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="O24:O39"/>
+    <mergeCell ref="I24:I39"/>
+    <mergeCell ref="C24:C39"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A15:A44"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G15:G44"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:B9"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M5:M12"/>
@@ -5380,167 +5542,6 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G15:G44"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A15:A44"/>
-    <mergeCell ref="B15:B40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="N15:N40"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:O22"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="O24:O39"/>
-    <mergeCell ref="I24:I39"/>
-    <mergeCell ref="C24:C39"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:O43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="M15:M44"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="S49:S52"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="S15:S44"/>
-    <mergeCell ref="T15:T40"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:U22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:U43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="U24:U39"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="S55:W55"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="Z15:Z40"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AA22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="Y5:Y12"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y15:Y44"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA24:AA39"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="Z42:AA43"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Y47:AB47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5550,11 +5551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E296ED8-53DC-4876-A8E1-0DB56E98A3CB}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -5585,7 +5586,7 @@
     <col min="29" max="29" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>Variables!A1</f>
         <v>Arquitectura Empresarial</v>
@@ -5596,7 +5597,7 @@
       <c r="Q1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5606,7 +5607,7 @@
       <c r="Q2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -5633,7 +5634,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5658,111 +5659,111 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="121"/>
+      <c r="C5" s="125"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="121"/>
+      <c r="K5" s="125"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="121" t="s">
+      <c r="N5" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="121"/>
+      <c r="O5" s="125"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="121" t="s">
+      <c r="R5" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="121"/>
+      <c r="S5" s="125"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="121" t="s">
+      <c r="V5" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="121"/>
-    </row>
-    <row r="6" spans="1:29" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="W5" s="125"/>
+    </row>
+    <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="122">
+      <c r="B6" s="124">
         <f>C13-C20</f>
         <v>500000000</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="124"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="124">
         <f>(B6*(1-Variables!B24))+G25</f>
-        <v>558860000</v>
-      </c>
-      <c r="G6" s="122"/>
+        <v>721360000</v>
+      </c>
+      <c r="G6" s="124"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="124">
         <f>(F6*(1-Variables!B24))+K25</f>
-        <v>-725742400</v>
-      </c>
-      <c r="K6" s="122"/>
+        <v>400516000</v>
+      </c>
+      <c r="K6" s="124"/>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="122">
+      <c r="N6" s="124">
         <f>(J6*(1-Variables!B24))+O25</f>
-        <v>-713208704</v>
-      </c>
-      <c r="O6" s="122"/>
+        <v>508938200</v>
+      </c>
+      <c r="O6" s="124"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="122">
+      <c r="R6" s="124">
         <f>(N6*(1-Variables!B24))+S25</f>
-        <v>-308672355.84000003</v>
-      </c>
-      <c r="S6" s="122"/>
+        <v>767339290</v>
+      </c>
+      <c r="S6" s="124"/>
       <c r="T6" s="3"/>
       <c r="U6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="122">
+      <c r="V6" s="124">
         <f>(R6*(1-Variables!B24))+W25</f>
-        <v>1098810538.3936</v>
-      </c>
-      <c r="W6" s="122"/>
-    </row>
-    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1191544325.5</v>
+      </c>
+      <c r="W6" s="124"/>
+    </row>
+    <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5787,8 +5788,8 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="123" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="126" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5798,7 +5799,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="126" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -5808,7 +5809,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="126" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -5818,7 +5819,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="123" t="s">
+      <c r="M8" s="126" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5828,7 +5829,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="123" t="s">
+      <c r="Q8" s="126" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5838,7 +5839,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="123" t="s">
+      <c r="U8" s="126" t="s">
         <v>72</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -5848,8 +5849,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="124"/>
+    <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="127"/>
       <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
@@ -5858,128 +5859,125 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="124"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <f>'Ingresos &amp; egresos'!E47</f>
-        <v>78860000</v>
+        <f>'Ingresos &amp; egresos'!E58</f>
+        <v>246360000</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="I9" s="127"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="5">
-        <f>'Ingresos &amp; egresos'!K47</f>
-        <v>-1262248000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="124"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="5">
-        <f>'Ingresos &amp; egresos'!Q47</f>
-        <v>-16496000</v>
+        <f>'Ingresos &amp; egresos'!Q13-'Ingresos &amp; egresos'!Q41</f>
+        <v>218448000</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="124"/>
+      <c r="Q9" s="127"/>
       <c r="R9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="5">
-        <f>'Ingresos &amp; egresos'!W47</f>
-        <v>376008000</v>
+        <f>'Ingresos &amp; egresos'!W13-'Ingresos &amp; egresos'!W45</f>
+        <v>328848000</v>
       </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="124"/>
+      <c r="U9" s="127"/>
       <c r="V9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="5">
-        <f>'Ingresos &amp; egresos'!AC47</f>
-        <v>1395136000</v>
-      </c>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
-    </row>
-    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="124"/>
+        <f>'Ingresos &amp; egresos'!AC13-'Ingresos &amp; egresos'!AC45</f>
+        <v>462572000</v>
+      </c>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="120"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="127"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="124"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="124"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="12"/>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="124"/>
+      <c r="M10" s="127"/>
       <c r="N10" s="12"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="124"/>
+      <c r="Q10" s="127"/>
       <c r="R10" s="12"/>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="124"/>
+      <c r="U10" s="127"/>
       <c r="V10" s="12"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="121"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="124"/>
+    <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="127"/>
       <c r="B11" s="12"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="124"/>
+      <c r="E11" s="127"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="124"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="12"/>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="124"/>
+      <c r="M11" s="127"/>
       <c r="N11" s="12"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="124"/>
+      <c r="Q11" s="127"/>
       <c r="R11" s="12"/>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="124"/>
+      <c r="U11" s="127"/>
       <c r="V11" s="12"/>
       <c r="W11" s="5">
         <v>0</v>
@@ -5989,38 +5987,38 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="86"/>
     </row>
-    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="128"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="125"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="12"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="125"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="125"/>
+      <c r="M12" s="128"/>
       <c r="N12" s="12"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="125"/>
+      <c r="Q12" s="128"/>
       <c r="R12" s="12"/>
       <c r="S12" s="5">
         <v>0</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="125"/>
+      <c r="U12" s="128"/>
       <c r="V12" s="12"/>
       <c r="W12" s="5">
         <v>0</v>
@@ -6030,7 +6028,7 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9">
@@ -6042,42 +6040,42 @@
       <c r="F13" s="7"/>
       <c r="G13" s="9">
         <f>SUM(G9:G12)</f>
-        <v>78860000</v>
+        <v>246360000</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="7"/>
       <c r="K13" s="9">
         <f>SUM(K9:K12)</f>
-        <v>-1262248000</v>
+        <v>0</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="3"/>
       <c r="N13" s="7"/>
       <c r="O13" s="9">
         <f>SUM(O9:O12)</f>
-        <v>-16496000</v>
+        <v>218448000</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
       <c r="S13" s="9">
         <f>SUM(S9:S12)</f>
-        <v>376008000</v>
+        <v>328848000</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="3"/>
       <c r="V13" s="7"/>
       <c r="W13" s="9">
         <f>SUM(W9:W12)</f>
-        <v>1395136000</v>
+        <v>462572000</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="85"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="86"/>
     </row>
-    <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -6105,8 +6103,8 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="86"/>
     </row>
-    <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="123" t="s">
+    <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="126" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -6116,7 +6114,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="126" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6126,7 +6124,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="126" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -6136,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="123" t="s">
+      <c r="M15" s="126" t="s">
         <v>76</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -6146,7 +6144,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="123" t="s">
+      <c r="Q15" s="126" t="s">
         <v>77</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -6156,7 +6154,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="123" t="s">
+      <c r="U15" s="126" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -6169,38 +6167,47 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="86"/>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="124"/>
+    <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="127"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="127"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="12"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="K16" s="5">
-        <v>0</v>
+        <f>'Ingresos &amp; egresos'!K42-'Ingresos &amp; egresos'!K49</f>
+        <v>135000000</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="12"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="O16" s="5">
-        <v>0</v>
+        <f>K16-'Ingresos &amp; egresos'!Q49</f>
+        <v>90000000</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="12"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="S16" s="5">
-        <v>0</v>
+        <f>O16-'Ingresos &amp; egresos'!W49</f>
+        <v>45000000</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="124"/>
+      <c r="U16" s="127"/>
       <c r="V16" s="12"/>
       <c r="W16" s="5">
         <v>0</v>
@@ -6209,79 +6216,82 @@
       <c r="AB16" s="6"/>
       <c r="AC16" s="86"/>
     </row>
-    <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="124"/>
+    <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="127"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="127"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="12"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="K17" s="5">
-        <v>0</v>
+        <f>('Ingresos &amp; egresos'!K13-'Ingresos &amp; egresos'!K41)*-1</f>
+        <v>149776000</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="124"/>
+      <c r="M17" s="127"/>
       <c r="N17" s="12"/>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="124"/>
+      <c r="Q17" s="127"/>
       <c r="R17" s="12"/>
       <c r="S17" s="5">
         <v>0</v>
       </c>
       <c r="T17" s="8"/>
-      <c r="U17" s="124"/>
+      <c r="U17" s="127"/>
       <c r="V17" s="12"/>
       <c r="W17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="129"/>
-    </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+    </row>
+    <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="127"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="127"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="124"/>
+      <c r="I18" s="127"/>
       <c r="J18" s="12"/>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="124"/>
+      <c r="M18" s="127"/>
       <c r="N18" s="12"/>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="124"/>
+      <c r="Q18" s="127"/>
       <c r="R18" s="12"/>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="124"/>
+      <c r="U18" s="127"/>
       <c r="V18" s="12"/>
       <c r="W18" s="5">
         <v>0</v>
@@ -6291,38 +6301,38 @@
       <c r="AB18" s="6"/>
       <c r="AC18" s="86"/>
     </row>
-    <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="125"/>
+    <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="128"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="125"/>
+      <c r="E19" s="128"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="125"/>
+      <c r="I19" s="128"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="125"/>
+      <c r="M19" s="128"/>
       <c r="N19" s="12"/>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="125"/>
+      <c r="Q19" s="128"/>
       <c r="R19" s="12"/>
       <c r="S19" s="5">
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
-      <c r="U19" s="125"/>
+      <c r="U19" s="128"/>
       <c r="V19" s="12"/>
       <c r="W19" s="5">
         <v>0</v>
@@ -6331,7 +6341,7 @@
       <c r="AA19" s="85"/>
       <c r="AC19" s="86"/>
     </row>
-    <row r="20" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9">
@@ -6350,21 +6360,21 @@
       <c r="J20" s="7"/>
       <c r="K20" s="9">
         <f>SUM(K16:K19)</f>
-        <v>0</v>
+        <v>284776000</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="3"/>
       <c r="N20" s="7"/>
       <c r="O20" s="9">
         <f>SUM(O16:O19)</f>
-        <v>0</v>
+        <v>90000000</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="7"/>
       <c r="S20" s="9">
         <f>SUM(S16:S19)</f>
-        <v>0</v>
+        <v>45000000</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="3"/>
@@ -6378,7 +6388,7 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="86"/>
     </row>
-    <row r="21" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -6406,46 +6416,46 @@
       <c r="AA21" s="85"/>
       <c r="AC21" s="86"/>
     </row>
-    <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="126" t="s">
+    <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="126" t="s">
+      <c r="I22" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="126" t="s">
+      <c r="M22" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="126" t="s">
+      <c r="Q22" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="126" t="s">
+      <c r="U22" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-    </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+    </row>
+    <row r="23" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>80</v>
       </c>
@@ -6474,9 +6484,9 @@
       <c r="J23" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="17" t="e">
         <f>K20/K13</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="11" t="s">
@@ -6487,7 +6497,7 @@
       </c>
       <c r="O23" s="17">
         <f>O20/O13</f>
-        <v>0</v>
+        <v>0.41199736321687541</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="11" t="s">
@@ -6498,7 +6508,7 @@
       </c>
       <c r="S23" s="17">
         <f>S20/S13</f>
-        <v>0</v>
+        <v>0.13684133703109036</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="11" t="s">
@@ -6513,7 +6523,7 @@
       </c>
       <c r="AC23" s="87"/>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
@@ -6544,7 +6554,7 @@
       </c>
       <c r="K24" s="18">
         <f>K16/J6</f>
-        <v>0</v>
+        <v>0.33706518591017587</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="11" t="s">
@@ -6555,7 +6565,7 @@
       </c>
       <c r="O24" s="18">
         <f>O16/N6</f>
-        <v>0</v>
+        <v>0.17683875959792367</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="11" t="s">
@@ -6566,7 +6576,7 @@
       </c>
       <c r="S24" s="18">
         <f>S16/R6</f>
-        <v>0</v>
+        <v>5.8644201576072037E-2</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="11" t="s">
@@ -6581,7 +6591,7 @@
       </c>
       <c r="AA24" s="85"/>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="13" t="s">
         <v>84</v>
@@ -6596,7 +6606,7 @@
       </c>
       <c r="G25" s="5">
         <f>G13-G20</f>
-        <v>78860000</v>
+        <v>246360000</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="11"/>
@@ -6605,7 +6615,7 @@
       </c>
       <c r="K25" s="5">
         <f>K13-K20</f>
-        <v>-1262248000</v>
+        <v>-284776000</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
@@ -6614,7 +6624,7 @@
       </c>
       <c r="O25" s="5">
         <f>O13-O20</f>
-        <v>-16496000</v>
+        <v>128448000</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="11"/>
@@ -6623,7 +6633,7 @@
       </c>
       <c r="S25" s="5">
         <f>S13-S20</f>
-        <v>376008000</v>
+        <v>283848000</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="11"/>
@@ -6632,14 +6642,14 @@
       </c>
       <c r="W25" s="5">
         <f>W13-W20</f>
-        <v>1395136000</v>
+        <v>462572000</v>
       </c>
       <c r="Z25" s="88"/>
       <c r="AA25" s="89"/>
       <c r="AB25" s="88"/>
       <c r="AC25" s="90"/>
     </row>
-    <row r="26" spans="1:29" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="13" t="s">
         <v>85</v>
@@ -6654,7 +6664,7 @@
       </c>
       <c r="G26" s="5">
         <f>G25+C26</f>
-        <v>78860000</v>
+        <v>246360000</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="11"/>
@@ -6663,7 +6673,7 @@
       </c>
       <c r="K26" s="5">
         <f>G26+K25</f>
-        <v>-1183388000</v>
+        <v>-38416000</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="11"/>
@@ -6672,7 +6682,7 @@
       </c>
       <c r="O26" s="5">
         <f>K26+O25</f>
-        <v>-1199884000</v>
+        <v>90032000</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="11"/>
@@ -6681,7 +6691,7 @@
       </c>
       <c r="S26" s="5">
         <f>O26+S25</f>
-        <v>-823876000</v>
+        <v>373880000</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="11"/>
@@ -6690,20 +6700,30 @@
       </c>
       <c r="W26" s="5">
         <f>S26+W25</f>
-        <v>571260000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+        <v>836452000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B29" s="84"/>
       <c r="J29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="Q15:Q19"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B6:C6"/>
@@ -6720,21 +6740,11 @@
     <mergeCell ref="M8:M12"/>
     <mergeCell ref="M15:M19"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="Q15:Q19"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HT-6/Optica Modelo Financiero.xlsx
+++ b/HT-6/Optica Modelo Financiero.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE97A7AE-AAC2-4F99-B80B-2D0269CED516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470EED9-F215-4BC1-8C2F-C3E5D3052E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
     <sheet name="Ingresos &amp; egresos" sheetId="6" r:id="rId2"/>
     <sheet name="Balance" sheetId="5" r:id="rId3"/>
+    <sheet name="ROI e inversion" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Interés_bancario_por_ahorros">Variables!#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="194">
   <si>
     <t>Arquitectura Empresarial</t>
   </si>
@@ -517,9 +518,6 @@
     <t>Licencia software contable por equipo (microsoft 365 Business standard)</t>
   </si>
   <si>
-    <t>Valor arriendo de un local annual</t>
-  </si>
-  <si>
     <t>Remodelaciones de local nuevo</t>
   </si>
   <si>
@@ -596,6 +594,48 @@
   </si>
   <si>
     <t>Nota: en estos patrimonios no se tiene en cuenta la depreciación</t>
+  </si>
+  <si>
+    <t>Inversión en publicidad</t>
+  </si>
+  <si>
+    <t>Resumen acciones estratégicas</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Expansión de planta</t>
+  </si>
+  <si>
+    <t>Creación sistema digital</t>
+  </si>
+  <si>
+    <t>Envío por pedidos canal digital</t>
+  </si>
+  <si>
+    <t>Mantenimiento del servidor</t>
+  </si>
+  <si>
+    <t>Valor arriendo de un local anual</t>
+  </si>
+  <si>
+    <t>Remodelación de sedes</t>
+  </si>
+  <si>
+    <t>Arriendo nuevos locales</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Capital final</t>
+  </si>
+  <si>
+    <t>ROI</t>
   </si>
 </sst>
 </file>
@@ -613,7 +653,7 @@
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +706,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -872,7 +919,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1086,18 +1133,66 @@
     <xf numFmtId="166" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,92 +1202,69 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1518,7 +1590,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1648,7 @@
         <v>500000000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="96"/>
+      <c r="D5" s="97"/>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
@@ -1586,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="96"/>
+      <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
@@ -1596,7 +1668,7 @@
         <v>500000000</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="96"/>
+      <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -1678,7 +1750,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="59"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="95"/>
+      <c r="D17" s="96"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
@@ -1686,7 +1758,7 @@
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="95"/>
+      <c r="D18" s="96"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
@@ -1696,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="95"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
@@ -1706,7 +1778,7 @@
         <v>7500000</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="95"/>
+      <c r="D20" s="96"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
@@ -1716,7 +1788,7 @@
         <v>1000000</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="95"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="50" t="s">
@@ -1726,7 +1798,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="95"/>
+      <c r="D22" s="96"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
@@ -1736,7 +1808,7 @@
         <v>0.19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="95"/>
+      <c r="D23" s="96"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
@@ -1750,7 +1822,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="78">
         <f>1/4</f>
@@ -1761,7 +1833,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="78">
         <f>1/6</f>
@@ -1782,19 +1854,19 @@
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="68">
-        <v>150000000</v>
+        <v>50000000</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="57"/>
     </row>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="129">
+        <v>176</v>
+      </c>
+      <c r="B29" s="95">
         <v>5000000</v>
       </c>
       <c r="C29" s="2"/>
@@ -1802,7 +1874,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="92">
         <v>2</v>
@@ -1812,7 +1884,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="68">
         <v>50000000</v>
@@ -1822,9 +1894,9 @@
     </row>
     <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="129">
+        <v>175</v>
+      </c>
+      <c r="B32" s="95">
         <v>10000000</v>
       </c>
       <c r="C32" s="2"/>
@@ -1832,7 +1904,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="68">
         <v>15000000</v>
@@ -1859,7 +1931,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="19">
         <v>1000000</v>
@@ -1951,7 +2023,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B47" s="19">
         <f>120000*365</f>
@@ -1986,7 +2058,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B51" s="19">
         <v>90000000</v>
@@ -2032,7 +2104,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="91">
         <v>30000</v>
@@ -2040,7 +2112,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" s="92">
         <v>50</v>
@@ -2048,7 +2120,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" s="92">
         <v>2</v>
@@ -2098,7 +2170,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B67" s="21">
         <v>250</v>
@@ -2106,7 +2178,7 @@
     </row>
     <row r="68" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B68" s="21">
         <v>2</v>
@@ -2114,7 +2186,7 @@
     </row>
     <row r="69" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B69" s="22">
         <v>50</v>
@@ -2185,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4764C-DEDE-C149-BFDF-F902BA43F941}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" topLeftCell="N12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2300,510 +2372,510 @@
       <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="98" t="s">
+      <c r="I5" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="112"/>
       <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="99" t="s">
+      <c r="N5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="98" t="s">
+      <c r="O5" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="98"/>
+      <c r="P5" s="112"/>
       <c r="Q5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="R5" s="24"/>
-      <c r="S5" s="98" t="s">
+      <c r="S5" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="99" t="s">
+      <c r="T5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="98" t="s">
+      <c r="U5" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="98"/>
+      <c r="V5" s="112"/>
       <c r="W5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="X5" s="24"/>
-      <c r="Y5" s="98" t="s">
+      <c r="Y5" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="99" t="s">
+      <c r="Z5" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="98" t="s">
+      <c r="AA5" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="98"/>
+      <c r="AB5" s="112"/>
       <c r="AC5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="105" t="s">
+      <c r="A6" s="112"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="105"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="34">
         <f>Variables!$B$57*Variables!$B$65</f>
         <v>8395000</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="105" t="s">
+      <c r="G6" s="112"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="105"/>
+      <c r="J6" s="113"/>
       <c r="K6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30</f>
         <v>18469000</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="105" t="s">
+      <c r="M6" s="112"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="105"/>
+      <c r="P6" s="113"/>
       <c r="Q6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*2</f>
         <v>36938000</v>
       </c>
       <c r="R6" s="24"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="105" t="s">
+      <c r="S6" s="112"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="105"/>
+      <c r="V6" s="113"/>
       <c r="W6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*2</f>
         <v>36938000</v>
       </c>
       <c r="X6" s="24"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="105" t="s">
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="116"/>
+      <c r="AA6" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="105"/>
+      <c r="AB6" s="113"/>
       <c r="AC6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*3</f>
         <v>55407000</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="105" t="s">
+      <c r="A7" s="112"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="34">
         <f>Variables!$B$66*Variables!$B$58</f>
         <v>51100000</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="105" t="s">
+      <c r="G7" s="112"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="105"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30</f>
         <v>112420000.00000001</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="105" t="s">
+      <c r="M7" s="112"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="105"/>
+      <c r="P7" s="113"/>
       <c r="Q7" s="34">
         <f>Variables!B66*Variables!B58*(1+Variables!B22)*Variables!B30*2</f>
         <v>224840000.00000003</v>
       </c>
       <c r="R7" s="24"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="105" t="s">
+      <c r="S7" s="112"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="105"/>
+      <c r="V7" s="113"/>
       <c r="W7" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*2</f>
         <v>224840000.00000003</v>
       </c>
       <c r="X7" s="24"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="105" t="s">
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="105"/>
+      <c r="AB7" s="113"/>
       <c r="AC7" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*3</f>
         <v>337260000.00000006</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="105" t="s">
+      <c r="A8" s="112"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="105"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="34">
         <f>(Variables!B64)*Variables!B56*6/5</f>
         <v>657000000</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="105" t="s">
+      <c r="G8" s="112"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="105"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="34">
         <f>(Variables!B64+Variables!B69)*Variables!B56*Variables!B30</f>
         <v>1170000000</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="105" t="s">
+      <c r="M8" s="112"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="105"/>
+      <c r="P8" s="113"/>
       <c r="Q8" s="34">
         <f>(Variables!B64+(2*Variables!B69))*Variables!B56*Variables!B30*2</f>
         <v>2490000000</v>
       </c>
       <c r="R8" s="24"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="105" t="s">
+      <c r="S8" s="112"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="105"/>
+      <c r="V8" s="113"/>
       <c r="W8" s="34">
         <f>(Variables!B64+(3*Variables!B69))*Variables!B56*Variables!B30*2</f>
         <v>2640000000</v>
       </c>
       <c r="X8" s="24"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="105" t="s">
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="105"/>
+      <c r="AB8" s="113"/>
       <c r="AC8" s="34">
         <f>(Variables!B64+(3*Variables!B69))*Variables!B56*Variables!B30*3</f>
         <v>3960000000</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="105" t="s">
+      <c r="A9" s="112"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="105"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="34">
         <f>(Variables!B63)*Variables!B55</f>
         <v>180000000</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="105" t="s">
+      <c r="G9" s="112"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="105"/>
+      <c r="J9" s="113"/>
       <c r="K9" s="34">
         <f>(Variables!B63+Variables!B69+Variables!B67)*Variables!B55*Variables!B30</f>
         <v>540000000</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="105" t="s">
+      <c r="M9" s="112"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="105"/>
+      <c r="P9" s="113"/>
       <c r="Q9" s="34">
         <f>((Variables!B63+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68)*Variables!B55</f>
         <v>990000000</v>
       </c>
       <c r="R9" s="24"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="105" t="s">
+      <c r="S9" s="112"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="105"/>
+      <c r="V9" s="113"/>
       <c r="W9" s="34">
         <f>((Variables!B63+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^3)*Variables!B55</f>
         <v>1440000000</v>
       </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="105" t="s">
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="105"/>
+      <c r="AB9" s="113"/>
       <c r="AC9" s="34">
         <f>((Variables!B63+(2*Variables!B69))*Variables!B30*3+Variables!B67*Variables!B68^3)*Variables!B55</f>
         <v>1860000000</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="106" t="s">
+      <c r="A10" s="112"/>
+      <c r="B10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="37">
         <f>SUM(E6:E9)</f>
         <v>896495000</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="106" t="s">
+      <c r="G10" s="112"/>
+      <c r="H10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="107"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="106"/>
       <c r="K10" s="37">
         <f>SUM(K6:K9)</f>
         <v>1840889000</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="106" t="s">
+      <c r="M10" s="112"/>
+      <c r="N10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="107"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="106"/>
       <c r="Q10" s="37">
         <f>SUM(Q6:Q9)</f>
         <v>3741778000</v>
       </c>
       <c r="R10" s="24"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="106" t="s">
+      <c r="S10" s="112"/>
+      <c r="T10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="108"/>
-      <c r="V10" s="107"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="37">
         <f>SUM(W6:W9)</f>
         <v>4341778000</v>
       </c>
       <c r="X10" s="24"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="106" t="s">
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="107"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="106"/>
       <c r="AC10" s="37">
         <f>SUM(AC6:AC9)</f>
         <v>6212667000</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="105"/>
+      <c r="C11" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="113"/>
       <c r="E11" s="34">
         <f>Variables!B60*Variables!B59</f>
         <v>1500000</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="98"/>
+      <c r="G11" s="112"/>
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="105"/>
+      <c r="I11" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="113"/>
       <c r="K11" s="34">
         <f>Variables!B59*Variables!B60*Variables!B61</f>
         <v>3000000</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="98"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="98"/>
+      <c r="S11" s="112"/>
       <c r="T11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="105"/>
-      <c r="V11" s="105"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
       <c r="W11" s="34"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="98"/>
+      <c r="Y11" s="112"/>
       <c r="Z11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="105"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="106" t="s">
+      <c r="A12" s="112"/>
+      <c r="B12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="107"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="37">
         <f>SUM(E11:E11)</f>
         <v>1500000</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="106" t="s">
+      <c r="G12" s="112"/>
+      <c r="H12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="108"/>
-      <c r="J12" s="107"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="37">
         <f>SUM(K11:K11)</f>
         <v>3000000</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="106" t="s">
+      <c r="M12" s="112"/>
+      <c r="N12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="108"/>
-      <c r="P12" s="107"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="106"/>
       <c r="Q12" s="37">
         <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="106" t="s">
+      <c r="S12" s="112"/>
+      <c r="T12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="108"/>
-      <c r="V12" s="107"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="106"/>
       <c r="W12" s="37">
         <f>SUM(W11:W11)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="106" t="s">
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="107"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="106"/>
       <c r="AC12" s="37">
         <f>SUM(AC11:AC11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="37">
         <f>E10+E12</f>
         <v>897995000</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
       <c r="K13" s="37">
         <f>K10+K12</f>
         <v>1843889000</v>
       </c>
-      <c r="M13" s="97" t="s">
+      <c r="M13" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
       <c r="Q13" s="37">
         <f>Q10+Q12</f>
         <v>3741778000</v>
       </c>
-      <c r="S13" s="97" t="s">
+      <c r="S13" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
       <c r="W13" s="37">
         <f>W10+W12</f>
         <v>4341778000</v>
       </c>
-      <c r="Y13" s="97" t="s">
+      <c r="Y13" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
+      <c r="Z13" s="111"/>
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
       <c r="AC13" s="37">
         <f>AC10+AC12</f>
         <v>6212667000</v>
@@ -2837,76 +2909,76 @@
       <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="98"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="99" t="s">
+      <c r="H15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="98" t="s">
+      <c r="I15" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="98"/>
+      <c r="J15" s="112"/>
       <c r="K15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="99" t="s">
+      <c r="M15" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="99" t="s">
+      <c r="N15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="98" t="s">
+      <c r="O15" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="98"/>
+      <c r="P15" s="112"/>
       <c r="Q15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="99" t="s">
+      <c r="S15" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="99" t="s">
+      <c r="T15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="98" t="s">
+      <c r="U15" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="98"/>
+      <c r="V15" s="112"/>
       <c r="W15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="99" t="s">
+      <c r="Y15" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="99" t="s">
+      <c r="Z15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="98" t="s">
+      <c r="AA15" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="98"/>
+      <c r="AB15" s="112"/>
       <c r="AC15" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="99" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="115" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2916,9 +2988,9 @@
         <f>(Variables!$B$12)*Variables!B15</f>
         <v>99000000</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="99" t="s">
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="115" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="43" t="s">
@@ -2928,9 +3000,9 @@
         <f>((Variables!$B$12+Variables!B69)*Variables!B30+Variables!B67)*Variables!B15</f>
         <v>250500000</v>
       </c>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="99" t="s">
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="115" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="43" t="s">
@@ -2940,9 +3012,9 @@
         <f>(((Variables!$B$12+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^2))*Variables!B15</f>
         <v>606000000</v>
       </c>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="99" t="s">
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="115" t="s">
         <v>26</v>
       </c>
       <c r="V16" s="74" t="s">
@@ -2952,9 +3024,9 @@
         <f>(((Variables!$B$12+(3*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^3))*Variables!B15</f>
         <v>786000000</v>
       </c>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="99" t="s">
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="115" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="74" t="s">
@@ -2966,9 +3038,9 @@
       </c>
     </row>
     <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2976,9 +3048,9 @@
         <f>Variables!B13*Variables!B64</f>
         <v>328500000</v>
       </c>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
       <c r="J17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2986,9 +3058,9 @@
         <f>(Variables!B64+Variables!B69)*Variables!B13*Variables!B30</f>
         <v>702000000</v>
       </c>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
       <c r="P17" s="43" t="s">
         <v>127</v>
       </c>
@@ -2996,9 +3068,9 @@
         <f>(Variables!B64+(2*Variables!B69))*Variables!B13*Variables!B30*2</f>
         <v>1494000000</v>
       </c>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
       <c r="V17" s="75" t="s">
         <v>127</v>
       </c>
@@ -3006,9 +3078,9 @@
         <f>(Variables!B64+(3*Variables!B69))*Variables!B13*Variables!B30*2</f>
         <v>1584000000</v>
       </c>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
       <c r="AB17" s="75" t="s">
         <v>127</v>
       </c>
@@ -3018,9 +3090,9 @@
       </c>
     </row>
     <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3028,9 +3100,9 @@
         <f>Variables!B65*Variables!B14</f>
         <v>5475000</v>
       </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
       <c r="J18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3038,9 +3110,9 @@
         <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30</f>
         <v>12045000.000000002</v>
       </c>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3048,9 +3120,9 @@
         <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30*2</f>
         <v>24090000.000000004</v>
       </c>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="100"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
       <c r="V18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3058,9 +3130,9 @@
         <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30*2</f>
         <v>24090000.000000004</v>
       </c>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
       <c r="AB18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3070,208 +3142,208 @@
       </c>
     </row>
     <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="39"/>
       <c r="E19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
       <c r="K19" s="48">
         <v>0</v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
       <c r="V19" s="39"/>
       <c r="W19" s="48">
         <v>0</v>
       </c>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="100"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="39"/>
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
       <c r="J20" s="39"/>
       <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="34">
         <v>0</v>
       </c>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34">
         <v>0</v>
       </c>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="39"/>
       <c r="E21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
       <c r="J21" s="39"/>
       <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34">
         <v>0</v>
       </c>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="39"/>
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="117"/>
       <c r="J22" s="39"/>
       <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="101"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="117"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="34">
         <v>0</v>
       </c>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="101"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="117"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100"/>
-      <c r="AA22" s="101"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="117"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="106" t="s">
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="107"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="37">
         <f>SUM(E16:E22)</f>
         <v>432975000</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="106" t="s">
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="107"/>
+      <c r="J23" s="106"/>
       <c r="K23" s="37">
         <f>SUM(K16:K22)</f>
         <v>964545000</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="106" t="s">
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="107"/>
+      <c r="P23" s="106"/>
       <c r="Q23" s="37">
         <f>SUM(Q16:Q22)</f>
         <v>2124090000</v>
       </c>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="106" t="s">
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="107"/>
+      <c r="V23" s="106"/>
       <c r="W23" s="37">
         <f>SUM(W16:W22)</f>
         <v>2394090000</v>
       </c>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="106" t="s">
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="107"/>
+      <c r="AB23" s="106"/>
       <c r="AC23" s="37">
         <f>SUM(AC16:AC22)</f>
         <v>3741135000</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="99" t="s">
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="115" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="81" t="s">
@@ -3281,9 +3353,9 @@
         <f>Variables!B39</f>
         <v>16800000</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="99" t="s">
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="115" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="81" t="s">
@@ -3293,9 +3365,9 @@
         <f>Variables!$B$39*Variables!$B$30*1</f>
         <v>33600000</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="99" t="s">
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="115" t="s">
         <v>29</v>
       </c>
       <c r="P24" s="81" t="s">
@@ -3305,9 +3377,9 @@
         <f>Variables!$B$39*Variables!$B$30*2</f>
         <v>67200000</v>
       </c>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="99" t="s">
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="115" t="s">
         <v>29</v>
       </c>
       <c r="V24" s="81" t="s">
@@ -3317,9 +3389,9 @@
         <f>Variables!$B$39*Variables!$B$30*2</f>
         <v>67200000</v>
       </c>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="99" t="s">
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="115" t="s">
         <v>29</v>
       </c>
       <c r="AB24" s="81" t="s">
@@ -3331,9 +3403,9 @@
       </c>
     </row>
     <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3341,9 +3413,9 @@
         <f>Variables!$B$37*Variables!$B$35+Variables!B36</f>
         <v>65800000</v>
       </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
       <c r="J25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3351,9 +3423,9 @@
         <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*1+Variables!$B$36*Variables!$B$30*1</f>
         <v>131600000</v>
       </c>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
       <c r="P25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3361,9 +3433,9 @@
         <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*2+Variables!$B$36*Variables!$B$30*2</f>
         <v>263200000</v>
       </c>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
       <c r="V25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3371,9 +3443,9 @@
         <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*3+Variables!$B$36*Variables!$B$30*2</f>
         <v>392800000</v>
       </c>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="100"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
       <c r="AB25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3383,9 +3455,9 @@
       </c>
     </row>
     <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3393,9 +3465,9 @@
         <f>Variables!B38</f>
         <v>36000000</v>
       </c>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
       <c r="J26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3403,9 +3475,9 @@
         <f>Variables!$B$38*Variables!$B$30*1</f>
         <v>72000000</v>
       </c>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
       <c r="P26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3413,9 +3485,9 @@
         <f>Variables!$B$38*Variables!$B$30*2</f>
         <v>144000000</v>
       </c>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
       <c r="V26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3423,9 +3495,9 @@
         <f>Variables!$B$38*Variables!$B$30*2</f>
         <v>144000000</v>
       </c>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="100"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
       <c r="AB26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3435,9 +3507,9 @@
       </c>
     </row>
     <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="82" t="s">
         <v>27</v>
       </c>
@@ -3445,9 +3517,9 @@
         <f>Variables!B50</f>
         <v>2160000</v>
       </c>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
       <c r="J27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3455,9 +3527,9 @@
         <f>Variables!$B$40</f>
         <v>72000000</v>
       </c>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
       <c r="P27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3465,9 +3537,9 @@
         <f>Variables!$B$40+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
       <c r="V27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3475,9 +3547,9 @@
         <f>Variables!$B$40+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
       <c r="AB27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3487,9 +3559,9 @@
       </c>
     </row>
     <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="83" t="s">
         <v>102</v>
       </c>
@@ -3497,9 +3569,9 @@
         <f>Variables!$B$47</f>
         <v>43800000</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
       <c r="J28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3507,9 +3579,9 @@
         <f>Variables!$B$41</f>
         <v>84000000</v>
       </c>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
       <c r="P28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3517,9 +3589,9 @@
         <f>Variables!$B$41+Variables!$B$45</f>
         <v>87000000</v>
       </c>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
       <c r="V28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3527,9 +3599,9 @@
         <f>Variables!$B$41+Variables!$B$45</f>
         <v>87000000</v>
       </c>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
       <c r="AB28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3539,9 +3611,9 @@
       </c>
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="83" t="s">
         <v>136</v>
       </c>
@@ -3549,9 +3621,9 @@
         <f>Variables!$B$48</f>
         <v>20000000</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
       <c r="J29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3559,9 +3631,9 @@
         <f>Variables!$B$42</f>
         <v>72000000</v>
       </c>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="116"/>
       <c r="P29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3569,9 +3641,9 @@
         <f>Variables!$B$42+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
+      <c r="S29" s="116"/>
+      <c r="T29" s="116"/>
+      <c r="U29" s="116"/>
       <c r="V29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3579,9 +3651,9 @@
         <f>Variables!$B$42+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100"/>
-      <c r="AA29" s="100"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
       <c r="AB29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3591,9 +3663,9 @@
       </c>
     </row>
     <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="81" t="s">
         <v>137</v>
       </c>
@@ -3601,41 +3673,41 @@
         <f>Variables!$B$49</f>
         <v>18000000</v>
       </c>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
       <c r="J30" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K30" s="34">
         <f>Variables!$B$43</f>
         <v>60000000</v>
       </c>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
       <c r="P30" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="34">
         <f>Variables!$B$43+Variables!$B$45</f>
         <v>63000000</v>
       </c>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
       <c r="V30" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W30" s="34">
         <f>Variables!$B$43+Variables!$B$45</f>
         <v>63000000</v>
       </c>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="116"/>
       <c r="AB30" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC30" s="34">
         <f>Variables!$B$43+Variables!$B$45*3</f>
@@ -3643,19 +3715,19 @@
       </c>
     </row>
     <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="80">
         <f>Variables!B27</f>
         <v>600000</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
       <c r="J31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3663,9 +3735,9 @@
         <f>Variables!$B$44</f>
         <v>96000000</v>
       </c>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
       <c r="P31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3673,9 +3745,9 @@
         <f>Variables!$B$44+Variables!$B$45</f>
         <v>99000000</v>
       </c>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
       <c r="V31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3683,9 +3755,9 @@
         <f>Variables!$B$44+Variables!$B$45</f>
         <v>99000000</v>
       </c>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="116"/>
       <c r="AB31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3695,19 +3767,19 @@
       </c>
     </row>
     <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="80">
         <f>Variables!B29</f>
         <v>5000000</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
       <c r="J32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3715,9 +3787,9 @@
         <f>Variables!$B$50*Variables!$B$30*1</f>
         <v>4320000</v>
       </c>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
       <c r="P32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3725,9 +3797,9 @@
         <f>Variables!$B$50*Variables!$B$30*2</f>
         <v>8640000</v>
       </c>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
       <c r="V32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3735,9 +3807,9 @@
         <f>Variables!$B$50*Variables!$B$30*2</f>
         <v>8640000</v>
       </c>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="116"/>
       <c r="AB32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3747,9 +3819,9 @@
       </c>
     </row>
     <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="43" t="s">
         <v>138</v>
       </c>
@@ -3757,9 +3829,9 @@
         <f>Variables!B20</f>
         <v>7500000</v>
       </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
       <c r="J33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3767,9 +3839,9 @@
         <f>Variables!$B$47*Variables!$B$30*1</f>
         <v>87600000</v>
       </c>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
       <c r="P33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3777,9 +3849,9 @@
         <f>Variables!$B$47*Variables!$B$30*2</f>
         <v>175200000</v>
       </c>
-      <c r="S33" s="100"/>
-      <c r="T33" s="100"/>
-      <c r="U33" s="100"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
       <c r="V33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3787,9 +3859,9 @@
         <f>Variables!$B$47*Variables!$B$30*2</f>
         <v>175200000</v>
       </c>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="116"/>
       <c r="AB33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3799,9 +3871,9 @@
       </c>
     </row>
     <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="43" t="s">
         <v>139</v>
       </c>
@@ -3809,9 +3881,9 @@
         <f>Variables!B21*Variables!B19</f>
         <v>3000000</v>
       </c>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
       <c r="J34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3819,9 +3891,9 @@
         <f>Variables!$B$48*Variables!$B$30*1</f>
         <v>40000000</v>
       </c>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
       <c r="P34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3829,9 +3901,9 @@
         <f>Variables!$B$48*Variables!$B$30*2</f>
         <v>80000000</v>
       </c>
-      <c r="S34" s="100"/>
-      <c r="T34" s="100"/>
-      <c r="U34" s="100"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
       <c r="V34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3839,9 +3911,9 @@
         <f>Variables!$B$48*Variables!$B$30*2</f>
         <v>80000000</v>
       </c>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
+      <c r="Y34" s="116"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="116"/>
       <c r="AB34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3851,14 +3923,14 @@
       </c>
     </row>
     <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="43"/>
       <c r="E35" s="80"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
       <c r="J35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3866,9 +3938,9 @@
         <f>Variables!$B$49*Variables!$B$30*1</f>
         <v>36000000</v>
       </c>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
       <c r="P35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3876,9 +3948,9 @@
         <f>Variables!$B$49*Variables!$B$30*2</f>
         <v>72000000</v>
       </c>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="116"/>
       <c r="V35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3886,9 +3958,9 @@
         <f>Variables!$B$49*Variables!$B$30*2</f>
         <v>72000000</v>
       </c>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="116"/>
       <c r="AB35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3898,46 +3970,46 @@
       </c>
     </row>
     <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="43"/>
       <c r="E36" s="80"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
       <c r="J36" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K36" s="80">
         <f>Variables!$B$30*Variables!$B$51</f>
         <v>180000000</v>
       </c>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
       <c r="P36" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q36" s="80">
         <f>Variables!$B$30*Variables!$B$51</f>
         <v>180000000</v>
       </c>
-      <c r="S36" s="100"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="100"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
       <c r="V36" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W36" s="80">
         <f>Variables!$B$30*Variables!$B$51</f>
         <v>180000000</v>
       </c>
-      <c r="Y36" s="100"/>
-      <c r="Z36" s="100"/>
-      <c r="AA36" s="100"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="116"/>
       <c r="AB36" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC36" s="80">
         <f>Variables!$B$30*Variables!$B$51</f>
@@ -3945,46 +4017,46 @@
       </c>
     </row>
     <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="43"/>
       <c r="E37" s="80"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
       <c r="J37" s="81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K37" s="80">
         <f>Variables!$B$31+Variables!$B$32</f>
         <v>60000000</v>
       </c>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
       <c r="P37" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="80">
         <f>Variables!$B$32</f>
         <v>10000000</v>
       </c>
-      <c r="S37" s="100"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="100"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
       <c r="V37" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W37" s="80">
         <f>Variables!$B$32</f>
         <v>10000000</v>
       </c>
-      <c r="Y37" s="100"/>
-      <c r="Z37" s="100"/>
-      <c r="AA37" s="100"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
       <c r="AB37" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC37" s="80">
         <f>Variables!$B$32</f>
@@ -3992,218 +4064,238 @@
       </c>
     </row>
     <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="43"/>
       <c r="E38" s="80"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="80"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="S38" s="100"/>
-      <c r="T38" s="100"/>
-      <c r="U38" s="100"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="56"/>
-      <c r="Y38" s="100"/>
-      <c r="Z38" s="100"/>
-      <c r="AA38" s="100"/>
-      <c r="AB38" s="82"/>
-      <c r="AC38" s="56"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" s="80">
+        <f>Variables!$B$28</f>
+        <v>50000000</v>
+      </c>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q38" s="80">
+        <f>Variables!$B$28</f>
+        <v>50000000</v>
+      </c>
+      <c r="S38" s="116"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="W38" s="80">
+        <f>Variables!$B$28</f>
+        <v>50000000</v>
+      </c>
+      <c r="Y38" s="116"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="116"/>
+      <c r="AB38" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC38" s="80">
+        <f>Variables!$B$28</f>
+        <v>50000000</v>
+      </c>
     </row>
     <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="100"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="43"/>
       <c r="E39" s="80"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="117"/>
       <c r="J39" s="81"/>
       <c r="K39" s="80"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="101"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
-      <c r="S39" s="100"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="101"/>
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="117"/>
       <c r="V39" s="82"/>
       <c r="W39" s="56"/>
-      <c r="Y39" s="100"/>
-      <c r="Z39" s="100"/>
-      <c r="AA39" s="101"/>
+      <c r="Y39" s="116"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="117"/>
       <c r="AB39" s="82"/>
       <c r="AC39" s="56"/>
     </row>
     <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="106" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="109"/>
+      <c r="D40" s="120"/>
       <c r="E40" s="72">
         <f>SUM(E24:E34)</f>
         <v>218660000</v>
       </c>
-      <c r="G40" s="100"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="106" t="s">
+      <c r="G40" s="116"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="107"/>
+      <c r="J40" s="106"/>
       <c r="K40" s="37">
         <f>SUM(K24:K39)</f>
-        <v>1029120000</v>
-      </c>
-      <c r="M40" s="100"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="106" t="s">
+        <v>1079120000</v>
+      </c>
+      <c r="M40" s="116"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="104" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="118"/>
       <c r="Q40" s="37">
         <f>SUM(Q24:Q39)</f>
-        <v>1399240000</v>
-      </c>
-      <c r="S40" s="100"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="106" t="s">
+        <v>1449240000</v>
+      </c>
+      <c r="S40" s="116"/>
+      <c r="T40" s="117"/>
+      <c r="U40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="107"/>
+      <c r="V40" s="106"/>
       <c r="W40" s="37">
         <f>SUM(W24:W39)</f>
-        <v>1528840000</v>
-      </c>
-      <c r="Y40" s="100"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="106" t="s">
+        <v>1578840000</v>
+      </c>
+      <c r="Y40" s="116"/>
+      <c r="Z40" s="117"/>
+      <c r="AA40" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="AB40" s="107"/>
+      <c r="AB40" s="106"/>
       <c r="AC40" s="37">
         <f>SUM(AC24:AC39)</f>
-        <v>1963960000</v>
+        <v>2013960000</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
-      <c r="B41" s="106" t="s">
+      <c r="A41" s="116"/>
+      <c r="B41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="107"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="106"/>
       <c r="E41" s="37">
         <f>E23+E40</f>
         <v>651635000</v>
       </c>
-      <c r="G41" s="100"/>
-      <c r="H41" s="106" t="s">
+      <c r="G41" s="116"/>
+      <c r="H41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="108"/>
-      <c r="J41" s="107"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="106"/>
       <c r="K41" s="37">
         <f>K23+K40</f>
-        <v>1993665000</v>
-      </c>
-      <c r="M41" s="100"/>
-      <c r="N41" s="106" t="s">
+        <v>2043665000</v>
+      </c>
+      <c r="M41" s="116"/>
+      <c r="N41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="O41" s="108"/>
-      <c r="P41" s="107"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="106"/>
       <c r="Q41" s="37">
         <f>Q23+Q40</f>
-        <v>3523330000</v>
-      </c>
-      <c r="S41" s="100"/>
-      <c r="T41" s="106" t="s">
+        <v>3573330000</v>
+      </c>
+      <c r="S41" s="116"/>
+      <c r="T41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="108"/>
-      <c r="V41" s="107"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="106"/>
       <c r="W41" s="37">
         <f>W23+W40</f>
-        <v>3922930000</v>
-      </c>
-      <c r="Y41" s="100"/>
-      <c r="Z41" s="106" t="s">
+        <v>3972930000</v>
+      </c>
+      <c r="Y41" s="116"/>
+      <c r="Z41" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="107"/>
+      <c r="AA41" s="105"/>
+      <c r="AB41" s="106"/>
       <c r="AC41" s="37">
         <f>AC23+AC40</f>
-        <v>5705095000</v>
+        <v>5755095000</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="110" t="s">
+      <c r="A42" s="116"/>
+      <c r="B42" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="G42" s="100"/>
-      <c r="H42" s="110" t="s">
+      <c r="G42" s="116"/>
+      <c r="H42" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="111"/>
+      <c r="I42" s="108"/>
       <c r="J42" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K42" s="34">
         <f>Variables!B51*Variables!B30</f>
         <v>180000000</v>
       </c>
-      <c r="M42" s="100"/>
-      <c r="N42" s="110" t="s">
+      <c r="M42" s="116"/>
+      <c r="N42" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="111"/>
+      <c r="O42" s="108"/>
       <c r="P42" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q42" s="34">
         <f>K42-K49</f>
         <v>135000000</v>
       </c>
-      <c r="S42" s="100"/>
-      <c r="T42" s="110" t="s">
+      <c r="S42" s="116"/>
+      <c r="T42" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="111"/>
+      <c r="U42" s="108"/>
       <c r="V42" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W42" s="34">
         <f>Q42-Q49</f>
         <v>90000000</v>
       </c>
-      <c r="Y42" s="100"/>
-      <c r="Z42" s="110" t="s">
+      <c r="Y42" s="116"/>
+      <c r="Z42" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="AA42" s="111"/>
+      <c r="AA42" s="108"/>
       <c r="AB42" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC42" s="34">
         <f>W42-W49</f>
@@ -4211,146 +4303,146 @@
       </c>
     </row>
     <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="34">
         <v>0</v>
       </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="113"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="110"/>
       <c r="J43" s="39"/>
       <c r="K43" s="34">
         <v>0</v>
       </c>
-      <c r="M43" s="100"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="113"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="110"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="34">
         <v>0</v>
       </c>
-      <c r="S43" s="100"/>
-      <c r="T43" s="112"/>
-      <c r="U43" s="113"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="109"/>
+      <c r="U43" s="110"/>
       <c r="V43" s="39"/>
       <c r="W43" s="34">
         <v>0</v>
       </c>
-      <c r="Y43" s="100"/>
-      <c r="Z43" s="112"/>
-      <c r="AA43" s="113"/>
+      <c r="Y43" s="116"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="110"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="101"/>
-      <c r="B44" s="106" t="s">
+      <c r="A44" s="117"/>
+      <c r="B44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="108"/>
-      <c r="D44" s="107"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
       <c r="E44" s="37">
         <f>SUM(E42:E43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="101"/>
-      <c r="H44" s="106" t="s">
+      <c r="G44" s="117"/>
+      <c r="H44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="108"/>
-      <c r="J44" s="107"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="106"/>
       <c r="K44" s="37">
         <f>SUM(K42:K43)</f>
         <v>180000000</v>
       </c>
-      <c r="M44" s="101"/>
-      <c r="N44" s="106" t="s">
+      <c r="M44" s="117"/>
+      <c r="N44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="108"/>
-      <c r="P44" s="107"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="106"/>
       <c r="Q44" s="37">
         <f>SUM(Q42:Q43)</f>
         <v>135000000</v>
       </c>
-      <c r="S44" s="101"/>
-      <c r="T44" s="106" t="s">
+      <c r="S44" s="117"/>
+      <c r="T44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="108"/>
-      <c r="V44" s="107"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="106"/>
       <c r="W44" s="37">
         <f>SUM(W42:W43)</f>
         <v>90000000</v>
       </c>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="106" t="s">
+      <c r="Y44" s="117"/>
+      <c r="Z44" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="107"/>
+      <c r="AA44" s="105"/>
+      <c r="AB44" s="106"/>
       <c r="AC44" s="37">
         <f>SUM(AC42:AC43)</f>
         <v>45000000</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
       <c r="E45" s="37">
         <f>E41+E44</f>
         <v>651635000</v>
       </c>
-      <c r="G45" s="97" t="s">
+      <c r="G45" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
       <c r="K45" s="37">
         <f>K41+K44</f>
-        <v>2173665000</v>
-      </c>
-      <c r="M45" s="97" t="s">
+        <v>2223665000</v>
+      </c>
+      <c r="M45" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="111"/>
       <c r="Q45" s="37">
         <f>Q41+Q44</f>
-        <v>3658330000</v>
-      </c>
-      <c r="S45" s="97" t="s">
+        <v>3708330000</v>
+      </c>
+      <c r="S45" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
       <c r="W45" s="37">
         <f>W41+W44</f>
-        <v>4012930000</v>
-      </c>
-      <c r="Y45" s="97" t="s">
+        <v>4062930000</v>
+      </c>
+      <c r="Y45" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="111"/>
       <c r="AC45" s="37">
         <f>AC41+AC44</f>
-        <v>5750095000</v>
+        <v>5800095000</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4399,7 +4491,7 @@
       <c r="J47" s="114"/>
       <c r="K47" s="79">
         <f>K13-K41+E47-K42</f>
-        <v>416584000</v>
+        <v>366584000</v>
       </c>
       <c r="M47" s="114" t="s">
         <v>94</v>
@@ -4409,7 +4501,7 @@
       <c r="P47" s="114"/>
       <c r="Q47" s="79">
         <f>Q13-Q45+K47</f>
-        <v>500032000</v>
+        <v>400032000</v>
       </c>
       <c r="S47" s="114" t="s">
         <v>95</v>
@@ -4419,7 +4511,7 @@
       <c r="V47" s="114"/>
       <c r="W47" s="79">
         <f>W13-W41-W42+Q47</f>
-        <v>828880000</v>
+        <v>678880000</v>
       </c>
       <c r="Y47" s="114" t="s">
         <v>96</v>
@@ -4429,17 +4521,17 @@
       <c r="AB47" s="114"/>
       <c r="AC47" s="79">
         <f>AC13-AC45+W47</f>
-        <v>1291452000</v>
+        <v>1091452000</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="130" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" s="130"/>
+      <c r="D48" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="119"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -4462,219 +4554,219 @@
       <c r="AC48" s="35"/>
     </row>
     <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="98" t="s">
+      <c r="A49" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
       <c r="E49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="98" t="s">
+      <c r="G49" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="105" t="s">
+      <c r="H49" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
       <c r="K49" s="37">
         <f>K42*Variables!$B$25</f>
         <v>45000000</v>
       </c>
-      <c r="M49" s="98" t="s">
+      <c r="M49" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="N49" s="105" t="s">
+      <c r="N49" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
       <c r="Q49" s="37">
         <f>K42*Variables!$B$25</f>
         <v>45000000</v>
       </c>
-      <c r="S49" s="98" t="s">
+      <c r="S49" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="T49" s="105" t="s">
+      <c r="T49" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="105"/>
-      <c r="V49" s="105"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="113"/>
       <c r="W49" s="93">
         <f>K42*Variables!B25</f>
         <v>45000000</v>
       </c>
-      <c r="Y49" s="98" t="s">
+      <c r="Y49" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="105" t="s">
+      <c r="Z49" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="105"/>
-      <c r="AB49" s="105"/>
+      <c r="AA49" s="113"/>
+      <c r="AB49" s="113"/>
       <c r="AC49" s="34">
         <f>K42*Variables!B25</f>
         <v>45000000</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="98"/>
-      <c r="B50" s="105" t="s">
+      <c r="A50" s="112"/>
+      <c r="B50" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
       <c r="E50" s="37">
         <v>0</v>
       </c>
-      <c r="G50" s="98"/>
-      <c r="H50" s="105" t="s">
+      <c r="G50" s="112"/>
+      <c r="H50" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
       <c r="K50" s="37">
         <f>'Ingresos &amp; egresos'!K42*Variables!$B$26</f>
         <v>30000000</v>
       </c>
-      <c r="M50" s="98"/>
-      <c r="N50" s="105" t="s">
+      <c r="M50" s="112"/>
+      <c r="N50" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="113"/>
       <c r="Q50" s="37">
         <f>'Ingresos &amp; egresos'!Q42*Variables!$B$26</f>
         <v>22500000</v>
       </c>
-      <c r="S50" s="98"/>
-      <c r="T50" s="105" t="s">
+      <c r="S50" s="112"/>
+      <c r="T50" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="105"/>
-      <c r="V50" s="105"/>
+      <c r="U50" s="113"/>
+      <c r="V50" s="113"/>
       <c r="W50" s="94">
         <f>W42*Variables!B26</f>
         <v>15000000</v>
       </c>
-      <c r="Y50" s="98"/>
-      <c r="Z50" s="105" t="s">
+      <c r="Y50" s="112"/>
+      <c r="Z50" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="105"/>
-      <c r="AB50" s="105"/>
+      <c r="AA50" s="113"/>
+      <c r="AB50" s="113"/>
       <c r="AC50" s="34">
         <f>AC42*Variables!B26</f>
         <v>7500000</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="98"/>
-      <c r="B51" s="105" t="s">
+      <c r="A51" s="112"/>
+      <c r="B51" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
       <c r="E51" s="37">
         <f>E47*Variables!$B$24</f>
         <v>37318000</v>
       </c>
-      <c r="G51" s="98"/>
-      <c r="H51" s="105" t="s">
+      <c r="G51" s="112"/>
+      <c r="H51" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
       <c r="K51" s="37">
         <f>K47*Variables!$B$24</f>
-        <v>20829200</v>
-      </c>
-      <c r="M51" s="98"/>
-      <c r="N51" s="105" t="s">
+        <v>18329200</v>
+      </c>
+      <c r="M51" s="112"/>
+      <c r="N51" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="113"/>
       <c r="Q51" s="37">
         <f>Q47*Variables!$B$24</f>
-        <v>25001600</v>
-      </c>
-      <c r="S51" s="98"/>
-      <c r="T51" s="105" t="s">
+        <v>20001600</v>
+      </c>
+      <c r="S51" s="112"/>
+      <c r="T51" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="U51" s="105"/>
-      <c r="V51" s="105"/>
+      <c r="U51" s="113"/>
+      <c r="V51" s="113"/>
       <c r="W51" s="37">
         <f>W47*Variables!$B$24</f>
-        <v>41444000</v>
-      </c>
-      <c r="Y51" s="98"/>
-      <c r="Z51" s="105" t="s">
+        <v>33944000</v>
+      </c>
+      <c r="Y51" s="112"/>
+      <c r="Z51" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="AA51" s="105"/>
-      <c r="AB51" s="105"/>
+      <c r="AA51" s="113"/>
+      <c r="AB51" s="113"/>
       <c r="AC51" s="37">
         <f>AC47*Variables!$B$24</f>
-        <v>64572600</v>
+        <v>54572600</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="98"/>
-      <c r="B52" s="105" t="s">
+      <c r="A52" s="112"/>
+      <c r="B52" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="37">
         <f>E47*Variables!$B$23</f>
         <v>141808400</v>
       </c>
-      <c r="G52" s="98"/>
-      <c r="H52" s="105" t="s">
+      <c r="G52" s="112"/>
+      <c r="H52" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
       <c r="K52" s="37">
         <f>K47*Variables!$B$23</f>
-        <v>79150960</v>
-      </c>
-      <c r="M52" s="98"/>
-      <c r="N52" s="105" t="s">
+        <v>69650960</v>
+      </c>
+      <c r="M52" s="112"/>
+      <c r="N52" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
       <c r="Q52" s="37">
         <f>Q47*Variables!$B$23</f>
-        <v>95006080</v>
-      </c>
-      <c r="S52" s="98"/>
-      <c r="T52" s="105" t="s">
+        <v>76006080</v>
+      </c>
+      <c r="S52" s="112"/>
+      <c r="T52" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="U52" s="105"/>
-      <c r="V52" s="105"/>
+      <c r="U52" s="113"/>
+      <c r="V52" s="113"/>
       <c r="W52" s="37">
         <f>W47*Variables!$B$23</f>
-        <v>157487200</v>
-      </c>
-      <c r="Y52" s="98"/>
-      <c r="Z52" s="105" t="s">
+        <v>128987200</v>
+      </c>
+      <c r="Y52" s="112"/>
+      <c r="Z52" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="105"/>
-      <c r="AB52" s="105"/>
+      <c r="AA52" s="113"/>
+      <c r="AB52" s="113"/>
       <c r="AC52" s="37">
         <f>AC47*Variables!$B$23</f>
-        <v>245375880</v>
+        <v>207375880</v>
       </c>
     </row>
     <row r="53" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4694,7 +4786,7 @@
       <c r="J53" s="38"/>
       <c r="K53" s="37">
         <f>K49+K50+K51+(MAX(K52,0))</f>
-        <v>174980160</v>
+        <v>162980160</v>
       </c>
       <c r="M53" s="32"/>
       <c r="N53" s="38"/>
@@ -4702,7 +4794,7 @@
       <c r="P53" s="38"/>
       <c r="Q53" s="37">
         <f>Q49+Q50+Q51+(MAX(Q52,0))</f>
-        <v>187507680</v>
+        <v>163507680</v>
       </c>
       <c r="S53" s="32"/>
       <c r="T53" s="38"/>
@@ -4710,7 +4802,7 @@
       <c r="V53" s="38"/>
       <c r="W53" s="37">
         <f>W49+W50+W51+(MAX(W52,0))</f>
-        <v>258931200</v>
+        <v>222931200</v>
       </c>
       <c r="Y53" s="32"/>
       <c r="Z53" s="38"/>
@@ -4718,7 +4810,7 @@
       <c r="AB53" s="38"/>
       <c r="AC53" s="37">
         <f>AC49+AC50+AC51+(MAX(AC52,0))</f>
-        <v>362448480</v>
+        <v>314448480</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4749,55 +4841,55 @@
       <c r="AC54" s="35"/>
     </row>
     <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="115" t="s">
+      <c r="A55" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="116"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="117"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="103"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="115" t="s">
+      <c r="G55" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="117"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="103"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="115" t="s">
+      <c r="M55" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="N55" s="116"/>
-      <c r="O55" s="116"/>
-      <c r="P55" s="116"/>
-      <c r="Q55" s="117"/>
+      <c r="N55" s="102"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="103"/>
       <c r="R55" s="32"/>
-      <c r="S55" s="115" t="s">
+      <c r="S55" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="116"/>
-      <c r="U55" s="116"/>
-      <c r="V55" s="116"/>
-      <c r="W55" s="117"/>
+      <c r="T55" s="102"/>
+      <c r="U55" s="102"/>
+      <c r="V55" s="102"/>
+      <c r="W55" s="103"/>
       <c r="X55" s="32"/>
-      <c r="Y55" s="115" t="s">
+      <c r="Y55" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="Z55" s="116"/>
-      <c r="AA55" s="116"/>
-      <c r="AB55" s="116"/>
-      <c r="AC55" s="117"/>
+      <c r="Z55" s="102"/>
+      <c r="AA55" s="102"/>
+      <c r="AB55" s="102"/>
+      <c r="AC55" s="103"/>
     </row>
     <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="103"/>
-      <c r="D56" s="104"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="100"/>
       <c r="E56" s="34">
         <f>E13-E23</f>
         <v>465020000</v>
@@ -4806,11 +4898,11 @@
       <c r="G56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="102" t="s">
+      <c r="H56" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="103"/>
-      <c r="J56" s="104"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="100"/>
       <c r="K56" s="34">
         <f>K13-K23</f>
         <v>879344000</v>
@@ -4819,11 +4911,11 @@
       <c r="M56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="102" t="s">
+      <c r="N56" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="103"/>
-      <c r="P56" s="104"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="100"/>
       <c r="Q56" s="34">
         <f>Q13-Q23</f>
         <v>1617688000</v>
@@ -4832,11 +4924,11 @@
       <c r="S56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="102" t="s">
+      <c r="T56" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="U56" s="103"/>
-      <c r="V56" s="104"/>
+      <c r="U56" s="99"/>
+      <c r="V56" s="100"/>
       <c r="W56" s="34">
         <f>W13-W23</f>
         <v>1947688000</v>
@@ -4845,11 +4937,11 @@
       <c r="Y56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Z56" s="102" t="s">
+      <c r="Z56" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="AA56" s="103"/>
-      <c r="AB56" s="104"/>
+      <c r="AA56" s="99"/>
+      <c r="AB56" s="100"/>
       <c r="AC56" s="34">
         <f>AC13-AC23</f>
         <v>2471532000</v>
@@ -4859,11 +4951,11 @@
       <c r="A57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="103"/>
-      <c r="D57" s="104"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="100"/>
       <c r="E57" s="33">
         <f>E56/E13</f>
         <v>0.51784252696284505</v>
@@ -4872,11 +4964,11 @@
       <c r="G57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="102" t="s">
+      <c r="H57" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="103"/>
-      <c r="J57" s="104"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="100"/>
       <c r="K57" s="33">
         <f>K56/K13</f>
         <v>0.47689638584535188</v>
@@ -4885,11 +4977,11 @@
       <c r="M57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="102" t="s">
+      <c r="N57" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="103"/>
-      <c r="P57" s="104"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="100"/>
       <c r="Q57" s="33">
         <f>Q56/Q13</f>
         <v>0.43233136760117785</v>
@@ -4898,11 +4990,11 @@
       <c r="S57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="102" t="s">
+      <c r="T57" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="U57" s="103"/>
-      <c r="V57" s="104"/>
+      <c r="U57" s="99"/>
+      <c r="V57" s="100"/>
       <c r="W57" s="33">
         <f>W56/W13</f>
         <v>0.44859225874745323</v>
@@ -4911,11 +5003,11 @@
       <c r="Y57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Z57" s="102" t="s">
+      <c r="Z57" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="AA57" s="103"/>
-      <c r="AB57" s="104"/>
+      <c r="AA57" s="99"/>
+      <c r="AB57" s="100"/>
       <c r="AC57" s="33">
         <f>AC56/AC13</f>
         <v>0.39782141872403592</v>
@@ -4925,11 +5017,11 @@
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="103"/>
-      <c r="D58" s="104"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="34">
         <f>E56-E40</f>
         <v>246360000</v>
@@ -4938,64 +5030,64 @@
       <c r="G58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="102" t="s">
+      <c r="H58" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="103"/>
-      <c r="J58" s="104"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="100"/>
       <c r="K58" s="34">
         <f>K56-K40</f>
-        <v>-149776000</v>
+        <v>-199776000</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N58" s="102" t="s">
+      <c r="N58" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="103"/>
-      <c r="P58" s="104"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="100"/>
       <c r="Q58" s="34">
         <f>Q56-Q40</f>
-        <v>218448000</v>
+        <v>168448000</v>
       </c>
       <c r="R58" s="32"/>
       <c r="S58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T58" s="102" t="s">
+      <c r="T58" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="U58" s="103"/>
-      <c r="V58" s="104"/>
+      <c r="U58" s="99"/>
+      <c r="V58" s="100"/>
       <c r="W58" s="34">
         <f>W56-W40</f>
-        <v>418848000</v>
+        <v>368848000</v>
       </c>
       <c r="X58" s="32"/>
       <c r="Y58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z58" s="102" t="s">
+      <c r="Z58" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="AA58" s="103"/>
-      <c r="AB58" s="104"/>
+      <c r="AA58" s="99"/>
+      <c r="AB58" s="100"/>
       <c r="AC58" s="34">
         <f>AC56-AC40</f>
-        <v>507572000</v>
+        <v>457572000</v>
       </c>
     </row>
     <row r="59" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="103"/>
-      <c r="D59" s="104"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="100"/>
       <c r="E59" s="33">
         <f>E58/E13</f>
         <v>0.27434451194048964</v>
@@ -5004,64 +5096,64 @@
       <c r="G59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="102" t="s">
+      <c r="H59" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="103"/>
-      <c r="J59" s="104"/>
+      <c r="I59" s="99"/>
+      <c r="J59" s="100"/>
       <c r="K59" s="33">
         <f>K58/K13</f>
-        <v>-8.122831688892336E-2</v>
+        <v>-0.1083449166408607</v>
       </c>
       <c r="L59" s="32"/>
       <c r="M59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="102" t="s">
+      <c r="N59" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="O59" s="103"/>
-      <c r="P59" s="104"/>
+      <c r="O59" s="99"/>
+      <c r="P59" s="100"/>
       <c r="Q59" s="33">
         <f>Q58/Q13</f>
-        <v>5.8380801854091828E-2</v>
+        <v>4.5018170506106993E-2</v>
       </c>
       <c r="R59" s="32"/>
       <c r="S59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="T59" s="102" t="s">
+      <c r="T59" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="103"/>
-      <c r="V59" s="104"/>
+      <c r="U59" s="99"/>
+      <c r="V59" s="100"/>
       <c r="W59" s="33">
         <f>W58/W13</f>
-        <v>9.6469234493334291E-2</v>
+        <v>8.4953215019284725E-2</v>
       </c>
       <c r="X59" s="32"/>
       <c r="Y59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z59" s="102" t="s">
+      <c r="Z59" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" s="103"/>
-      <c r="AB59" s="104"/>
+      <c r="AA59" s="99"/>
+      <c r="AB59" s="100"/>
       <c r="AC59" s="33">
         <f>AC58/AC13</f>
-        <v>8.1699534193607995E-2</v>
+        <v>7.3651460797754004E-2</v>
       </c>
     </row>
     <row r="60" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="103"/>
-      <c r="D60" s="104"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="100"/>
       <c r="E60" s="34">
         <f>E58-E53</f>
         <v>67233600</v>
@@ -5070,64 +5162,64 @@
       <c r="G60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="102" t="s">
+      <c r="H60" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="103"/>
-      <c r="J60" s="104"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="100"/>
       <c r="K60" s="34">
         <f>K58-K53</f>
-        <v>-324756160</v>
+        <v>-362756160</v>
       </c>
       <c r="L60" s="32"/>
       <c r="M60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="102" t="s">
+      <c r="N60" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="103"/>
-      <c r="P60" s="104"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="100"/>
       <c r="Q60" s="34">
         <f>Q58-Q53</f>
-        <v>30940320</v>
+        <v>4940320</v>
       </c>
       <c r="R60" s="32"/>
       <c r="S60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="T60" s="102" t="s">
+      <c r="T60" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="U60" s="103"/>
-      <c r="V60" s="104"/>
+      <c r="U60" s="99"/>
+      <c r="V60" s="100"/>
       <c r="W60" s="34">
         <f>W58-W53</f>
-        <v>159916800</v>
+        <v>145916800</v>
       </c>
       <c r="X60" s="32"/>
       <c r="Y60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z60" s="102" t="s">
+      <c r="Z60" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="AA60" s="103"/>
-      <c r="AB60" s="104"/>
+      <c r="AA60" s="99"/>
+      <c r="AB60" s="100"/>
       <c r="AC60" s="34">
         <f>AC58-AC53</f>
-        <v>145123520</v>
+        <v>143123520</v>
       </c>
     </row>
     <row r="61" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="103"/>
-      <c r="D61" s="104"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="100"/>
       <c r="E61" s="33">
         <f>E60/E13</f>
         <v>7.4870795494406978E-2</v>
@@ -5136,53 +5228,53 @@
       <c r="G61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="102" t="s">
+      <c r="H61" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="103"/>
-      <c r="J61" s="104"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="100"/>
       <c r="K61" s="33">
         <f>K60/K13</f>
-        <v>-0.17612565615392251</v>
+        <v>-0.19673427196539489</v>
       </c>
       <c r="L61" s="32"/>
       <c r="M61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="102" t="s">
+      <c r="N61" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="O61" s="103"/>
-      <c r="P61" s="104"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="100"/>
       <c r="Q61" s="33">
         <f>Q60/Q13</f>
-        <v>8.2688817989736429E-3</v>
+        <v>1.3203134980215288E-3</v>
       </c>
       <c r="R61" s="32"/>
       <c r="S61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="102" t="s">
+      <c r="T61" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="U61" s="103"/>
-      <c r="V61" s="104"/>
+      <c r="U61" s="99"/>
+      <c r="V61" s="100"/>
       <c r="W61" s="33">
         <f>W60/W13</f>
-        <v>3.6832099660553813E-2</v>
+        <v>3.3607614207819929E-2</v>
       </c>
       <c r="X61" s="32"/>
       <c r="Y61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Z61" s="102" t="s">
+      <c r="Z61" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="AA61" s="103"/>
-      <c r="AB61" s="104"/>
+      <c r="AA61" s="99"/>
+      <c r="AB61" s="100"/>
       <c r="AC61" s="33">
         <f>AC60/AC13</f>
-        <v>2.3359294808493677E-2</v>
+        <v>2.3037371872659518E-2</v>
       </c>
     </row>
     <row r="62" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5209,7 +5301,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="33">
         <f>K60/(K13)</f>
-        <v>-0.17612565615392251</v>
+        <v>-0.19673427196539489</v>
       </c>
       <c r="L62" s="32"/>
       <c r="M62" s="31" t="s">
@@ -5222,7 +5314,7 @@
       <c r="P62" s="28"/>
       <c r="Q62" s="33">
         <f>Q60/(Q13)</f>
-        <v>8.2688817989736429E-3</v>
+        <v>1.3203134980215288E-3</v>
       </c>
       <c r="R62" s="32"/>
       <c r="S62" s="31" t="s">
@@ -5235,7 +5327,7 @@
       <c r="V62" s="28"/>
       <c r="W62" s="33">
         <f>W60/(W13)</f>
-        <v>3.6832099660553813E-2</v>
+        <v>3.3607614207819929E-2</v>
       </c>
       <c r="X62" s="32"/>
       <c r="Y62" s="31" t="s">
@@ -5248,18 +5340,18 @@
       <c r="AB62" s="28"/>
       <c r="AC62" s="33">
         <f>AC60/AC13</f>
-        <v>2.3359294808493677E-2</v>
+        <v>2.3037371872659518E-2</v>
       </c>
     </row>
     <row r="63" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="103"/>
-      <c r="D63" s="104"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="33">
         <f>E60/(Variables!$B$5+E47)</f>
         <v>5.3943964825572066E-2</v>
@@ -5268,84 +5360,84 @@
       <c r="G63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="102" t="s">
+      <c r="H63" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="103"/>
-      <c r="J63" s="104"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="100"/>
       <c r="K63" s="33">
         <f>K60/(K47)</f>
-        <v>-0.77956945057899485</v>
+        <v>-0.98955808218580188</v>
       </c>
       <c r="L63" s="32"/>
       <c r="M63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="102" t="s">
+      <c r="N63" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="O63" s="103"/>
-      <c r="P63" s="104"/>
+      <c r="O63" s="99"/>
+      <c r="P63" s="100"/>
       <c r="Q63" s="33">
         <f>Q60/(Q47)</f>
-        <v>6.187667989248688E-2</v>
+        <v>1.2349812015038797E-2</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="102" t="s">
+      <c r="T63" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="103"/>
-      <c r="V63" s="104"/>
+      <c r="U63" s="99"/>
+      <c r="V63" s="100"/>
       <c r="W63" s="33">
         <f>W60/(W47)</f>
-        <v>0.19293118424862465</v>
+        <v>0.21493754419043129</v>
       </c>
       <c r="X63" s="32"/>
       <c r="Y63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Z63" s="102" t="s">
+      <c r="Z63" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="AA63" s="103"/>
-      <c r="AB63" s="104"/>
+      <c r="AA63" s="99"/>
+      <c r="AB63" s="100"/>
       <c r="AC63" s="33">
         <f>AC60/(AC47)</f>
-        <v>0.11237236846588182</v>
+        <v>0.13113130032287265</v>
       </c>
     </row>
     <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="104"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="27"/>
       <c r="F64" s="32"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="104"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="100"/>
       <c r="K64" s="27"/>
       <c r="L64" s="32"/>
       <c r="M64" s="31"/>
-      <c r="N64" s="102"/>
-      <c r="O64" s="103"/>
-      <c r="P64" s="104"/>
+      <c r="N64" s="98"/>
+      <c r="O64" s="99"/>
+      <c r="P64" s="100"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="32"/>
       <c r="S64" s="31"/>
-      <c r="T64" s="102"/>
-      <c r="U64" s="103"/>
-      <c r="V64" s="104"/>
+      <c r="T64" s="98"/>
+      <c r="U64" s="99"/>
+      <c r="V64" s="100"/>
       <c r="W64" s="27"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="31"/>
-      <c r="Z64" s="102"/>
-      <c r="AA64" s="103"/>
-      <c r="AB64" s="104"/>
+      <c r="Z64" s="98"/>
+      <c r="AA64" s="99"/>
+      <c r="AB64" s="100"/>
       <c r="AC64" s="27"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -5356,84 +5448,90 @@
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="Z42:AA43"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Y47:AB47"/>
-    <mergeCell ref="Z15:Z40"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AA22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="Y5:Y12"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y15:Y44"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA24:AA39"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="S55:W55"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="S49:S52"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="S15:S44"/>
-    <mergeCell ref="T15:T40"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:U22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:U43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H15:H40"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G15:G44"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A15:A44"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="N15:N40"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:O22"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="O24:O39"/>
+    <mergeCell ref="I24:I39"/>
+    <mergeCell ref="C24:C39"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="H64:J64"/>
     <mergeCell ref="G55:K55"/>
     <mergeCell ref="H56:J56"/>
@@ -5458,90 +5556,84 @@
     <mergeCell ref="M45:P45"/>
     <mergeCell ref="M49:M52"/>
     <mergeCell ref="M15:M44"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="N15:N40"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:O22"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="O24:O39"/>
-    <mergeCell ref="I24:I39"/>
-    <mergeCell ref="C24:C39"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A15:A44"/>
-    <mergeCell ref="B15:B40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G15:G44"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H15:H40"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:I22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S49:S52"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="S15:S44"/>
+    <mergeCell ref="T15:T40"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:U22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="Z15:Z40"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AA22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="Z5:Z9"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y15:Y44"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA24:AA39"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="Z42:AA43"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="Y47:AB47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5551,7 +5643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E296ED8-53DC-4876-A8E1-0DB56E98A3CB}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="135" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScaleNormal="135" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -5663,105 +5755,105 @@
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="125"/>
+      <c r="C5" s="121"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="125"/>
+      <c r="G5" s="121"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="125" t="s">
+      <c r="J5" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="125"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="125" t="s">
+      <c r="N5" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="125"/>
+      <c r="O5" s="121"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="125" t="s">
+      <c r="R5" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="125"/>
+      <c r="S5" s="121"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="125" t="s">
+      <c r="V5" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="125"/>
+      <c r="W5" s="121"/>
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="122">
         <f>C13-C20</f>
         <v>500000000</v>
       </c>
-      <c r="C6" s="124"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="124">
+      <c r="F6" s="122">
         <f>(B6*(1-Variables!B24))+G25</f>
         <v>721360000</v>
       </c>
-      <c r="G6" s="124"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="124">
+      <c r="J6" s="122">
         <f>(F6*(1-Variables!B24))+K25</f>
-        <v>400516000</v>
-      </c>
-      <c r="K6" s="124"/>
+        <v>350516000</v>
+      </c>
+      <c r="K6" s="122"/>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="124">
+      <c r="N6" s="122">
         <f>(J6*(1-Variables!B24))+O25</f>
-        <v>508938200</v>
-      </c>
-      <c r="O6" s="124"/>
+        <v>411438200</v>
+      </c>
+      <c r="O6" s="122"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="124">
+      <c r="R6" s="122">
         <f>(N6*(1-Variables!B24))+S25</f>
-        <v>767339290</v>
-      </c>
-      <c r="S6" s="124"/>
+        <v>624714290</v>
+      </c>
+      <c r="S6" s="122"/>
       <c r="T6" s="3"/>
       <c r="U6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="124">
+      <c r="V6" s="122">
         <f>(R6*(1-Variables!B24))+W25</f>
-        <v>1191544325.5</v>
-      </c>
-      <c r="W6" s="124"/>
+        <v>1006050575.5</v>
+      </c>
+      <c r="W6" s="122"/>
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -5789,7 +5881,7 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="123" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5799,7 +5891,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="123" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -5809,7 +5901,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="126" t="s">
+      <c r="I8" s="123" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -5819,7 +5911,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="126" t="s">
+      <c r="M8" s="123" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5829,7 +5921,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="126" t="s">
+      <c r="Q8" s="123" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5839,7 +5931,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="126" t="s">
+      <c r="U8" s="123" t="s">
         <v>72</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -5850,7 +5942,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="127"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
@@ -5859,7 +5951,7 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="127"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5868,116 +5960,116 @@
         <v>246360000</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="127"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="12"/>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="127"/>
+      <c r="M9" s="124"/>
       <c r="N9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="5">
         <f>'Ingresos &amp; egresos'!Q13-'Ingresos &amp; egresos'!Q41</f>
-        <v>218448000</v>
+        <v>168448000</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="127"/>
+      <c r="Q9" s="124"/>
       <c r="R9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="5">
         <f>'Ingresos &amp; egresos'!W13-'Ingresos &amp; egresos'!W45</f>
-        <v>328848000</v>
+        <v>278848000</v>
       </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="127"/>
+      <c r="U9" s="124"/>
       <c r="V9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="5">
         <f>'Ingresos &amp; egresos'!AC13-'Ingresos &amp; egresos'!AC45</f>
-        <v>462572000</v>
-      </c>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="120"/>
+        <v>412572000</v>
+      </c>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="127"/>
+      <c r="E10" s="124"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="127"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="12"/>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="127"/>
+      <c r="M10" s="124"/>
       <c r="N10" s="12"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="127"/>
+      <c r="Q10" s="124"/>
       <c r="R10" s="12"/>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="127"/>
+      <c r="U10" s="124"/>
       <c r="V10" s="12"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
+      <c r="Z10" s="129"/>
+      <c r="AA10" s="129"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="127"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="12"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="127"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="127"/>
+      <c r="I11" s="124"/>
       <c r="J11" s="12"/>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="127"/>
+      <c r="M11" s="124"/>
       <c r="N11" s="12"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="127"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="12"/>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="127"/>
+      <c r="U11" s="124"/>
       <c r="V11" s="12"/>
       <c r="W11" s="5">
         <v>0</v>
@@ -5988,37 +6080,37 @@
       <c r="AC11" s="86"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="128"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="128"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="12"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="128"/>
+      <c r="I12" s="125"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="128"/>
+      <c r="M12" s="125"/>
       <c r="N12" s="12"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="128"/>
+      <c r="Q12" s="125"/>
       <c r="R12" s="12"/>
       <c r="S12" s="5">
         <v>0</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="128"/>
+      <c r="U12" s="125"/>
       <c r="V12" s="12"/>
       <c r="W12" s="5">
         <v>0</v>
@@ -6054,21 +6146,21 @@
       <c r="N13" s="7"/>
       <c r="O13" s="9">
         <f>SUM(O9:O12)</f>
-        <v>218448000</v>
+        <v>168448000</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
       <c r="S13" s="9">
         <f>SUM(S9:S12)</f>
-        <v>328848000</v>
+        <v>278848000</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="3"/>
       <c r="V13" s="7"/>
       <c r="W13" s="9">
         <f>SUM(W9:W12)</f>
-        <v>462572000</v>
+        <v>412572000</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="85"/>
@@ -6104,7 +6196,7 @@
       <c r="AC14" s="86"/>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="123" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -6114,7 +6206,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="123" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6124,7 +6216,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="126" t="s">
+      <c r="I15" s="123" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -6134,7 +6226,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="126" t="s">
+      <c r="M15" s="123" t="s">
         <v>76</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -6144,7 +6236,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="126" t="s">
+      <c r="Q15" s="123" t="s">
         <v>77</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -6154,7 +6246,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="126" t="s">
+      <c r="U15" s="123" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -6168,46 +6260,46 @@
       <c r="AC15" s="86"/>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="127"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="127"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="127"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K16" s="5">
         <f>'Ingresos &amp; egresos'!K42-'Ingresos &amp; egresos'!K49</f>
         <v>135000000</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="127"/>
+      <c r="M16" s="124"/>
       <c r="N16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O16" s="5">
         <f>K16-'Ingresos &amp; egresos'!Q49</f>
         <v>90000000</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="127"/>
+      <c r="Q16" s="124"/>
       <c r="R16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S16" s="5">
         <f>O16-'Ingresos &amp; egresos'!W49</f>
         <v>45000000</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="127"/>
+      <c r="U16" s="124"/>
       <c r="V16" s="12"/>
       <c r="W16" s="5">
         <v>0</v>
@@ -6217,81 +6309,81 @@
       <c r="AC16" s="86"/>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="127"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="127"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="127"/>
+      <c r="I17" s="124"/>
       <c r="J17" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K17" s="5">
         <f>('Ingresos &amp; egresos'!K13-'Ingresos &amp; egresos'!K41)*-1</f>
-        <v>149776000</v>
+        <v>199776000</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="127"/>
+      <c r="M17" s="124"/>
       <c r="N17" s="12"/>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="127"/>
+      <c r="Q17" s="124"/>
       <c r="R17" s="12"/>
       <c r="S17" s="5">
         <v>0</v>
       </c>
       <c r="T17" s="8"/>
-      <c r="U17" s="127"/>
+      <c r="U17" s="124"/>
       <c r="V17" s="12"/>
       <c r="W17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="122"/>
-      <c r="AA17" s="122"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="129"/>
+      <c r="AC17" s="129"/>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="127"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="127"/>
+      <c r="E18" s="124"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="127"/>
+      <c r="I18" s="124"/>
       <c r="J18" s="12"/>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="127"/>
+      <c r="M18" s="124"/>
       <c r="N18" s="12"/>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="127"/>
+      <c r="Q18" s="124"/>
       <c r="R18" s="12"/>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="127"/>
+      <c r="U18" s="124"/>
       <c r="V18" s="12"/>
       <c r="W18" s="5">
         <v>0</v>
@@ -6302,37 +6394,37 @@
       <c r="AC18" s="86"/>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="128"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="128"/>
+      <c r="E19" s="125"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="128"/>
+      <c r="I19" s="125"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="128"/>
+      <c r="M19" s="125"/>
       <c r="N19" s="12"/>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="128"/>
+      <c r="Q19" s="125"/>
       <c r="R19" s="12"/>
       <c r="S19" s="5">
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
-      <c r="U19" s="128"/>
+      <c r="U19" s="125"/>
       <c r="V19" s="12"/>
       <c r="W19" s="5">
         <v>0</v>
@@ -6360,7 +6452,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="9">
         <f>SUM(K16:K19)</f>
-        <v>284776000</v>
+        <v>334776000</v>
       </c>
       <c r="L20" s="8"/>
       <c r="M20" s="3"/>
@@ -6417,43 +6509,43 @@
       <c r="AC21" s="86"/>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="123" t="s">
+      <c r="E22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="123" t="s">
+      <c r="I22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="123" t="s">
+      <c r="M22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="123" t="s">
+      <c r="Q22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="123"/>
-      <c r="S22" s="123"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="123" t="s">
+      <c r="U22" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="123"/>
-      <c r="W22" s="123"/>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="120"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -6497,7 +6589,7 @@
       </c>
       <c r="O23" s="17">
         <f>O20/O13</f>
-        <v>0.41199736321687541</v>
+        <v>0.53428951367781152</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="11" t="s">
@@ -6508,7 +6600,7 @@
       </c>
       <c r="S23" s="17">
         <f>S20/S13</f>
-        <v>0.13684133703109036</v>
+        <v>0.16137824190957081</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="11" t="s">
@@ -6554,7 +6646,7 @@
       </c>
       <c r="K24" s="18">
         <f>K16/J6</f>
-        <v>0.33706518591017587</v>
+        <v>0.38514646977598738</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="11" t="s">
@@ -6565,7 +6657,7 @@
       </c>
       <c r="O24" s="18">
         <f>O16/N6</f>
-        <v>0.17683875959792367</v>
+        <v>0.2187448807621655</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="11" t="s">
@@ -6576,7 +6668,7 @@
       </c>
       <c r="S24" s="18">
         <f>S16/R6</f>
-        <v>5.8644201576072037E-2</v>
+        <v>7.2032928844960473E-2</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="11" t="s">
@@ -6615,7 +6707,7 @@
       </c>
       <c r="K25" s="5">
         <f>K13-K20</f>
-        <v>-284776000</v>
+        <v>-334776000</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="11"/>
@@ -6624,7 +6716,7 @@
       </c>
       <c r="O25" s="5">
         <f>O13-O20</f>
-        <v>128448000</v>
+        <v>78448000</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="11"/>
@@ -6633,7 +6725,7 @@
       </c>
       <c r="S25" s="5">
         <f>S13-S20</f>
-        <v>283848000</v>
+        <v>233848000</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="11"/>
@@ -6642,7 +6734,7 @@
       </c>
       <c r="W25" s="5">
         <f>W13-W20</f>
-        <v>462572000</v>
+        <v>412572000</v>
       </c>
       <c r="Z25" s="88"/>
       <c r="AA25" s="89"/>
@@ -6673,7 +6765,7 @@
       </c>
       <c r="K26" s="5">
         <f>G26+K25</f>
-        <v>-38416000</v>
+        <v>-88416000</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="11"/>
@@ -6682,7 +6774,7 @@
       </c>
       <c r="O26" s="5">
         <f>K26+O25</f>
-        <v>90032000</v>
+        <v>-9968000</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="11"/>
@@ -6691,7 +6783,7 @@
       </c>
       <c r="S26" s="5">
         <f>O26+S25</f>
-        <v>373880000</v>
+        <v>223880000</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="11"/>
@@ -6700,7 +6792,7 @@
       </c>
       <c r="W26" s="5">
         <f>S26+W25</f>
-        <v>836452000</v>
+        <v>636452000</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
@@ -6709,21 +6801,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="Q15:Q19"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B6:C6"/>
@@ -6740,11 +6822,188 @@
     <mergeCell ref="M8:M12"/>
     <mergeCell ref="M15:M19"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="Q15:Q19"/>
+    <mergeCell ref="Q22:S22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0392CCCE-62B9-4FB8-80AC-754304578927}">
+  <dimension ref="B3:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="133" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="136"/>
+      <c r="D6" s="135">
+        <f>Variables!B28*4</f>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="136" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="135">
+        <f>Variables!B31</f>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="136" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="136"/>
+      <c r="D8" s="135">
+        <f>'Ingresos &amp; egresos'!Q36*4</f>
+        <v>720000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="136" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="136"/>
+      <c r="D9" s="135">
+        <f>Variables!B33*4</f>
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="136"/>
+      <c r="D10" s="135">
+        <f>Variables!B32*4</f>
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="136" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="136"/>
+      <c r="D11" s="135">
+        <f>SUM('Ingresos &amp; egresos'!AC24:AC31)</f>
+        <v>1270200000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="136" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="136"/>
+      <c r="D12" s="135">
+        <f>'Ingresos &amp; egresos'!AC33-Variables!B47</f>
+        <v>219000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="132"/>
+      <c r="D13" s="135">
+        <f>SUM(D8:D12)</f>
+        <v>2309200000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="137"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="138"/>
+      <c r="C15" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="137">
+        <f>Variables!B5</f>
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="138"/>
+      <c r="C16" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="137">
+        <f>Balance!V6</f>
+        <v>1006050575.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="137"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="138"/>
+      <c r="C18" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="139">
+        <f>(D16-D15)/D13</f>
+        <v>0.21914540771695826</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HT-6/Optica Modelo Financiero.xlsx
+++ b/HT-6/Optica Modelo Financiero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chech\Documents\GitHub\p3\arquiemp\HT-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3470EED9-F215-4BC1-8C2F-C3E5D3052E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91958302-17B7-4B81-8071-F8FFC98F8600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -919,7 +919,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1136,12 +1136,39 @@
     <xf numFmtId="169" fontId="2" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1151,6 +1178,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,63 +1217,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,44 +1253,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1589,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED2F777-88E5-4EE3-ABB1-5261070B52BB}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1648,7 +1647,7 @@
         <v>500000000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="97"/>
+      <c r="D5" s="101"/>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
@@ -1658,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="97"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
@@ -1668,7 +1667,7 @@
         <v>500000000</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="97"/>
+      <c r="D7" s="101"/>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
@@ -1750,7 +1749,7 @@
       <c r="A17" s="6"/>
       <c r="B17" s="59"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="96"/>
+      <c r="D17" s="100"/>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
@@ -1758,7 +1757,7 @@
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="96"/>
+      <c r="D18" s="100"/>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="50" t="s">
@@ -1768,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="96"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="50" t="s">
@@ -1778,7 +1777,7 @@
         <v>7500000</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="96"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
@@ -1788,7 +1787,7 @@
         <v>1000000</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="96"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="50" t="s">
@@ -1798,7 +1797,7 @@
         <v>0.1</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="96"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
@@ -1808,7 +1807,7 @@
         <v>0.19</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="96"/>
+      <c r="D23" s="100"/>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
@@ -2257,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF4764C-DEDE-C149-BFDF-F902BA43F941}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O23" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2372,510 +2371,510 @@
       <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="112"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="24"/>
-      <c r="M5" s="112" t="s">
+      <c r="M5" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="115" t="s">
+      <c r="N5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="112" t="s">
+      <c r="O5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="112"/>
+      <c r="P5" s="103"/>
       <c r="Q5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="R5" s="24"/>
-      <c r="S5" s="112" t="s">
+      <c r="S5" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="115" t="s">
+      <c r="T5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="112" t="s">
+      <c r="U5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="112"/>
+      <c r="V5" s="103"/>
       <c r="W5" s="40" t="s">
         <v>11</v>
       </c>
       <c r="X5" s="24"/>
-      <c r="Y5" s="112" t="s">
+      <c r="Y5" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="115" t="s">
+      <c r="Z5" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="112" t="s">
+      <c r="AA5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="112"/>
+      <c r="AB5" s="103"/>
       <c r="AC5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="113" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="34">
         <f>Variables!$B$57*Variables!$B$65</f>
         <v>8395000</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="113" t="s">
+      <c r="G6" s="103"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="113"/>
+      <c r="J6" s="110"/>
       <c r="K6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30</f>
         <v>18469000</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="113" t="s">
+      <c r="M6" s="103"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="113"/>
+      <c r="P6" s="110"/>
       <c r="Q6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*2</f>
         <v>36938000</v>
       </c>
       <c r="R6" s="24"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="113" t="s">
+      <c r="S6" s="103"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="113"/>
+      <c r="V6" s="110"/>
       <c r="W6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*2</f>
         <v>36938000</v>
       </c>
       <c r="X6" s="24"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="116"/>
-      <c r="AA6" s="113" t="s">
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="AB6" s="113"/>
+      <c r="AB6" s="110"/>
       <c r="AC6" s="34">
         <f>Variables!B57*Variables!B65*(1+Variables!B22)*Variables!B30*3</f>
         <v>55407000</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="113" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="34">
         <f>Variables!$B$66*Variables!$B$58</f>
         <v>51100000</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="113" t="s">
+      <c r="G7" s="103"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="113"/>
+      <c r="J7" s="110"/>
       <c r="K7" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30</f>
         <v>112420000.00000001</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="113" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="P7" s="113"/>
+      <c r="P7" s="110"/>
       <c r="Q7" s="34">
         <f>Variables!B66*Variables!B58*(1+Variables!B22)*Variables!B30*2</f>
         <v>224840000.00000003</v>
       </c>
       <c r="R7" s="24"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="113" t="s">
+      <c r="S7" s="103"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="V7" s="113"/>
+      <c r="V7" s="110"/>
       <c r="W7" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*2</f>
         <v>224840000.00000003</v>
       </c>
       <c r="X7" s="24"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="113" t="s">
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" s="113"/>
+      <c r="AB7" s="110"/>
       <c r="AC7" s="34">
         <f>Variables!B58*Variables!B66*(1+Variables!B22)*Variables!B30*3</f>
         <v>337260000.00000006</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="113" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="113"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="34">
         <f>(Variables!B64)*Variables!B56*6/5</f>
         <v>657000000</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="113" t="s">
+      <c r="G8" s="103"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="113"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="34">
         <f>(Variables!B64+Variables!B69)*Variables!B56*Variables!B30</f>
         <v>1170000000</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="113" t="s">
+      <c r="M8" s="103"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="113"/>
+      <c r="P8" s="110"/>
       <c r="Q8" s="34">
         <f>(Variables!B64+(2*Variables!B69))*Variables!B56*Variables!B30*2</f>
         <v>2490000000</v>
       </c>
       <c r="R8" s="24"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="113" t="s">
+      <c r="S8" s="103"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="V8" s="113"/>
+      <c r="V8" s="110"/>
       <c r="W8" s="34">
         <f>(Variables!B64+(3*Variables!B69))*Variables!B56*Variables!B30*2</f>
         <v>2640000000</v>
       </c>
       <c r="X8" s="24"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="113" t="s">
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="AB8" s="113"/>
+      <c r="AB8" s="110"/>
       <c r="AC8" s="34">
         <f>(Variables!B64+(3*Variables!B69))*Variables!B56*Variables!B30*3</f>
         <v>3960000000</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="113" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="113"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="34">
         <f>(Variables!B63)*Variables!B55</f>
         <v>180000000</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="113" t="s">
+      <c r="G9" s="103"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="113"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="34">
         <f>(Variables!B63+Variables!B69+Variables!B67)*Variables!B55*Variables!B30</f>
         <v>540000000</v>
       </c>
       <c r="L9" s="24"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="113" t="s">
+      <c r="M9" s="103"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="P9" s="113"/>
+      <c r="P9" s="110"/>
       <c r="Q9" s="34">
         <f>((Variables!B63+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68)*Variables!B55</f>
         <v>990000000</v>
       </c>
       <c r="R9" s="24"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="113" t="s">
+      <c r="S9" s="103"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="113"/>
+      <c r="V9" s="110"/>
       <c r="W9" s="34">
         <f>((Variables!B63+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^3)*Variables!B55</f>
         <v>1440000000</v>
       </c>
       <c r="X9" s="24"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="117"/>
-      <c r="AA9" s="113" t="s">
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="113"/>
+      <c r="AB9" s="110"/>
       <c r="AC9" s="34">
         <f>((Variables!B63+(2*Variables!B69))*Variables!B30*3+Variables!B67*Variables!B68^3)*Variables!B55</f>
         <v>1860000000</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
-      <c r="B10" s="104" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="37">
         <f>SUM(E6:E9)</f>
         <v>896495000</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="104" t="s">
+      <c r="G10" s="103"/>
+      <c r="H10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="112"/>
       <c r="K10" s="37">
         <f>SUM(K6:K9)</f>
         <v>1840889000</v>
       </c>
       <c r="L10" s="24"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="104" t="s">
+      <c r="M10" s="103"/>
+      <c r="N10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="105"/>
-      <c r="P10" s="106"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="112"/>
       <c r="Q10" s="37">
         <f>SUM(Q6:Q9)</f>
         <v>3741778000</v>
       </c>
       <c r="R10" s="24"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="104" t="s">
+      <c r="S10" s="103"/>
+      <c r="T10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="105"/>
-      <c r="V10" s="106"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="112"/>
       <c r="W10" s="37">
         <f>SUM(W6:W9)</f>
         <v>4341778000</v>
       </c>
       <c r="X10" s="24"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="104" t="s">
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="106"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="112"/>
       <c r="AC10" s="37">
         <f>SUM(AC6:AC9)</f>
         <v>6212667000</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="113"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="34">
         <f>Variables!B60*Variables!B59</f>
         <v>1500000</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="112"/>
+      <c r="G11" s="103"/>
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="J11" s="113"/>
+      <c r="J11" s="110"/>
       <c r="K11" s="34">
         <f>Variables!B59*Variables!B60*Variables!B61</f>
         <v>3000000</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="112"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="24"/>
-      <c r="S11" s="112"/>
+      <c r="S11" s="103"/>
       <c r="T11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
       <c r="W11" s="34"/>
       <c r="X11" s="24"/>
-      <c r="Y11" s="112"/>
+      <c r="Y11" s="103"/>
       <c r="Z11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
       <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="104" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="37">
         <f>SUM(E11:E11)</f>
         <v>1500000</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="104" t="s">
+      <c r="G12" s="103"/>
+      <c r="H12" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="112"/>
       <c r="K12" s="37">
         <f>SUM(K11:K11)</f>
         <v>3000000</v>
       </c>
       <c r="L12" s="24"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="104" t="s">
+      <c r="M12" s="103"/>
+      <c r="N12" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="105"/>
-      <c r="P12" s="106"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="112"/>
       <c r="Q12" s="37">
         <f>SUM(Q11:Q11)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="104" t="s">
+      <c r="S12" s="103"/>
+      <c r="T12" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="105"/>
-      <c r="V12" s="106"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="112"/>
       <c r="W12" s="37">
         <f>SUM(W11:W11)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="104" t="s">
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="106"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="112"/>
       <c r="AC12" s="37">
         <f>SUM(AC11:AC11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="37">
         <f>E10+E12</f>
         <v>897995000</v>
       </c>
-      <c r="G13" s="111" t="s">
+      <c r="G13" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
       <c r="K13" s="37">
         <f>K10+K12</f>
         <v>1843889000</v>
       </c>
-      <c r="M13" s="111" t="s">
+      <c r="M13" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
       <c r="Q13" s="37">
         <f>Q10+Q12</f>
         <v>3741778000</v>
       </c>
-      <c r="S13" s="111" t="s">
+      <c r="S13" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
       <c r="W13" s="37">
         <f>W10+W12</f>
         <v>4341778000</v>
       </c>
-      <c r="Y13" s="111" t="s">
+      <c r="Y13" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
       <c r="AC13" s="37">
         <f>AC10+AC12</f>
         <v>6212667000</v>
@@ -2909,76 +2908,76 @@
       <c r="AC14" s="35"/>
     </row>
     <row r="15" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="112"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="115" t="s">
+      <c r="M15" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="115" t="s">
+      <c r="N15" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="112" t="s">
+      <c r="O15" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="112"/>
+      <c r="P15" s="103"/>
       <c r="Q15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="115" t="s">
+      <c r="S15" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="T15" s="115" t="s">
+      <c r="T15" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="112" t="s">
+      <c r="U15" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="112"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Y15" s="115" t="s">
+      <c r="Y15" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="Z15" s="115" t="s">
+      <c r="Z15" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AA15" s="112" t="s">
+      <c r="AA15" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="112"/>
+      <c r="AB15" s="103"/>
       <c r="AC15" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="104" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="43" t="s">
@@ -2988,9 +2987,9 @@
         <f>(Variables!$B$12)*Variables!B15</f>
         <v>99000000</v>
       </c>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="115" t="s">
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="104" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="43" t="s">
@@ -3000,9 +2999,9 @@
         <f>((Variables!$B$12+Variables!B69)*Variables!B30+Variables!B67)*Variables!B15</f>
         <v>250500000</v>
       </c>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="115" t="s">
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="104" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="43" t="s">
@@ -3012,9 +3011,9 @@
         <f>(((Variables!$B$12+(2*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^2))*Variables!B15</f>
         <v>606000000</v>
       </c>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="115" t="s">
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="104" t="s">
         <v>26</v>
       </c>
       <c r="V16" s="74" t="s">
@@ -3024,9 +3023,9 @@
         <f>(((Variables!$B$12+(3*Variables!B69))*Variables!B30*2+Variables!B67*Variables!B68^3))*Variables!B15</f>
         <v>786000000</v>
       </c>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="115" t="s">
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="104" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="74" t="s">
@@ -3038,9 +3037,9 @@
       </c>
     </row>
     <row r="17" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="43" t="s">
         <v>127</v>
       </c>
@@ -3048,9 +3047,9 @@
         <f>Variables!B13*Variables!B64</f>
         <v>328500000</v>
       </c>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="43" t="s">
         <v>127</v>
       </c>
@@ -3058,9 +3057,9 @@
         <f>(Variables!B64+Variables!B69)*Variables!B13*Variables!B30</f>
         <v>702000000</v>
       </c>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
       <c r="P17" s="43" t="s">
         <v>127</v>
       </c>
@@ -3068,9 +3067,9 @@
         <f>(Variables!B64+(2*Variables!B69))*Variables!B13*Variables!B30*2</f>
         <v>1494000000</v>
       </c>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
       <c r="V17" s="75" t="s">
         <v>127</v>
       </c>
@@ -3078,9 +3077,9 @@
         <f>(Variables!B64+(3*Variables!B69))*Variables!B13*Variables!B30*2</f>
         <v>1584000000</v>
       </c>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="116"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="105"/>
       <c r="AB17" s="75" t="s">
         <v>127</v>
       </c>
@@ -3090,9 +3089,9 @@
       </c>
     </row>
     <row r="18" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3100,9 +3099,9 @@
         <f>Variables!B65*Variables!B14</f>
         <v>5475000</v>
       </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
       <c r="J18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3110,9 +3109,9 @@
         <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30</f>
         <v>12045000.000000002</v>
       </c>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
       <c r="P18" s="39" t="s">
         <v>128</v>
       </c>
@@ -3120,9 +3119,9 @@
         <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30*2</f>
         <v>24090000.000000004</v>
       </c>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
       <c r="V18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3130,9 +3129,9 @@
         <f>Variables!B65*Variables!B14*(1+Variables!B22)*Variables!B30*2</f>
         <v>24090000.000000004</v>
       </c>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="116"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
       <c r="AB18" s="76" t="s">
         <v>128</v>
       </c>
@@ -3142,208 +3141,208 @@
       </c>
     </row>
     <row r="19" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="39"/>
       <c r="E19" s="48">
         <v>0</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
       <c r="K19" s="48">
         <v>0</v>
       </c>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
       <c r="V19" s="39"/>
       <c r="W19" s="48">
         <v>0</v>
       </c>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="116"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="39"/>
       <c r="E20" s="34">
         <v>0</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
       <c r="J20" s="39"/>
       <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="34">
         <v>0</v>
       </c>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34">
         <v>0</v>
       </c>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="39"/>
       <c r="E21" s="34">
         <v>0</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
       <c r="J21" s="39"/>
       <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="34">
         <v>0</v>
       </c>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34">
         <v>0</v>
       </c>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
+      <c r="Y21" s="105"/>
+      <c r="Z21" s="105"/>
+      <c r="AA21" s="105"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="39"/>
       <c r="E22" s="34">
         <v>0</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="117"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="39"/>
       <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="117"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="106"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="34">
         <v>0</v>
       </c>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="117"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="106"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34">
         <v>0</v>
       </c>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="117"/>
+      <c r="Y22" s="105"/>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="106"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="104" t="s">
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="106"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="37">
         <f>SUM(E16:E22)</f>
         <v>432975000</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="104" t="s">
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="106"/>
+      <c r="J23" s="112"/>
       <c r="K23" s="37">
         <f>SUM(K16:K22)</f>
         <v>964545000</v>
       </c>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="104" t="s">
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="106"/>
+      <c r="P23" s="112"/>
       <c r="Q23" s="37">
         <f>SUM(Q16:Q22)</f>
         <v>2124090000</v>
       </c>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="104" t="s">
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="106"/>
+      <c r="V23" s="112"/>
       <c r="W23" s="37">
         <f>SUM(W16:W22)</f>
         <v>2394090000</v>
       </c>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="104" t="s">
+      <c r="Y23" s="105"/>
+      <c r="Z23" s="105"/>
+      <c r="AA23" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="106"/>
+      <c r="AB23" s="112"/>
       <c r="AC23" s="37">
         <f>SUM(AC16:AC22)</f>
         <v>3741135000</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="115" t="s">
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="104" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="81" t="s">
@@ -3353,9 +3352,9 @@
         <f>Variables!B39</f>
         <v>16800000</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="115" t="s">
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="104" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="81" t="s">
@@ -3365,9 +3364,9 @@
         <f>Variables!$B$39*Variables!$B$30*1</f>
         <v>33600000</v>
       </c>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="115" t="s">
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="104" t="s">
         <v>29</v>
       </c>
       <c r="P24" s="81" t="s">
@@ -3377,9 +3376,9 @@
         <f>Variables!$B$39*Variables!$B$30*2</f>
         <v>67200000</v>
       </c>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="115" t="s">
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="104" t="s">
         <v>29</v>
       </c>
       <c r="V24" s="81" t="s">
@@ -3389,9 +3388,9 @@
         <f>Variables!$B$39*Variables!$B$30*2</f>
         <v>67200000</v>
       </c>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="115" t="s">
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="104" t="s">
         <v>29</v>
       </c>
       <c r="AB24" s="81" t="s">
@@ -3403,9 +3402,9 @@
       </c>
     </row>
     <row r="25" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3413,9 +3412,9 @@
         <f>Variables!$B$37*Variables!$B$35+Variables!B36</f>
         <v>65800000</v>
       </c>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3423,9 +3422,9 @@
         <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*1+Variables!$B$36*Variables!$B$30*1</f>
         <v>131600000</v>
       </c>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
       <c r="P25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3433,9 +3432,9 @@
         <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*2+Variables!$B$36*Variables!$B$30*2</f>
         <v>263200000</v>
       </c>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
       <c r="V25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3443,9 +3442,9 @@
         <f>Variables!$B$35*Variables!$B$37*Variables!$B$30*3+Variables!$B$36*Variables!$B$30*2</f>
         <v>392800000</v>
       </c>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="116"/>
+      <c r="Y25" s="105"/>
+      <c r="Z25" s="105"/>
+      <c r="AA25" s="105"/>
       <c r="AB25" s="82" t="s">
         <v>89</v>
       </c>
@@ -3455,9 +3454,9 @@
       </c>
     </row>
     <row r="26" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3465,9 +3464,9 @@
         <f>Variables!B38</f>
         <v>36000000</v>
       </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
       <c r="J26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3475,9 +3474,9 @@
         <f>Variables!$B$38*Variables!$B$30*1</f>
         <v>72000000</v>
       </c>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
       <c r="P26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3485,9 +3484,9 @@
         <f>Variables!$B$38*Variables!$B$30*2</f>
         <v>144000000</v>
       </c>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
       <c r="V26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3495,9 +3494,9 @@
         <f>Variables!$B$38*Variables!$B$30*2</f>
         <v>144000000</v>
       </c>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="116"/>
+      <c r="Y26" s="105"/>
+      <c r="Z26" s="105"/>
+      <c r="AA26" s="105"/>
       <c r="AB26" s="81" t="s">
         <v>90</v>
       </c>
@@ -3507,9 +3506,9 @@
       </c>
     </row>
     <row r="27" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="82" t="s">
         <v>27</v>
       </c>
@@ -3517,9 +3516,9 @@
         <f>Variables!B50</f>
         <v>2160000</v>
       </c>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
       <c r="J27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3527,9 +3526,9 @@
         <f>Variables!$B$40</f>
         <v>72000000</v>
       </c>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
       <c r="P27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3537,9 +3536,9 @@
         <f>Variables!$B$40+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
       <c r="V27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3547,9 +3546,9 @@
         <f>Variables!$B$40+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
-      <c r="AA27" s="116"/>
+      <c r="Y27" s="105"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
       <c r="AB27" s="81" t="s">
         <v>148</v>
       </c>
@@ -3559,9 +3558,9 @@
       </c>
     </row>
     <row r="28" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="83" t="s">
         <v>102</v>
       </c>
@@ -3569,9 +3568,9 @@
         <f>Variables!$B$47</f>
         <v>43800000</v>
       </c>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
       <c r="J28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3579,9 +3578,9 @@
         <f>Variables!$B$41</f>
         <v>84000000</v>
       </c>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
       <c r="P28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3589,9 +3588,9 @@
         <f>Variables!$B$41+Variables!$B$45</f>
         <v>87000000</v>
       </c>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
       <c r="V28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3599,9 +3598,9 @@
         <f>Variables!$B$41+Variables!$B$45</f>
         <v>87000000</v>
       </c>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="116"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
       <c r="AB28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3611,9 +3610,9 @@
       </c>
     </row>
     <row r="29" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="83" t="s">
         <v>136</v>
       </c>
@@ -3621,9 +3620,9 @@
         <f>Variables!$B$48</f>
         <v>20000000</v>
       </c>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
       <c r="J29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3631,9 +3630,9 @@
         <f>Variables!$B$42</f>
         <v>72000000</v>
       </c>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
       <c r="P29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3641,9 +3640,9 @@
         <f>Variables!$B$42+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
       <c r="V29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3651,9 +3650,9 @@
         <f>Variables!$B$42+Variables!$B$45</f>
         <v>75000000</v>
       </c>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
+      <c r="Y29" s="105"/>
+      <c r="Z29" s="105"/>
+      <c r="AA29" s="105"/>
       <c r="AB29" s="81" t="s">
         <v>149</v>
       </c>
@@ -3663,9 +3662,9 @@
       </c>
     </row>
     <row r="30" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="116"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="81" t="s">
         <v>137</v>
       </c>
@@ -3673,9 +3672,9 @@
         <f>Variables!$B$49</f>
         <v>18000000</v>
       </c>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
       <c r="J30" s="81" t="s">
         <v>165</v>
       </c>
@@ -3683,9 +3682,9 @@
         <f>Variables!$B$43</f>
         <v>60000000</v>
       </c>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="81" t="s">
         <v>165</v>
       </c>
@@ -3693,9 +3692,9 @@
         <f>Variables!$B$43+Variables!$B$45</f>
         <v>63000000</v>
       </c>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
       <c r="V30" s="81" t="s">
         <v>165</v>
       </c>
@@ -3703,9 +3702,9 @@
         <f>Variables!$B$43+Variables!$B$45</f>
         <v>63000000</v>
       </c>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="116"/>
+      <c r="Y30" s="105"/>
+      <c r="Z30" s="105"/>
+      <c r="AA30" s="105"/>
       <c r="AB30" s="81" t="s">
         <v>165</v>
       </c>
@@ -3715,9 +3714,9 @@
       </c>
     </row>
     <row r="31" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="81" t="s">
         <v>160</v>
       </c>
@@ -3725,9 +3724,9 @@
         <f>Variables!B27</f>
         <v>600000</v>
       </c>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
       <c r="J31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3735,9 +3734,9 @@
         <f>Variables!$B$44</f>
         <v>96000000</v>
       </c>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
       <c r="P31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3745,9 +3744,9 @@
         <f>Variables!$B$44+Variables!$B$45</f>
         <v>99000000</v>
       </c>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
       <c r="V31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3755,9 +3754,9 @@
         <f>Variables!$B$44+Variables!$B$45</f>
         <v>99000000</v>
       </c>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="116"/>
+      <c r="Y31" s="105"/>
+      <c r="Z31" s="105"/>
+      <c r="AA31" s="105"/>
       <c r="AB31" s="81" t="s">
         <v>152</v>
       </c>
@@ -3767,9 +3766,9 @@
       </c>
     </row>
     <row r="32" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="81" t="s">
         <v>162</v>
       </c>
@@ -3777,9 +3776,9 @@
         <f>Variables!B29</f>
         <v>5000000</v>
       </c>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
       <c r="J32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3787,9 +3786,9 @@
         <f>Variables!$B$50*Variables!$B$30*1</f>
         <v>4320000</v>
       </c>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
       <c r="P32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3797,9 +3796,9 @@
         <f>Variables!$B$50*Variables!$B$30*2</f>
         <v>8640000</v>
       </c>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
       <c r="V32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3807,9 +3806,9 @@
         <f>Variables!$B$50*Variables!$B$30*2</f>
         <v>8640000</v>
       </c>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
+      <c r="Y32" s="105"/>
+      <c r="Z32" s="105"/>
+      <c r="AA32" s="105"/>
       <c r="AB32" s="82" t="s">
         <v>27</v>
       </c>
@@ -3819,9 +3818,9 @@
       </c>
     </row>
     <row r="33" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="43" t="s">
         <v>138</v>
       </c>
@@ -3829,9 +3828,9 @@
         <f>Variables!B20</f>
         <v>7500000</v>
       </c>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
       <c r="J33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3839,9 +3838,9 @@
         <f>Variables!$B$47*Variables!$B$30*1</f>
         <v>87600000</v>
       </c>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
       <c r="P33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3849,9 +3848,9 @@
         <f>Variables!$B$47*Variables!$B$30*2</f>
         <v>175200000</v>
       </c>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
       <c r="V33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3859,9 +3858,9 @@
         <f>Variables!$B$47*Variables!$B$30*2</f>
         <v>175200000</v>
       </c>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="105"/>
       <c r="AB33" s="83" t="s">
         <v>102</v>
       </c>
@@ -3871,9 +3870,9 @@
       </c>
     </row>
     <row r="34" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="43" t="s">
         <v>139</v>
       </c>
@@ -3881,9 +3880,9 @@
         <f>Variables!B21*Variables!B19</f>
         <v>3000000</v>
       </c>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
       <c r="J34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3891,9 +3890,9 @@
         <f>Variables!$B$48*Variables!$B$30*1</f>
         <v>40000000</v>
       </c>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
       <c r="P34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3901,9 +3900,9 @@
         <f>Variables!$B$48*Variables!$B$30*2</f>
         <v>80000000</v>
       </c>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
       <c r="V34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3911,9 +3910,9 @@
         <f>Variables!$B$48*Variables!$B$30*2</f>
         <v>80000000</v>
       </c>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="116"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="105"/>
       <c r="AB34" s="83" t="s">
         <v>136</v>
       </c>
@@ -3923,14 +3922,14 @@
       </c>
     </row>
     <row r="35" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="43"/>
       <c r="E35" s="80"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
       <c r="J35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3938,9 +3937,9 @@
         <f>Variables!$B$49*Variables!$B$30*1</f>
         <v>36000000</v>
       </c>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
       <c r="P35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3948,9 +3947,9 @@
         <f>Variables!$B$49*Variables!$B$30*2</f>
         <v>72000000</v>
       </c>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
       <c r="V35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3958,9 +3957,9 @@
         <f>Variables!$B$49*Variables!$B$30*2</f>
         <v>72000000</v>
       </c>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="116"/>
+      <c r="Y35" s="105"/>
+      <c r="Z35" s="105"/>
+      <c r="AA35" s="105"/>
       <c r="AB35" s="81" t="s">
         <v>137</v>
       </c>
@@ -3970,14 +3969,14 @@
       </c>
     </row>
     <row r="36" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="43"/>
       <c r="E36" s="80"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
       <c r="J36" s="81" t="s">
         <v>163</v>
       </c>
@@ -3985,9 +3984,9 @@
         <f>Variables!$B$30*Variables!$B$51</f>
         <v>180000000</v>
       </c>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
       <c r="P36" s="81" t="s">
         <v>163</v>
       </c>
@@ -3995,9 +3994,9 @@
         <f>Variables!$B$30*Variables!$B$51</f>
         <v>180000000</v>
       </c>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
       <c r="V36" s="81" t="s">
         <v>163</v>
       </c>
@@ -4005,9 +4004,9 @@
         <f>Variables!$B$30*Variables!$B$51</f>
         <v>180000000</v>
       </c>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
+      <c r="Y36" s="105"/>
+      <c r="Z36" s="105"/>
+      <c r="AA36" s="105"/>
       <c r="AB36" s="81" t="s">
         <v>163</v>
       </c>
@@ -4017,14 +4016,14 @@
       </c>
     </row>
     <row r="37" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="43"/>
       <c r="E37" s="80"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
       <c r="J37" s="81" t="s">
         <v>164</v>
       </c>
@@ -4032,9 +4031,9 @@
         <f>Variables!$B$31+Variables!$B$32</f>
         <v>60000000</v>
       </c>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
       <c r="P37" s="81" t="s">
         <v>170</v>
       </c>
@@ -4042,9 +4041,9 @@
         <f>Variables!$B$32</f>
         <v>10000000</v>
       </c>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
       <c r="V37" s="81" t="s">
         <v>170</v>
       </c>
@@ -4052,9 +4051,9 @@
         <f>Variables!$B$32</f>
         <v>10000000</v>
       </c>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="116"/>
+      <c r="Y37" s="105"/>
+      <c r="Z37" s="105"/>
+      <c r="AA37" s="105"/>
       <c r="AB37" s="81" t="s">
         <v>170</v>
       </c>
@@ -4064,14 +4063,14 @@
       </c>
     </row>
     <row r="38" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="43"/>
       <c r="E38" s="80"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
       <c r="J38" s="81" t="s">
         <v>180</v>
       </c>
@@ -4079,9 +4078,9 @@
         <f>Variables!$B$28</f>
         <v>50000000</v>
       </c>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
       <c r="P38" s="81" t="s">
         <v>180</v>
       </c>
@@ -4089,9 +4088,9 @@
         <f>Variables!$B$28</f>
         <v>50000000</v>
       </c>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
       <c r="V38" s="81" t="s">
         <v>180</v>
       </c>
@@ -4099,9 +4098,9 @@
         <f>Variables!$B$28</f>
         <v>50000000</v>
       </c>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="116"/>
+      <c r="Y38" s="105"/>
+      <c r="Z38" s="105"/>
+      <c r="AA38" s="105"/>
       <c r="AB38" s="81" t="s">
         <v>180</v>
       </c>
@@ -4111,153 +4110,153 @@
       </c>
     </row>
     <row r="39" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="117"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="43"/>
       <c r="E39" s="80"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="117"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="106"/>
       <c r="J39" s="81"/>
       <c r="K39" s="80"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="117"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="106"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="117"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="106"/>
       <c r="V39" s="82"/>
       <c r="W39" s="56"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="117"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="106"/>
       <c r="AB39" s="82"/>
       <c r="AC39" s="56"/>
     </row>
     <row r="40" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="116"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="104" t="s">
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="120"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="72">
         <f>SUM(E24:E34)</f>
         <v>218660000</v>
       </c>
-      <c r="G40" s="116"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="104" t="s">
+      <c r="G40" s="105"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="J40" s="106"/>
+      <c r="J40" s="112"/>
       <c r="K40" s="37">
         <f>SUM(K24:K39)</f>
         <v>1079120000</v>
       </c>
-      <c r="M40" s="116"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="104" t="s">
+      <c r="M40" s="105"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="118"/>
+      <c r="P40" s="124"/>
       <c r="Q40" s="37">
         <f>SUM(Q24:Q39)</f>
         <v>1449240000</v>
       </c>
-      <c r="S40" s="116"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="104" t="s">
+      <c r="S40" s="105"/>
+      <c r="T40" s="106"/>
+      <c r="U40" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="106"/>
+      <c r="V40" s="112"/>
       <c r="W40" s="37">
         <f>SUM(W24:W39)</f>
         <v>1578840000</v>
       </c>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="104" t="s">
+      <c r="Y40" s="105"/>
+      <c r="Z40" s="106"/>
+      <c r="AA40" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="AB40" s="106"/>
+      <c r="AB40" s="112"/>
       <c r="AC40" s="37">
         <f>SUM(AC24:AC39)</f>
         <v>2013960000</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="116"/>
-      <c r="B41" s="104" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="106"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="37">
         <f>E23+E40</f>
         <v>651635000</v>
       </c>
-      <c r="G41" s="116"/>
-      <c r="H41" s="104" t="s">
+      <c r="G41" s="105"/>
+      <c r="H41" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="112"/>
       <c r="K41" s="37">
         <f>K23+K40</f>
         <v>2043665000</v>
       </c>
-      <c r="M41" s="116"/>
-      <c r="N41" s="104" t="s">
+      <c r="M41" s="105"/>
+      <c r="N41" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="O41" s="105"/>
-      <c r="P41" s="106"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="112"/>
       <c r="Q41" s="37">
         <f>Q23+Q40</f>
         <v>3573330000</v>
       </c>
-      <c r="S41" s="116"/>
-      <c r="T41" s="104" t="s">
+      <c r="S41" s="105"/>
+      <c r="T41" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="U41" s="105"/>
-      <c r="V41" s="106"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="112"/>
       <c r="W41" s="37">
         <f>W23+W40</f>
         <v>3972930000</v>
       </c>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="104" t="s">
+      <c r="Y41" s="105"/>
+      <c r="Z41" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AA41" s="105"/>
-      <c r="AB41" s="106"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="112"/>
       <c r="AC41" s="37">
         <f>AC23+AC40</f>
         <v>5755095000</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="116"/>
-      <c r="B42" s="107" t="s">
+      <c r="A42" s="105"/>
+      <c r="B42" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="108"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="34">
         <v>0</v>
       </c>
-      <c r="G42" s="116"/>
-      <c r="H42" s="107" t="s">
+      <c r="G42" s="105"/>
+      <c r="H42" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="I42" s="108"/>
+      <c r="I42" s="116"/>
       <c r="J42" s="39" t="s">
         <v>172</v>
       </c>
@@ -4265,11 +4264,11 @@
         <f>Variables!B51*Variables!B30</f>
         <v>180000000</v>
       </c>
-      <c r="M42" s="116"/>
-      <c r="N42" s="107" t="s">
+      <c r="M42" s="105"/>
+      <c r="N42" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="108"/>
+      <c r="O42" s="116"/>
       <c r="P42" s="39" t="s">
         <v>172</v>
       </c>
@@ -4277,11 +4276,11 @@
         <f>K42-K49</f>
         <v>135000000</v>
       </c>
-      <c r="S42" s="116"/>
-      <c r="T42" s="107" t="s">
+      <c r="S42" s="105"/>
+      <c r="T42" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="U42" s="108"/>
+      <c r="U42" s="116"/>
       <c r="V42" s="39" t="s">
         <v>172</v>
       </c>
@@ -4289,11 +4288,11 @@
         <f>Q42-Q49</f>
         <v>90000000</v>
       </c>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="107" t="s">
+      <c r="Y42" s="105"/>
+      <c r="Z42" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="AA42" s="108"/>
+      <c r="AA42" s="116"/>
       <c r="AB42" s="39" t="s">
         <v>172</v>
       </c>
@@ -4303,143 +4302,143 @@
       </c>
     </row>
     <row r="43" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="116"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="110"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="39" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="34">
         <v>0</v>
       </c>
-      <c r="G43" s="116"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="110"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="118"/>
       <c r="J43" s="39"/>
       <c r="K43" s="34">
         <v>0</v>
       </c>
-      <c r="M43" s="116"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="110"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="118"/>
       <c r="P43" s="39"/>
       <c r="Q43" s="34">
         <v>0</v>
       </c>
-      <c r="S43" s="116"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="110"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="118"/>
       <c r="V43" s="39"/>
       <c r="W43" s="34">
         <v>0</v>
       </c>
-      <c r="Y43" s="116"/>
-      <c r="Z43" s="109"/>
-      <c r="AA43" s="110"/>
+      <c r="Y43" s="105"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="118"/>
       <c r="AB43" s="39"/>
       <c r="AC43" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
-      <c r="B44" s="104" t="s">
+      <c r="A44" s="106"/>
+      <c r="B44" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="105"/>
-      <c r="D44" s="106"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="112"/>
       <c r="E44" s="37">
         <f>SUM(E42:E43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="117"/>
-      <c r="H44" s="104" t="s">
+      <c r="G44" s="106"/>
+      <c r="H44" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="105"/>
-      <c r="J44" s="106"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="112"/>
       <c r="K44" s="37">
         <f>SUM(K42:K43)</f>
         <v>180000000</v>
       </c>
-      <c r="M44" s="117"/>
-      <c r="N44" s="104" t="s">
+      <c r="M44" s="106"/>
+      <c r="N44" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="105"/>
-      <c r="P44" s="106"/>
+      <c r="O44" s="113"/>
+      <c r="P44" s="112"/>
       <c r="Q44" s="37">
         <f>SUM(Q42:Q43)</f>
         <v>135000000</v>
       </c>
-      <c r="S44" s="117"/>
-      <c r="T44" s="104" t="s">
+      <c r="S44" s="106"/>
+      <c r="T44" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="105"/>
-      <c r="V44" s="106"/>
+      <c r="U44" s="113"/>
+      <c r="V44" s="112"/>
       <c r="W44" s="37">
         <f>SUM(W42:W43)</f>
         <v>90000000</v>
       </c>
-      <c r="Y44" s="117"/>
-      <c r="Z44" s="104" t="s">
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="AA44" s="105"/>
-      <c r="AB44" s="106"/>
+      <c r="AA44" s="113"/>
+      <c r="AB44" s="112"/>
       <c r="AC44" s="37">
         <f>SUM(AC42:AC43)</f>
         <v>45000000</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
       <c r="E45" s="37">
         <f>E41+E44</f>
         <v>651635000</v>
       </c>
-      <c r="G45" s="111" t="s">
+      <c r="G45" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
       <c r="K45" s="37">
         <f>K41+K44</f>
         <v>2223665000</v>
       </c>
-      <c r="M45" s="111" t="s">
+      <c r="M45" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="111"/>
-      <c r="O45" s="111"/>
-      <c r="P45" s="111"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
       <c r="Q45" s="37">
         <f>Q41+Q44</f>
         <v>3708330000</v>
       </c>
-      <c r="S45" s="111" t="s">
+      <c r="S45" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="T45" s="111"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
+      <c r="T45" s="102"/>
+      <c r="U45" s="102"/>
+      <c r="V45" s="102"/>
       <c r="W45" s="37">
         <f>W41+W44</f>
         <v>4062930000</v>
       </c>
-      <c r="Y45" s="111" t="s">
+      <c r="Y45" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="Z45" s="111"/>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
+      <c r="Z45" s="102"/>
+      <c r="AA45" s="102"/>
+      <c r="AB45" s="102"/>
       <c r="AC45" s="37">
         <f>AC41+AC44</f>
         <v>5800095000</v>
@@ -4473,52 +4472,52 @@
       <c r="AC46" s="35"/>
     </row>
     <row r="47" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="79">
         <f>E13-E45+Balance!C9</f>
         <v>746360000</v>
       </c>
-      <c r="G47" s="114" t="s">
+      <c r="G47" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="114"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
       <c r="K47" s="79">
         <f>K13-K41+E47-K42</f>
         <v>366584000</v>
       </c>
-      <c r="M47" s="114" t="s">
+      <c r="M47" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="119"/>
+      <c r="P47" s="119"/>
       <c r="Q47" s="79">
         <f>Q13-Q45+K47</f>
         <v>400032000</v>
       </c>
-      <c r="S47" s="114" t="s">
+      <c r="S47" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
+      <c r="T47" s="119"/>
+      <c r="U47" s="119"/>
+      <c r="V47" s="119"/>
       <c r="W47" s="79">
         <f>W13-W41-W42+Q47</f>
         <v>678880000</v>
       </c>
-      <c r="Y47" s="114" t="s">
+      <c r="Y47" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="Z47" s="114"/>
-      <c r="AA47" s="114"/>
-      <c r="AB47" s="114"/>
+      <c r="Z47" s="119"/>
+      <c r="AA47" s="119"/>
+      <c r="AB47" s="119"/>
       <c r="AC47" s="79">
         <f>AC13-AC45+W47</f>
         <v>1091452000</v>
@@ -4528,10 +4527,10 @@
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="119" t="s">
+      <c r="D48" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="119"/>
+      <c r="E48" s="123"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -4554,216 +4553,216 @@
       <c r="AC48" s="35"/>
     </row>
     <row r="49" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
       <c r="E49" s="37">
         <v>0</v>
       </c>
-      <c r="G49" s="112" t="s">
+      <c r="G49" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="113" t="s">
+      <c r="H49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
       <c r="K49" s="37">
         <f>K42*Variables!$B$25</f>
         <v>45000000</v>
       </c>
-      <c r="M49" s="112" t="s">
+      <c r="M49" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="N49" s="113" t="s">
+      <c r="N49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
       <c r="Q49" s="37">
         <f>K42*Variables!$B$25</f>
         <v>45000000</v>
       </c>
-      <c r="S49" s="112" t="s">
+      <c r="S49" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="T49" s="113" t="s">
+      <c r="T49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="113"/>
-      <c r="V49" s="113"/>
+      <c r="U49" s="110"/>
+      <c r="V49" s="110"/>
       <c r="W49" s="93">
         <f>K42*Variables!B25</f>
         <v>45000000</v>
       </c>
-      <c r="Y49" s="112" t="s">
+      <c r="Y49" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Z49" s="113" t="s">
+      <c r="Z49" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="AA49" s="113"/>
-      <c r="AB49" s="113"/>
+      <c r="AA49" s="110"/>
+      <c r="AB49" s="110"/>
       <c r="AC49" s="34">
         <f>K42*Variables!B25</f>
         <v>45000000</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
-      <c r="B50" s="113" t="s">
+      <c r="A50" s="103"/>
+      <c r="B50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
       <c r="E50" s="37">
         <v>0</v>
       </c>
-      <c r="G50" s="112"/>
-      <c r="H50" s="113" t="s">
+      <c r="G50" s="103"/>
+      <c r="H50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
       <c r="K50" s="37">
         <f>'Ingresos &amp; egresos'!K42*Variables!$B$26</f>
         <v>30000000</v>
       </c>
-      <c r="M50" s="112"/>
-      <c r="N50" s="113" t="s">
+      <c r="M50" s="103"/>
+      <c r="N50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="O50" s="113"/>
-      <c r="P50" s="113"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
       <c r="Q50" s="37">
         <f>'Ingresos &amp; egresos'!Q42*Variables!$B$26</f>
         <v>22500000</v>
       </c>
-      <c r="S50" s="112"/>
-      <c r="T50" s="113" t="s">
+      <c r="S50" s="103"/>
+      <c r="T50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="113"/>
-      <c r="V50" s="113"/>
+      <c r="U50" s="110"/>
+      <c r="V50" s="110"/>
       <c r="W50" s="94">
         <f>W42*Variables!B26</f>
         <v>15000000</v>
       </c>
-      <c r="Y50" s="112"/>
-      <c r="Z50" s="113" t="s">
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="AA50" s="113"/>
-      <c r="AB50" s="113"/>
+      <c r="AA50" s="110"/>
+      <c r="AB50" s="110"/>
       <c r="AC50" s="34">
         <f>AC42*Variables!B26</f>
         <v>7500000</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="112"/>
-      <c r="B51" s="113" t="s">
+      <c r="A51" s="103"/>
+      <c r="B51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
       <c r="E51" s="37">
         <f>E47*Variables!$B$24</f>
         <v>37318000</v>
       </c>
-      <c r="G51" s="112"/>
-      <c r="H51" s="113" t="s">
+      <c r="G51" s="103"/>
+      <c r="H51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
       <c r="K51" s="37">
         <f>K47*Variables!$B$24</f>
         <v>18329200</v>
       </c>
-      <c r="M51" s="112"/>
-      <c r="N51" s="113" t="s">
+      <c r="M51" s="103"/>
+      <c r="N51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="113"/>
-      <c r="P51" s="113"/>
+      <c r="O51" s="110"/>
+      <c r="P51" s="110"/>
       <c r="Q51" s="37">
         <f>Q47*Variables!$B$24</f>
         <v>20001600</v>
       </c>
-      <c r="S51" s="112"/>
-      <c r="T51" s="113" t="s">
+      <c r="S51" s="103"/>
+      <c r="T51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="U51" s="113"/>
-      <c r="V51" s="113"/>
+      <c r="U51" s="110"/>
+      <c r="V51" s="110"/>
       <c r="W51" s="37">
         <f>W47*Variables!$B$24</f>
         <v>33944000</v>
       </c>
-      <c r="Y51" s="112"/>
-      <c r="Z51" s="113" t="s">
+      <c r="Y51" s="103"/>
+      <c r="Z51" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="AA51" s="113"/>
-      <c r="AB51" s="113"/>
+      <c r="AA51" s="110"/>
+      <c r="AB51" s="110"/>
       <c r="AC51" s="37">
         <f>AC47*Variables!$B$24</f>
         <v>54572600</v>
       </c>
     </row>
     <row r="52" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="113" t="s">
+      <c r="A52" s="103"/>
+      <c r="B52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
       <c r="E52" s="37">
         <f>E47*Variables!$B$23</f>
         <v>141808400</v>
       </c>
-      <c r="G52" s="112"/>
-      <c r="H52" s="113" t="s">
+      <c r="G52" s="103"/>
+      <c r="H52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
       <c r="K52" s="37">
         <f>K47*Variables!$B$23</f>
         <v>69650960</v>
       </c>
-      <c r="M52" s="112"/>
-      <c r="N52" s="113" t="s">
+      <c r="M52" s="103"/>
+      <c r="N52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="O52" s="113"/>
-      <c r="P52" s="113"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
       <c r="Q52" s="37">
         <f>Q47*Variables!$B$23</f>
         <v>76006080</v>
       </c>
-      <c r="S52" s="112"/>
-      <c r="T52" s="113" t="s">
+      <c r="S52" s="103"/>
+      <c r="T52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="U52" s="113"/>
-      <c r="V52" s="113"/>
+      <c r="U52" s="110"/>
+      <c r="V52" s="110"/>
       <c r="W52" s="37">
         <f>W47*Variables!$B$23</f>
         <v>128987200</v>
       </c>
-      <c r="Y52" s="112"/>
-      <c r="Z52" s="113" t="s">
+      <c r="Y52" s="103"/>
+      <c r="Z52" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="113"/>
-      <c r="AB52" s="113"/>
+      <c r="AA52" s="110"/>
+      <c r="AB52" s="110"/>
       <c r="AC52" s="37">
         <f>AC47*Variables!$B$23</f>
         <v>207375880</v>
@@ -4841,55 +4840,55 @@
       <c r="AC54" s="35"/>
     </row>
     <row r="55" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="102"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="103"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="122"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="101" t="s">
+      <c r="G55" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="103"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="122"/>
       <c r="L55" s="32"/>
-      <c r="M55" s="101" t="s">
+      <c r="M55" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="N55" s="102"/>
-      <c r="O55" s="102"/>
-      <c r="P55" s="102"/>
-      <c r="Q55" s="103"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="121"/>
+      <c r="Q55" s="122"/>
       <c r="R55" s="32"/>
-      <c r="S55" s="101" t="s">
+      <c r="S55" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="102"/>
-      <c r="U55" s="102"/>
-      <c r="V55" s="102"/>
-      <c r="W55" s="103"/>
+      <c r="T55" s="121"/>
+      <c r="U55" s="121"/>
+      <c r="V55" s="121"/>
+      <c r="W55" s="122"/>
       <c r="X55" s="32"/>
-      <c r="Y55" s="101" t="s">
+      <c r="Y55" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="Z55" s="102"/>
-      <c r="AA55" s="102"/>
-      <c r="AB55" s="102"/>
-      <c r="AC55" s="103"/>
+      <c r="Z55" s="121"/>
+      <c r="AA55" s="121"/>
+      <c r="AB55" s="121"/>
+      <c r="AC55" s="122"/>
     </row>
     <row r="56" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="100"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="109"/>
       <c r="E56" s="34">
         <f>E13-E23</f>
         <v>465020000</v>
@@ -4898,11 +4897,11 @@
       <c r="G56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="98" t="s">
+      <c r="H56" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="99"/>
-      <c r="J56" s="100"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="109"/>
       <c r="K56" s="34">
         <f>K13-K23</f>
         <v>879344000</v>
@@ -4911,11 +4910,11 @@
       <c r="M56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="98" t="s">
+      <c r="N56" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="99"/>
-      <c r="P56" s="100"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="109"/>
       <c r="Q56" s="34">
         <f>Q13-Q23</f>
         <v>1617688000</v>
@@ -4924,11 +4923,11 @@
       <c r="S56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="T56" s="98" t="s">
+      <c r="T56" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="U56" s="99"/>
-      <c r="V56" s="100"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="109"/>
       <c r="W56" s="34">
         <f>W13-W23</f>
         <v>1947688000</v>
@@ -4937,11 +4936,11 @@
       <c r="Y56" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="Z56" s="98" t="s">
+      <c r="Z56" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="AA56" s="99"/>
-      <c r="AB56" s="100"/>
+      <c r="AA56" s="108"/>
+      <c r="AB56" s="109"/>
       <c r="AC56" s="34">
         <f>AC13-AC23</f>
         <v>2471532000</v>
@@ -4951,11 +4950,11 @@
       <c r="A57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="100"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
       <c r="E57" s="33">
         <f>E56/E13</f>
         <v>0.51784252696284505</v>
@@ -4964,11 +4963,11 @@
       <c r="G57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="98" t="s">
+      <c r="H57" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="I57" s="99"/>
-      <c r="J57" s="100"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="109"/>
       <c r="K57" s="33">
         <f>K56/K13</f>
         <v>0.47689638584535188</v>
@@ -4977,11 +4976,11 @@
       <c r="M57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="98" t="s">
+      <c r="N57" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="O57" s="99"/>
-      <c r="P57" s="100"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="109"/>
       <c r="Q57" s="33">
         <f>Q56/Q13</f>
         <v>0.43233136760117785</v>
@@ -4990,11 +4989,11 @@
       <c r="S57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T57" s="98" t="s">
+      <c r="T57" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="U57" s="99"/>
-      <c r="V57" s="100"/>
+      <c r="U57" s="108"/>
+      <c r="V57" s="109"/>
       <c r="W57" s="33">
         <f>W56/W13</f>
         <v>0.44859225874745323</v>
@@ -5003,11 +5002,11 @@
       <c r="Y57" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Z57" s="98" t="s">
+      <c r="Z57" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="AA57" s="99"/>
-      <c r="AB57" s="100"/>
+      <c r="AA57" s="108"/>
+      <c r="AB57" s="109"/>
       <c r="AC57" s="33">
         <f>AC56/AC13</f>
         <v>0.39782141872403592</v>
@@ -5017,11 +5016,11 @@
       <c r="A58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="100"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="109"/>
       <c r="E58" s="34">
         <f>E56-E40</f>
         <v>246360000</v>
@@ -5030,11 +5029,11 @@
       <c r="G58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="98" t="s">
+      <c r="H58" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="99"/>
-      <c r="J58" s="100"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="109"/>
       <c r="K58" s="34">
         <f>K56-K40</f>
         <v>-199776000</v>
@@ -5043,11 +5042,11 @@
       <c r="M58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="N58" s="98" t="s">
+      <c r="N58" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="O58" s="99"/>
-      <c r="P58" s="100"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="109"/>
       <c r="Q58" s="34">
         <f>Q56-Q40</f>
         <v>168448000</v>
@@ -5056,11 +5055,11 @@
       <c r="S58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T58" s="98" t="s">
+      <c r="T58" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="U58" s="99"/>
-      <c r="V58" s="100"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="109"/>
       <c r="W58" s="34">
         <f>W56-W40</f>
         <v>368848000</v>
@@ -5069,11 +5068,11 @@
       <c r="Y58" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="Z58" s="98" t="s">
+      <c r="Z58" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="AA58" s="99"/>
-      <c r="AB58" s="100"/>
+      <c r="AA58" s="108"/>
+      <c r="AB58" s="109"/>
       <c r="AC58" s="34">
         <f>AC56-AC40</f>
         <v>457572000</v>
@@ -5083,11 +5082,11 @@
       <c r="A59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="98" t="s">
+      <c r="B59" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="100"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="109"/>
       <c r="E59" s="33">
         <f>E58/E13</f>
         <v>0.27434451194048964</v>
@@ -5096,11 +5095,11 @@
       <c r="G59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="98" t="s">
+      <c r="H59" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="99"/>
-      <c r="J59" s="100"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="109"/>
       <c r="K59" s="33">
         <f>K58/K13</f>
         <v>-0.1083449166408607</v>
@@ -5109,11 +5108,11 @@
       <c r="M59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="98" t="s">
+      <c r="N59" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="O59" s="99"/>
-      <c r="P59" s="100"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="109"/>
       <c r="Q59" s="33">
         <f>Q58/Q13</f>
         <v>4.5018170506106993E-2</v>
@@ -5122,11 +5121,11 @@
       <c r="S59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="T59" s="98" t="s">
+      <c r="T59" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="99"/>
-      <c r="V59" s="100"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="109"/>
       <c r="W59" s="33">
         <f>W58/W13</f>
         <v>8.4953215019284725E-2</v>
@@ -5135,11 +5134,11 @@
       <c r="Y59" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="Z59" s="98" t="s">
+      <c r="Z59" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" s="99"/>
-      <c r="AB59" s="100"/>
+      <c r="AA59" s="108"/>
+      <c r="AB59" s="109"/>
       <c r="AC59" s="33">
         <f>AC58/AC13</f>
         <v>7.3651460797754004E-2</v>
@@ -5149,11 +5148,11 @@
       <c r="A60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="98" t="s">
+      <c r="B60" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="100"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="109"/>
       <c r="E60" s="34">
         <f>E58-E53</f>
         <v>67233600</v>
@@ -5162,11 +5161,11 @@
       <c r="G60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="98" t="s">
+      <c r="H60" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="99"/>
-      <c r="J60" s="100"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="109"/>
       <c r="K60" s="34">
         <f>K58-K53</f>
         <v>-362756160</v>
@@ -5175,11 +5174,11 @@
       <c r="M60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="N60" s="98" t="s">
+      <c r="N60" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="O60" s="99"/>
-      <c r="P60" s="100"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="109"/>
       <c r="Q60" s="34">
         <f>Q58-Q53</f>
         <v>4940320</v>
@@ -5188,11 +5187,11 @@
       <c r="S60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="T60" s="98" t="s">
+      <c r="T60" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="U60" s="99"/>
-      <c r="V60" s="100"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="109"/>
       <c r="W60" s="34">
         <f>W58-W53</f>
         <v>145916800</v>
@@ -5201,11 +5200,11 @@
       <c r="Y60" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Z60" s="98" t="s">
+      <c r="Z60" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="AA60" s="99"/>
-      <c r="AB60" s="100"/>
+      <c r="AA60" s="108"/>
+      <c r="AB60" s="109"/>
       <c r="AC60" s="34">
         <f>AC58-AC53</f>
         <v>143123520</v>
@@ -5215,11 +5214,11 @@
       <c r="A61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="100"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="109"/>
       <c r="E61" s="33">
         <f>E60/E13</f>
         <v>7.4870795494406978E-2</v>
@@ -5228,11 +5227,11 @@
       <c r="G61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="98" t="s">
+      <c r="H61" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="99"/>
-      <c r="J61" s="100"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="109"/>
       <c r="K61" s="33">
         <f>K60/K13</f>
         <v>-0.19673427196539489</v>
@@ -5241,11 +5240,11 @@
       <c r="M61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N61" s="98" t="s">
+      <c r="N61" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="O61" s="99"/>
-      <c r="P61" s="100"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="109"/>
       <c r="Q61" s="33">
         <f>Q60/Q13</f>
         <v>1.3203134980215288E-3</v>
@@ -5254,11 +5253,11 @@
       <c r="S61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="T61" s="98" t="s">
+      <c r="T61" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="U61" s="99"/>
-      <c r="V61" s="100"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="109"/>
       <c r="W61" s="33">
         <f>W60/W13</f>
         <v>3.3607614207819929E-2</v>
@@ -5267,11 +5266,11 @@
       <c r="Y61" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Z61" s="98" t="s">
+      <c r="Z61" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AA61" s="99"/>
-      <c r="AB61" s="100"/>
+      <c r="AA61" s="108"/>
+      <c r="AB61" s="109"/>
       <c r="AC61" s="33">
         <f>AC60/AC13</f>
         <v>2.3037371872659518E-2</v>
@@ -5347,11 +5346,11 @@
       <c r="A63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="98" t="s">
+      <c r="B63" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="100"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="109"/>
       <c r="E63" s="33">
         <f>E60/(Variables!$B$5+E47)</f>
         <v>5.3943964825572066E-2</v>
@@ -5360,11 +5359,11 @@
       <c r="G63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="H63" s="98" t="s">
+      <c r="H63" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="99"/>
-      <c r="J63" s="100"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="109"/>
       <c r="K63" s="33">
         <f>K60/(K47)</f>
         <v>-0.98955808218580188</v>
@@ -5373,11 +5372,11 @@
       <c r="M63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="N63" s="98" t="s">
+      <c r="N63" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="O63" s="99"/>
-      <c r="P63" s="100"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="109"/>
       <c r="Q63" s="33">
         <f>Q60/(Q47)</f>
         <v>1.2349812015038797E-2</v>
@@ -5386,11 +5385,11 @@
       <c r="S63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="98" t="s">
+      <c r="T63" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="99"/>
-      <c r="V63" s="100"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="109"/>
       <c r="W63" s="33">
         <f>W60/(W47)</f>
         <v>0.21493754419043129</v>
@@ -5399,11 +5398,11 @@
       <c r="Y63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="Z63" s="98" t="s">
+      <c r="Z63" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="100"/>
+      <c r="AA63" s="108"/>
+      <c r="AB63" s="109"/>
       <c r="AC63" s="33">
         <f>AC60/(AC47)</f>
         <v>0.13113130032287265</v>
@@ -5411,33 +5410,33 @@
     </row>
     <row r="64" spans="1:29" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="100"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="109"/>
       <c r="E64" s="27"/>
       <c r="F64" s="32"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="98"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="100"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="109"/>
       <c r="K64" s="27"/>
       <c r="L64" s="32"/>
       <c r="M64" s="31"/>
-      <c r="N64" s="98"/>
-      <c r="O64" s="99"/>
-      <c r="P64" s="100"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="109"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="32"/>
       <c r="S64" s="31"/>
-      <c r="T64" s="98"/>
-      <c r="U64" s="99"/>
-      <c r="V64" s="100"/>
+      <c r="T64" s="107"/>
+      <c r="U64" s="108"/>
+      <c r="V64" s="109"/>
       <c r="W64" s="27"/>
       <c r="X64" s="32"/>
       <c r="Y64" s="31"/>
-      <c r="Z64" s="98"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="100"/>
+      <c r="Z64" s="107"/>
+      <c r="AA64" s="108"/>
+      <c r="AB64" s="109"/>
       <c r="AC64" s="27"/>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -5448,6 +5447,168 @@
     </row>
   </sheetData>
   <mergeCells count="186">
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="Z42:AA43"/>
+    <mergeCell ref="Y45:AB45"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="Z15:Z40"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AA22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="Z5:Z9"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="Y15:Y44"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA24:AA39"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="S55:W55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T58:V58"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="T51:V51"/>
+    <mergeCell ref="T52:V52"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S49:S52"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="S47:V47"/>
+    <mergeCell ref="S15:S44"/>
+    <mergeCell ref="T15:T40"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:U22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U24:U39"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="M49:M52"/>
+    <mergeCell ref="M15:M44"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="N15:N40"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:O22"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="O24:O39"/>
+    <mergeCell ref="I24:I39"/>
+    <mergeCell ref="C24:C39"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="A15:A44"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G15:G44"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:B9"/>
     <mergeCell ref="S13:V13"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="M5:M12"/>
@@ -5472,168 +5633,6 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G15:G44"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="A15:A44"/>
-    <mergeCell ref="B15:B40"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="N15:N40"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:O22"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="O24:O39"/>
-    <mergeCell ref="I24:I39"/>
-    <mergeCell ref="C24:C39"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N42:O43"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="M49:M52"/>
-    <mergeCell ref="M15:M44"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="S49:S52"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="S47:V47"/>
-    <mergeCell ref="S15:S44"/>
-    <mergeCell ref="T15:T40"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:U22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="T42:U43"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="U24:U39"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="S55:W55"/>
-    <mergeCell ref="T56:V56"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T58:V58"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="T51:V51"/>
-    <mergeCell ref="T52:V52"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="Z15:Z40"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AA22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="Y5:Y12"/>
-    <mergeCell ref="Z5:Z9"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="Y15:Y44"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA24:AA39"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Y55:AC55"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="Z42:AA43"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="Y47:AB47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5755,105 +5754,105 @@
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="121"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="121"/>
+      <c r="G5" s="131"/>
       <c r="H5" s="7"/>
       <c r="I5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="121"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="7"/>
       <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="121" t="s">
+      <c r="N5" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="121"/>
+      <c r="O5" s="131"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="121" t="s">
+      <c r="R5" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="121"/>
+      <c r="S5" s="131"/>
       <c r="T5" s="7"/>
       <c r="U5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="121" t="s">
+      <c r="V5" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="121"/>
+      <c r="W5" s="131"/>
     </row>
     <row r="6" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="122">
+      <c r="B6" s="130">
         <f>C13-C20</f>
         <v>500000000</v>
       </c>
-      <c r="C6" s="122"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="3"/>
       <c r="E6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="122">
+      <c r="F6" s="130">
         <f>(B6*(1-Variables!B24))+G25</f>
         <v>721360000</v>
       </c>
-      <c r="G6" s="122"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="3"/>
       <c r="I6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="130">
         <f>(F6*(1-Variables!B24))+K25</f>
         <v>350516000</v>
       </c>
-      <c r="K6" s="122"/>
+      <c r="K6" s="130"/>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="122">
+      <c r="N6" s="130">
         <f>(J6*(1-Variables!B24))+O25</f>
         <v>411438200</v>
       </c>
-      <c r="O6" s="122"/>
+      <c r="O6" s="130"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="122">
+      <c r="R6" s="130">
         <f>(N6*(1-Variables!B24))+S25</f>
         <v>624714290</v>
       </c>
-      <c r="S6" s="122"/>
+      <c r="S6" s="130"/>
       <c r="T6" s="3"/>
       <c r="U6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="122">
+      <c r="V6" s="130">
         <f>(R6*(1-Variables!B24))+W25</f>
         <v>1006050575.5</v>
       </c>
-      <c r="W6" s="122"/>
+      <c r="W6" s="130"/>
     </row>
     <row r="7" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -5881,7 +5880,7 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="132" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5891,7 +5890,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="132" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -5901,7 +5900,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="132" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -5911,7 +5910,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="123" t="s">
+      <c r="M8" s="132" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5921,7 +5920,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="123" t="s">
+      <c r="Q8" s="132" t="s">
         <v>71</v>
       </c>
       <c r="R8" s="10" t="s">
@@ -5931,7 +5930,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="123" t="s">
+      <c r="U8" s="132" t="s">
         <v>72</v>
       </c>
       <c r="V8" s="10" t="s">
@@ -5942,7 +5941,7 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="124"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="12" t="s">
         <v>97</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>500000000</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="124"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
@@ -5960,13 +5959,13 @@
         <v>246360000</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="124"/>
+      <c r="I9" s="133"/>
       <c r="J9" s="12"/>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="124"/>
+      <c r="M9" s="133"/>
       <c r="N9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5975,7 +5974,7 @@
         <v>168448000</v>
       </c>
       <c r="P9" s="8"/>
-      <c r="Q9" s="124"/>
+      <c r="Q9" s="133"/>
       <c r="R9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5984,7 +5983,7 @@
         <v>278848000</v>
       </c>
       <c r="T9" s="8"/>
-      <c r="U9" s="124"/>
+      <c r="U9" s="133"/>
       <c r="V9" s="12" t="s">
         <v>5</v>
       </c>
@@ -5992,84 +5991,84 @@
         <f>'Ingresos &amp; egresos'!AC13-'Ingresos &amp; egresos'!AC45</f>
         <v>412572000</v>
       </c>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="127"/>
-      <c r="AC9" s="127"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="124"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="12"/>
       <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="124"/>
+      <c r="E10" s="133"/>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="124"/>
+      <c r="I10" s="133"/>
       <c r="J10" s="12"/>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="124"/>
+      <c r="M10" s="133"/>
       <c r="N10" s="12"/>
       <c r="O10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="8"/>
-      <c r="Q10" s="124"/>
+      <c r="Q10" s="133"/>
       <c r="R10" s="12"/>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="8"/>
-      <c r="U10" s="124"/>
+      <c r="U10" s="133"/>
       <c r="V10" s="12"/>
       <c r="W10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="129"/>
-      <c r="AA10" s="129"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="124"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="12"/>
       <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="124"/>
+      <c r="E11" s="133"/>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="124"/>
+      <c r="I11" s="133"/>
       <c r="J11" s="12"/>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="124"/>
+      <c r="M11" s="133"/>
       <c r="N11" s="12"/>
       <c r="O11" s="5">
         <v>0</v>
       </c>
       <c r="P11" s="8"/>
-      <c r="Q11" s="124"/>
+      <c r="Q11" s="133"/>
       <c r="R11" s="12"/>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="8"/>
-      <c r="U11" s="124"/>
+      <c r="U11" s="133"/>
       <c r="V11" s="12"/>
       <c r="W11" s="5">
         <v>0</v>
@@ -6080,37 +6079,37 @@
       <c r="AC11" s="86"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="125"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="12"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="125"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="12"/>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="125"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="12"/>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="8"/>
-      <c r="M12" s="125"/>
+      <c r="M12" s="134"/>
       <c r="N12" s="12"/>
       <c r="O12" s="5">
         <v>0</v>
       </c>
       <c r="P12" s="8"/>
-      <c r="Q12" s="125"/>
+      <c r="Q12" s="134"/>
       <c r="R12" s="12"/>
       <c r="S12" s="5">
         <v>0</v>
       </c>
       <c r="T12" s="8"/>
-      <c r="U12" s="125"/>
+      <c r="U12" s="134"/>
       <c r="V12" s="12"/>
       <c r="W12" s="5">
         <v>0</v>
@@ -6196,7 +6195,7 @@
       <c r="AC14" s="86"/>
     </row>
     <row r="15" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="132" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -6206,7 +6205,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="132" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6216,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="123" t="s">
+      <c r="I15" s="132" t="s">
         <v>75</v>
       </c>
       <c r="J15" s="10" t="s">
@@ -6226,7 +6225,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="123" t="s">
+      <c r="M15" s="132" t="s">
         <v>76</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -6236,7 +6235,7 @@
         <v>11</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="123" t="s">
+      <c r="Q15" s="132" t="s">
         <v>77</v>
       </c>
       <c r="R15" s="10" t="s">
@@ -6246,7 +6245,7 @@
         <v>11</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="123" t="s">
+      <c r="U15" s="132" t="s">
         <v>78</v>
       </c>
       <c r="V15" s="10" t="s">
@@ -6260,19 +6259,19 @@
       <c r="AC15" s="86"/>
     </row>
     <row r="16" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="124"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="12"/>
       <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="124"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="124"/>
+      <c r="I16" s="133"/>
       <c r="J16" s="12" t="s">
         <v>178</v>
       </c>
@@ -6281,7 +6280,7 @@
         <v>135000000</v>
       </c>
       <c r="L16" s="8"/>
-      <c r="M16" s="124"/>
+      <c r="M16" s="133"/>
       <c r="N16" s="12" t="s">
         <v>178</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>90000000</v>
       </c>
       <c r="P16" s="8"/>
-      <c r="Q16" s="124"/>
+      <c r="Q16" s="133"/>
       <c r="R16" s="12" t="s">
         <v>178</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>45000000</v>
       </c>
       <c r="T16" s="8"/>
-      <c r="U16" s="124"/>
+      <c r="U16" s="133"/>
       <c r="V16" s="12"/>
       <c r="W16" s="5">
         <v>0</v>
@@ -6309,19 +6308,19 @@
       <c r="AC16" s="86"/>
     </row>
     <row r="17" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="124"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="12"/>
       <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="124"/>
+      <c r="E17" s="133"/>
       <c r="F17" s="12"/>
       <c r="G17" s="5">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="124"/>
+      <c r="I17" s="133"/>
       <c r="J17" s="12" t="s">
         <v>5</v>
       </c>
@@ -6330,60 +6329,60 @@
         <v>199776000</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="124"/>
+      <c r="M17" s="133"/>
       <c r="N17" s="12"/>
       <c r="O17" s="5">
         <v>0</v>
       </c>
       <c r="P17" s="8"/>
-      <c r="Q17" s="124"/>
+      <c r="Q17" s="133"/>
       <c r="R17" s="12"/>
       <c r="S17" s="5">
         <v>0</v>
       </c>
       <c r="T17" s="8"/>
-      <c r="U17" s="124"/>
+      <c r="U17" s="133"/>
       <c r="V17" s="12"/>
       <c r="W17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="129"/>
-      <c r="AC17" s="129"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
     </row>
     <row r="18" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="124"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="12"/>
       <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="133"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="124"/>
+      <c r="I18" s="133"/>
       <c r="J18" s="12"/>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="124"/>
+      <c r="M18" s="133"/>
       <c r="N18" s="12"/>
       <c r="O18" s="5">
         <v>0</v>
       </c>
       <c r="P18" s="8"/>
-      <c r="Q18" s="124"/>
+      <c r="Q18" s="133"/>
       <c r="R18" s="12"/>
       <c r="S18" s="5">
         <v>0</v>
       </c>
       <c r="T18" s="8"/>
-      <c r="U18" s="124"/>
+      <c r="U18" s="133"/>
       <c r="V18" s="12"/>
       <c r="W18" s="5">
         <v>0</v>
@@ -6394,37 +6393,37 @@
       <c r="AC18" s="86"/>
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="125"/>
+      <c r="A19" s="134"/>
       <c r="B19" s="12"/>
       <c r="C19" s="5">
         <v>0</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="125"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="125"/>
+      <c r="I19" s="134"/>
       <c r="J19" s="12"/>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="8"/>
-      <c r="M19" s="125"/>
+      <c r="M19" s="134"/>
       <c r="N19" s="12"/>
       <c r="O19" s="5">
         <v>0</v>
       </c>
       <c r="P19" s="8"/>
-      <c r="Q19" s="125"/>
+      <c r="Q19" s="134"/>
       <c r="R19" s="12"/>
       <c r="S19" s="5">
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
-      <c r="U19" s="125"/>
+      <c r="U19" s="134"/>
       <c r="V19" s="12"/>
       <c r="W19" s="5">
         <v>0</v>
@@ -6509,43 +6508,43 @@
       <c r="AC21" s="86"/>
     </row>
     <row r="22" spans="1:29" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="16"/>
-      <c r="I22" s="126" t="s">
+      <c r="I22" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="126" t="s">
+      <c r="M22" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="126" t="s">
+      <c r="Q22" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="R22" s="126"/>
-      <c r="S22" s="126"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
       <c r="T22" s="16"/>
-      <c r="U22" s="126" t="s">
+      <c r="U22" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
+      <c r="V22" s="129"/>
+      <c r="W22" s="129"/>
+      <c r="AB22" s="126"/>
+      <c r="AC22" s="126"/>
     </row>
     <row r="23" spans="1:29" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
@@ -6801,11 +6800,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="Q8:Q12"/>
+    <mergeCell ref="Q15:Q19"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="U8:U12"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="B6:C6"/>
@@ -6822,21 +6831,11 @@
     <mergeCell ref="M8:M12"/>
     <mergeCell ref="M15:M19"/>
     <mergeCell ref="M22:O22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="U8:U12"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Q8:Q12"/>
-    <mergeCell ref="Q15:Q19"/>
-    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6846,7 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0392CCCE-62B9-4FB8-80AC-754304578927}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6857,18 +6856,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="138" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="96" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6877,7 +6876,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="136"/>
-      <c r="D6" s="135">
+      <c r="D6" s="97">
         <f>Variables!B28*4</f>
         <v>200000000</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>185</v>
       </c>
       <c r="C7" s="136"/>
-      <c r="D7" s="135">
+      <c r="D7" s="97">
         <f>Variables!B31</f>
         <v>50000000</v>
       </c>
@@ -6897,7 +6896,7 @@
         <v>189</v>
       </c>
       <c r="C8" s="136"/>
-      <c r="D8" s="135">
+      <c r="D8" s="97">
         <f>'Ingresos &amp; egresos'!Q36*4</f>
         <v>720000000</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>186</v>
       </c>
       <c r="C9" s="136"/>
-      <c r="D9" s="135">
+      <c r="D9" s="97">
         <f>Variables!B33*4</f>
         <v>60000000</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>187</v>
       </c>
       <c r="C10" s="136"/>
-      <c r="D10" s="135">
+      <c r="D10" s="97">
         <f>Variables!B32*4</f>
         <v>40000000</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>184</v>
       </c>
       <c r="C11" s="136"/>
-      <c r="D11" s="135">
+      <c r="D11" s="97">
         <f>SUM('Ingresos &amp; egresos'!AC24:AC31)</f>
         <v>1270200000</v>
       </c>
@@ -6937,57 +6936,50 @@
         <v>190</v>
       </c>
       <c r="C12" s="136"/>
-      <c r="D12" s="135">
+      <c r="D12" s="97">
         <f>'Ingresos &amp; egresos'!AC33-Variables!B47</f>
         <v>219000000</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="135">
+      <c r="C13" s="135"/>
+      <c r="D13" s="97">
         <f>SUM(D8:D12)</f>
         <v>2309200000</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="137"/>
+      <c r="D14" s="98"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="138"/>
-      <c r="C15" s="138" t="s">
+      <c r="C15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="137">
+      <c r="D15" s="98">
         <f>Variables!B5</f>
         <v>500000000</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="138"/>
-      <c r="C16" s="138" t="s">
+      <c r="C16" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="137">
+      <c r="D16" s="98">
         <f>Balance!V6</f>
         <v>1006050575.5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="138"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="137"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="138"/>
-      <c r="C18" s="138" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="98"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="139">
+      <c r="D18" s="99">
         <f>(D16-D15)/D13</f>
         <v>0.21914540771695826</v>
       </c>
